--- a/mergedTEST.xlsx
+++ b/mergedTEST.xlsx
@@ -631,40 +631,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alex Carey</t>
+          <t>Gulbadin Naib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>65.5</v>
+        <v>80.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -743,12 +743,12 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Wicketkeeper Batter</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVEhgREhIYGRgZGBgSGBoYEhgYFBgYGRoZGRoYGBkcIS4lHB4rHxgZJjgmKy8xNTU1HCU7QDs0Py40NTEBDAwMEA8QHhISHzErJCw2Njc0NTQ+NDQ0NDQ0NzQxNDY0NDQ3NDQ0NDQ0NDU0NDQ0NDQ0ND00NDQ0NDQ0NDQ0Mf/AABEIARMAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABDEAACAQIEAggDBAcHAwUAAAABAgADEQQSITEFQRMiMlFhcYGRBqHBQpKx0QcUI1JygvAVM0NistLhk6LCFhdjg/H/xAAaAQACAwEBAAAAAAAAAAAAAAAAAwECBAUG/8QAMREAAgIBAgUCBQIGAwAAAAAAAAECEQMEIQUSMUFRYXETIjKBoRQzkbHB0eHwI0JD/9oADAMBAAIRAxEAPwD0eEWEYQJCLCACRIsIAJCLCADSIRYQASNjoQAbCEdABsSLCACQIixJKASJHGJABsaRHxIAMhFtFgBahFhIASEWEAEhCEAEhFhABDKmPx1OjTNSq4RRzPM8gBzPhLZnk36TuI1v1tKHSWRVFRFAFwSLZr956wF9rSJOkSlZa4l+kaotQ9GiFL9WwbOTfTNfTa+gHMazOX9KGLzAtSp2/ds45a3a/rtOKqIGXNqDvfU37tfExrLlWxIv5AAXt7xfMy/KdpV/SRiXdSVCDq5lFihGZtm7Q6rC/io0nqfCuJUq9MPSqK4sLlSDY22NtjPnewsLi3j4eU7v9E+JtiqlIi16Bbzyumh8sxt5mWjLcho9bhGiOlyg2EdCSgGQIixIAJEjiIkAGwiwgBZhCLaQAkIsIAJCLEMAEhFhABpnk3xRTWrxlwwuESmuu392r7fzz1oieS8YYDiuKqXuLoBYXJORFI90I9IvM/lGYlckdBh+G0WpgNTUj+ESpW+EsKzZggA3ty9I7B8dog9GwKnxBt77S/ieMUkW59P+JjVo27M5DivwzRW+QlT4a/KV/wBHN6fFFQntU6ieegfT7o9jNXGcWpvdlVrag6WPtMz4ZVV4tScmyam/K7qUX3ZhG4m1LcTlimvlPZRHQAhNhkEtFhCACRsdaEAGmIYsDABhhHEQgBYhCEgAhCF4AESEIAEUCJAGAC2nm1bBA4ipTcfaZb2sTdib38yZ6TOO+KqGSurrfrqSe66WGndoRE518tj8DqVPuZB4FTUklFsAANDy23Onj3x+PpUytNSAQBbwlfE4w5wHezm2Tnp3gczK+KauVGeoAqbFafWblqbWGky7vc2/Kl0L2J+H6bDOQoAAtZLNoLC2thylPhmDVsRZRrmproNO01rnfTf3jcFinNNipOQeeh2sL8jOh+BsErNUrtcsrCmvcDluT52b5y8E3KhWRqKtHZGEW0JuMA2FosIANgRHRIANtCLEIgA0xI+EAJYGEQyACEIQAIRBFgAQhFEACYfxbTQ0M5YKyHMlyBmvoyDvJGvpNyebfHtdnxWGUE5WzEDlobE/KIz5FFKPdjMUW5bDsM6utjy/oSxWao6lGJyeJYgeQJmO9J0OdD42lbEccrapl300XT3mVSpG266lrH4oIopqRYdY/S/vO7+D6Krg0IOr3qN33Y/kAPSea4bCu/Xe9t/En8p03wViij1AXYqqJcE3VQWINhytf5SI51jkm1t/IVki5RO/haEJ0zGJCLCADYR1oWgAyJHQgA0iEWEAHXhCEgAhEiwAIRIEyspKKuTpEixr1Au5ldqjnTRfmZGKdjqbnx3nLz8VhHbGrf4GxxN9RMVi20VRbMbXO9rEkgfL1mF8TcLz06dZRdqLE2tqUa2YfK/pNXFVFFVMzBQEckkgC+amB9ZXxHGWUqEwtV0JCu9lRVW9iyhusxA5WAPfOZLUZsuRSf8AZDY1DoZaYUOu2hF/SR/2eg+xc+UTH8YoYaqKZ0RlDhuSkkgixAItYG3K80KFdGAYdYHUEbETpQdxT8joyjJtIzq+GAXKBr+c0+CcLCUHc7uf+0EAD5E+stYfAq16tQgINTc2vbmSdhI8Zx1AgXC02xGV1VxSZQFSx1VmsrHQDKDz5WmLUScvkh/giclRNw3Huo6NhmC2trZspvbz2M1aWKRtAbHuIsZzWFxiNUVsroSSjI9NkYZyLHUWaxAGhIsxPKb60Rz8oY+IZsKSluvUzvHGXQuR0ppQt2SR5GWr2OU+njOppeIwzvlapi5Y3HcIR0J0RY20S0WKRABkItoQAIQhIASLEiwAQxlJ76nn/wDsbiW0A7yF94i+Hff3uv0E4vE826xr3Y7FHuTtRvqJCyEdoflLQNxp3XjXzEEWGoIvecdwTH2cpxfjq03VaVLpWBIZgNEHWuAe/qP4DLrN7BYhKqZkDEXswK2KtocrA89R7zmsdh8pw6NTAyAU61qtJVKqrJ1czgkkVHa1r69+k6fh1Bsz1tB0jKwAIICqgVTcaEkC+neByj8mKCgqW/kUpNyY6pgqbqUekpU96AzgvhbDVExL0GN6dImmw3tlOVAthclgLW8L6z0wA98p4LBqrO9hd6judNz2b+yiWw5nihJdb6egSTck06orNhjUBD07JsFJ1I8QNAPUn8JJRwNNBZVCjwFppETCx+MqviRhaIy2RqzvfQi2XINNDd0b0ERHE5urGSlRf6MCSIkwHqA1ClEs1QAuoYMpYrYsNdDa2U32LWO4mpwfi1PEK2VXRkbI6OuVlPfa5BB8D3y2TTSh6lFkTL+X85FivsHnv8xJWG/fY/ORYlrkActB9630kRfI9iz3JVNxeLGYc6HwZh85IRPWYpc8Iy8oyNU6GwtHWiRgDbRI6EAGQhCQAkIQgBm8YrOqg06bNldGvcBTckMNLsLCxva2o10MTC43OGJUr1mWxt2T1kb1Fj6zRdMyNpexvbv8JTqU/sk8rhgNWTSzeLLp6Ty+uyXkla7mqC2QlDHA/swSCOqdNgDbTxtb3EtVkFSmUVitxoyswN+RupBIv4i85H4oNSjTOIpHVesy7qwG6+CsNjy07pvcD4ktWmlRdnUML7jwPiDcekTGMlBT9S0mroVfh0kEPWuTrfo9QxIubljfQEa980cBwwUyWLlzawuLZRrfS/PT2k1XFoiZ3awvbmdT5SHEcXpJ0uYn9ki1HsNMr3sV117Jj/8AkmvRi3US/lgE5A9595k4njqK4QIzZmampFrM6oXyb6HKDGNxtgM36tUvnFMAFCSxv1RruLfOC08/BDyR8m3aZ2M4fUZg1OrksOz0SMt/3tRcHy7pKeIAURWyN3ZNMwOoI3tyMsLiFL5AdcnSeGUm0ssUob0Spq9jH/szEIzVKdVGdu1mpBc2n7ym/KWuHpUWnaoiK9zcIxZeQBBbXYDeOHGKBSm/SACq3R07ggu9yMoHmDFxNTSUyyk9mv8AUWUrXYgxWMy9Udo3C6XF+/8ArnaOpXLXOtrDzyC7fMzA4di+mxdUZw2RaaqAdEJDZ7kc7j0t4ToqY0052RfLcn1mWaanT9CyaaEwFUMai80fIfMojf8AlLcrYPCKjVGW96j9I1z9oIifgglqer0jTwxrwZJfUxIhjo2aCBIRTCAEMSEDIALwiXiXgBEcQ6VNVBQjcdoHvI7pO1K4sD/8iHu7x5a/OVHJ6QkagKAV5HU39dpKVsLo11vquzA+B5GeX1m+aXuaofSjG+JUL0XRV62VrKSBc2OgvpvymL8M18lNKSAgKgKDmQd795ufnLvxYj9A7UXZnJVUzWL5mIWw9Cb32teZnw62Q0suvVCC+puVyj52jtLh59PNv7e6E5snLNG18Q4kCihcNlWrSzhFLPZnC2VRqT1uXOYjY5XWoHexfAVcO2fqE1MMzDUHZirq1p2Iwq9H1xchkcakddGDpt3MAfSPXhOHa4qUUclulbOga7kAZtedgIrFqIwgoyT6lp4nJ2jE4dxBFxadG7XqNTo1qTW0foVcVkG4XLYE6aiTYgFqRVGNM/2jlDCxIJe17HlrtOlo4SnnNXo0z2y58i57d2a17eEl6FLWyL2s/ZHa3zefjLrUx2dePwR8J7ps5HH1sQFo4ekhqsExDPZ1Rmt+zWpdjbtOWtG8A4wDURqjqD+o0bXYAs+ZwwF9zdNp2IpqDmCgG1rgAG172v56zPq8JwxZWOHp5l7LdGgZdSeqbXGpO3fLS1cWmmivwZXaZxFGspqYPDtfNSSgR1GK9K4FerdgLBgqINTqHaa/xZxcUcM7EkMytTS2+cqcpHlv6TaHDKSiypaz9Nox1fKUubnbKbW2nC/pMr2WnRAuTmqn0GRR63b2EMbWfNFLoS04RbZL+ipaf6ozAdcuVdibkgbDw6pH3jPRaI1ueQ+Z1P0E8/8AgOmtGri8IRZqdfNlsewVUKfleehIOrbyX1O/4xGri1qZWNx/QhU8Y+I5sAfE+1zHGdnhkrxOPh/zE5FvY2JHRJ0Sg0whCAFeEIhkALEiGF5AEVOqnSFbG9hdrdW/cfG0tFD9m35+BkQQZcwUtfXqkWJleu99Cp8QLq3mJ5LUTUsja7tmyK2KnE6a2ZwrhkHSXUXF11F+/Tv5aGc5w2iErJTtbK9td7Bjlv5gA+s6OhRLVAenfLYlkJ0cbdYMDoLjVbX0nO9JfGMAwJ6a9xt2hp6DT0M6ugi44JNvrdGPU05L3R2SdZh3DX2lqjsT3m/tK9IWXz0lm1hb0nF6uzaSp2Y5Y1jYARyy3cgU7SOoNJIdoxhCXQEQsOc86+LqC1OKYWk3ZboVPk1ZgflPRjtOC4ql+OYXS/VQ/daqb/KbuGO8v2Eaj6fub2Kw1OnxNqumevRQ2treixDMfMOg/lm/QOg8Lt67fjMrjlJBiMPXZrG1ShrsQyipe/K3RH3M0MLVDLobL3nS/l4SOIrl1LflIviVwJ6pbqqtrAgMT8wPzksY9QWsuumnL5DWKhuAfpab+GSu4+zF5F0FMbHERCJ1hY2EWEAKsQmBjTIACYx2NtPnFMY509vxlMrrHJ+jJXUuIhtew8wSp/5lfEM17dU9we6n0YaH2l2mdJFiF755GUe5rTMrDnNWdjSKFAKebMCGzWc211Fsmp8pl/2av6+Sostumbuub7ebW+cv8IXqu9+3VqEa6BVbIoXuFkBt4y9RKMSRYnsk+AJIHzM7GaSwYIru01/Ez8vO79bLNMXI8NZMouR7yriHK0ncaG1wfD1mKvE62/SH7q/lOXiwymrXke3R0rG5kwnKUuIVydHP3V/KSNxKuNS57+wv5Rq0s+tohyR1EZOPx3H6yISHN7aXVQNduU59/ibHHauR5U0+qy36WbXVApHpZEw/7MvxJcSdhQKDwZX1P3X+ZnDVfirGjfFEf/XS/wBk1MFx7EvlPTZmC3JCJcDS50XyjNPp8mKXMmiJ00dvxrBdJTUgKWR1qJmXNYi6mw78rNY62jsJhz9tte6+vqfoLCcvV4jXemyPUuCNiqbjUbDvAkLcYrU1tTqZfJE/KauIad5MkZLwUxy5YtHoAQAWAA8pEm3vPL8T8W44bYg/9On/ALJawvxNiimY1jzPYTz/AHY3R4njnb8FZO0ejmIZ5hU+L8WXypWsBz6NLn/tmtw/j+JftVb/AMifRZ0+YWdvCcnV4riBtUP3U/KELA6GNMGMYTABCYxz+I/GKTGVNvUfjE5/2pezLR6mnR2EKwiYc6CFdp5XuakZWGXqWGnWf3zsZeoYfQC1hubfgJmYAZ6KXNs6Br8xn6wPzl7BvVpgLU1XbNzHdedDiO0op9KKYlsyTin90/l9RMzg6q2a6BjdALpcG9+qSVIUHTXwlniGJvTfytMXhwzZ76lStlVwhKnNdrm9wLAW8ZTSSTuiJo28M9Jch6gYdo5hcPlcPcAbXI3NtrQpFHKBwhUI2bKo6pRix22BAt/MZUXhy2JFVdCVtYXNhfTXnsO+PxeBpqrFHJtfS4Nx199R+4J0U3XRCzN4k6ZVIVNc5YGmpF+j6g1H78wcRiKWRhmTMyMGFlUh+hULYZLkl76gqAQSTrOrr8OpumlTrZUIF10Y5c972FrPpqOfdMJ/hqgXGeuSSwzZQgU/tcjWJJtZSDsdxCKYWUsZQpoWGVD13VGNNKYDZk/Z9emQwCBrMQb5mF7kXGemaZ6MonWICp9pSzkg3QONCu5sQF0FtHJ8NKcjHGJrbKGXVQaeezdY5SF+z3211k9Hgq3dBUDMr0kLAgIEdWLMeZCnKL375LvwBYwt8pv3TIxjzq6XClVSDWQgaHSx2B0F9+so9TvaY+L4VTFQI1YZWV2A2fqq5AvYjdRqbXvpeNypy5WQu5x2KeKmJy0CfG3zP/E2sfwmkC+Sm75cnRgYuinTqxs1RSUORVFjbXtjUZTOSd6jUwgUAdq/jy+X4yccWpWDLGGq63M6ThdfacVS6QGxNp0PCFbcnw3M0oqdotmEJBg7gawkkHXsZGxj2MiYyQEjamxjjEI0lJrmi0Supcw+W23tm+gkHFCwpOUzEhGsCLgmxte+u8qpx3CUxlqVkDbWzs59twfAyHF8bwlYCnTxClmdAqrcMbOpO4F9AfS881HT5HNbOr8eo9zVdSdkCU8oNgq2B7go/IRuHwQqqGTE5xuASdPS8lqJmBT97qfe0+ss/qaAKhRRlAVSVBBtpa41Bmzi0Yvlvr/QjFJq12IqnCGKFc41Ftb2mZU4QiavXpL5vb6TTqcOo7OjeNncqfS8jTg2Avfoqd/8ygn5zmYZrHsvyNaT6mJUxWHU2GJpMe5WLH2AkD4tz/dUKj+SMo92AnZUsDSXsKi/wi34ScJyuP69I/8AU5OxFR8Hn7YyrtUwtRB/BmHymagpk9eqifxI6n/TPUmw99z/AF7SCrhaB7aqf5bmT+oyd9gqL7HnYw2H7QxVEnbQuT7ZZPQw1O4/aD/p1bf6J3lDBUhqlFR4lQv0vLORQbWBPgNBJ+Plq+xFQXZnJcP4e1ZWyMLKctyrgXuQRqNxb5iVm+EKr5slSmLEqQS+hB/hnbU6AUsw+2QzeLABb+wUekfhwATpbU2PeCSfxJnQlkfwYOL77iq3Z5vX/R1WOr1aWXcjr3/0yMfo6xJAIrUrb657/wCmemYs9Xe3LTfyHjHAaR2jlKcmn2orLajzL/24xHOrRPq/+2auC+CqiKBnp377vv6rO5iToUihyq/DlUf4ie7flCdVaEKAyGMjaSNI2gA0mAiQgB59wrCKleoFH+I48bBjuZq4WiDjKZIBALMNNiFMqCnkxdVRtnY/e631m3haY6RKh5Xt6qR9Zz//AE38nQavHt4OmwKAvcjs9b1NwPrLzqGuPcSphXsmm51/r0l2wYXB1nJ1mX4uV122/gIjHlRBnZdG1HzHnFYqw7IMmz8mH5RDRU6jTymPlb6MtZUIUciserefvJcjjuYfOAQd1pCi0S2NCA9ppIpReyNYgoA7yRVVZeKa32XqRYC7bmw7hJFUbARuUnfQSOriFX7QA7yYxS5d3+erK1fQsEicbxDiONXFPTSoiILMlkDHKw+1fncNt4TeqY2mb2cE919faZWI1JY7m1/ymzS5nK1W39S8cKfUz/8A1Di0rJTqBHDuqZlGR1zMFvY6bGdxPP8AD0w2NoA/vlvVQWHzAnoE7GmjGm0hGaKjKkESLEmkUJCLCAGK0YTHNIyZACQhCAHEo+bGVv42HsbfSdBT0HWO+05rBnLiHY6Z6lUeoczZxtOq+VaWpBDG5stgRuT9JglG5M6cUowTZeXjvQutI0ncuOplF9QbEG+g3HvNqnjsRa4wtvA1UB/Kc3hmuynmDbXe/dOwwzXUTh6pLHkpIrNLwV14o4/vMNUXxsrr7qTJEx1Nuy1j3bH1BlrIvP8AGQ1sNTbtW9d5ntyFbEi4nyMmFUGUBhVXst845HtvGczSorRe38JC+JRdtT4Su75udhGolMbtI532JolLO2rHKO7nHoqjYXPed4iMnIXkpMU7bt9Sxl8UqDMuguATewvrylKjUV6ZYba/I2+kz+PY2oKVR6akuQwQd2lr28BGcFrIMIj3OUoj62JGZFJGnjed3T4+WCXfv9x8aVIiwoP9oULfv/8Ag1/leehTzzgF6uMpOotbPVN+SBSgPqWHvPQ50tOqiY9R9QkIsSPM4kIsIAYTmRtHvIzBgAMIkW8gDgviejkxTkG2YLiF/iGjgeeUn1nRcDrh7MDutvbWSce4OmJRbsVdCSjAXtfdWHNTYTjKWKxeAcLiaZNMEAVEuyDu630NjM8otSs2QmpQ5W9zYw/FaK4qth67lbVHZCL6i+bltvvO24MGWmqVGzMNyRYkXNrjvtaeccPw9CpxE4l2zrUIqJkF1B7NnG/02nqFNFvmE4fEppyUUvuSm3s+xI7Ux2ifYyu+JoD7LnyVjJKuKpr2j6SjW4xbSnRZvEjKPnMEUDJjiAexh3PibKPmZh8c470A6xRTe2XNc+8XGYrF1NLhB+6ly3qZz3GODs2GrM2rJ0TLfcXc5vlaacGNZJU/X8Feh0nCuJ1KiB1pK4PdUF/abFLFPzwhH8yH6ziuA8IVaaVBUqUywBzoerf/ADDb3nV4P9dUdXEUqo/zqUb1K3Hyi5qKfyss0a1LEsf8G3mwjsVnamwSyuVIUnUA20vIaWIr/boqfFKgP4gSyHuOzb1H0im2t7IRgpg6qo9SsyvUKlRZbKo5KB/V5zwZEp08IHUmxNSx2XtOR4bj1Es/HnGalL9mhygrfMQbXJN8veQOXjKHwV8KjEUxi61RijlhlDEVKmRipFRvspcHqrvpc8p2NBCUk5N22Mc1FWzp/gdM4q4rLYORTQ96pfbw1HqDOrjKSKqhVUKoAUAABQBsABsJJO1CPKqMMpc0mxIhikRJYqEIQgBgPIzMqhimIbNUIPVtdlA1YA3uLnQk6d0nSshYXqMqnNu6ZhYnKbZe62n9CrYF6EpGpTtc1m2JIBU2awOW9tbHML87r3GKKlO4BrMOsAbMrC2UXsQvedyPSFkllzGMARYgEHQgi4I7iJDhHLUwSbnXX1MlJkgYfCeFojvkUKqu5UAaLqR1e70nTUE0sSfeZnDu24/zt8zf6zWB5zyWpk3ld+Wao9B5QcgPaVK6W1J08JazRGcLuLiJLGatRNhe/wA5JicNmoVEG7I1vFrafOT1XU9lLc7yakLATq8Lxc0pS9KFZZVSMzgjBaeW110YfwsMw/GaS4ekdV6p9pRwyZCAORan6KSVH3ZoplO6zl5k4za9Rq3RIlEDnf1ktrbRqqBB2iyStjaaupDqGHiLyx8O4YJhkQbXcj+Z2P1kOJNlM0eHramg/wAo+es7PCF8zfoIzdi2IsQRZ3hAGJFMSACGEIQA58oO4e0YUHcPaLCQwEyDuHtEKDuHtCECSJ4yEIAVOH/3tTzH1mwu0ITyWp/el7s1x6CxTtCEQySsOfp9ZaWEJ3uE/tv3M+XqU6u7/wAaH5LLtGEJyNZ+9L3Y+P0omEBvEhMyLEGN7B8jNfDdhf4V/AQhO3wf/t9hGbsTrFhCdwQESEIAEIQgB//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRYVFhUYGBYaGhwcGRkaGRoaGhwaHBkaGh0cHB4eIS4lHB4rHx4YJzomKzAxNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzErJCs1NDQ9NDQ9NDQ0MTQ/NDQ1NjE0NjQ0NDQ0NDQ2NDQ0ND00NDQ0NDQ0NDE0NDU0NDU0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHAQj/xABAEAACAQIDBQUFBQYGAgMAAAABAgADEQQSIQUxQVFhBiJxgZETMqGxwQdCUtHwIzRicqKyFDOCktLhc/EVFsL/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEAQUG/8QALREAAwACAAUCBAUFAAAAAAAAAAECAxEEEiExQTJRBRMigTNhcaHBFUKRseH/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQBERAERImOxiUabVKjBUUXYn9aknS0AvVqqopZmCqN5YgAeZmq7W7f4WjcKWqtyQaep+k512s7UVMZWJW6UE9xTz4sw3Zj52+etu4N7kE+NvSVVb8FkyvJ05/tP5UABzL/LTWVYv7S6S0VIH7U+9poLcR1P5zkrsWNhoTu1+Eg1j8IXM+7D5V4OnYX7R64cFgCt9zC+nlu8vSdK2DtxMUgZdDa5W99LkXB4i4PXmBPm2jiL8PGbz2M27/h6lMu1kub/ysLH6HyE4m5fU60muh3GJapVAwDKQQQCCNxB3GXZcVCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAeTmP2vbSYeww4PdN6jgbzY5VvyHvfoTp04l9rOJLY0ge7Tpqh6NYvrz0dfSRrsdnuadWrtfKLacN8sEtYmw67vrKMM5J6895/6l7D4Oo/dVSRe+muv0kOiJrdPSIIci/WXUw7NrYzaNndi6r6vlReZ94+C8PE+k2nA7GSkAqgeYHxlNZkuxpjh2/Uc8pbGqKocrYHdf8pVnsug3G9t9p0fE0lcEEDymi7R2a6ucgJGu7x4zkZOZ6o7kwqFtHVPsu2gamHamSSKeW1yLjNe6joCLjxm9zjn2U4lkxOQWtURsw5Ze8D66ec7HNU9jHXcRESREREQBERAEREAREQBERAEREAREQBERAEREApnC/tNosmPqn7rlGA5r7Omp/qVvjO6mcj+0tDXIrJTNqWZHN7koCbNltoAxbnoQZC2kupZEt70at2d2JTrkswbIulwbXabthUpUVIUBFGnX14mYns2lsMluv8AcZOxmECWZ0ZzoAF3eZ+v5TDdN1pnoY5Uyml1Mk+PogBc4zHcBr/0IWkWAIBtfjNaw9Ql2KUcgUgd4akm+67HMNN45ibfSvk1PetwkWkictsxm1HSkmZr+Wukw2Dx9F6ihWuTwIIv0149JVjqzu7gglUGiAXza2/74m19NJG2aVLoxoBQTfRQCCCdGtx0v6ScJLqVZG30Mp2FwRTalVbd1Q5B6MAR8GE61Oddmr//ACbFdA1EM3IjKot/uA9J0WbY7GC1pnsREmQEREAREQBERAEREAREQBERAEREAREQBERAKZpW0KOWsUYhVdmN+BBBIGvMkj1m7TA9pcFmVXC5iNCP4TxI42PzMpzTzTv2L+HvlrT8nONgJlRqfGnUdPRzb4WmzYc6fnNWYexr1WU9xmUlRqASBfXz+E2PB4kETFXfZvh9NexK9mGOq7uJ/WkpuToLcd3ylGKxSr3nYBbaC9sxteYMdrqKPk97hcDyAOup1hS67EnUz3LlBP2hHE3t15+O7d0lzE09L2+N5rg7TK1Q51KKtQMul27uupBsL/WbHVx6VVDo4y8Tw6yTmk0Q5paZmuxtHNiqj2Fkw9JOuYs7H+nLN6mr9jMBlV8QT/nZco5IgKrfqdT6TaJuhaR5lvddD2IiTIiIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgHkGJqf2i7UNDCEK5VqjBQVJDW1LWI3aC1+s7Mumkjjels1XtZTC4mpuysx14XsDb4/CQ9nVMpXX46cCZi9hOroaDktYXBJuxH4geLA7/GQ8TUfCui1D3WPcqfdYcr8DaY8uNq3L7m7Ha5FS7GY2lsupiMS5znIirlBBtqNwtw0vK12XTQEsEV772KfBWU/MSrY230dmuwBsozE+9a+vpLPaPC0cQQ6OFbcbbjoTc8jpvlS3vTLVU62ltkWps5Kj5iQy3sbBdfMC889iqLkRSAaj2XU7jlA562EsrtFKFNaY7xGt+d98zn2bYB8ViWxLj9nSN+hqEd1R/KO8fFectiXT/Ipy5F9zqmyML7KhSp8VRVPiBr8bybPJ7NZjEREAREQBERAEREAREQBERAEREAREQBERAPIiRMfjVoqWY2A3cyeQ6zjegk29IqxuLSkheo4RVFyzGwnIe3XapMaUWiDkQsbsLFibD3d4GnHnIPbbtM2JfLeyL7qg6ePXx4+ltXw1F3buC5UXN9wHUyeLLMUqrsdvDV/RPV/kT6VcqQQrKym4YDcfym37MxSYlGR0UtbvoRdWG7MAeHyPlNVas9M5WseR4EcxLtHGd4OjZHGqn8+YO4iehxHDxxUKpfXw/4M+HNfDW4tdPKK9t9k3pnPhrlCb5L6r4HiPGay2IqC4IYG+oIPhrOo7O2ktVL2s40deR5jmp4GUYpUO9Qes8HnrHTm11R6rxTaVQ+jOd7O2dVrmwG4XLHQADW8+geyGDp0cJRp07d1RnsQTnIu5a3HNec7w+VFdrd212/kXvH4Cab2f7TVqLFs5BZib3OjMSxBI4E336dJoxU63oz5IUtJv7n0jaezQOzXb5ajLSrjIx0DaWJ68PMW8Jv8mnsp2n2Z7EROgREQBERAEREAREQBERAEREAREQBES1UqBQWYgAAkk6AAakmAUYvErTUuxsBOP8AaztS1dmCXy6qN4UC9iF4knifSVdrO1DYpyEJWgLhBuLDi55X4DlNWflNePhObrfb2KXxPL6O/uY56blhe1ybXvYa6DwAm2YTCLRp5R3i28/iJHyEwJpXlVFnT3DcDep1Hpw8RIcR8PdL6X9i3hviLwqmkttaT9iXiFzJdtbDTpbeBMe1NRbiSLgDfb6ecyNFw4uNAdCvFTyPzvxkdEso6Ej0Npq4XE8ccr8/sYLurp1T2ynC1KiHOjZGGmUagr/ESNT5WEyqbbOi1B4OvD+ZfqPSQlX9fr9ayithww5HnJZuGx5V9S6+/ksxcRkxvo+nt4Nvsj0LoQwYFdNd4tb4zTK+z6YqvTAtqNeAYX9ZRh8RUot3TbW9vutbpz+MkUqxdw5AzFr6dTeY+H4L5Vtt7Xj/AKac/FfMhaWmUPhWTusLj5DmOnynU/s726aqHD1Gu9MXUneybvMroPAiaBnBGVhflaX9jYg4XE0qoPczgNwKhu6Qf4SD626TTlxpyZcdtVs7hE8ns842iIiAIiIAiIgCIiAIiIAiIgCIiAeTRPtI2tZFwyn3xmqdVv3V8CQSei9ZvU4z2wxOfGVb697KB/KLegtfzmjhYVXt+CnNXLP6mBZbyhUkhGDHdcD0v05nrLwpz2JRgbIgSU+yJ7yGzrrbmPrJrUTwGssVFuAy6MN3UcVMM4iwlZc2cCwIs68td/8ApPwPWXils45Mfjr9ZErML5wND7w6nT4i6+NpepNpzNvUr3R6jJ6yt9yzwX0Gg8BKsspRbADkPiN82PZex6L0VapWVHcnKL94AMB7p94EXII48eULtStsTLp6RrbIDodRylvCYfvgg3UXI533WI85PxuFKOV3jeptYkXIuVucp03GY9iyNmXxsdxH5xtPqjq6dDLy6cH7VGUWLgXXQ6XuAGPDNb09JCTEqwDL/wCjyknD1iCCGC3tfUDUaA9bAjTlmmXiKqI2jRw8Td8r8/7Ou7AxXtcNQqa96mhN998ovfreZGYfstVzYZN1wWBtzzEn5zMTBvfU06a6M9iIgCIiAIiIAiIgCIiAIiIAiIgHk4DtYtUxOIO69R7nkocgKPG1z5cp36cg2vhFpY2qrDuK5qMPxLb2mXxb3fOa+EaVP9CjP2Rg0QAACSKczLYbDqrXIYXdM4NzmNSnlZRxVFD6feAb8Uh43JTdkIQquRLj7zBEzsGG8XufOb/ndOiZmnFt6bSIr7iRwtfpfQTGl9WB/RPHwI+IMyO28RZlH3bC49QL+XzmGxN941I/qXj5zuLI8kKta2Sz4liyON70W6x96/8AqHQ8R8/EHnKqNcqMoAZ2Nl5ZsqgnwGW/lIteqCM2/geqmV4Kub3UXe2VP4b2zMfQAec5VbekQS6GVCBbKDfKLE8SxNyT1mc2FikVKgcOpUFvaJd2tZgUVSMqgjMbknUbjNYRwul9eP8A3M9sAaO5VCoyjM72VTqdVuMx3Wva1ibixIjlS5BD+oye3MLScIKDZgFZmq1Ga7XXNYG2VhcMS4AFzvvv1fE0iDYggjeCCCOhB1E2TE1VUhyxN7d91st8pDFFBDPcAAH+FTmaYKtWZ2Z2N2Y3J/XSVY9qdEr1vZDooUa/A7xMgicmseB5GxANuOhII4gkcZFRpcp1JKkqWmcno9o6h2ExAai41BV72JvYEc7ajQ6za5z77OsR+0qJfQoGt4MB9Z0GeZUcj5Ter5+p7ERInRERAEREAREQBERAEREAREQDycl7c/vtTwT+wTrU5L26/fan8qf2CauD/E+xRxHpMDl/XHynj1GFsiqcumpsotw5nr4y8glNZtLXI87T1jDvRj8fjXZi1RFAIAJW9vGRGfLoTdDqrfhP5Sayn8RI46K3y1kKpRy3yaqd6Hd/pPA9JXy8q0uxN06rmfdmN2gSNBpcjThcnh0O/wBZMDBBkQ627zSGaWeoiLcXJ8vy8Jnv8LQpjvPryFvpKY26bLK0kkQEUCXlqyzXxSbkB8Sb/CV/4Wp7IV8jeyLZA+mXPrpvvwPSTdJeSHK2SmrFtSSTu1N9BK0eS9m7AepRXEPWo0KDEgO7nN3WKmy2AOoP3pI2ZgKIw6PVYitUy1Kabl9iHCnMfxOM1he+6V1lnsiSx0YsvYm0qWi7C4RiO7rY27z5Ftzu/d8dJtGBwiU3R7AFMWiEW3o9NKbA9Mx/qMk0qS0BTVvdp5hc/gpY+hUU/wCyoG85T8/wkTWN+Sf2B2PWo16jVECgJlOoOpyMLW3i06FNZ7J4RqedWqe1AAK1L3zKzOwubm5Hja1ps0x3Tqts0xPKtHsREgTEREAREQBERAEREAREQBERAPJx37R8WKeNYFTqiG48CPpOxTnX2hbBp1a9OoWdWZCpKka5TpoQec6srxfUgsXzHynPqe2UG8N/T/yl1tsUj+IeQ+hmX/8ApaHdXceKKfqJbqdhjwxA86f5NJL4nXuv8HX8Pft+5hX2hRP3j/tYH1Akepik+69+jAn42vMrV7EVBuq0z4ow/OQMR2UqpvamfBm/4yf9Sb9iD4BrwzBOxer3d9vu3+syCbJc65T5yPshAlZwzWym1x0mwvjkHFm85t4dKp5q8mTL9Ncq8GPXYz21sPOdB2hstUwdXCuG9nRw1OpcKQDVVzUqWO4k3GnjNLwe2EFamW7lMOrOQpY5VNyABvva3nMme2FWvVrCuXfDOtVEpoqAqHuEYnQmw5niYzS20oXbqdh6T5mWseMO+Gw9OoKgqrQd8OiDuD2zsyu5OpPdXTp1mY2zgqb1lVgbHZ4ehluAHSmxF7HcMp05kTD43FLVam4Ur7OhTpEG2pQMCw6G8uU+1FRaJoBELBWRKp99Kb+8g09DfTTQ2EjWKlKa7v8Akc8t6fY2StXR3YsSKjVFdFA7pSm9B2Y/xZU58TpKXxVNqFFqmW1N3o1geIQ07353Smh8ppeN2hUcoxaxClRl7thYId2uoAvLAubnebEkn5mVLB07knl/I7L2KwiUsOUSqtUB2u62sSbNbQkaA8995sc1P7Nktgl6u5+NvpNsmW1qmaJ9KPYiJEkIiIAiIgCIiAIiIAiIgCIiAUiax24p/s6b/he3kwP1AmzzB9sKebCufwlW9GH0JkMi3LLMT1aZqWGqSZmmKwzSejTzT1zyq9phNq1bA+cyeJe2pmr9osYFRj0PrJQt0kV5KSls0/AtmdzzYn4zJDDkyzsjC3GuhOokxlKnUGfU8PPLCTPmctbtlKYI+Ml06QXebTyniuZl/wBuDu9JetFT2WqlQAWB3yIDrJNZpGtrI0dRdcdxTyJl6lx/lMtfcPQyvDv/AGn5GUPyWo699nn7jT/mf+9ps8599l+1CyPQY7iWTw0zD1N/MzoM87J6mbJ9KPYiJAkIiIAiIgCIiAIiIAiIgCIiAeTF9pP3Wv8A+NvlMpMdt+kWw9ZRvKNbxAvIvszs+pHNMPU0mSpbphFuQGG8cJmsIQ63nmnskXH7jOb7dxjOVTiCc3kSB+uk6XjE0nNMfSyYpxzsw9NfiDNPCSqvTMfGNzG0ZnC5WpqV3gaiSCAw1FxMZ/lkOo7h0YcuYk2mRoRqp1E+nnoj55lmrhRvQ+R3yMrW375lHTpIuJoX14zrRzZQH05y0xnoQgSgyNHUSKQurCV4BLuB4/Iy3heMkbOH7RB1tKKLEbB2Gq5MTRt95mU+agTsRnEdgvkxFA8qg+aTtxnm5PWzevSj2IiRAiIgCIiAIiIAiIgCIiAIiIAnhnsQDlW0KAp16qAWUO1hyB1A9CJXhu62m4zIdsqGTEhvuugP+pe6fhl9ZjsObmedknVtHrYq5oTJGLTS8592swJDLVXepsfA7j6/OdFZTaxmubaw+dWB3ETuOuS0yOWOeGjB7Mrq6WI36MOvOeBPZNkJ7jHuH8LcjMRgKpRyBvBII52mVxNYOunHeOR5z6nFfPCZ83knlrRND6dZacyJhsTmFj7w39R+crdzJsgU1VkciSqq3GaQVe56TlHUSsOdfKSaRtUW34gfWQ6LaydSAzIeo+BlNEkTKIyVk6VL/wBSzugnDtuHLiFHIX8y7fkJ2zCvdEPNVPqBPLt7yM9FLUIvxEThwREQBERAEREAREQBERAEREAREQDSvtA30PB//wATW8L758YiYc3rZ6XD/hoyVT3ZidpbvKIlRcc8b94b+aZT75iJ9Nwn4aPm+J9bLVH/ADPOSW3frnETSygqxPuTH057E4zq7F6nvk/Db18fqIiUUTRL7R/vJ8F+Znatmf5NL/xp/aIieVXrZ6P9iJcRE6REREAREQBERAP/2Q==</t>
         </is>
       </c>
     </row>
@@ -758,109 +758,109 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Travis Head</t>
+          <t>Hashmatullah Shahidi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>90</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="W3" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="X3" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="n">
-        <v>97</v>
+        <v>600</v>
       </c>
       <c r="AE3" t="n">
-        <v>142</v>
+        <v>600</v>
       </c>
       <c r="AF3" t="n">
         <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -870,12 +870,12 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>Middle order Batter</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxATEhUTEhIVFRUVGBUXFxUVFRUVFxUVFRUWFxUWFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLi0BCgoKDg0OGhAQGi0lHyUtLy0tLS0tLS0tLS0tLS0tLi0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYBBwj/xABLEAACAQIEAwUEBQkFBAsBAAABAgADEQQSITEFQVEGImFxgRMykbFCUqHB0RQjYnKCkqLh8AczNHOyQ1PC8RUkVWNllKSzw9LiFv/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAQQFAAb/xAA7EQABAwIEAwUGAwcFAQAAAAABAAIRAyEEEjFBUWGBE3GRwfAFIjKhsdFC4fEUIzM0UlPSQ3KCksIV/9oADAMBAAIRAxEAPwDy+KKKVVkpRRToE5SkBHqIgskCwVKbaK0lVZ0pIlcowI4CSCnDsPgtLmC5wCkAlDqdIOUloaPScNARYejLVXeyjMstDRkT4aEHhRlQWWdEINEiMNOTKiE1Y8JGZDJUMgqUz2cYUhdxE9PSRmXQgSkaEhbU4sloWZRCDZJEwhrpIGSECoIQpE5JWEjIhgoVyKKKSoSiiinLkooohOUroEeonAJKogqUlElVZxVhFJLwCVIC5TWTCnHBLQzCYe+sU50XRgJuGwfMwz2QhC04jTlcvkpoahSgkbJJ3OtoDxwH2NhcZzYHbYEn5fC8NgLnAcVLWZjCiqcSw6mzVAPRj6XAlRX45ULkU1XLyuNSDsfAwGth6dO1iS1wTc2AGUEC2+bz8IxsPXY5lFltcE2AsfPSaDKDG8+9Wm0mt2Vg3Gm0uoB2PPX7LRmE4qzMQ1jvsPK336XlZUw4p2zEMx10N7Dqfwlzw7A0fYtUqcrKAu4IKkm/XUC+vPpDLGcEXZNJ0CtcNTLjQG/MAHw2+I+M7UwL/Ub4GTdlcP7U1PbAEZw4BJzBapN7dRbb/lDhg6B19mNfOU6g7M8lUq0g2+yraeBqH6DfumSfklUaGm/7p/CFnh1D6gHkSPkYyph1HuNUU/o1HH3wMzTxS4CC9meYt5xlWnpCzi8QugrsR0qBag/iEk46zCq9MhBkWnqq2zFluWPjJjcKIBFlUMZA4hQXSR1FhgoEGyyNhCGWRsIwFAhyJySMIwiECoXIoooShKOAnBHqIJKldAkyLGASekIBRBS0klhhqA5yCmLSam5taIeSUwIgYUHbUw+hTAEjwFMkhVF2OwlnToKrZLGrUG6IbKn+ZVOg8hrEOk9ya1qjpUSdgSegkVTKDluWb6lMZ2Hmdl9TLlOHs+lZ7L/uqV0T9pvef1MlqU0pgKihR0UWEV2jG8z4D7/RMyWVNR4fVYjRKQ6n87U+3ur9sXFzTTE0UP51RSroyEnRmu4boWJVKfqZbqbkeYlP234c7Yz2yZ0ZSKbEHMWsCSQR7tr2ud7abXlzBvz5uUJ9ERPRZ3hfY72pd6rWXMwXKPeIJBfXle/jpynaXYOsXsaqez5EBifILsPjN/gcMvs6YA2W0ucJg15yx2jpWkKLIErDYPsZh0BzrnJ0uRb4SGr2Rww+i1t7Zjb+tJ6BXortAMdTQDlAzunVM7Jh2XnnHuzjUKf5ThmbKlvaqTqEJAzZhrYG3lCcO1QKA5zWChXtbMuUW06i5Unqpm/7NYIVjVpnVWpVFI6hhaZzjHCxTo09CMpNMk37wA7rC/kQfGTW96lKzMWwAGFRvVMieTGnz/r+tYxklIFZaBqwzj63xVT9Sl/pkTpD+IpfE1vBaQ/hjg73Sja2xVKlORVVliKe8ErrrODroSEE4kLLC3WQMsaEBCGYSNhJ2EiYRgQqK07H2nJKhNAkqiMUSZBOKlE4TBM+2whrUBTHdFz1Ow8hB0xZAyrtzhVMM48vhK7iZk6JgA2UQJO8IwyXMdRwTnYS2wnDDzIin1Ggao2tJRPZ2j+eW/ifgDCOzDfmqh5tVc/KFcHoKtQW8dfQwPs7/cftv8xK73TTnmrDRAVtTbWRYwG4kmGGslxdPu5uQIHxvb5SlJL0WyDRZfpw418Qwvbumpm63tYfxDb7zet4WSKiW32BsDYtoDY72veajgNKlSqBaZLAe0QqTfKpIZR4jum3kRymn7NFnTvHr5qxRb7pcFU8VVaCh3IC6gtyOunmdJT0u2GAHvVgPQy17bU8x9n7H2gp6qh2zW1Jvv0H3TF/k2MeoodEpUcp92kuZWymybd7vW12tLoaJV7O6At1SxNKqgemwK9eRlD2j41h6Pddjc7AC5lhwSgaa5HI907AAA28Jiq/C6lb21T2l6yPZFIBUANzFjut7Gx16cxaJN0x5c1ttVsP7Pu0GGqVsgLqzCwDAjod+Rlr234c9VzTpBe7kex0vcPYA7dZQdjVrUnpNUYVG0VlbKGuV7zKAPdva1/H01XHsUqYkkkXy01K82DCwK/tlReNdBpkKhXbmmeB+SyOK4DU9jRVU/OXYsNNMx5nbksqMfgRSOUsGfmF91fDNzM3XEK51Fu6ts9jr1teY/igwxu1KoQTqVcMfgwHz+MpVGQ0fdZrmhUhTvAeI+cLxZ/P4g+KD4JB8Oc1VB+kvzEeur1261W+zSB+Fc3RDnQGA1RLKsukAcXMlpQFCOsiYQqosgqCOBQIRxImEJYSBhHBAooo60UJQmrJVkayZZBXKWmJY4JXbur6/wAzBcKi7tt0G5lh7ckWXur0H3yu88E1qPSsEG+YjkNh59ZNQxLMf6tAUpXEt8JhrCVXwBzTmySrPhb2dRz1+Rg3Zpf+rt4VH+4/fCMEAHU+Mh7Onu1k6VW+QH3RTr0uqaFa8NZCbONDsRoQfwlzW4YDTK5rAtcsRsANJT4OqyE5UW/1jcn05CXdZixWnm7wXMfFtDb0jMOxh1InrobQSbH696mTCrUpoHC0xfLYl28NQAOU0HB6ZpVgbBkqFipG4AAOVvG53/RMBpVajbqptpc6HTxAhPDq5WqoN7G9wDzAJW3jcD7RF0MQ2nicoiCQLTY6XkdCrNJxY0t2d6CJ7T0CrrUtdWsD52lfToC1zlF9pcdqawGHDE6BlPoBrPOanaktUACNbTIL6kkXBbp5TWqj3zCu0HA0xJV0pLMbbXtc6AwF+GlGFXQK/cY3AKspyq1uanui45yjxIeoxqMqBv0qtimpPcBbu+gmZxqGlX9r7ZahVr3armtl2G+w1kNZsm1Hmxhep8HwwOIpqbatvYbgXHyj+P0lTGvXdyxJUBOSLRzBQP12AbWVPYvjJq1ELoUNPvjxXI5A87oR6iP7QVs1eqf02/1GIxDyylG5KpYypHw6EeaDTirK5Zu8H95fDw8RKOuNxv08oZVEDrSoHE6rJJTeFUr108Ln4AxuA1TN9Znb4sZLw17e1f6lNz6kaTuGohaaafRH2xjz7sIwLKCuIHbSH1UgdZZLSgKEqiDVBJahJ2jCOseEsqBxBnhVSDvGNQFQaxR9p2MQqNYQiyJBJgJBUhT01huHgdNpZYJdIh5TGqzwibSyvaA4M/ZC7Si/VWG6JyNqD4ybgi2r116kN8SSf9QkNMQvh62xQP10I9bX/wDjnf6bgiGqvaNCxvbSEUsMTruxNyfXlC8NRuusIwlHeZri7QKyGhNpUrA+d5Hh6X5wP9VgfgZYpRvMf/aF2hXDUvYU/wC+qruCb00J1bTYmxA9TykYWhVr1gGa6zwjfpZFUhrZK0nF6GenUom5NM5l8UtoB+zf1VpiMA9EVKmHqhSDYAFQQ3dXfkTYg+pknAO0VTFIGZ7VaYysed7aP4hrXI65pjOJ1XpYu1UFGINuanvXzIRuCDtuPn6pwlx5K2x2VrXag38dV6JhalDD08mYIuXKq5UKhbEaXW9rE6Xmf4iuGruxapdlF1sqACpYhbLbxaH4LHpUpj2moN7HTcED03+yVPFEVG/M5TmNl1GpJsR8TBBKc4NiRC0XAWC03rMoBLd2/wBMqRYC30QwHoHEra9zrv4y3xGENLDUaY2Ba3oFud+ZYyuakbazMxlT94G8POCVkYl5c++yrKolfiBLesFErMSYFMqrCVNSMPU61HSmPHW5h1an8OU4KX+HQ/pVm/4ZNjBf0hVXXATYgKvqGA4lLwyrWA8IIxvvDZKUUI6Wg72IhlUCC1DHgoCgqoIkLQis14M6x4S0yKdyzkJAn0zHCRU2kymQUQUlFJcYDTlK6i1odSY6RFS4TGq6wgFvjJ1YX1v6QfCDSStYkeEpO1Twi1sTePd8j03+qwv5aE/whvjO0EGkfjaN11+HlrAYRmhHstzhRyhiJKzgNf2lGmdzbKfFl7pPra/rL5MPYXb4D7zGig0BWGmdEBxSs9LD1alNM7U0Zgt7Ziova8+euIY2rXqNVqtmdzcn5ADkANhPf8Vj2zb5RtblbxmC7WdhxUJr4QBWOrUtMjnmUOyN4HQ+HNuAxlCi4tIifxeR3A/ObXHVsO9wkeCwfAeKHDV1qH3D3ag/QPPzB1+PWelcY4XQxNPLUAZTqpG69GUjaeW4nDMpKOjIw0IYEEH1mz7BcXD0/wAnc9+l7t+dPl+6SB5FZq4lls7UzAVrmk7p5jrr4qh4lwPF4c2p1Geny8uhE5w2hjnq0lUBSzquY3ZrMQLXOg9BN3i6oBsZAKpp1EqUwLocwHLnK4qHdXHUQNFo+0QCFKai+VTsPHKdv1ZnqtKofot8DLTBdo1rYqrhT79FKRv9bMgaoP2S4+PhDMRMnF5hXcSNb9IWcaQcSZWUq4R/q/KC1MGxIUWBJtr49JfYpoDSIUvUO1NS3mbaCQwygNJoCgdg1aq42p5aS/si5HxkNd5Nw/DFaYLe8wLnzY3+O0iqyS4FxKW5VTDMTfYTrSY07E9DG1RpHSlIWqJX1wDDqxgLiOYgchKiQepCqkGeWGlKKiinYoaiFGhhVMwVDCKTCc5cEVTF4fh3ANpWp4QnDXuIh4kIwr7D1JPRsW8pXrWA23hOCaVHN3TgVcUSBCS1wbcpUZl529ZY8I/O1VpLqWIX05tfyvK5aZkJoOy2/YvAtTo5ju5zKDsiWAU+ZABtJuKYgucqnQczv/KWmNIpUsq9LfZb+vKVVClO9p1csUW9VoYamAJQVKjl5Ejpf7jpC8JRpkkqbG2oH3rtbxH2Qh6YO/xGh9ILUwJ95WsRsRp8Ry+UzGEtPHkrBuqrtX2eOLQFStOsg0LIKiOpsWVlPvDQEHQgjxM81xPBMZhKqVnprZDcNSD5GB3GZictwdiAZ7ThsQSctQWbkRs3iOh8JJVogGxAKsDpa4/SFvtt4mamFx9Wk3Lq3hw7uHzVWpRDjIseK80esuJo5qRNxa6n3lbo0J4GfaUmBHezCmwI1BuFIh3HezD0mOJwBKP9OkouGG90U6Eg65eYJt0mbwvbO1Qu1FQxyFwpsGqIRZwjbE2sRc7Ca1LJWZmpGRw3HemNxeV0VbHjsefLuKp24hUw+IfG5WLjGVCLbmjUDKFtzACnyLz1TA8Qw+LpLUUXDDdRldTpyPPUXUjSYgJ+V0a1ZAFKJWYq6+8RRqZbbg2ZlP7M2LdmcqU3wpFGtTRQb3KuF0COt9ctyAdx1sSCONY3swH2MmDrHeN28dxq2SIVQEdochkQJ5/Y7z4qPHdnahUvSdXHQgofI35/CUPEsC6CnRYa1mzEggj2aWJsRpzE3PD8VUZVd1yvoHXNcA7GxFu6d+UcKKsHV1BBzEC1rG4ta2x1mMzEDbn+ogn5eKsOoSLLD4p5XPLrjWCNF7HVTqp6jofEf1vKavrDphUXSDdDVAIM4hDyHLeWGpSEdbwTF2GktKlgJTYqpcxzLlLdZCVIO8meQOZaaEopsU5FDQKFJMgg6wlDJKkKVHtC6NaxvAZIkW4AowVZUnufOWNCpYWEq8PD6B5ys8JjUUuHU+9c+vyE2v8AZrgga7udciWW+4Ln8FPxmKzzd/2YUnDVapFkbLTB6sLsfhcfGDT+ME6J1Me9Za7jJuVkFNNIZxAZlJHJ7fZAatdUXMx8trk8lF9yeQmZjGntzO61qXwwFKBfQj+fiOhkVQMut9Prfcw++VWM4w9II1bT2mYWQqWRf9m6025kEX32XQXlxhsRmuCAGABK6kWe+XvWANxrpFOoGJ+aa+m9gzEW+3r6cUqbq2jDzH3g8vOEhdLNqNweZHX9Yc/5wKtheaGxG34SVMQVHfFiup6FTpdTzG3whUXROYdfI8jw49ZS4Top3w51I16gcx1Hz+M8z7d9kLlq9EHMO86jdr/TUfW6jna++/peJrBaZLEgLocvvHXugeJ29ZWcOw7D2tNixFN7LmbOwpsisULXJYqc1jvYCaLWupfv6OosRx0t5d4kRCQ6H+45eYdieK5Ki0WsQ5UjmAx0II5qwnr9I7E8w1/Vb/OZ/B9mcKtdsQE/OjUC/dDX1dV5E/zFrwrtRj2pUlNMMXeoiIEsLFnvdmOgXKDcmTiMUMU5nZgiOPPyEH7BBRo9iHF26LqlA1i65yO8mYZrfWy3vpzkjaqp5kgH03+UwPE8MKGTv0RXVgcrEIQysGFQPbMSRnIA3znbW+q4LxpavtKTK1OtQKe0RxY3a65l6qSCdORHWVMRg+zbnaZG/wB+tup5p7KsmDr6srDinD1xFBk2a7FD0KA/YdvWeXXN7bHn4T1ikD7g5jLfpzb/AJzDdvcEKWIZqYstXW/IONHsPOx9TGUHZ6fdA+R+kfMcFXxTIOb1yWcrIBqfnBXxSgXvA8Xqd2J6n8IGQ19ZbbTkXKoFymxGLLeUEcyZ1tA6rR7RwSyUnaDuY9jIGaOAQErt5yMvFCuhTFMmQwdTJVMkrkSphNKBoYSjRTgjCMQwmm0r1eTq8UQjBRy1J6Z2DqB8NodaemX6pzsxPiWJOvRQOU8oznSbrsXjfYUVqnZq5ptpa4dAFF/1gPKx6xNSmXMcBwPyuesAqzh3w8SvScM1x5uD+8D+Ez/aWiWoEaW5kk5ltqtSioGrg25jQnWXtEjQjbMh9Ln8ZFicKCRyK21sL20zLcjQG1j4TPc6WsedRb6x9FsUXhj5VXw6rSNMUnU1M1M3e+ppsD9J2JDd0XF7AkWvLjBJT9kgQscnds1wRa4IIPTpKg8HpgnvAIct0bbJYh6Q6A9031O8KXHqAop02Ye6tttLDpcWuNwIbaw7MsAmd/z9QmVsrvgJ493rkjXTpBeIVCaNQEWKq5F/EEH02PpGUMRWZ9RYKbHu25NYA3ObXLrpv5wxq4ZGU63DW6gkEfDlK9MND4LokdOv15G6Q4Ec1BjELpUTn3SOWoCka/rLO8Fw9dEepWPfaoD+xotzb1PkBOUyQ65t2Qg+aE//AGPwh2DfNTyHmGHobiXMFiLOpOtIsdwbfr3jnZNSncP4fmhq1PLVsNtx68vhb4Ss7SUEbDszq7Ckwe1PLmuEKgqG0JGfNbqBvsbbEvcUX5sCP4c33SNdqvhZv4R+ErP9yqcuh94dRP5JmrRPqCsVj6y4oqfyXEsyZC7MiozKHzqjqFOl9jYEa2uCb2uA4vTq4moAlVHZUZhUVQoyOi5VINydb28dbaS7Z7AkwejcgNfcrb1cfcJ1TEBzMkd15j1wTMrZkC6OcEajltKHt/wWrUoJUp2JpZi6cyGAPd6kZdudz5TSMhnExCKPzjAAm92IAJOnOThnNY8h29hy4+Nuk8Umq3OyF4TTpEm8jZQpv85qe1XBvyaoQmtNiWpnwv7pvzF7eO8zONXmTvymmPigrJcMtigsS1xK5mljWItK6pHsSXKJjImMkaRMY4Ja5FG3ihLlGpkqmRR6mSVCIQyZWgqmSq0AokWrSQNBlaPDRZCJFK2s1XBFq1cFiaVNm7oWpkGWxv3b6i593YWmOV5qexRWoMVSZQwajmAIBF6beP60OhIqNKKdVsewval6wOHri1VFuDsXykFrj6w38ddNLnW8aaoGAprfNzH0fw56+HUieQ/2eIPy5BYCwqf+2w++e2YxdVPn+MpYymyg52RogZTG1y4acLkxptELSpE1GQTxE77Knp8KvZnbM2l9TbTW3lcmWFKjYABQANraW8jJVHrIa+ORdCbnoNbefITOc6pXIDiTy28NB0VhlNrLNCdUpdTfx5/ETtAi9jr56yrxXEX+iAPH3j+EosZjqxOtR/IHL/ptGswVUOzWHeftKeGEi613GRlNJwNA1j4X0+RPwjadTKCfqt9hP85VcExCVUak5IuCL3JI6HU62Mgr8UVUrJWYLUBtl11K6gjwO/rCxlBzKgqtGvDYgecT3yha0xlO30Vhia9qVD9emfRmsfshtv7zxT5ZpleKcapVQEpNYhVClxYXB1PPlf1l7QxSrTALNULd3N3dQfpHXxHjEmhVkOym1tOSnJbmocbW/MhvrMLegzf8Jj8RXWm+GpXGZiTbnanTJJ/eKfGNXD3GFRgbIpdumZUCBSepLt+6Zj+OscRiWrh3U0g9OgVNrDZ38cx68lWLp4ZznZIi28+tYPREAXGy3tfHXuEP7X4fjMzxAMHz3JPUm5HkZW8B4rXAC1qZHLMuq6bG24vLTE41G0AJ9LfOa7KTaY93XiiY0BENUpY2l+T4g2b/AGdTmrcj4jqJ5n2jw9Sg5o1Vs6b9CD7rKeakaib+lw5qlsjBfFr/ADG0j7ecBergDVqf32F7wbfNSv31JG4A7w8j1ljIX3IuPUKhjaLYLmG/BeVtrBalpw1JC7zgFjkprmREzrGNJjAhKbeKNvOwlCbOgzkUmJXKVTDOG4R61RaaWu19WNlUKCzMx5KACT5QfB4OrVOWnTqOTyVS3ymywHZupQwztXqU8NUr9w+1azJh9C9kF2LuQBt7qt1lTE4htJsSMxsB37xrYX0+abTYXnSyydEEkAC5OwHOPBltieIYWgpTCBncghsRUFjY6EUk+gD1OvlKMNDY4uvEDade+NuU34gKCIUwM0vYetlxSDk61EP7SG32gTLK0suC4r2dek/1aiE+WYX+ySTlvwv4Lm6rSdhe7xLKf++H8DT1vjHFqdGiHe5Y2so3YqLeg8fGeT8KX2XGVG2Z6g/epv8AfPT8bgFqWcrdlBAzajXXaUfa1Ts8QRqCwDwc6/hI6rXwIDqYnj5BZhe0Vesxzj2VPYKtxf8AWfc+QsPCWNCsNJxeB1q3949kGwUBR4Gw3lYwak5pvuPgR1E7A1muYWgQR8x5rRbEwFoAwIlbjaPOPwuI8YVilBWXZkLohUQqtTcOD/XOH8bprXRcSo7ygJVA6fRf02PgR0gFdL3E5w3HtRfTY7jr1Fuc4HYrnN3Gqiq8OYi6+kdhqlWkpuNtRfYzSUaFCtdabGnzFtvA2PLwmQ7U4bGUqgWqR7MnuVB7rH6pH0TCDCLpZeDbdWCdoGBtqDrtr4Qul2gBtnUN16n19JmBRNr9L2ncJWHPeQSUWULZLjsM+ux6Hn0++RVWojUEWOnlpMxiPf0O4v63/lBK9dl0v/W04FRljdaTEYl1ANJv6EtMLxlq+DxdOoO8tCtv9Ieza3rpM1wqqrjKTZgNJvOFcLpMjA2u6Otx0cFWH2x1IGUivGW6+d8XhXphC1iKiLUUg3BVri3mCCCORBgpM3A7NGrh3oUq9Ks9JjUoqGyVRfStRam2vIMLXF1brMdxDhteibVaTof0lIlTDYhtSWk+8NtDyMG+kTbWVhVKZZeLet0IxjCYiZyW4SkooooSha04bglL3quJxJHKki0lPq2s5/8A1GEp/wCG4dRXo1YtWb4GwmTmg4ZwamlMYnHEpROtOiNKuJI/3Y+hT2u59NxM6tQpME1nOdOxOp4BrcoPlrYSVYY9xPuADp5mSrzAdosW9NsRXqmnhUNhSohaP5TV5UUyAHLzZuQ8TMhxPiNTEVWq1TdnN9NABsFUclAsAPCScY4tUxLgsFREGWnSQWSkn1VHzO5Mro3C4YU5fABOw0A4czuTvoLAKKtQutMj6qUNHAyEGSBpZSlIDJVMGBkimQQuW+oVFOOwFcg3reyYm/dBKhSPE5rz15HO1vtnh2BxR/JMOw09jXIYn6qutWwPL3tvCe5U9R0tuZme1Wkupu4tjw1+q18C4ZXDn9Uq1QqLDVm0Ucr9T4Dcyj4zwbOnc1anc5ubk3Lg+cuaJvd+Z0XwXl8d/hJkXSZ1KoWPDm/qOHVXQcq87weJl9hqoZbSt7SYH2VbMNFqajwYe8Pv9Y/hta2k3QQYcNCrIOYSoMc2vSVeMawvLnjFHS4mRxWJYnK19J0XXE2RNLjLIdDYCGcf4u+IwFSnmGbQjrdWB0PKZWs7X8oJUrlVNz18o9tlXddHcO7TEAU62q6d/p+sOXn8pfLSVrFT6j+vKeas5vLzgvFnod1u8vTmngDz8pz2Rol/tDWD3zZayoCD6b8oLVqn+vt+2cTjNBxo415HQ/AwPEYtBezgeFxFhN7RhEgjxTszXuCRtLzgvaGrTqIM2hIFr+NvleY+txdLWvf7YKOMZTmUEuCCGOwI1GnwjAEh2JojVwTeP4krjsRUpsVIr1WVl0IIqsQRNLU7R4x6JxWGqmy2/KsMwFRKbH/bU0a9qTcwPdN+Vpg2Yk3OpOpJ5mFcL4jVw9QVaTZWHqGU+8rLsynmIjE4ZtaCQCRpIkcweR47HiJBxKdUtJ4Hgr8drKNT/EcPw9Tq1IGi3xXT7I4LwOrzxOFbxy1kHyMgxPCqOLRq2BXLUUZquD3K9amH5vT/AEd18rTNRNGhSeCKZcwg3AcbHuJLe4ix2JRvc8fFBnQx56991rv+gOE/9qf+nf8AGKZCKP8A2ep/dd4M/wAEvtG/0jxd91suJYnh2Gqs9NaeJrCwRFH/AFWiFFlLHQ4h9L30UkmZjiXEK1eoatZy7tuT05AAaADoNIJFJoYZtK8kuiJOscBwHIdSSufVLraDh61SiiilhKSiBiinKU4GPDSKdBkELle8Ep18QPySkob2jhvIhSL35C17z6CrLYLR3+uethr+HqZ5N/Ythvz9euTpTpqoHItUbMCfL2ZPwnqWBJZmf0H3zI9qYkHLRGome47dYWx7PpwwvKOkl4wTt5mCyulVHanBmpROX3kOcenvD4XmTwdS83mKtlIO3Py5zwpeO1sHVejUHtEpu6A3s6hGKgX+kNOeuu81fZznVM1MfhuO46+HmpFZtKM2hXpWKbuTH8ScZ+QHMw3B9rcPWpkUyS4FyhUhh4nlbxBtM3j2YqarGycjYkfES/Zph1k19RpHumVFisYNbSudy2n/ACh1WgQGsjOVVWsNLofpA8wOctezPD85yVqYAIOliVdDyPMHY3FiCINTE06bc2qr3JhFdh+zFJ6iVK4Dqc1k1tcJdSx5i9tBMHee8cIwFOmopodtUB3uuoFxoTa4vpvtPAb20icJXdWzOJ9X9fdZ3tEAFsc/JPLRhMaWjSZdWcnFo0mcihQolKKKKSoUuGxD03V6bFHU3VlNiD1BE09DiuFxTq2KC0MSCD+UBM1KsQdsTRGxPN166iZOKIrYdtW5sRoRrfbmORkJjKhbbbgvU/8Aozhn/h//AJ//APM7PK4pnf8AzKv993z/AMk/9pZ/QPXRKKKKa6qJRRRTlyUUUU5clFFFJXL1H+x/+5xX61P/AEvPRuF/3a+vziinmcd/Nv8A+P0avQYT+Xb1+pRs7FFEpyHxWxng/bj/ABmI/wAxvuiimn7G/jv/ANv/AKCrYz4B3+RQ/YT/ABVT/Kb5pNJU/wADU82/1RRQsf8AzP8A180zD/w/FF8I9/D/AOS3zEs8JtS9flFFM8/fzTytFhffT9ZfmJ4Jivfb9ZvmYopd9j6P7x5rN9p/g6+ShMUUU2lkpRRRSFyUUUU5clFFFOXJRRRTly//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEBMSExMSExUWGBoZGBgTFxYYFhkXGBUbGBUWGR0aHSggGxomHRoVITEhJSkrLi4uGB84OTQsOCguLisBCgoKDg0OGxAQGy0mICUvLS0vLy0tLS0vLS0tLS0tLystLS0tLy0tLS0tLy0tLS0tLy0tLS0tLS0tLS8tLTEtLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcBAgj/xABGEAABAwIEAwQHBQYDBgcAAAABAAIRAyEEEjFBBVFhIjJxgQYHE5GhscFCUmJy8BQjM7LR4TSConOStMLS8RUkJVNjpLP/xAAaAQEAAgMBAAAAAAAAAAAAAAAABAUCAwYB/8QANREAAgECAwUGBgIBBQEAAAAAAAECAxEEITESQVGB8AUiYXGRsRMyM6HB0ULhIxRSYsLxBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiAIiIAi516Set3A4Wo6kwVMS9pId7KAwEajM4w47WnRVdL15Yee1g8SBzDqRPuLh80B1lFz/hnrd4ZVcGOfVoEmP31MhvSXNkDzW84bEMqMa+m5r2OEtcwhzSDoQRYhAZ0REAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAFyj1xenJotOBwzj7Vw/fPaf4bD9ifvOHLQeIXUcVULab3ASQ0kDmQJAXD+A+jZdlr4gmpXrD2j81+1U7V53APl7lhOagrs2U6bqSsjnFLBjKSQQeRHLl16qRhuDV6ndpkfmt9F2XBejtFhkU25uZvHQTopGIwAg6KPLEvciVHBr+TOJYjgtZo7TB4bqb6L+lmK4dUmi45J7dF8+zfzkbO17Qv46Lf+IUByWmekvDxHtGje/msqVfadmY1sMoK8T9B+inH6WOwtPE0rBwhzTqx47zD1B33EHdXK4X6iOMlmLrYQ92s01G/np6+9pP+4F3RSSGEREAREQBERAEREAREQBERAEREAREQBERAEREAREQETijC6hVaNTTeB4lpAWgUiDUkGJAI8CAR8wukuFl+eeKcOe11X2uIrNcHS4CSxge/IyQCIFwBf6xqqw2kkb6E9ht2/B1OhSdGk9dQsGPa1oJe5o3iRK130WxdU0r1C8OYHNeQWlzSAcxDrgwQd5BBWvVeBOxmIJNSo5pqZGsYYLiAC517NbrcqMoRvZk11JW2lYsOJ8TpZsoqMJOgkStf42wuYAO6dV80sNQd2P2arSbmyTVGV+YCSDeTGhkAA21U44YimWOvA31I2Ky2VBmuUpVI5/Yr/Vw0s4zg4m73g+BpPBX6SXBfVvgs3E6Dx3aZeSdv4bwPiV3pS0QGrBERengREQBERAEREAREQBERAEREAREQBERAEREAREQEXH1XMpucwAuGgOmu651jeHB9Sq8zDyc0EjMJ7rvvDoV0rEU8zHN5gj3haMC2XTYAn3So9e6sTcGk7p9aFRTokNe78MCNgLAKHwekJLbOY7vAjQ8x8V5xD0gDPb0mGmXQSC4wALESb3mSYi3O5Ub0Z4k3Oyo59PuZX5WloLiQRYudoN5m+gUe0l3iZtRfdL5/CabXZ9763I96ouJgXHQrYeKY1uQFoJn7twLG/haPNaRxnGQHRqV7GN2YVJpRM3orTz06tNpy5WF73CczgJDWN5bknWB1kds4R/h6X5Bryi3wXHvQPh9WpPsw+ajshJHZbTgy/qZPyXaqNINa1o0aAB4AQFIpRe02RK8l8OMeZlREW8iBERAEREAREQBERAEREAREQBERAEREAREQBERAFx70uLw+vRbZwqFsTEtJBbf8pHxXYVyT1wcOfSrU8WwHJUhlQibPaCGk+Lbf5OqwnHaRspz2Wa7hsMG6soOOk1HOE8zYixv2Tz8181cCahF6TRzYJgeTvoFhotbUGYgC0Zt7NMgnlqfM7Ji3tpiAMpbEbT49TaY5HqtFnuLDbjs6KxNdizSohk3bIO8akb6QFrWLxMiNzudbn9fRRcbxEucbg2jy181gwTszwYsCJ630WyMLZkOdRyyR+jPQFscPpRzf8Kjh9FsS0j1bcbpOwtPD5v3rc1oMHtF9joTBlbut1mkrmhtXYREQ8CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAKJxHA069J9Kq0PY8Q5p/Vj1UtEB+efTHgdbh9d1Jk1KR7VMxJymQAeouPILUsTXrPtBA8PIXXdvWW6mfZNEGq2TH4DGvnB8itIZw0O131WqpPYea8SRSpupHJmkcL4A+obyAtj/wDCQwBjbTvyG5Wx5W0madANyeQVc4kkk3J15eA6BTOz8JLFz2pfItfHw/b19XbVi6scLC0fnenh4/r+iT6O4tuGxFB8dimb+DgQ49TBJ6ldraZEjQrgzn3IG1yeQ1jUXI6iBe1luHo96VVGw2xa0AFh0jSW7ja2gkCFcdoYN1LThuVv0l1wKnD4hU7qW86Wir+F8Wp1h2TDt2nUf1HVWCopRcXaSsyyjJSV0ERFiehERAEREAREQBERAEREAREQBERAEREAREQBVnHuKtw1E1HXOjW/edsPDmpGPxtOjTdUquDGN1J+A6noNVyT079IXYuKlKlUYyhmyufIc81AGdzYTlib9FlFwjJOpp7+Rsp0KlZ2prnuXi/D30V2UWL4s+rjQ4uLiS6TzJET4TlA5QrmjWOaD5qFwng4pjO/vau6n7o6D46qS1jnPcOesbDl1/7rRjarxVe8F4JLr/xE3A0PhU9mTsvmbeiW9vrN5LNkTH1HurFzHSxoygFsAGO1DheTz6aKt4rxJ1OnLWOLztEhvNzotA8b+9WWIwL5cWua620WPKB/RRWmq0gOYTJAkQLnqPP3FTqdTH4OHw9nLTTTxTWXq83nrdkWpiOx8VO81ODX8lZqXByXzX32Sy0WiSp8F6QtDQ003jNq4ODib3dcCTPyjSQtg4bjKbxLHBxGrTIMG0EG+XUT15leYbLVptL2CHXhwBN7/JU3EOFuo1mOohxky2JJDt29QRPlK24ftiq5KNRX9Ps1bM1V+yaMqDr4aptRWuTWy/8AlF3a8+HFZm7YLi4DxLiCD2XTDh489vOdlvHA/SRr3to1SA91mOBGV5AnLyzQCRzAPJcyydjM5sEtgtkSHxMCJ0+hPReOByFmYiDYixa5plrhGhBDT/WytcXg1Vj3dbZFLQrfDl4bzuqLW/Q3j37VQBfaq0Q8cyLFw6f16rZFzhdSjsu3XFPms14MIiIYhERAEREAREQBERAEREAREQBERAEREBoHpri3Vawotsyl33bB5Ex1MEe881Rv4aG03gmXOET3YIu0a2gifHwbNwKJdUq1Nsz3SbHNcxMTAGXnq3modR4JtJB0j6R1jz8WK4w2Apq+0ryzvzWnoVmIxtaTi07KLvFbk1/K3F2u/Rd3IqW1s7W27QF+TY1cRsBr5qVToBrdDGthJJP2iWmQPldZfZhp2mZP5jpAFuthF5FjC+Mr3kQJMw0QMxJ3JFxzIt7onzBYGGFTqVJK/HRJeHB2zb3aaZvf2h2i8X/joxcYXvbVt7r+EdIre1tPOyhErVQNySOpJ95OmqxYsTRrETalUtqR2DzsLje3ZvBZeaMM7M5jg0FpjskAtcTteIm3u5KBXZ+6qxB7DxaIPYMRNvun3bQRbwqRlBuD5rxV19mmVjp2a63k3iGAGUmCI1GUgGwtpA7wiecG4UB1TMcrTPac2W8m/wAQjrPZHirHj78tF+WA8iGWAgu7piAQMwZpIVdw2mGuhoGVgDGztu4+JtPgtFHD01N1ku9+9/m97PYVJxg4p5PVcbaX42eZlqUoF4B0AGgHLqVFqjtOHgfhH0VjWvN/0f0Peq/EHtjq35R/1KZHcYmXhHFXYasx7djcTYjced/guz0aoc1rmmQ4Ag9CJC4NiWyF1P1bY91XANDu9Se6meuWC0/7rmqj7Uoxi9ta+9/11oWeEqN918Da0RFUE0IiIAiIgCIiAIiIAiIgCIiAIiIAvJXqjY90UnnofjZepXdjxu2Zo/GcXGZjdLiB1Mn/AKfHMFTU6mUGbg673jbnb39IESOJVAXEiTOs6nW5knYHpY7ZiITxcDr/AH/v8eRd1NGmowSKGctpn2DJEjyHXXzPO2q+nNzPdLoyRIZN7EkyIG3u8Eyfr+2+/jBiVnpsk5iNbRsSYtAJ1AEASSIiVqrbe0nHg9ON1+Lq/jqjKMkoOO9246ctc7PPh6e8PonV03PZcTIEfHW0qvqFrGzETIcCYgCz/MSfCDtIF5TM3AANogzfSRGpPS5AtmuFR8WEh+0dr/KRlfEa2uI1LABcZW5YXau3PVu7XDclyVr+Nz2rOMmlHRKy93ve9vSy53IPEMU5zGsOxo2AAAAqszW0sZn8qz02ZWCe865/zFV2HrSNjqdZvv5Zg+ByA8TOYZcSfLwbYHzuVMjDZj1uMHqTGmY8fkJ+qrOIH95T/K7/AJFYsdDQec/FVGOdNcD7rB8TP0XiWZ4jHVXRfVWyMPiDsawP/wBekD8QudVBddW9XTgcAyNcz83jmt/pyqr7XXdXmTsH83I2dERUJZBERAEREAREQBERAEREAREQBERAFXcfMYap4D5hWKg8Zpl2Hqga5Sfdf6LOl9SPmvcwqK8GvBnOKuv6/Ww8IGjQ1zcJZ2v1+t/jbUZs7wToDEnY2y3Ol+zY9LXmA17BxNmk2BGgsTr1HaFxY5pvM1OqclbM59XufMxtf9dRyG40uWgAt8/aBHPNInadYuLze0R+HdSDwjEvc9jabzkOV0Fk5iA4C7tILSPHb7MGhg3uaGZTJPZA1IJIBGlpBHloO6sVKDV9peq06+xl8OS1T9H5e58U+IgO+812ovN+80gydR+Lxdq2ZiKZdle0ydWmSc0iwMTJItNyR/7ouqnHYV5ZnywWmC6Abxp4wD7tGhYcLj6mU0g4tcbjuuBnUDNz8yfuuN1tcN8euus7HjjlcjnDezqub9k9pkxEGzmAixLTyvDjIGok0Hdmef1v9Vh/aHudFSm9zge+1thGuZ08tpJuJFwB90tI8PkttNZMyZNa7uDYCVcUMPh6z3lnsHuDgWtcG56jzQNRzC9jmkUwXQBEZmDqqKuYDzyEeZt8p9yq8I27vH5WWiph/i2e001fRvz4rq+huo1vh3yT80vHinYuuPcLFJjSA3M1wbVLXknO9ntGjKRDQG5myCZjot49Wbf/ACIPOo8/IfRcuqOIkAmDttbS3mfeV1X1cf4Bv53/AMyre04ONJJu+evnd+97cFluJeGkpVLpWy/XT8TaERFRk8IiIAiIgCIiAIiIAiIgCIiAIiIAiIgND4lhnuNc5Q00XvqHNaab6TmOc0EXzOpzy7RuYWfHEQHjZmR5vb2dSm0C9z3KuvXmsnGKrM+V9Rji9tUOv3WuqTTE8w1zxG3xMF3EmFxDi0tewFwbBAIxTnlkazkebfo3i2pqLtp56aftrkQHspu766sKtavTfiWOqOtTaWuY53bHtKYbUme8WkAmdo/E7Nw+kBWwdoLQARBtnaajNrav5fQxX5KZqU21GvyUAwPBAa5zajXW7W2aIk6c9bGpxFvtWUpYGUXUsj7TLMgeCYizXPMAA2M5RrnK7jZLVcLfxUb253tuz4GtOO1m+G++9v8AFr/tFdx2iPY1YkNfXY9vVtSg5zbXMAkiIPdsBqtD4jhHA97NyEQPIgn3/Elb7jsS12CDJaHU3gwSJLSHQYIHZBcRJtpd2+r41jiC5tnDUGZ015m3n+UKdhG0mnxt/fMjVZq6a4fvLkUjuI5GOc4wWtdrMOgG2lnbRre/MWeHMuEaT8FpPpHjTUeKLL3h0GZdNmzyHS0+ErauFHLTABnKzKHaXDQ2fqvKWMhPESorcvunn7r0ZunhJqh8e2V7Pmrr2fqr6lrWuwD7zp+g+qrcLo49T8yrauIaz8IlVWFbFKVKh16kVGGoV1f1bH/0+n+Z/wDOVyaouuerumRw+nO5efIvKp+2H3UvH8E/BfNyNmREVCWIREQBERAEREAREQBERAEREAREQBeEr1YcSew/8p+SA5dmzOL/AL1/fBPz2geJUVjTN/18f6a6Df3A1pgR9kgf5WkQbHl18LkrJTbrb9ct/mepMyuufdbXkc6ZKfjAG/lrNuesjWxaDmf94nu/dAjXmLgd23hlnfI3vKNUqwZ31AB+Mz4mddSDrVdixDyRfw5AdAPjA857yz2czFK5PZU7MkbTI2/EINvEEA71HKi9KcZ7CgXMPaf2WaSCdXWEEAX0DZjvaqXg6zh2QZvp16aEHqIPUaLRuL13YrFwwwwEtG4DQe2/S86zqeyCTqoOOr/Ag2sm+m+vLeS8FhpVqyglf8vcub+1zJ6N8NYf39RpvIbHL7Tvp7+avMDVDz2WFrTAvve9v1ovitiQxrWBoAgCBsAez+vBZeEVS95cdAbKj7HTli1U8/SzXu0joO36ypQjgabyhnJ8ZtfhPy71rd0tsYbO6NI+EKvBinCs8Y3928+X+oKpqm0LsKehzBFeV270WZlwWGH/AMTPi2VxCqbLu/BWxhqA5UmfyBUPa8s4ossHvJyIipicEREAREQBERAEREAREQBERAEREAUTiWIFOjUeRIaxxjnA0UtVPpPVDcHXJ+4R5usPms6UdqcY8Wvcxm7RbOX4aA0O5BwPjcnf8XT6jPVqQydZsNx1tEeURJ0HdUfBtOSqCZ0cBAkSCHeP2V8kdkeJ+X9+vmuuecn5/wB/koGjxziTOpmT1vM6/Xz+0M4baN/0Y084jyPeWEDl4k/Hn5zO2tszZ1JmwttfXmREX5xHWGntrOTsjxlRj63s6VV4sWscRys0lp5G/j03cdc9FqIAqP5w0eAEn5j3LbOI4fPTe2Zztc2dYBEEzmMgWvmI5mwatW9FXE0qgIgh1xyJaBHwK53t+7UX1qrnTf8Ay7j/AKm71V2lxey/79D3FOJcYBlxsNfwhXPCKGS2/TX4r44ZSBfJiBz93Pqf6HRTqR7Tj167W+ildjUEqcqnHJeS/b18kc9UqyqPak7t5t8W82+bzJPED+6i9yNddZ+ipqrrq04nU7DfH5A/1VTUV3SXdMEYXUy7sjUmB52X6Bo08rWt5AD3CFxD0Yw/tMdhmc6gJ8Gy8/yrua53taX+VLw69i0wa7rYREVUTAiIgCIiAIiIAiIgCIiAIiIAiIgC1b1g4jLhQ2YzvA1iwBJ+i2laJ6za0ewb+cn/AEgTy3Uzs+G3iYLn6K5oxLtSkafgT2iJmWuG86ZtY6DdZqjLDl/UxyOsf2OijYGpNVlhldLZtMlpEdbxzUurqB0/udbb3m1xmLrNPTy+f7+5SyPGt08tJMzcGxkzFoMmLG3tBMoAEXvNtjNpAgAg8w0At3DXd9Rm+8+Z1MHmTJEaEkjQkRS+TiQ0/eO+4ubjefC4O/tDJXjTZrWZkxbQb6HaLyR1DjJA/FmGxYFU0MG2m6q5utQiob9mYgkEWg6yYEz2nK2xL8zSTD58JjbWQRyBkchuq2rV2aS4zpfNMbaunaRmPVq1VKEa9NwqaddefkSMNiKmGrRrU3aUWmuX4ej8D6wWH9m99iWwCNiW3uN4G5BjmY18w4sFH/aXAFsWdINhE/Fsi97u6hZ6G3OYWzD0FRpuK4v7tv8ANuRqirKw4kb02+J+IUPElZ8Y+a/RrR9T9VF4iYbPPRbk7QuzNLNF56tWZuIsP3GPd725f+ZdkXJfVFRnFVX/AHaUebntI/lK60uV7QltV35IuMMrU/UIiKEbwiIgCIiAIiIAiIgCIiAIiIAiIgC596wf8TT/ANmP5nIisey/r8n+CLi/p80aq7v0f9qPmpzv4zfCj83oi6KX4/7FRPQxUe478jv+CpqFW+14O+TV6i3fzMYFsfs+FRUPEe8/8jfmiLVQ+brizNFvxX7f5KX/AOjVXYfvN8PoiLyj9Pr/AGoxhoYH/wAR/l/KFi453W+CIlX6b8mbo6o2/wBTvexX5aXzqLpqIuVxn15cvZFvQ+RBERRjaEREAREQBERAf//Z</t>
         </is>
       </c>
     </row>
@@ -885,25 +885,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marnus Labuschagne</t>
+          <t>Hazratullah Zazai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>35.6</v>
+        <v>73.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>81.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -951,43 +951,43 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="X4" t="n">
-        <v>109</v>
+        <v>600</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>74</v>
+        <v>600</v>
       </c>
       <c r="AE4" t="n">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -997,12 +997,12 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>Batting Allrounder</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhYYGBgaHB4eGhoaHBgeHh4jIxgeGSEaHBwcJS4lIyErIRwcJjgnKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzYsJCw0Nj89NDY0NDQxNDQ2NDQ0NDQ0MTQ0NjQxNDQ0MTQxNDE0NDQ0NDQ0NDQ0NTQ0NDQ0NP/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUCAwYHAQj/xAA7EAACAQIEBAMGBAYCAQUAAAABAgADEQQSITEFQVFhBnGBEyIykaHBsdHh8AcUQlJiciPxghUzU5Ki/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAEFBv/EACwRAAICAQMDAQcFAQAAAAAAAAABAhEDBCExEkFRcQUTIjJhgbFCkaHB8BT/2gAMAwEAAhEDEQA/APZoiIAiIgCIiAIiIB8iRcbjUpIz1GCqouST3sPmdJ5x4p/iKW/48ESLjWoy2P8A4q23mR6TlnUrL/xZ43p4ZjSU5qml9rL2udL+eg77Tk63j/F1nWhhvZhmNjUsbAdmccv7itugnCYlh8TkliblmJuTuTbr3MgB2v7ikX3LHWc6iXSe+cJ4sKVK+Ir0SFFyVZjz+Jnb4ib7ADtK5v4jq7lMNhqle39Xwg9SBYm3mBPEzWZd2Y+QJ+pm5MU51GcEbEafWLHSfojw7xZ8QpdkVADYAMWNxuCSBt2l3PzfwrxXi8KMqs2S9wuZsoJN7gXG86LBfxKxTN77LlHJQFJ8jYwmco9vict4a8XUcSoAazdCykntvv6TpQ4JtfXe3OSImyIiAIiIAiIgCIiAIiIAiIgCIiAIifCIBVYvjVOn8bBR1Ib66bd9RIuI8U4YUzUWtTcLuEZWJ/xABvcm0g+MMciplqOyoNXFNczHmFJsQt99enrPDOMcYRql6VFaaAm1tWI1sWc87TlnaOh8Wcbq4ms+VytO6nfQACw/8t5T02RAzMTZfmWOwlW2PY5bfLodtTJCcOrVAL3y7nuechJlsU+xpWo9RswFhsO/qdgOskopAuWzfRf1kleHVB6W05dgbfhPmIwNVrAqSBv+kj1Il0Mhmrm2N/t85ieVwfQ2M3thSmyEdb8/WRq6sRa2vmJ040ze7qBYWt31+nOYq+YDKB5gAfSfKFIW+HXvzk2nhCRoLehi6Ci2ScChBUm1/T620ns/guu7UQGQoFGpzBsxOt73JuBa4O1xPFkJQgHQkjfQ+g5Ceo/w847RI/lySlQjMAfhfut9mHNZKLIzWx6BERJlQiIgCIiAIiIAiIgCIiAIiIAiJoxWIWmjOxsqglj2AvAPLP4wccF0woAsCHdud7EADoLE3855fhqKMGYi43udJY8cxj4nENUIP/IzNryW/O39q2Exo4f3L20Hwj7+chJlkUZ8C4VnqaiyjfvO+w+GAAFhaUvAaWVR31nRqOczyds1440jFMKp5TZ/LId1m1LzaEkCxIitgKZGUrIb+HaBNwJcZZ9tO2OlFQvh+iP6bnz+0y/9OQbKRbX9iWwHXaaKp6C5+UWco5fxHwwOuYDYWlLwHiBo4mizKGNNwDe3vKSNb/3DrO8r0sy2/HWcZxjhpVsyjn+sshIpyx7n6ABn2Vnh7Ee0w1BzuaaX88oB+olnNJjEREAREQBERAEREAREQBERAEg8Xw3tKFRLXzIwHnbT6ydEA/ONTBmmXVl9/wCA9tbW+lpJp0gLD0/GdB4zwPssS43zurjyY3/G/wApVtTAUc7kD66yqSL4k7DJr25W7D8Jf4YAgaSmwgOa1vX7S/pLoJQzREyCW5ekBpszaTHKCN5yixMxLxmmJt1ma05yiYDzWx7TJmC76SFiOI0wbZxmnUiDaRNEicQ4dnRrb9PLWVw4zZtrjnrY/KXvD8Uri49Qd/WSiqZCTTR0Xgd74NBr7pYf/q+nbWdDPPeCceXCvUosrsGfMgQDS++5Gm2k7vDV1dQym4I0mmLTMMotb9iRERJERERAEREAREQBERAEREARExY2gHF/xA4eCEr22OVj9VPzBHqJ5+F91b/u7T0PxL4hotRqUnVwrKQHABF+R3va43nm9KqW97v95XJp8F8YyjyjtMLh1VBoL2Gs+s0YOpdAd9JjiCeV5SzQiHjsbksBvKvEcSrn4EYjqF/CT6tBEUvUN9dt9eQUczeVmI8QlfhAAzKuhXQsSqjMd9jcqCBbUziV8BtJbswp42vf3hYdDOnwGIzKJSYl6qorVABnFxqrjcgglfhIItcXHfWTODOQqswyk7ickiUXZL4pTus5V6OGzEOxfXXW3oWnUcbQuhAJuVPw77bCcTS4Y7sgCqMrKSrag2a5Q23Vhoeek7E5NPsi/wAGMNcWUADTNcEepBNvWdDQwqghk5766GVdPg6sqe0yg01sClwT/seYGwBlnh1yiwvYdftDdM4k2tyDjKIFcudgobz1y2l/4L4pd6mHOye8h7HcfWVWOe2V7b+63lvbXuJn4WZP5lHXTMGQj0uPqB85KMviR1wTxNM9GiImk88REQBERAEREAREQBERAPkhcXBNGpl3yNb5SdMWF5xnVs7PE/DBDUXDa+82m5Jvzv2k5+GjL7osSOlvTtImMX+XGIy6WrWHlr95l4Yru+cMxYXvrrY89flMu6PUmlJF5w1Cq5Tyk7JczC0NU5fOJFSRoxWBWpbPqAdF2/7kWvwqkbXTbQWAIHYdpYu5I1/faYanYzidFnSVWMw7ZciLlA0BNtB0HbtM0QqoW50Fr+UnVKX6mRiVOoN4bs6lTNtY3A13/ZvIa0h8QAJ+Ulot0mCKt7HpcRwdkjJKjdLSTTc26SLSKk2BlktPS84cpUQseB7Jye3zvb7zV4SwbrUUPoxcMANbAe8SfMCWzUwU1Fx08jeXHAcAc5rMLaWUfiZbCNtFUsijBnQz7ETQeeIiIAiIgCIiAIiIAiIgCIiAeaeMuF2d12Wr7ytyzDcfP8ZzuAw9bDjOQHVrXRN9rZjfnPYOIYBKy5XFxy6g9Qes5TG+H61M+6PaJytuPMflKZwfKN2LPFxUZckNWzKCL6gHXfbYz40yWkytlcMCRcBhbTy9OcxcSprYnavY2JvYzbYCRnO0VanwqNzc+QG5+oHrINliZC4tUZ/+NCBfc9B+ciu7ollQOwsPiyi217yatHUnr+9TMsyjdlvJJBM+YfFAZQV15C17Hv1mVWo17WXLYW01vrck9OgmOdevyE+uy23M6kw7NNSiG1U5W62uD5iS8Bii10cZXXcde4PMGVjcUprVWiFdnYZgANAOrHkJPqUfeR10YEhvIi9vmBOS2I8su8N8Sg62YD6zsBONwerj/YfadkJfi4MWfk+xES0pEREAREQBERAEREAREQBERAEREA5/xJR+Frdv39Zz9YTruN081JuosfrOTqdesoyLc1YXsRam1+n2m6it2B3ulh87/lNT6TGm+Ugcr3HbtMzNKZo45g6tSmy0XCvpa4uO4PQnrInCMHRCkVS3tBkJzM18x91kW1gwLaC3aXla2hB3keoisfeW/wBDLE9qO0SHwWGAJObc5ffYWsdRvawFxNWJxFFP/bQM3ui2pGhzZgxuO3pND4dN8u215Iw9QbKonTnT5bZX4bCWqPVYDO51PQDZR2EtqS3mlzN+GGk5yJOkT+FJeoo73+Ws6wSk4Dh93PkPuZdzTjVRMOWVyPsREmVCIiAIiIAiIgCIiAIiIAiIgCInyAasQmZGXqCPpOCrHWx0/OcL4t8SY161Q08TUppmIVEbKAAbAXXX1vLvgXGfbUkLauAA4O4a2t/xvKcypIu00k20W5qXMxYc5hVW+v8A2P0kb+Ztvr3mU2cFmj6TYSJBp4xTpcR7bvJoKRIqPyAvMVYzFcWNmFv31m44pANTcdt4J9SMUDX12lpwvCl2CjzJ6CVlOtmNlBPb7mdL4cSzN2UfU/pLIK2UZZ7bF9SphVCjQAWE2RE0mEREQBERAEREAREQBERAEREARE+QD5KXxZxP+XwtR+ZGVP8AZvdHy1PpLq8828T+JqFTENh6pZKSXVmytmLahgotdb/CH6ZrfEDIyl0pum/QjLxdHm9V76HWaaLvTcOhsw+RHQ9RJ2MwpbPVpU3/AJfMcrEGwF7AE9e3L6yCDLU45I/7b6P6mZOWOVo7zgnFErp0cfEh5eXaS62G1vbXtPOqFVkYMhysNj9j2nb8H4ytQe9ow3mPLhcd1wepp9RHIqfJ9fh2aBwl+TN85cqewM32HcSm2anFFNT4O53dvnJuH4SAfeYt6yYHPUfKfVc8yJJEaRIpIFFlAA7SfwbiCJV9kzWeoDkvzyakedmv6GVaPOF/iHj3p1sKyMVZQ7BhyOZbHz0luPlFGb5We6T7KDwjx9cZh1qCwcWFRRya2tux3HnL6aDInZ9iIg6IiIAiIgCIiAIiIAiIgHyfJizgAkmwG5M5/iPGCdKei825ny6CZ8+phgjcn9u5KMXJ7E7ivF1pKQvvPsFHXlczyvxrhnerTZgCzjKXFgM3JTysBoPKdilO5uZ84jgUrUyjDQ7W3BGoYHqDPCftSbyqXCXY0+4i40zzxOLYk01wByIhYIcwIO+xbz1v6bTT4i4C2FZFZ1fOCRluDobbdNtb85J41wyotUCpsbLnA0bkGPRuomvA0aVKuVxqO6ECxUsRyAbqRYAadLT18OeLqWP1cV3fqYsmJrZ/ZvsUUzo1WU3UkEbESRj0Qu7UQ/s7nLcXsLZrEgWFuh5dZEInpRalEyNOL2O24FxsPZW0cDbr3X8uU6VHBE8npsRrcgjYjcdxOx8P8dD2p1SA+ysdA3Y9G+hmTLhrePB6Wn1d/DLnydMVjJF58vM9m020tBOE8bIKtY0v6lpqy9mu347eoncrtPNvF2KyY1KvLKAf9QbH8/SSVtbckJ1W48A+JWwdcMxPs292qv8Ajyb/AGU6+WYc5+gKFdXAKkEEX076gz8y8QphMQ4Hwt769LMM2na956B4J8RlUWg7G66UmG9jshP0Hy6S3LllHGskVa7rvR56SUnFnsMTmsDxirezLcd9G9TtLanxSmbAnKT1/PaQxa3Dk2Tp+GWODRYRPgM+zWQEREAREQBERAMSZqr1lRSzGwn2vVCqWOwnMY/EtUa525DpMWs1cdPHy3wicIOT+hlxDHtUPReS/c95CEzWnMvZz5fLmlkk5Sds2xioqkEp35zYqMJiBbdQZvpBToGKnodRKiRqxGFV12HrKnH8OSpSdHUe6jFWt7ykAm4+W3OXxUr8Q06jb9JrxOHDqSu5Uqe4II+8nCUoSTTpojJJqjybgPimpToPTVUdH+JHBOUkC9uotty1jFeHq9OitdgpRrahgTYjQn8NOstMR4dNXCUK1ED2q0wrLycrdCPO6mc/hcazqtM1HFIt7yEkhDcA3UkbWHlbSfV4MyyNyxUt915rweZlxuKV7rt9DQomf1lv4h4dQpFDQriori52JXXQkjqNALcj5SnTU3+U3QyLJFSXD8qjNKLizqvD3HzcUqzb6JUP0Rz+DehnUudZ5c7WnR8C4+VslYkroFc65eQD/wCP+XLnM+fD+qJv02p/RP8Ac6qo5VSeg0nn3jPC6oexH3nd4nYjuP3+sruI8PSqpDf9HqJmjLezfKNo5jB8G/msNTyG1ZFyqTs2UkGm3QncHrod7irwzsj+8vvI1mRrjbRlboZ3fgvh16Gdd1d7jqAbfPSTfEnhlcSPaJZMQBudFcAWyueTAaBvIHSVrUPDk6cnyvh+DHmxdS6o8oj8C8TB2KOTpsW3K6a352vY+h5zqMQmZbjXmJ5L7SrSDUWTK9xZX0Kt8IYHkLEqeRUztOH+LKFPLSrFqTIArLUBFmtrZhdSOY7Tz9bo3GXVjVp+NzuLKmqkdfw7HsotvbdT9pc0eIq2h909/wA5zOGrI/v0nV15lSD+Escl5Xg12bD8L3S7MsljjLc6EGJRUarL8LadNx8pYYLG57qwsw5cj3E9jT6/HmqPD8FEsbjuT4iJvKz5E+SPjauVTbc6CQnNQi5PhHUrdFXxCsXaw+Ffr1MhmlJSU5kac+R1E5ZpuT7m2CUVRDWlNq0pJCQycwfQylQZKyOac1NQvt8pNWx8xuOkxdbfnDhtYsj4eqR7p+vL9JkUynMvw/1Dp3HabWphuzDn1mCvYgnrZhFVzwOTn/D65BXo/wDx13A8ntWQjtZiPScT4w4WKWK9oq2SuLm2wYaN87g+pnfPTC46ov8ATXoIw/2psysfOzLM8dgFqrlcXF8w7HtNizvBm613X5W/8lfSpxpnmHC6q0qiu9IVUFwyNsbi3kfW/OWeJ4Y+Lqs+Gwxpo391lF/7ug5aDadtgMCiaBB6iXFOaX7WbfVGO9Vbe37FX/Iqq9ji8L4DCrmqPmb+1fhHqdT9JEWg1ByhUFTsbCxHQ+U9HUSBj+HK6nTUaiZsmszZPndrwXY8cIcIpMDjA4FOqoIA90qLFfLt5aRUwpXQm99iOY/e4kypw0LlNvdbmP6Ty8rzPEUWCMDrYFlPkL/UTmm1TxzUXw/4LuxC8GZUwhd/hzubdffMt1cuwYgKd7emmnXz7TkeFYo+yoqNiMwHdiWzHyvpOswLaTZ7Q1T6fdR+5TGG/UzTxDhdDEqFqpm0ur65xyOVvtz6Tl14LiMM71HYYjDhQrBxmY0xchrNu6a6c1Oh5TvFYAdBznM8cetXDU0dadNtGBXMzjoW/pv/AI695iwahxXRJ7Pz/RyUE3aW5V8M8O0mquaDth3AzI9FiF1FwSvwsp6ES+4Jxl8/8tilCVwPcddEq23y/wBraE5eYuRsbR+BYD+XsquzqLgZrXUcl03A117yR4mwftPZhTlc5mpuP6XWzp6ZhYjoxkvfKUnGTtee6/3g707WtmXiH3iIY5WVhyMhcOxvtRSq2y50DFf7Wt7ynyYEeknVxpKN4N+U/wAElT+5eU3BAImyVXD61mynYi489jLWfU6XOs2NS79zHOPS6ErsU12tyH7MmV3sCf3eV6CZvaGSoqC7ksa3sZZ8tNjTEzxpRRemY2n0az6Jg4tr9fse0g9twanGU35cj9j278ptVr/cT6CCPxE1FbG3Ll+RkeN1wd5MHUqbj4fw7eUVFDDzHzH5ibc3L6faaQMunLl2PQyEkl6EkUXG2Kvhap/oq+yc/wCNUZQf/sEMtWXXuDr+B+sjeIMIamGrqujZCV7MvvqfmBJhe5zcjY+jKG/G87OpY4+Va+3KOR2kyNTW1QibDVRXCF0DHZCyhvRSbkTVXouzMEbIWIDOPiVbG+QbZibC52uTOb8QcKwRo1vZGmK9Fc5Kvme4IBzm5Y+e4NowYYzaTb3fZXXqcnJx4O2QzMiU3hfHNWwtKo5u5BVj1KsUv62BlyDOuLhJxfKdHU7SaNNWiGUg6Dn+cg08wORh89LjqLyxZb3A02I8wb/lNGLpEqpJJIufU72lbjGm+5OL7HE8CwLFwg2T3SemUlfsZ2GHphQO5t+sj8Nw2VqrDd3Y36C9h95OrJYLbkZ3LNzk5EvoaXAzMGIAIsLkAXJsB5k6d5R1Kwz2pKlxe71L5AV3yrcE26kgecl+K6yphqzsbWVSutiXDqyBTya40PKYcLT24cgFFqDOgdTdkcEHfmGJvvoUtNei0qn8TV7vb0M2WcltEh0sRUzpndSrkKbKikFhdWFtcuqjXqekm8RqXoU6guCja3tcalGBtpcNK7iuVfaBQSzC2ZRfKBotO40GwJ17St4r4kqUwaLUgaTqzq+oZlf3wynYFGJUjW9uWkvy6Pra6FT8fkrxZWr6js8NQCFMuzM7AdMxLkDtmJ+cl4trL6iQPDtf2uGw9XqoPzW0mYvVkXqbmebNNXfJpVGdZipRhuCPrLvDVQygj/o8xKPGfDbuv4ydw9rOy8mGYeezD8D6z0vZmZwyOHZ/kqzRtWf/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFRUZGBgaHBgaHBkaHBoaGBwaHBwZGhoYHBwcIS4lHB4rHxocJzgnKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzUrJSc0NDc6MTU0NDQxNDc0NTQ0NDQ0NjQ0NDQ0NDY0NDQ0NDQ2NDQ0NDQ0NDQ0NDQ0NDQ2NP/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAABAECAwUGB//EAEAQAAEDAgQDBgMHAgUCBwAAAAEAAhEDIRIxQVEEYXEFIoGRofAyscEGE1JictHhQvEUM4KSshUjFjRDU3PC4v/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAQQGBQD/xAAuEQACAgEEAQEHBAIDAAAAAAAAAQIRAwQSITFBUQUTMmFxgaEikbHRM/AUNPH/2gAMAwEAAhEDEQA/AOShCF1WcSIIQhLY6JpRzTCXo5phJkW8fQIQhKkWECEIS2NiAQgKUtjokIUwpjxS2NiVQrOYQYUFufJAxkSEKYUIGOiClQpQMbEChCEDGRN6fF1G/DUc39LnD5FdTg/tZxLIl4eNnifUQfVcRQvRlJdMXmxxlVo+jdlfbGjUIbUH3TjuZYf9WniAvUBfEV3Ps99pKnDkNdL6X4Sbt5tJy/Tl0zT4Z/Eihl0nFw/Y+jcdxrKbcT3BrQWgkkAAuIaJJ5kDxSn/AFhn3jabTiLm1HS0gtApua12IzYy7D1BVeMbT4qg6DipVWlpLcxNpvkQdxYhJdl9iUqTy+i0guY1kSS0NbNxORJgncicyZs22+OitFQSe679Du/4rkhR/hD+L0QiFcHw9CELqM4kQQhCBjomlHNMJejmmEmRbx9AhCkBKkWEDWyj5ocPRSb311/dLYyJcOgzGfuEtxnaNOkJe9rRoMyegzWfaHEFlN0GDFjmV4F7pcSSTfMoOwnLaelrfaq/cZIiJcbnwSFT7QVXGQQB+FcpzBcjxGaqBewGmhkfsvUiHOQ4zj6gdON4N47xNtvey6PCfaJ7SA+HDeIPVcVrjkoLb7A66LzimejOUemfQuB41tRtspg7gphw02H8rxfYPaLab8LzDXenNe0+KCPY0Pkq847WX8M1JWQ5lwBr6KpCuXZu3sEUzeN7JLLMWzMoWjmZxp81mQgY2LBQpUIUeyeAQhChgI7P2Z7cPD1IJJpOPeG35wNxruPBfU2OBAIMg3BGRlfE19A+wXauOmaDjendvNh08DboQrOnyU9rKerw8b19z16lQhXDnHwRCELqM4kQQhCBj4mlHNMJejmmWj5H5FJkWsfRAWhuThUOZAG5QHG99Epj0TTn+nPUbhFgSPUfJVL7RAVUtjYo5H2mdFMYXEXIibny0Xj2NcSAASV6btt+OoGD+kepufovTfZ7samxrXFgLs5N80qU1EZHG5y4PAVezarbuY4TuFh9w8nn69F9wPCsLb62/sue/sGnOIMHkB0S1m+Qx6f0Z8gPAvF8JuDposHMIsQvs3E8JTwhuES3I/Vec4zs1moBO+q97889M/DPnpzGvvNey+zHGF9MsJMtMSdtB0XL7Y7LY1pe20aaFK9icSWVW7OsfFHJqcbQMLxzSZ7eBuLDZA31Nh+6za6MlfFNyb9FUZ00izs+Queaze6TKs42gKTTyOh/ZAxseDNQrQqoUeyeAQhChgIqur9m+M+64mm6bF2B36Xd2/QkHwXMUTsvJ07JcVKLi/J9ulC8x/4mG4Qr3vYnJ/48z5ahCF22Z2IIQpaJ8j6IGOibcOy89B5pppgAnUEeqy4cemE+p+hW862gExKVIsR6IdoBJO50GVlEAONpygKdCZuYI81MkZi58/4CUx8TJ3qfcKql5UJTLETg9mMnjH4hPxfRex4aq3EG4w2NJAXE4Snhq1ngSfuw4dciPQJN/ZnDtbi4itUdUcCYYJfMSSGiTGfKFWnFOXI/HJxXCPozOGBaId6rYU3YcOWxK+Xdl8LidjpVK0BxYC8tgmASw4TFwR7C9lxXEOPDmajhIgx8U7A5hKaUXQ+MpSVnR42gxol72jqYXmeNrsDsIe0zkJ+W649Xsc1CXvdUeQx1R4a9owsaCdRnAsNVSnQ4OqMNJ1WkTMB5BDiNWvyPgUWyNWA8srrgv2mwupuAzj+V5agIe39Q+a9VwYcA5jzLmy0ncaHyXF4Hh8Vdm2KfISmQ4TFZFukj1q2YdYtqPqsVrTd7/b9lWOkS1tiRobdFYOAAN+n7IdOgsYmPdkTBN7EnogYa5KPbkeRPr/KycITBFiDsAPNZvF45kfJQTPpGaEIQsFAhCgKGGjT7woVEKLJpCaEIWrZg4gt6TZLRlYz4yB81SjhnvCx12To4SCCHSLZ7TOYQMfEzpS0uBEiACfl81Z7hkB+5W3EM1HjzCrRAiToUmRYhwrIJuJkEDRUe+ffzVqpz0335BZJUizEEKWtJy0Q2c9ktjonRZwJaCXC5bHgSP2RT7Ea94f8AC+4xAnEAbGPBdepUxMxnNxy2ADQPkt6QxCMlSnJt2XoRirRxn9kMpN7oHKAPO2R5pfj2RRHW67XbFQBkBpIB72HMnQXyErl9r9o0xQYz7t5cdAJmfzfDHOULTbDTUUU7O4FrmiQd5ta0Z6hFXsCmO8AHQZE6HUjZdD7Mv+NhacHdc0nNrnTiYDqLAzzTHHsw3Fh8xsvO0uz1Jvo8pxLb5QRa2oXI7F4WKrmwZxua3x1vkAPmu/2g4Ylzuy2YuIqQcmSP91/kjjaiLpOa+Q9Wplji12YMFUTnaTy+o50ZwOpAAJ9Eo5sGEplyLNGP0M9Rn/Khx7ojIFZhMsIgzrY7IGH0ZteLWvyyKA0mSbQT6xCKre9A5QtzT7seyoPSV0JEWHv3ohMOpACXGUsULIqiVAUqAoYSJQhCEITQhC1jMHEY4dk9cx1GnkmaNa4mwdJby6rDhouDawvts5VfGDOTNz0mAPmgY6J00u4QeQkqOEqkgB3gd4+q2qtkdLpUh8WLvFueZWYErQ+mm5O6vQYQZISmWU6QUmOE6KlJ5mN1ofjg6hZtHeS2Nidvs92Jgb/U3Frpbz08k9wtSAV5xzyHNLZsf2XabUESMnCR4jJVM0a5Rcwyvv0OZx/FyYcYbtmSqP42lgwYrR8Os9Mp5yjiuz2PeHADxGfXUJhjnYSzvAQRmcMZ7XQx20NcfUR7P7QwvGBwIOhMG/Jd3juIxNnkuDw/ZrWVccXveBrsnq/EAtjwQSp9EpUcquZcqdi0Qw1KkXcXQfxAGJ6CEPrND+QufC/vqm6YgERA20yMx4pjVRFY3cmUa8lwKl9N0zmo4cX99Vrw95KUy5ddC0LZv0g8jkFD6ZBJIsgNm2+o1CWxydmtFup6BaOdAkqQlOIfPT5814FvyXJLuhy5AG6wfn7y0W9sVzpcc/5WNTPxP9kDJKqApQoZKBCEIQhNCELWMwcRzhhBtfYbg3j3sVm74Mo7xgazrPQWWrKXwuF2xcajp4rKoQMQklxPpYnxQMdEYYIgD4YLhvOUeZTLHSPmlW5tdEyDcZE9NCtKZgkDb19lKl2WIK0RS+LzAWtN1yCli64jRbveBfUhKY+i9RwEEhZMfLp6/v8AusnPJzVqBultjoxpEvZc39Cm+GYXscxp7w7zee4v5+awqi/vYrThKmF7SPeqVNKh0GyvB1zJaTB9fea61ag0MkPuOea4nazyXYmiHaEbcxquDxPadUWHySdi8DlllXKO5x3HQLlcp/aYDTfouJVfVebgn5LfheyXvu8kD3kp2pLkHdKT4RV3GFxk/DInnF46L0fDcU15AD5cWh0XsDqdN1yW9l4z+FgtbM8hsOa7FKmGNhggDRdLT+z5ZlunwvyU8usWGVQ5f4GGvAJtOaZYRFlzqbbX1P7LdlQhczUQWLK4LpHV083lxKT7Zu10uOwELOh8XqFLnjCSNVSgbjl8tVWfZaiuGbVHXjzWFXIE55DoNVZrrkxvI5KrjDRprzP8ISZKi4+Kw0seW5WLx/Hv3mtWAGS2TsPeipVZAE5lCzxmhCFDJQIQhCSJoQhaxmEiOcJWw2PwnI7HYp1zAcwCudSMGwmbR+L+QtqZggNBa0kkHwy80DHRGW0WjIR4n5KRTAmLSl2cQ7WDYHndbNrWmClSofFMwqUy1UJTbyCI8Uq9sJMkWoOyFelmqLWg0zKWOXReoeU++iqMwUViCb+ixq1C1oLG4jMaDnKB88DI3xQ49hndDOzgbuACa4bvNxDkfAiR81H33oqTb6LkYplP+ms2SHEEPOFvwDP83T8vzU8Z2i50sp9C4/QLHhy1gAx4hlzH7hXdC8SyXl+3p9wNZp8vu6g1fdXzRphUPeBeP5Vq9QBsgYjBhoIkna9h1K8tV7X4ljiXtzPwub3Ziwa4XsOZWhyazFjai336ehn46XLJOW10uLa8nouG4qSQ8AAxEf0HQn8U78wmatEt6aFcrgOJZUHdNxLng2I/cXzy7q63ZvEYm4XQLwJNiNAZ8L8wqmq0mPULfB8+v9ljTayene19en9GS2o0jnMLSpwwBnTK+h28lc1AP4WcyYpY5OMlyaLHmjkipQdphgEygUm7ed1m+vGigPcdY+L0CWN67NXOAGyTqukyfAclpi1Lbxba2qyd7580DJbshQFKFDPIEIQhCE0IQtYzBxGeEPeb4+cW8VdoxNvO9jed416hL0XwR1Hz1WtJwHxCx8vAjIoGOiXbJAMRaPBoz9StWWiPfJRRmYcIbBDcuWo5KwbaOnkY+qUyxB8FsHwjO+f0VKjffUlXIkEajzUOvBjXLpKUx8WYsdBmJW/3jTuFg0WKc4DgXPMxYGPLPqlqMpOoqxspxit0i3D8NjiBnyz6WTXEcMxjSAASAb8438R/uBTzGhgGG82xbnafEDbvBK1f5+uXKZj8JcNFew6NVc+X/BSyatuVLhfyJdjVQ2i4uMBhLZO39PjBCUdiqZd1nqefuw5rej2eB8RkTIaDLdgdjbXLom8AHv3CTpvZlvdl/Y6Wo9rQx8afl+rXC+gg/gGG1x4gE+ZWPEdmx8Bk2sZHkYiF1XOgbcydOmoS7qo3z5WnISYBGi6MtFhmuq+hwpZpyk5Sdt+WcSoHsBkEC5JIkADP3zRTa2q2Kjc8gfQ8iuvgxENPIukAwXksY13TvAzngaseI4SBiaO7mRfuggGekkjkQubqvZ+xboO6/c6Wk9rZsL2ydx9HyqPKdp9mPo99hOGc/wCps6HcafNdDszj8bZgBzbObpe4cNdPRddzcTSxwsRrsbJOnwbGWawD5nqdVb9nabPH9U+E/Hlk+0M2lnJPDfKuvR+h1eC4sPBa8CRY/mF/MyIt1lLsqw/BOksP4m6z+YeuaSdmsuJDnAQ7C5pxNdsduh/ZN1+hWSP6e10J0WpeGd+H2jrPbMblBvAg3vbPK6z4etiLSRBI8A4DLobkdFqCc3Cwy0/lZXJjljdSRpo5Y5F+llg7veB5+qWK1J1ykEf2GyxKUxlkoVVZCyUCEIUBCaEIWsZg4gtWVI/j6jIrJCBjonQYWwATY5EG3i3QqX3gNvGqrwtcGzgJ336pxKkh8HRgKZJk26LQUx1VyYzWL68ZCUp0h0bZc0m7R6Jt73OLKNO0wCetzPIC/wDdK8M+8zzg522jNdHhqeBpc7432sRia03ItcTlPM7BXNJFKLl56QnUN7lF9dm1dzG4abRIjPVxyieY9XBLF867GfUO5b8jiGqUq1CT79gR9dlc1z0JzOs6xtOfUldGOOkilJ27NHuAzty1UtN+ewuZOXj5AaysaTe8Mp3OU7ndSQHS5xykRe4HM7n6oMkqe1MOMUluZvxHD1GPDXOaTGIixAAExa2ROW6R4umMYaBAJJIkGAAO7I5keqYoMwd57YsXNBygXgjMTA8LpNky1xzIM7z3Sbb59YcEWByfLadcWuLJyJJf7wbshxeSblxkwA4QAy+hyxA7s5qz3yTMQ3OMi6ZIFzbEb8+irROFtzEYxaWuAc5x0BkZEGRF1RotA/FA5x/+iU2KsVRUgmSdfpb34pd7F0Pu9Nrfys30k6MjxzXsWT2J97EtUapkrQUWLscRcJ5laRJznxjQzp/CTwooPtP4bHofhP0XH1+lWXG67XK+xf0ed4sifh8MZc73/KEIWTZp0CFVWQsNAhCFAQmhCFrGYOIIQhAx0TSjmnGO3E+MFJ0c0wky7LUOjYNvkYO6CBroY5xoVDDOo6QArEaEGOg+aWxqH+xqUvOLIAkjTr0TPaHE5tbEA57/AMW2yDtljwYwsJ1JtOw/mfALI73+ucec2P5hs5dLSY6imylqJ3JpGIb796z6g7rVjFLWX5e/T6QtmM9/wrzkVbKMsZiffP5rRgGxdJmCR4RvnA080N87+E9d+l+ql7TrrNoN97WxWzbAJFxcJE4Rk3fkJTaFi2O8DLTnGjZiRO2V8jINiluHZDSLd0ub4DLwgt6WOhTxMGd7mLzNg8aOOh/EPzArB7Q18nIhsme6RfC4HzE6Q0n+pNhUVSIbbbbdtmFcgAc4H+7u5afEtOHMNb0nxMu+ZSvFvgkX7k52s06aZR59FZjzbk0eZT1G0e8HTpXVXNm4WDKkNn37hbOfDRv9Tp6oGmmeFawSb23I2TvECABvbwGZWRb33jp8gmJnkJ072SzG4XuYcnC3jceRlbGxPIqvaQsx43gpOVfpv0Gw7o3Csqgqyws1TaNlB2kCFVWS2MQIQhQEJoQhaxmDiCEIQMdE0o5pz7k5i6To5pyk4zZJl2WYXRH3Ttlo3GOfqt2k6iFrwzHF4wjvA4h1b3p9EG2xql6jbuHfgYcLo7zRbMtu+J2g5/hcNViKRIxYbQwk6d6Awz+YQN/hObSurTbWrF9JrZAbV+7LpaCC5lN0GLiziTu7omKABcM4dXBm9m0w9rROg7h5d7mujHNtjXHBSli3O/U5VHgnuOENJMuEWmRixcrYTfL61rUHtaHuY7CQCHR3YORLrgDrPQLpVarmMe9hvTwucJIlri5rh4ObJS7OJe9tCg980/u2vfl8DS54uBMBrWjQXzKNZZ98V5/lke6iuObOY+s79PSZI65x5hFIEfUbxcZXBGYOYzE5L0lPhhU7QdiALQMUHKMDQARkbu5rnP4ZrKVQuHeFUU28gJLgAc8hY+CNZ4ulXLS/P9APE1f3/BzK79MjmJyJOZEWvqMnZiHBK1X42mCWlvxNzIJydeNQDNsUaOsdeJdiEZ/OeXP13BSReC4Bzix4+F4gTyk90/pdY7jJWVGlYtIyqlzmXEGA0gTh2xNtERoYIiNlpSy/U4nw/sErxbXNPfABEQ9ollspaQcJI8NjCcoach802HRPg2cZc1viegv84HgU1wVEVamEvawNGIl0xiNmtAGboMxzSDHw0vN8WQ1wj4R/qJ9U1w5NLCc3hzXnm+ZDen7IJptVHslUnydY9lMc/u1S8sIDmtpvbgaLudLvDZZ1uzGNa+uBW+7LWuaSGXcSQCSD3WxGYm6pxHaDg97wGh9UOa4C4AcAHR5LCn2tWbZroDW4AC1pGH4oIIh1ybndVPd6h07/AN8+B+/DyqEO1ezjSc0HEC5veDgBheACWggmRhc03uuc4Yqb26gEjwum+O7Qe8uLyHFzw8mIOINwWiwGGBHIJZhhx5hNW5Rqbt82C3FyuKotw7pY08gtVSmwNAaMgICusTlac215bNdiTUEn6IEIQlMcgQhCgITQhC1jMHEEIQgY6JrQzToqxYfJI0c0wky7LUFaNjXPP34LThOIcHiM777GyVVqb4IOxBS7ppjtqao9dxDXNa0F1nPa5sG4pur0nNyyzdnzVjxTQMIYGvplhc63eLw5w5iMbh4lef4ycWZtGG5sJkAbQT5+CXxH8Rvnc+t7++q6sdPujyyj775Ho+NoOIrVBZoZWa64AhznOpmNZdPvO3DU6RNY1Xmmw0eHYHCZGNrcpBucMXnwXnRWdBGJ0OgESe9BJE7wZ9Y1I2LnOb92Xd14aBAmcE4AAIkCTqGjUuUvTySq/wDzgH3qu6PT8ZVaytxD2mf+zTeCLyCWgGwyOHfwWf2hpf8AaBaRhqVTVbfMOYDrbMnl0XnaPHuaDRqNaJpmgx8iIkOa17jDJBFg3eJRx/GudQp0KjSHUnEh82wkEAGbtInMmLfEghgkpRfp/Fd/gmWSLTXqL1mOEy3rr0mfr4FLVHtiHNMa3P1yPWDzQ2rUbkQ4D+l2YHXNo9OZR/j25Pa5ls4xNj9vTkuinXYiirHBtmuJb+FwDsPSR9PNAbbCNbW219PmjieIpMYXuDXtH4IMnRoGhPsJXsjicbMdplzQNu9+0DwULLDds81YW17d3g6VMhzpPws0/NoPAeruSZpCTiOk9MRzPhklaZgAAcySYk7280Oqg2LrfhYPrdE0CbjvFztBYJZ83O+SsSALtMD8bi0fRLVarCbFgOweCf8AldeUknRKiLVcncr/AFU/1A7hTWabwoo3PQKjrMmyEpfIs6eG+cV6sZQhCxjNagQhQELDRKEIUBCaEIWsZg4ghCEDHRNKOaYS9HNMJEuy3j6BCEJTHo6fEmcJ3a0+nv8AtiWBb/K0D5Y3oB5Ex/HsGoGX8e8v7wDPdwu4J/I5U1UmvmGHlyA+kf1dLD8Riy3azE2+2Le2hcTGITvhbsCqhtndBP0kmwE7/wC0m6s14aO8b5gag7w6zerpdyCNuxXk3extZsOEuiDnJH5QIc4dMLUmXupCHy9gMB4nE38rhmPdnKavEkHELfiAnvD8xJlx/UfBa/eSAfiaRykA6SbFv5XSNivKLX0PUUbSYQHMiNMN2zrYXaebfFqX4yoymwveAGC82IP6SIDiTthduCrVOFwS+m7CM3DJtvxA/D4y3YheK7X7cdXdEYWjKJ7xyxuGp0GZASNRqFijd22OwYXklXgX4t/+IqSBgLjDGDIeWu56r1XZHZzqbRTxY3HvW8J8OqX7I7ODG43DvuGYvhH4eu66PZlYipn3SLDnOa4UdZOOXfHnvs0uTQYcenUcrqUmqXlHWodil13vA5AYj5m3oV0G9h0Rnjd1eWjyZAWvCVZC2NRKy63Pk7k/twgIaTDHpL7iL+xuGH/oMnctk+ZkpPiuzKH/ALTP9oXTrPXP4mqqznJ9j1BJHn+K7Npg9wFn6SW/JRSoFou7FOUiCI3ixTHEvuqP0GwHrf6o3lnscb4YEccHkTrlEIQhVGXUCEIQsNAhCFAQmhCFrGYOIIQhAx0TSjmmEISJdlvH0CEISmPQ+3/LHR//ANUD4/8ASf8AmFKF28H+NfQ5eX439Tfh/iZ+o/8ABqTo6frf9UIT4Cl2R+DqfqtOC+D/AFVEITJdHhLtD/y1T/4n/MLxXBf59P8AV9ChC4ntL4/sdT2b8S+qPW0dVbh/8wePyQhcTH8LO37a/wC1iPV8Fkm6mShCDweF6q5fE6oQoJOVxGavUz8B8ghCmXwEQ/yFUIQkMsoEIQhYaBCEKAj/2Q==</t>
         </is>
       </c>
     </row>
@@ -1012,40 +1012,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Steven Smith</t>
+          <t>Ibrahim Zadran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>49.2</v>
+        <v>33.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>76.2</v>
+        <v>83.3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1078,58 +1078,58 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="X5" t="n">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="n">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>Middle order Batter</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYZGRgaGhoYGBkYGRgaGhkaGhoZGhgaGBkcIS4lHB4rIRgaJzgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHhISHjQkISs0NDQ2NDE2NDQ0NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0ND00NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABBEAACAQICBwQHBgUCBwEAAAABAgADEQQhBRIxQVFhcQYigZEHEzJCobHBUmJyktHwFCOCovHC4SQzQ2NzstIW/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EACYRAQEAAgICAQUAAgMAAAAAAAABAhEDMRIhBCIyQVFhBXETgfD/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQCkSG0v2kw2Gyq1VDfYXvP8AlGY6m00XSvpOqNdcPSCDc7nWb8gyHmYrZDkrqcjsbpvDURerXpp+J1H1nDtIdoMVXP8AMruR9kMVT8i2HwkBiayXIOsx3/5k3I5i7xU7f6OGzEa34UqN8QtvjMZvSPgRsNQ9E/UicFDkG6nZnz/3EyHxxsDlw+Vv3yi8qrwjuS+kjBf90daf6GZNHt9gGy9cV/FTqD4hbThFPGfaHlMlKgIuCI/IeD6EwensLV/5eIpseAdb+RzkmDPmjXHESRwOmcRRN6VeonIOSvihup8RCZF4voaJybRfpLrpYV6a1BvZe41viD8JvOhu1+ExNglQK59x7KxPBb5N4EypYmyxsMREZEREAREQBERAEREAREQBERAKRE0/td21p4S9OnapX+znqpfe5G/7oz6Q2JGwaX0xRwya9Zwo3DazHgq7SZy3tF6QK9e60L0aeYuLF2HNvd6L5zVdI4+piHNSq5dzlc7huAG4chMaRclzFVmJJJNycyTmSeJO+eHqBReWcTiNXIefCReIrk7/ACkbXIyquIa2szWuMlW3xO2RdZyTKVHvxhKbnYPOPX7K3fqGHdrhdt91/iDukjSswsNh8zzPA8pjU6ZHtAb8x+kyKNBhmrb73HyiysVjK86pXmOMz8KRvW42ncw5gj/eeVQnMXvMrC1NT3VI26h1h/UjDNemY5TO1rIo1Fbm2RP5SPvcOu6eFBU5bNhU/wCk/SZoxQPuMOBAv45d1hxtbwmJ6w3sBtJIW3nqHePu7RCWiyLvMSkumojoGXIjJh45ERVSwHMX6bMpcy2yyx02Ts/24xOGIVyatP7DnvD8D7fA3HSdU0D2ioYxdak3eHtI2TL1G8cxcTgUu4au1NldGKspurKbEHkZpMtM7jt9ISs0Hsh27Wtq0cSQlQ2CvsSodwP2W+B5bJvsqXabNKxERkREQBERAEREApETS+3var+GT1NI/wA9xe+R9Wpy1jzOdvOK05NsXt1209TrYfDsDVzDuD/yuS8X+XWcpZiSSSSTmSTck7ySdphmJJJzJNyTtJOZJlJFu1yaIgTxWeyk790Ro/Hv3rbh898jHqcJdxLGY60yYQ7+nunSO05TMpKTsBPjLYtbgBK+t1dhtJvs56ZJw53/AKy7STcCf7c/C0wabsx48ybDzkxhdHuwugJO247qDqxzPgJN9drx9vVLCve9vP8AxJE4ZCO/ZDx2Dx3eOUspo+oPaZD0Zrj5XmXRDoLE6yWuRm9hx4gdARaR20npfoaMOZQjXAvqk6quOIb3W57ONtsjse9I3F2DD20cAOp423/I/Ge6tV09gnV2oNoH4Punh8pg46oHvrKcrMt8iB7yBtosTcbsoYwXbBfEnXJJFyNUkbGyybn45z0mOLaqkfrtmP6rcL2333c5aYWOU1ZXacErMbCPdReZMqM6TonYXtqRq4bEt3dlOqxzHBKhO7g3geM53Ecuis2+k5Wc59HfawvbCV2u/wD0nPvAD2GO9huO8dM+iy5dos0rERGRERAEREAh+0umkwlBqrZn2UX7TkGw6ZEnkDOD4zFPVdqlRtZnOsx4k/IcpsPb3TxxWIKqf5VK6pY5MfffxOQ5AcZrEjK7XjNERElRMbHPZb+EyZZxqayG20ZjwgERWsNu3hLTggbR0nipe8qKdrFj++cSu3ukw8ZmYfDBt/idngNpnigutuy6ScwGEvkFA8MzxufpM8sm2GG2Nh8CBnbWO4H523SRpI7WBFxz1reFjl5Xk3g8IBa9ryVw+HUHYJn5N/BDLSdAAoup3XJt0ItbyEyKWgahsdl+Oc2ClRUZ2mWrxbEwQqaABFibHllnxmPitCsq5KHPHf8AEzZVaV1Ylacn0rouoneYFQbG2X0yEh6qzr2l9HCqjDeLEZfZNyJzDSWDKEg8fhNMcvwx5Mde4tYI5zOmFgl3zNm06c2XZERKSqjlSGUkEEEEbQRmCJ27sV2hGMod4j1tOy1BxPuuBwNj4gziEl+zGmmwldao9i4Wov2kJz8RtHSOXRZTbvsS1SqKyhlIKkAgjYQcwRLstmREQCk1jt7pj+GwraptUqfy0ttFx3mHRb+JE2icZ9JulfW4r1YN1orqf1tZn+Sj+mK9HJ7afaJRTeVmbQnqIgHmeoiAa3VFm8ZL6Ow6Pmy3tskVivabqZLaEa+XDZJy6acf3JenhEGxRJDCpMMmZ+FyznM7YlMMnKZ6JMHDPzkiGiWupeZFNZYR5kUzAmTTXKVAnoPl+/CVjJ5Rb5TSe2ejrd4DMXHUGx+s3lTaan2rb+Yq+46m/Ij/AB8JWLPNo+HoWXWsfpaXJnYlhqldhFrcLAkEfvhMGb49OTPsiVlJSCVlJWAda9GOl/WUDh2N3pezffTYnV8jcdLTeJwvsXpP+HxdNibKx9W/4XIGfRgp8J3SXL6RlPasSkrKSsYquER3OxVZj0Av9J864quaju7bXZnbqzFj852r0h4s08BVttfVpjo7AN/brTiEjJWMBERJW9REQBESn76c4W6OS26iCxK3d+pkhoKnkW8BPGPwZRtYZhtp5/4EytEKQh5sT8hMsstxthjcctVKLnJDDiRQe24+W2ZlPFMBkjeCmZadPlpM4dTJTDpNew2ljexU+Ikrh9KLbMRWHMtpEgg5C/72y/RQ3FzPOBbXBIE81Eqa2QFusR7ZwB3CGcjaPjNcx2lWR8q1JM7Mr1FA8duczsJi1cFhWRl94r3rbszu6mVovJLet3Ga52opazU3G4VBbjYbPjJ5sMx9lrjlb575B9oVIVCdocA8tYW8sop2nL3Gm1GboLatrbwb3+fxlqbThdACqpdnCrsBJA28ztzM13G4VqbvTbahseeQIPkROjDKX05uXjuP1LESsS2JaLREAETv/Z3H+vw1Kre5ZBrfiGTfEGcAnW/RVi9bCuh9yobfhYBh/drSse05dN4iIloaB6W69sPST7VS/wCVT+s5VOkel588Mv8A5D5ag+s5vIy7Xj0RESVEREATxXJ1GttI1R1Y2nuXsKLuo+8p8jcScumnD98eqmFVaGplcId+ZO3z+hlvRSdxQeF/OKQ13IbYLk+EvYHIDoJj+NOy4/VterI9rJlxOWXS++Yr6MYjXbWc3bW71stUhc9uRsedpLULbfhLlVgAcoY5eKcsfKaajiMIVQe1rgAHvHvNrMSwHujVKC3FSd8ldGs6oLkn9/vOesVh9Yy5TTVEeV8hjh49Nz7O4iwF9hEktNjWpORwtYEAksbZknZxtnwmt6EqEgXuAOG/rNmdQ62IuOEz01uLQMPgmZCqrqOQV1kt3DrKRqbLZAjxm5aO0QWQ66IhLK6lTcramiEIy2ILFCzXuLsRY7Z5GGVGyAtyFrcJIU652C/0EvzutM7xze5Pa7gsEKXdGSnOwyAPIbvCRnajDlqFTV9oKxXqBdflJlCTa8w9InuG/A/KQqT9ovtho4PgLoV1qOpWBX7osx8mJ6iax2qa+JY8UpE9dQX+FptdOuBUqYZs1KsgvvDJcA+fwml6be+IqciqfkREPxUzXj7Z/I9YSX9sCIlZs4iUlYgCdD9Elfv104qjeRYfWc8m7eit7Yt140mPk6frKnZZdOuRES2bmHpfHfwx+7V+dOc6nTfS7S7mHfgzr5qD/pnMRIy7aY9KxESTIiIAnpDYieYhTxurtm0sIdZXUhWJ74zsRv8AGWsH7I6CZGHxCkZm1t3ThLOHYXNtlzbznNZrt3+UvuM6gucyatHK/jLGGPeksadxflFuLjW6tcK1jtnptZunSXa2GGsWYX4cpiVcPrMCWbL2dViPO22Mo3HRWFA1eBsL9ZPLRZcxmLkbMiNmUgdDM2oisLWa97jNc8rcZIpgAtc1w73ZSGUuSp4WXYLbgIpdrtXcRiFZtXYR5TKo0L2+UxMVhA6gpky7OfIzM0dUOrZtoy6Qib0yBTI37L+Mw8f7P75SRcSM0jWVBrubIpDOeABBN4VO3ijopaJLlgzsxLuRsS5LavgLDrOYtWLku21yXPVyWPzm/dpe0FEUXSk4qO6lQEOsEDCzMzbByF7k2mgWm3HjqObnz8rJsiJWaOdSIiAJufosH/Gsf+y//vTmmTe/RPSviKrfZpgfmYf/ADHOyvTq0RE0ZtL9KeH1sFrfYqIfBrp82E5BO/dpsF6/C1qe9kbV/EveX+5ROAyMu149ERElRERAECIgFZdw/wBZalykc5HJN4teG6ySmGPeEka9chtQDMWHmAfkRIeg5FrbpM45VZQ42kAN4Xt+ngJyx2onEV01iNcE3sQCCfIbJk4AICDq3tuMwDhUtbVFt2UyMNgUvsI6Mw+Rmk0I2JnR2VkIUA3I5j6SYouGA29bXtNew2jqdthy2jXcbc/tcvjJjDaNVhk7ruyd/wD6yj1F2RIoi7VN+m7PfwMuUHB2ixHl5zEbQ1PVIu973DCo4YHcb62fQ3EysHTIUKx1iDtIGY528JNZ1lOcrzWu172w78yq+BYfRTNhqmad25xNhTpDeWduQXuqD1LN+WGM3lGfJdY1qERE6nERErAEREATpvolw/cr1OLqg/pXWP8A7icznafR9gvVYKnlm5aof6j3f7QvlKx7Tl02eIiWhScC7UaOOHxVanbLXLJ+BzrL5A28J32c49K+iiVp4lR7P8t8txzQnodYf1CTlPSsb7cziIkLIiIAlZQSsASolJWLLqqx+6Mqm9v3nM4Vzq6pzHOR7plee6dTKcd9O5lgAzLooBnItakkcI95U0qVM4ZL58cpNYZNUDORwIVFI42PKSOHYEDPOCrYzQZ6QWllXtv/AE/dp5evt4cf0iyRa9VqvH/J4Tnvap74l77QtMH8gNhy703yihPeI6X3c+c592iP/E1fxKPJEmnD9zHm+1GRKxOhyERKQCsrKSsAv4HCNWqJST2nYIOVza/ht8J9B4eiERUXIKAo6AWE5d6L9Fl67Yhh3Ka6q5bXbf4Lf8wnVpciMqrERKSTC0pgVr0nov7LqVPK+wjmDY+EzYgHzppHBNQqvRf20YqfmCORBB8ZjTqfpN7PGogxVNbvTFqgG9NzcyvyPKcsmdmmku1ZSViIyJSVgARE9pTLHIXsCTyAzJPARZXUVj3GTT2ZyjJbOeqanKXCl5yO+xaZOE94XFau3KVHCekoXMn3CTB0ouqB9Jn4TH5WAblkZFYTAtf9/GbDgcBb2t+eR+cPqP0v0Cz7chsPE8ekykp3NtwlxUAAAA47dk9o4I/f7EchRVxlnttnOZ6fN8TW/wDIfIKoHwnSna+X78ZqlbRdPEYivTJ1KuuCjgEhrorWqrsYZjMWI57JU5Jx+70z5cbcfTUIl/GYR6TtTqKUdDZl27cwVOxlIzBHzuBZnVLLNxyPMrERkT3SQsyqouzEKoG8k2AHUmeZv/oz7P67fxdRe6uVK/vNsZ+g2DmTwjk2Vum9dmdEjC4ZKXvAazni5zY9Nw5ASXiJozIiIAiIgHh1BBBFwciDvnFe2/Zk4SrrID6hzdT9g70P05dJ22YWktH08RTalVXWRhYj5EHcQcwYrNnLp88SsmO03Z+pg6uq2aNc03GxlG48GFxcSHmbQiIgD48htPACS+PpeoprTHtuRrniTu/CNnnxlOz+E131yO6mfV8tUeG3wEmO12jj/C/xAGdJ0ZvwswVvIsJ5/Pzy8uPHP+/9ujhx19VQCJMkJlkIRLi42EfCZFDgdn7vLmW3Xph1Uzl/DpM18KLXtPWFoi9iIyZmAbLPPdkT45yepuRvA/3mBgcMFz658jxkigAy3wL09Z5dfG3WekFt22/zzntBxldW/TdGY4mvJRJ0koUka1NHa33GZfith4TYm57pCdk6nr8Ziq49lClBOihmY+JKzn+RdceX/vyLdRMdruzgxVMMllrJ7BOxl302O4HaDuPK4PJ3plSVZSrAkMrCzKRtDDcZ3oTU+2PZb+IHrqIArgAMt7Cqo3HcHAvZt+QJtYjL4ny/H6Muvx/HDlHMJSe3UgkEEEEqwIsQwNiGG4g7pm6G0TUxVUUqQzObMb6qLvZjw+c9ie2bK7L6BbGVgguEXvVH+yvAfeOwee6dwwmGSmi00AVVAVQNwGyYWgdDU8JSFKmObMdrNvY/pukpNJNM7dkREZEREAREQBERAMHSujqeIptSqrrK3mDuKncRxnGu1HZargmubvRJstT/AEuB7LfA7uE7nLNeirqVdQysLFWAII4EGKzZy6fOUltGaGaoA7nVQ2It7TDiOAPGbl2i9Htgz4XeDdWuxXI+wPe6HOYuFQ6iXUofV07qwIKnUW6kHYRstynm/N58+PHWM1/XTxTHJTC4dUUKosBsA+PjNgwdFa1GpRbY6Mh6OpH1kUqzLwVbUYHdvng/8t8/L8um4+tNE0aGUGi4syMUYcGUlW8LjytJCgnetJHtro/VdcWg7r6q1Le64sFY/iFlvxUcZE4SsGtPXw5PL6p+W2F8sU3Tw9xln+sspRKtJHAi/wBZcrUMwbfrOiJr3QMyqZvMdABbdPQq2lJX227ZdQZfX/aYS1gTtljSGlVpqcx+mW+Bxh9r9LClTKKe8wt0G8yT9HujTSwqsws1Qmqb7QGtqg89UL5zRMFRbH4tFNyl9Z94VFzN/wARsv8AVynYsNTsLTz/AJnJ6mE/2jkuppflDPQlxKBO3IfGcnDxZ8t1jNuW5SdtW7SdkVxhFRCKdUWVmtdXW49sbSyi9j4HlsOgdC0sJTFOmObMfaduLH6bpIotshPc+j+PxXiwmOV3WGWW6rEROhJERAEREAREQBERAEREApMHHaMp1faXPcwyYeO/xmdEjPDHOaym4ctl3Go4zs+65p3x5N5b5FshBsQQRtByPlOhSzWwyuLMobqJ5fP/AIrHL3x3X8vTfD5Fn3TbSqeq6NRqC6OpUjfY7wdxG0HiBNGx+BqYWr6t896vuddzDnsBG48rX61W0BTOakr8R5HP4zC0p2Z9fT9W7CwN0YDvI2y4vtBBII3gzDj+Lz8N1lN4/wAb4c+Mu9tX0NXBAkyyAiRWH7M4ug9tQOv20ZbeKMdYHpeTP8JWAzpt5X29J244Za9ytbyYX3LGHVFtts9ki8Ti7XklicFXIyoudvu+W2Rh7N41tlEjqyC3m0vwy/SPPH82MY44KCZrGMxNTE1BTpgszGyqN9ttzuA3k7Jun/4HFVBZnpoOrOfIAD4zZuzPY6jg1J1i9RvbcgC/BVA9lRwvzMLxZ+Pqe/6MufDH87YnZTs8uFp6o7ztYu/2m3AcFG4dTtM2dKB6TJSkBsEuTDD/ABu75ct3f45M+a5X0tpTAlyInpcfHjhNYzTK3ZKxEsiIiAIiIAiIgCIiAIiIAiIgFIiIBWIiIEREYUiIiBKxEApKxEYUiViAJSViAIiIAiIgCIiAIiIB/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTERUQEhIVFhUWGBoYFRgYFRUZFhUYFxUXGBUYFxYYHSggGBolGxUYITEhJSktLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0tLS0tLS8tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAAAQIDBAUGBwj/xABJEAABAwEFBAcFAwgJAwUAAAABAAIDEQQFEiExQVFhcQYHEyIygaFCkbHB0WKi8BQjM1JzgrLhFTVTcpKjs9LxFjTCCCQlY3T/xAAaAQEAAgMBAAAAAAAAAAAAAAAABAUBAgMG/8QANhEAAgECAwUGBQMEAwEAAAAAAAECAxEEITESQVFhcQUygZGh8BOxwdHhFCIzNFKy8UJygiT/2gAMAwEAAhEDEQA/APbKJRVos3BRRKKtEuCjCmFV0SizcFtFXRRRAUqFUQmFARRKIiAIiICEUohghFKlARRERDISiJRAEU4UwoAikBKIClFXRKJcFCKuiJcEqURagIiIAoRSsghFKICFClEBTRKKpRRLgpIUqVRLIGgucQABUkmgAGpJOgWQEXKv6yrpBINujyyNA8jyIbQ+SWbrHup5IFuiBGfexMHveACUB1SLHu+8oZ2dpBKyRn6zHBw9FloCEopUpcFNFKlFgBERAEUogIUooQEooRYBKKUQEIpUIAiIgCIiAIoUrIIRSoQGJeVvigjdNM9rGNFXOcaAfzXgPWR0/kt5MEBdHZRkRo6Wh1fuG5vvWx68emUNoY2w2dxcWSVlcPBkKYa7TXyXnlnuS0uaMFHVGmYPmsNpamVFvQwJbMKZarFfD71uDdlrFcUD92iwmMcXEGNwpr3ScPNE0Zsy3c98T2SQTWaV8TxtadeDho4cCF9EdVHWF/SDHQ2jA20x55ZCVv6wGwimYHNfNrwK0pmNVsuit9yWO1R2qLxRnQjJzTk5p5gkLY1PsVFi3ZbmTwxzxmrJGh7TwcKhZawCFKIgCIiwCFKIgCIiAIiICUREAREQEIpRAQiIgChSiALV9J3OFjtJYaOEMhaRqDgNKLaLHt0eKN7d7HD3tIQHxzYSS5gJrUivJe43NZ24Wu2UC8p6L3V2jmuOjQCeOS7l3SqzwAMc4uIyIbs5lRMQnJpRROwrUE28jtsbeCtyxszOFtTqaDNai6ekljno1szQ46A5H+a2lstEMTC+R4DQdeaiOEk7ExTg87nPX7clmmGbGg7wKFeWdJbk/J5QGmrXAkcKLvr16aWUEiPE/kKc9VoL4mZa2Y48y3UHUb1KoqpB/u0Itf4c1+3U9z6q2EXRY6/2dRTcXEtrxpRdaue6v20uuxjdBH/CF0CmleSiIsAIiIAiKUBClEQBERAEREAREQBERAFClQgCIiALFt9ujiaHSuDQThFa5k7BTzWUub6b2NskLC4VDJA7lkcxxy9VrOWzFs3pxUpqL3nj1gu8NlliZSgkc0EbQHGhHlRY1puSWrmRxxCmjntaS41zzOi213zVtDq1FTXPUjMA+i7GAN2gKFKo1K5YRpLZtwODs3RBpaHPa3EACS0ADFXZQaLfX1ZWyRRRbNvMBbq85gABUCvoBkVr7yZRjHAj36ZLRycmdVCKRyc9yTMNY3MaPaBaPu5Z5cUs93uwukka0OPdNMgRsOi7uGSrG1pmFp75kGHdRbqo20jR0kk2dt1fXr2kDLP2eHsYowDWuKjQHcs/iuuXC9XZGI02RN+I/Hku6UunJyjdlfWgozsuXyCIi6HIIilAEREAREQBERAEREAREQBERAEREAUKVCALBvexdtC6KtCdDuIzHks5Fhq5lO2aPDL/ALHJZ7WztI3MDm0rQ4SWn2XaaErbPtzY2Y3nICvHkup62bJiu90wFXQPbIOVcDvuvJ8l5GLzBaGv0IFOYKiVaOlidSrt3vqZt533LahgbC3CNryB6rWuFtwgENpXOsjSABpTPNbgRWdtJqbMxq33GoBWK297O84Gx0JNMg3dwCR0yR1aW+Xrb6F+x9JXtLY5Y6DSoOgWReTjM9sEfikcGj95wFfVae8pYYoyABV1Drn/ACW86p7MbTbxKQSyBped1TVsY55k/upCmnLaRzq1XFNXPW+j1yiztdUgvdSpAyAGjR7zmtyiKWkkrIgSk5O7CIpWTAREQBERAEREAREQBERAEREAREQBERAEREBCIrVomaxpe40a0Ek7gBUoDUdNWB1gtDTtZT3kL5lvntbO7snDuVqx3D6rvukN9y2y8IXYnCKr6MqQ0NAo2o2mrgf+Fm3xdLZo8LhXyWmJToVdiXDPkdsMlWpbceOR55Yb50AcQNq2JvKJtSwAEUNfLNa63dDJA49k7yP1VqLoZa9pa0b6rR/D4m6+IsrGvtNqMr6CrnOIAA1PL3+i946mLu7Bk7HeI9mXffyXBdGOjrIDi8Tx7RG3gr/SG32iEdpZ3va4ZnA4jEG1NDTVZpyUqkYJ2XFidOSpyk83+T6BRefdWvTc2trYZyO0LcUbtC8DxAj9Ya8c16CpFSnKnLZZDhNTV0SiItDcIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCtTSta0uc4NaMySaADiSuN6U9YcFmJihHbzDIgHuMP2nbeQXk/SLpRarYaTSGlcmN7rBuo3bzNVNoYGpVzeS97iLVxcKeSzfveeq331nWKGojxzu+wKN/xu2cQCvPekHWJabYx8dBFEaVa2tSNznnUcqLkRGWg11O07Fcs0YJDc+8PXUK1pYGlTads+ZX1MXOcXnlyN5dVoGKOQ6DXgu5s4BHA6LyyySGNxY7Q6LbQ9KHQkMa4kbQG4gOHNQ+0uzXXl8SDSlo77/n8vEmYDHqgnTmm46q275e9x1lss1HVCxZA/wUy3pdl8stEYcCMQ8QGzjRZeKuVV5ydOVOThNZo9BGcakVKOjLdjgo1YF4xVz/VNTy2rfxwZUAWm6QyCNhYNXeLgDs80o0Z1qihBZv05vkK1aFGDnN5L3bqchHanQlr43FjgS5pGRaSSRT3r0G4etgtDW2yMuGnasArzczQ+XuXmQYXuJ93JV2uKjW10XsKmFpzgotaKy45Hk415QntJ6u78T6Tue/LPam44JWvG0A94f3mnMLZVXyxY7S+N4fE9zCNC0kEciPgu96P9adpioy0sE7B7Yo2Uc9jvcFWVuz5Rzg7r19+RNpY2Lynk/fke1otN0e6R2e2MxwSB1PE05Pb/AHmnPz0W5UBpp2ZMTTV0ERFgyEREAREQBERAEREARFBNNUBjW62xwsMsrg1jRUkn8VK8i6X9OprTWKGsUByJBPaSDiR4RwCwemfSc2u0uDXfmWHDG3YaavPE/BaOdoNWjUCo+avcHgIxW3UzfDh+SnxWNbexDT5mGWtCpEQ1CyTBXaKhW5oCC2hypmrS2ehW7XMsiKuhNeOik2d2rTmFWxpBOxbqy9G7QQ55jIwtxEHJxaWlwcAdlARzWJSjFfudjZbcn+3M5+2SSHVrRxGv8lTDYsg5pz+PBba0WV7H4JY3MNNHNIPqNFYaBWgTZi8zO3NZWsWrNd5Y8zRvIOtPiDv5L0O6A2SNstAKjMbiNQuLY0jMkK9/S3ZMc3FRrs6DNxyoaDdxVb2jgViIrZspJ+j1+6LHs/HOjJ7Waa05rT7M6O/r+azuRnmRqeDd3NcJe1+VrH2ZdiBDhsFdhdtPJT+W1JyLK7T3nHz0CrZIBQNaCOQ966UMJCjDZp+L3vqc6+KlVntVPBbkYF2CQNAc3TbXXmN6uWyatBTTVZ1olOxYksQJ4qYoNRsiF8VOV2W4ogMwjeAVcbCHErIazu1pzW2zfIORjWeaSJwkjc6N7dHMJB9F7T0B6aC0tFntDgLQBrSgk5bncNq8eiiJzOlKqqzyujdUEhwNQ4HOo0IUTEYWFaPPc+BIoYmVJ8uB9MouZ6C9Ivy2yh7qdqw4JR9oDJwG4jP3rpl5yUXGTi9UX0ZKSugiItTIREQBERAEREAXKdZV6mz2CQtNHyUibv7/AIqfugrq15T14Tu/9swA4Bje47Ae61td2pXfDQU6sU+Jyry2aba4HmEDqE02gj0JHwWxszw6Rjv12+40qR72rU46gEa686Eq7Y5xmK6HGzltHuJXpU1bIotlvPebJstC4H2SQacdFFpjJ0OQp8FbP6Qg6Gh9xV6F5qQusVfUjydtDOuOEOtUYJY3PIuJArsIwg1IOdCKFemF1rbIcXbS0cRkyEBzA1hFA4A1q87csJyXA9HbEHyYnmmECndc4kkjNuHaBXguniMkDjJG6X845ra5YcBcwd3F3hm46ZHJV2MW1O2Wm9cXuZYYN7ML567n7v8AksdKrNKYC+YEhpoztJQXNJIDqDFmctKZVC4JjcLs9F3D/wA49xnDZHgkNL3VNMntxB2ndIbQ7a1XN3xZYxLhjkJGru7ha1x9lo3DRdsK2lsPXXLT35HHEpN7a6Z2v9DWWrJ4IWFLZS/vkmo2cj8FlP8AFQnYT8goja6uzyOzPYpWym8yOptLIp7AUFdDodacCrhswY3tAC7MNbGDQve4EgB2xoDSSfqq7PHWo8/I7Fbvlj2WcPjz7OTvCgNGyMwV94p+8Fwxk3ToynDX8nbCRVSqoz0+eRkXZeBDntfLQgAFsbQxrTU6OILnaakrY4hKNcZpo4d40I8DgA4HnlwVmwRskd272kxPY0NL8JfRrTQVZtyADiOa3rmtfau0aGiJrHDF3mx1oKCrR6cF5KVaoqu0pO91vZ7ydKnDslrY1i87KyvNK2muZxdssZjcCCSw1oTrkaFrhscDl7jtVMcpLfxvW3vOZr2F4BoXinE9n+cPKoafNaYMoCBWh9DlovVYStKrQjJ65+n3PBVYpSt0LzwSAwaanlr9FRO0Vpu156qr8oAo3cM+PBW3toDnntPF2YHz9y77zTcdb1TXr2dv7KvcnaW/vNBc34OHmvb18x3FazFaIJh7ErT5YhX0JX04qHtGNqilxRdYKX7GuAREUAmBERAEREAREQBeOdcN7M/KHWYgh3YNLXZ0xYy5rSBsOHblovY18/8AXMK3o4DXsWedKmnuqpOEipVTjXk1A4+OUFpzzac+Tv5j1VETu9u2t3V9pp4H5rFB0f7Jyd8x81MsRbtqCNm0HdxV4pu2hW7CW828NrDnDZQUzKzrPONhC5ZktHga1rQ7HceBW0s1p2fVdaVbcyNWw/A7q574cxpjq7Ac6NIBrVurqE07ug+ZVy13s41/Ntz4uJpu8S5ezT0/4+pW0gmxDZ72hbulBvasclUmlstl8XrKK0cG11who2AbBXYsICpLjt2k1JWQ5nH730CiJnH4/RbpRWaRpLaeTZgRNrK4fZoOYp81XQEYqUOh18lTZm98mm13suPtN3qbQ0gOGntDJw5+oWyZhxFn1B/FDmFnRkiuQIORBFQQdQeCxrLIC4faG8a67eazWNB2enzBWJWeTMRTTuhd9hiYCI34amuGQHLkQO9t1Cz3vows7ZrWOpiDMTiaVOlAPeVhUA2+tPisa02imn1+CqX2Th3Paz6X/Fy8n25ip4X9NPZtlnZp5O+5pdcixeMoNA0YWNqGjXXUk7XGnw3LUTTgLKtM/wCP+Vob2tGkY1OdeCnylGlBRitNEVVOm6ksy/DaMRrX+SvduScsg31JP1+BWts0OQAOuv1WwiIpX2G6faP49FrFt6neaitDJjjq5jd2Z4VOdeQX05Z3Va07wPgvnfokzFIZHlgDKvc1xAxs8DgK6ZPJ/dX0Hd7qxRkaFjSOWEKp7SknNE/AxaizKREVaTgiIgCIiAIiICCvn7rmdS83PGrGxH0z9CvoEr5860z/APLTVGQDAeIMTVNwCvV8CNinamctIxrHEkfmZd3sHYQrcUWEmN2lasPy81k2RtWPs7qHBm3iw6euSsQu7uB2dPD9DxV5bP34rpcqb3XvwfW2viYN4tAo5opnnw2FTZxUjP8AHmVN4P7hbt2cc/irl3DKv4+ChSqJYhU+Kv5f6LCnRcsLKrfutLrey9Lm9uSwumlZC0gOeaCtKeeu5dN0auF0rpmOmZD2BAeXOAFS4t2Upm3bvWp6E/8Aewb6up4dQ11NldV2lnsjRJajanOhZLBDK93tMdiaCAKH2wd+q71K0otxT3Ldd962m/IiQoqa2mt75br69feRj2W42Omla+0s7GENL5Q7u97QDZWvFU2u4uzdaO/ibHG2VjhjIka40G3LbpuWJL2X5JK2GRzonWqNuN2KuHB4nZDQ1NOC3tnsMFnZP2sr54XQQ94Y8RD5HYGszyFGg5LR1Zp3u+Fra931d9OGRuqUbaLje/X0VtTUWToqwmVtSS2ztm0PjeA7DmcxkdM8lRB0bD4IZ6luOcxP7p7rXGjTSu/4hdnYLC508zo2jCZIWOrX9G2DMZnM98LEuKz/AJhtkI1fKW91w78Mkb268jzXNYqdr7X9vgtl39czd4aG13f7v8lb0OQu3opLJUCVgDaOBeaAlz3tawAjM1Y5U3f0ctUrS5kbSA5zCKsDg5hodo2hdNb3sYWMlxCImZkj2hxMTo7QTFIcjkCTrlmuYjbPA68HmVxcI8TXtcBUvlYQ4YaUqM/NdlXqyu01yuudt3rvWWTuc3h6d0mnzz32vv8Afkay0PlZjxscBG7A81OFrv1STlXzWstUvDPXQZ+YXW3kC66mt1llcyd3ixOxSFoJrXc33qnpXYGxwNLTUtgbCT3csEjhJrtLqD3rb9Q72tvt8s/U0/TJJu+iv+DhZ8R09a09Vppml8udAG5cN63BjwjUEc2laO2Dvg7Cfx8FwrztOK43y6EvC0XKlUmv+Nlfrf7LzNoyMFuopuBBrzp8FehjLjRwoB6fzVqyR0GufoP5rNNMOGuup/H41U5LK5XTlZ2RZxVJIPLkNF9KdGn1sdmdvhjP+W1fN7mAVK+iuhv9X2X9hH/AFVdpK0Y35k7AO7lbkbpERVJZhERAEREARFCAFfPvW+T/AEnLT9WP+AL6CK+e+tlxN6zU0DYxzOAH5qbgf5fB/QjYvueJzMjT3J27MnU2j2gfLPyV2Zod3m5tdnkpu46scRR3EZFY5spjJbjNNhYdm0FXy4rfr796FNvtfNadPwy9dt1tnmbBLibixUcKVJDHFgz0q7CDzWtu59AOPPZyXQ9C7ujlt0TX43jvvb3j4o43PbXhUBc7YWZtB4b943KnxE3DFwaXLzdj0OApKpg66lolfhms/odT0fvBsFojlcTRta0NTm0jIU3lb/8A6ga6yOZJI90zoyyprqJg9udP1eC5RjTWpruH6RZU79lTl9qQ+lFbOlGTu+XpcolUlFWRueil6xs7SG0RukgkoXAYy5rm5tI/5WzvW+2TB8bIy0F0QYA19BHEHAA0251yXL2JmWYP+GRZtlizrQ79JCsulDb2t/vdpuV+I+JPZ2d3+/uzo71v7tTiia9lHl5q12ZOAN0I9lgCybVfzTPFJHGRglfLm05iTDiAodcne8Lmo4sj3fuSf7lckio5pw/5cn+5c/g00lHw88jLrTd299vTM6Vt/R9s4SMd2UpmD2kOHdkwmgp7QIJ+C0963vDKLTZmAsaY4ooy7xERvaQ52IbqipOwLGtFnOwZ6ijJB64lqbyqC2UA/qvFJBlxNFmFCF7rl6O/vkbSrzaa95q3vnmdTd/SSN0z7A1sfZMYOxkzaSYWte0EnYXMOWSwL/tjW2JkeIF8kslc9A17nbRtLguTvSDSVuZGvhz4gChorlcQDhUA6HvAA7d61/Swi01yfkrfa/Q2eIlKLT3+/fUw7W7It5+1XhuWNel2sFks9oz7R00rCa5FjGxFuW+r3LKt7jTPjtdz2jgt5fFlA6P2Z5HeNqdTLYWuaanZ4PQKvxj/APpguXzbLbBq3Z9SXGdvKJycb6VrotiIyQ0cKu+XosKyMBOI0oNOK2AfQE1zdkAraKyKCbtKyLD60O5fRnRD/sLJT+wi/wBNq+c53kUB5+WxfQnQGTFdtlP/ANQHuqPkqztS2zHr9Cd2fe7udCiIqctAiIgCKEQBERACvnnrbYDe8sRzxMjcOBwUp931X0LVeCdbVhcLye890vDTGT7TWtaDTiHD4b1MwKvV8PPTIjYp2p+8jinWNppQUO8K4YwcgAHj2gciVXJZXvFWN5jjtoseV5bk7DXaBr5q9aSzsVSblkmdx1SsBtM7sAq2zyd7Y0mgqOei8+sBJJG7L5L1bqKjDnWsnaxjacKvqV5zeFgdZ7RLC/xRvc13GjqNPmKHzXn8bUcMQp8LfT6XPU9jUI1qM6LdtpP5NejaZsrKK50y5P1PEEq7ICTTP/MPoVTd8OFoBGep7pOvFpV+KOrtPuuPxK9JHieUZkxR02fcf8is6Gy0bpn/AHZPqsezw65fdd8nLLYRu+6/6o2LcipkIp4fuSfVVWmzigOH7j/qjGDd9x/1V2SMHKn3H/VaXzM7OWiKhACB3fuP/wBy19psozaW5O+y/I/4lnwju6afYd/uWNPGDXL7jvqsJ5mXHkjSWWoxRPrUZaVJbs8YoAOawrMzC50dOLcq/wALlnW+MtcJANMj3Xivqsa8WeGYbNagDLgDQrrqaosXg00FfKtdgO9dr0jiI6M2bShkY52Web3kU3Z0XB3m/MU0qBpTWvFex9KLqH/T3ZOBBjgjeKbJG4Xe7ET5KgxU74tctlfX6noqUXDs2N33pSfl+36eR4lZnCmGvlTJZ0MeKhoeHzWthaTSuTuOVeRWe1ktBQ0HvV3DNaHnKmTydiJpQ559w4AL6E6voy27bKD/AGQPvJI9CvnyWOgplU65jLyX0rchZ+TQ9nTB2TMNNMOAUp5Kt7UbUYrm/fqTuz0rtrgjYIiKnLMIiICEREAQoiAFeJ9fv6aH9n/5lEUvB/y+D+Rxr91dUefWD9CVqpPCoRXE+6ujK2HffU9V/wDT9+km/Zn/AFAud6xP63n/AGjP4WoiosX/ACr/AM/JHpOxu9P/AKy/yMZniPmoh8SIvUR1Z49d02Vi0KuRbERYWpmOplt0UyfJEWI6mxEe1WZERbbgzXW3wHmqIv0Z/uuRFgxE1MmkPJvzX0H01/qq0fsfopRedxH9Y+qPUS/oKHSfzPnK06NV6X9GiK/3s82tEYFi8a+oehn9X2T/APPF/ptRFUY/ux6sscN3n0N0pRFWE0IiID//2Q==</t>
         </is>
       </c>
     </row>
@@ -1139,25 +1139,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>David Warner</t>
+          <t>Ihsanullah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2019_test_035</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>64.7</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>77.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1205,31 +1205,31 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Opening Batter</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTEhMVFhUVGB0bGBUXFhYVFxYYFxcWFxcXFRcYHSggGh0lGxUVITEhJSktLi4uGh8zODMsNygtLisBCgoKDg0OGhAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAO8A0gMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAYDBQcCAQj/xAA9EAABAwIEAwUGBQMDBAMAAAABAAIRAyEEBRIxQVFhBiJxgaETMpGxwfAHI0JS0RSy4XKCwjNikvEkQ2P/xAAaAQEAAgMBAAAAAAAAAAAAAAAAAgQBAwUG/8QANREAAgECAwUGBgEEAwEAAAAAAAECAxEEITEFEkFRwRNhcZGx8CIygaHR8eEUYoKiI7LiBv/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiKPjMU2mxz3bNBPwEoDM5wG61OYdo8NRMVKgBvbfaRw6hc67TdsdVbVTc7uEkAExZreHx+PVUXMszJ71Rxk7RvBvAP3utTqciahzOv1/wAScM0mGPPLYT/j+Vkb+IuGJAAIHFziAPICSVwY4gOO8c5P8Sfl5rzVxjtgZHMS0R4QZ81jekZsj9HYbtlgXmBiGyOjo8pAlb5jgQCNivynQxpadyD+6/yVhy3tbi8O5rmVHaej9TDxgtNvJZ7RrVGN1H6ORVLsf22pYwaXRTqj9M2d/pnj0+atq2J30ItWCIiyYCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDw50Ak8Fx/tj2nfWqPa0kU2gg94NHWXbxsYF7q8/iFmrqGG7hbLzBneI4ei4y2g7EQ0AxJNpBd1dwN+PQC8LTVlwN1OF8zX18yaJLe9PGIBiNgLxK0GIqFzi46p4GNlZczyiowkaSJGwHrI+nMrT1MO4bgR/pgf4UYtamZRdyAGwIBJ6f43K96iLd0eI49D/hTKmHtNvhPnIlYjSdykfuEmB9R1UyNjw3vcYf5D5cPuFNwxIBBA8LDwvt98FkwuXEi48xwnYiPgR5qT/ROBbI4EHkI/kTHmFByJ7rMGAxL6VRrmkhzeIEHlt8wV3fsN2xGMb7N7S2swd6B3XD9w5eC/P8ATrNDwCIHMmI24/BbfLczfQrNrNBOgh0EkgxYiRHDkibiyLVz9MotdkeZMxNBlZkQ4XA4HiPIrYqwaQiIgCIiAIiIAiIgCIiAIiIAiIgCIiA5t+KE1KtOkCY07cLzJ+A++MPs1lAptmLnnvH0W37c4WcQ13AsHwkzHw9VIwjYYFUqasu0FkjycEx3vNBULMOyGHqg6Rpd0mJ5mPFbhilUnhQTLMoqxQa/4dEA6Ht82xPnJWsq9jKzBFzwkbjwjx+BXU3PCiVist20IKmnqUTLezxYO/t6r7isAAO7Y8CN1acSFpcWLqC1JyWRz7PcphxcI1W2sDzgcDeVEwWoCP1CxG2rkQOe8qzZie8QbgiD4fzv8FqK9EQLXsL8xxngY8iFsvdFSUbM6j+EGJJo1mGe64GOUjl5Loa5h+DzpdW6NHzO/wAF09WKXylaeoREWwiEREAREQBERAEREAREQBERAEREBWu2VGRTPEuDZ6EhYKtPSAFse1dHVQkbtcDPgVWswzJweZae7IIDXECPKSq1XVlvDs2TGqSxsKs4TtTQLg0k6vD+VYqONa4AhaUkXW76Htw5KM8eiyV8WGjz8TCreYdqaTCW6TPQap8wjsZTsszZVbytTWNyF4bmdWoJbScOukwPMi4UGtVfIkX4rFrEG7mvzrDfqCr9QEdIPBWbMXnRdaN1AuI6qSK81mX78HKJ/PeeOkf3HZdMVJ/DekynSc3U0PcR3ZGqwN434q7K3T+VFSfzBERTIBERAEREAREQBERAEREAREQBERAV3tGSajWSYcxwjhMgXHO60ua1al/ZNaXkkgvJ0NHN0fIKz5vTGqk7kT8pHqFpKcKrUykzoUUnFNcurKR2hy/MnOYGva9h0l7hTotDLnWAHNLnNPDvSPRWHLKGgganFu3eAHAGRHwjw2W3dSnjI5HYKEymNVpjrfdRnK6tY206TjLVmv7VV3MbNPf/AAsGX5YCww+o1xpnRUBgGoW2PdEhoO25PQWWfOvdvssuR90BvDhOw6t5SoRaTJ1YN5Gly6nmsvNesNM9xlRtN8jkSwB3O88ditizDVHP77Y4xI36cYVgc0i5cfK0qDi6oifW5PqpTd3exrjT3VYqubMuQtUBD2t2vczEAdVtszqXndV7NKjpeWmIEnwkagOqhcbt2WjLMW5+Jw5Y0U2l0tJHedpv4NkTbfmuwLlGQsFZ+Cc259rJPJopvJnyXV1Yw6yZoxrV487dQiIrBSCIiAIiIAiIgCIiAIiIAiIgCIiA1XaF+mkHzAY9jidraoPoSq6bHwP+Fa83oh9Cqx2zmOHoVSqeMDw10wSATw4cVWrLO5dwsuBPdWWKkRPeO9/LoFExmYMot1Od4CRPqVTaWPZWxPtS1jRFy5oJLTaOvHaDdaVmXm7FrznQ6WBwvtJAnw5+SjZbifZVW4dx1CoCW8wWgEjwM/cqv9oThwdVOmC6xJJkgfpgvNhH3xHzJc6ptqaqjWh8e9x8IP0RxMKV2X+o+BB2WmxtWJvup1LMKVUdx4J5bHyBWkzOsGkB1rx0tv4KLeZl2saTO8RpaTx4LTBwqNaC6A6zubgNwPMN8l67QVi+Y2Hx3AFlO7EZQMVXbQLyyAXatOqwiwEiFlJvQr7yTuzoX4b5UWg1XCAwaGN4CYLjPE2aFfFFy/Bso0202e60eZ5k9VKV2Ed2NihVqb83IIiKZrCIiAIiIAiIgCIiAIiIAiIgCIiAx1zDXHofkuH5bmrvaaTI8gTfwXdF+es6pf0+OrNIsKhgG0jV3ZjgQJ81orq6RYw7s2butlrq3eeYbMl3vRwvE3A+7LLleHwbiWUvaPIbBLASLfqiLm88rqTlWMlu97eYA3hT3mgY1kNI4wPQ+a0RtezOjbjf35oiYnKsPp9zEEtvqLKjSBxBltxuenNVnMsBhS46XupunY03DYAiIFjcGVdX1KJ/+9xtJaSYIA/1bKA/Es2ZBA/UY8fruknFae/sZcb8U/BFabltam0VBqaCe6btPIETt4lO1GZEHvXIF+E8J+JHOfnvsTmIaHFxkhpgHjxuPvdc7zzGF5N7CIM77j0/93UYq7NVT4VY+HFkk3vPzt5q8fhrVDMZSItMsI8Q5wPy9FzKjUMG9/r1V37B4nTisMTYe0bvwmZ/4/FTtaSK995M/QSLFUrMb7zmjxIHzRlVpJAcCRuAQSPFXSkZUREAREQBERAEREAREQBERAEREAREQBUb8QuyZxMV6TdVRggt4vHAjmRy+zeUWGk1ZmU2ndH53oYt1GoWkXaQCBYkgwQY68+SuVCnSr0xuSeXDj4J+JHZZ7HnE0QSxx77QPcJuXGLaT8yqblOe+xdBcQADz4A8vu6pTjZnSoVlbMtw7MBpnXUkGQO6RFrEnfY8F8x7aVFkNtyBufLioA7YU4tUHjN/h02uqtneb+0J70wbGRe+5PCFC1ze6kEsjDmuZEySfMGY8uPDwlVzFVieu3mpFWrJB4X6bRz8lDqMJsBf0+C2xVijUk5BgLiAOnjH8re4WsWFpG9gOt14yrKS42sJueQ4efyW+wuWa6zBHdZLndABpA8yfQqE5puwypU3Um7Ja+/Tm8iZ2ZyVrXuxDu9J/JB/Q03NSD+qTpB4AW3V77NYkU8Q0kwHDS7le4J84Wnpti3Jew5Q33vbx5D+pk6vaLy6HVkVU7MZw9zhRcC4QYdxaB+7pw+Cta6EJqaujvUasasd6IREUjaEREAREQBERAEREAREQBERAEREBjq0w5paRIIgjmDYrjufdi2Oe8MJa5riCDcbkgjlx9N107tHnAw1KRd7rMb15noFTcJiHPbLyS/ZxPGTIJ+Xkq1eSukZoV4dt2PFq/lw8bXfgjnWO7G1G3BEdJ5+HgolTs3Wnhbhcx8F051Ym0Te3l1R+FEQAPmq2+zpqlE5U/s/UiI81Py3s8RwueK6C7BtAsPqPHr4r5SwoB6n78lHfZNUYo1eDyxtNm1hczxUjC0ok8Tfz8VLxjgfyxtbUetnAfI/BeAsHmNt47fn/Tw0jr3vl/j/wBr30VkLy93/tfSeSpvaDOTXq/0eHNp/OqjYDY029eHpvMSSucWnTcn3LV8kdN/D7PsNUBa2Wve5wa90RUDDYM5bkgcbkdL4uHZTTbSDQwQG8evG66LkfaawZWM8n8f938qzTrJfCzs4XFwsoPJLT+fz6FsReGOBEggg7EXC9q0dEIiIAiIgCIiAIiIAiIgCIiAKFmmPZQpPq1PdYJPM8gOpKkV6oaJueg3PhKp3anB4jEhlOYa50uDfdpsbeST7zzIjh81UxONpUMpSz5fnl14XITc1H4Fd+/f8FUfnL8bUdUFOq68BunZvIXgAdSCSbSo1LGVG45jNLgxzXUjaYcGmpMi0gsAPLUrnm7f6XB1DSEGmyGxfTJDZHMiSZ4m6oXZnAODG13kmpUh4BJIY1xDtLZ2mxMbnwXMw2IlXUptK17d9+Pry58iOFwKjiFJNuSzb53uuj+njlbKlOLr60/fNSGvBYJ++SgVH6Xaeass9AkSKg5L60ho1EgADc7LwHjb7nosuBw5xD9NtDffI4dB1MeQva065yjCLnJ2S9/oq4zGqhaMFecvlXV8kuPO1lxtqMLhquj2ha4gkkvAkSTc2tvN9rL46u3n8L/JdFpsAADRAAgDkAotXLqL/epsJ5wFx1tl3+KGXCz/ACuqPPy2KsrTz43V8/NdfE5B2zzhzGNo0T+bWtP7Gnc9CZ+Z4KDkeU+xbAuTcmNz/C7C7s1hHFxNBneEExcf6TwPUKk51kr8M+CZpH3Xf8Tyd9+F/C7Sp132aVn38f1y7ivisHUoU0k7x4+P44IhYdsC62FF/JQWFZqT4V056diz5Nnb6JidTOLT9ORV2wONZVbqYZ5jiOhC5hRqjmp2X5g6k8OaYjfkehW6nWcMnodDD4pwyeh0tFCy3MWVmy034t4j/Cmq8mnmjrJpq6CIiyZCIiAIiIAiIgCw1qkeKyOKgPdJlcrauOeHpqMPmlp3Ln0RspxufCV9RF5BtvNm81+eUQ+hUYdnCD4GyomQtIpiiRDqP5Z/2+6eoLdJXQMx/wCk/wAPkVUqlIF2q4dtIs6ORPEeK7myXelJf3dEc6tjlhMUpSV4uKTtrk3Z5+l10PFF40uBPuuMnpE/yowJqPL+HDnCk+wF/e7xuDBB9FlZRJhrAJJsG8T9Sunu2zZLEf8A0NJK1CDlLhdWXle78MvFM80MO57wxgueJ2A4q3YLCtpMDG7Dc8SeJKw5bgBSbzcfed8gOgU9ecx+M7aW7H5V9+/8EsJh5putWd6ktXyXJcPLLRcLnxfCvS+QuZa5ePICxYrDMqMLHiWncfx16qQimlbMPPJnOM2yk0KhYbtN2u59D1ChGmrx2ow+qiX8aZnyNnD1HwVQIXqMFiHWpKUtdH4o8lj6HYVnFaarwf6IpCyU8UW7gEcijwsL2q2aIM2uDzQNILGlrhsS4+llbezvakV3+wqN0VgJF5DwNyLC8Xhc3mPA7H6LZZJXazE0qzvepyAeEOtfrBcB4+C2RqunnwL+FrONRRbyfkddReQZ2XpdE7IREQBERAEREBgxRsogUjFnZQ6lQNaXHYAn4XXjdsz3sY1ySX2v1LFPKJGq5pTbWbQM63TBjuyBq0zzi/w5iZq5/WzWqXe3JLW+1p1AddhS0fm0jSmC7uVO+W7SZ7oC6AqWJpOG7lbLmnn7aT7yUXcx1GSCDsQR8VTw07HgrqFUMR7zv9R+q6Ox5O814dV6HE25FbsJeK9GYYW+yTBaRrcLnboOfiVr8pwftHyfdbv1B2VnKntTFW/4Y/X8dX3W5tGvZGDu+3n/AI9X0Xfd8mF8WkzbtLQoFzTqqPa0ucymJ0tESXuMNb7wsTNxZfchz5mKLw2nUaaemdWkjvCQJa4jVAkjcSJ3XIdCoob7WR399Xtc3SBEWqJILw50CV9B3++C8TMdfosTdtAjxiaGqm5n7mkeZH8rnh2v9xZdLXPc0paar2f/AKek6h6BdnZMrOcOGVvpr0OHtqGUJ97XVejIj2qO4KXU3AUasLldo4UWRXi8HZ238LG2pB0O2Pun6FSKlPU0jiLhRHAVGFpsfUEcfEFZLGqzOhdiM9Lv/jVTcD8s8SBJLT4DborouI9nMwIrUif+pSqta7rJAkdC0k+a7crtCpvJxeq9He3oztYKcpU7S4O3vzCIi3lsIiIAiIgIuN4LQdonk0hRb72Id7IdA5rjUf8A7abXnqQBxVgxgstDmssqU6uh7/ZsqANYJJe72YaOkgOEmALyV5DacLY6UnyT/wBcvumWIP4SuYfB+1xOIH6AxzY3FnYwf2YimfPorfgamqmx3NjT8QCq9keDqmg5mh1KpVLjVe4QWAuLQxn7nBggO22dewNmpsDQGiwAgDoLBUsW05WTvbL1u/q/TvMw0uZFSgSY6+vRXZu6rWUYfVWvsyT9B99Fb2XVVKNWb4JP19dDkbWoyqzpQXFtemf0WZu8Dh/ZsDePE8zxVQ7YdpqRrMwNJz3P1tfXNLekykRV0k7XLWh3JpM7gGxdoM1FGi8sIdWiKVORqfUdZjQPEjyk7Kl9jspLMvxlRpDq1Zr+/qD3ODWuAeXcnu1uEQIdPFa6ELqVerzVvGXG/JffS507KKVOGlvJI95zhDQZ7Rzixz6bnO0nU9+t+txax1rGrtdrZLjqLQpWT53h6FeocRUDKmot0jUQXHSatR0DSGhwbSbybSn9UDX9mP6rFY0l2I9rh9FOrUMCBrBcygDFiCATHAR+pe+0PZNmJxj2UqrmMqEipYOioabnvNOdo/KJ3E1bReOnX7FVZUqkmo2u7cOSslZZN3S4u98zWnJxUoLz/Z0oIsWHpaWtbJOkASdzAiSsq82WzCx3vdHH5BemC/hZfGfqH/d9AV6ZxUJP4l70JSMipfaalGI1cHNB8wS0/RXF5sVW+1lOBSd0LfiLfVXtnS3cSlzT/j0OZtWnvYVvk0+nUrR94KPjbOBUkDv+AUfGiZ8CvTHl4/MYjZw6qFjBofPB/wDcP5HyUsnU2V4xVL2lMjjuDyIuFk3RdnmeMCwDEU68e7uOZBhp8g53wC7Vg36mNPNoPouFYDFbTzv0Is4fGV27JnTQp9Ggf+Nj8lLDK2IbfGK/1f8A6Xmd3Atdi48U/VZejX0JyIi6RaCIiAIiIDDiB3SqBm+sv1VqVL2kEjVVeBpLSB3Q6DJaG9CZvN+hP2K0OMyqlUc4vBdqsQSYiIiPM/8AkV5/azjSrRqS0atlrk339+ZthmjQZPgKzKjHso0msk6Xio980nEGYc4Q4iTsY24q3LwxoAAAgCwA4AbBe15ytWdWV316m5KwC0/Z9lnv/cbeV/8AkthjKmmm88mmPGLLxllLTSYOk/G/1W6m93Dz/uaXldvoVakd7Ew/tUn52S6kHOKopOa+nRY+qd+7LwyCCZAkDYXtdamjmNa/sMOxrXX7lJ51Ra5EDb+FbiF9lKeIhCNpQTfN/i1jpU6tOEbOCb5+/wB95TMpzRuFY6n/AE7WN1ExTGjvGS7W15mYBv02Autj2erYdzz7Gg+n7NukOMaQHO1ENAcbk3JAvaTstxUwlNztTmNLoiSAbHgea+YbBUqZcabGs1Rq0iAYmLbcSttbE0ZRbUWpPvyb88/GyMznQcGowtLK3Jc8vDkvoiWiL4udcrmHY+J/4/4WVuywVD3x4EjxA/g+izt2UVr77kSlwPNbbxWr7UUpoE/sc0/Q+hW0qbgLDmVLXSqN5tMeMW9Vuw09ytv8mv5NGJhv0ZQ5p+hQA31WKqN1mmwPRYqhsT0PyXrzxMXxINC3mlExbqR8yPksmFEm4DpFm3uekXI6BT6bnucKdRgDXzbSGkQ0mWkcvqtVat2d3bRNvPOyzdlq7LXRcmzpUML2zte12l8rau8lvPJK7aXF56WKtmDNFQxs8ah4gd4ebb+S7b2abGHaOpv5lcdx9Evpx+um6bby3+R/cu1ZPS00KY/7Ztt3r2+Kt0Yt1VJaKMvu4W+yZe2dK8ZJ6/D9rk5ERdAvhERAEREB8K171sVrS5ee2+lu0/r0N1LiEXyUXlrm48VKYcIcAQeB2WRfAvqkpZGLcQi+L6hkL4hRQbAREWARcZbS79rhPgZaf7p8lKCj4xkscDxCYCtrptJ32PiLH1BWIPOxJr4bmUXd4L3C80+JXtSivhvzuzD1ObVxHd4gx8CQsdYANceTTfyWyzikG4ip4yP91/mtZiDBHLd3UCO75r2UJ78VJcVfz/Z4aVPdqODdrNrydjIGmlSb+9wGp3Kw7rfvmVnwrSxhe+3EA7tt6EmPgFO9q0XJtYzB8fqtRmON12FmzYc/FcWh2mKThKNru85PV9y5W0SV/K9/V4mVLBy7SM72jaEFoucsnnzcn5t7u7palTS5ruFT8tx5PE+yd5iR5hdj7NYgVMLReP2R5tlp9QVxx9HU19I2m4PI/pPiCAfJdO/DasXZfSkQQXgxz1uJ9SV6ehK0vH9nL2crSku78W9fsWpERXDqn//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEhIPEBAQFQ8VDxAQFxUQDxAQEBAVFRUWFxUXFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGBAQGisdHR0tLS0tLS0tKy0tLS0tLS0tLS0tLSstLSsrLS0rLS0tLS0tLS0tLS03LS0tKzc3Kys3K//AABEIAOAA4AMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAAAQMEBQIGB//EADgQAAIBAgQEBAMGBgIDAAAAAAABAgMRBBIhMQVBUWEicYGRBhOhMkKxwdHwFCNSYpLxsuEzcoL/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAJxEBAAICAQMEAgMBAQAAAAAAAAECAxEhBBIxBRMiQTJhUXGxoRX/2gAMAwEAAhEDEQA/APmQAMsqVgGIAAAAQAAAAAACGDAQmc1K0Y7sqVMd/T7v9CEroFGOL7+6LNCspLQCUAGSOQGAQQjoQCABgIAAAExiAnEMAAAAAEMQAAWAAA5nNJXbsu5n4rG5vDG/mQlZq42K0Wr7fqVK2Jm109SGorJJZurvoiGW4Scr83cVh5W9TkgFyfD11G6a73W6IWgjG4GjTxenV+xLTxcXo9DJkCJ2N0Zl4LE5dJN25c7GmmEABiJQBDABAAAAhgBKAAAAFhgIBgAhDK+NqpRtfchLPxVZzk7LRexXzPY6T76fU7w9FSfPyXMhKOU7rdnOUnvFPK/9EcErS66W/P8AIDmM3a3ZnJ1F2GrAcjbFlEB2rW7/AL/T6nLQhxYCLmCxDTyt6P6FRoEwN4DilK6T7I7LIIQwCCGAgAAACUYAAACAAAAARjYmtmk+zska9R2TfZmJltd872IlMI1qySUraJ9tOdhyoNJO61DIr2u99yEuIR1299iWnQzPTbuW4UJS8bs1pGz5t9keh4PwCc9JOMJbrNF3kv7b6MpNtNqY9vKywUr6a+XMnp8Mqqztuno1dWX+z6DD4fp0tZavnsdUuHRm20vDlUFp3bb/AAM/ddEdND51UwMkl4dG9Hcnhwab/bPe4zgWZWtbTkk0/TkYlpU5ONSM77Jxi3ce5Mo9iseXnJ8Ja9exSrYZwep7V4Kcv5ji4x0STWr7mfxLBXWi1QjJyi2GNcPJ3CJ3Vp2IzeJckxprcPleC7XRZKXC34X/AO35F0lUgACUAQwAQADAnCwAAAAAIBiCXFXZ+TMe17+dzamtH5GFKTTa8yJTAmnfT3LuAwbm1D+p2RBgcNKrUyxPb8D4RCi828na7fboY3tqHRhxd3LXwPAqapqmopOy8SSzZuT9z0FHCLIoVEpK2t0rMr0JqKWti1TrLe69zn5l28Q4ngqSW0v85NfU4UIrayLUoKWpRxWH9dRqVo0mlDuVKySJaNNsVbD25jQx6+KTTT015mViUmbfEsMpR6Pc87iZW5rctEKXtDzXG8I4vMtuZkHq8XJTW6/E85jaGR9mb0n6cOWvO4WeF7S8/wAi+Z/Cn9r0NA1YSQAwJQQDEACYwAmAYAIBgACYABzIwprXXq0b5lY2laT76kStD1Xwvgoxip21ZpY/iVOhHNLWTfhit2/0Kfw3J/Jj7E1LhU61T5klpH7L5I49btO3pRxjjt+2Ni+OV56tuK1skrKw6PxBVhZuzt1S+hs8RhQpNZoJy2TntfolzZSxXEY0tHhZ3vGKvhrJuSvFau6bSbt2NomPqHPNJjzLvCfG8ovxqT13Vtv1NqHxTRrWUZW7TdmYuHp0ZuPzcNFKSUl4HCVns11XcvV/hKi456LktNm7rzKzaPErRW8RuJ29RhsbDLe623Muv8R0lmTktn/0eZxFCvRhKCcrWto3ZGFh8E53dRuy72Y1EJm8+GpxT4qcm1FO3VmBXx9WetnbydjXw2F8LqU6McqnGGaTiopydleUv3qSUcZWqwclT0jBSeVwfhbaWnpsXj+mMxueZefj82Pi1S77Mmxs89NS7mnSxCqrK0r9lb6GfjKGWE13TG9yTXUIuFbyNErcNo+HRPXXYsmsTDCYmAAhkqkAAAgAAJwAAAAAJAAAQ3fhjARqNzlHN4404rld3bb9EaXxD8KU50qlWEWpKEpLpeOrKHA67p0ozXLFK/rBo9VicRKnSjnu1O1NRvolLeX4HJktPe9TFjj2o/byPwvTvQi+V3+J63CxSjY8/wDDsMtLLb7NSpH2k0ejwyuinmWtI+MQyK3w9mqqvGUlUTTTdppW/tYfEHCq+IkpzksycJP5eaEZygmoylHbNZtXPQwoyexI8FLmWiZhWcVZ8vK4inWqZI1LJQjGEVCKSSjotdzXwikkk+SsaNPAJayOVFK7ZW3LStYiOGdxjB5qfoeJxWHs3HlsfRK7zReh4zikMs27aMmJVvWFGhgbpw2i1qk3Z+a5k0eGOnCUISajLVqLy5vPqWsJJW13LsqaaL7ln7cS8vHh8abulZkHE4XhJf2m9jKN1+9DGxEHZrqmhCtqajSSkoqmlfanm06pFWuvF5pP3RZ4hh8tJSVtlF203VitX39EvoXx+WPUR8IRgAG7iIBgAgAAJgAAAAAAABBLY4FLNGpT706n+Mlf6M9bxbGLPTjLaOVq+1keF4XivlVIy+79l+T3Pd4fEpxSajO6ShdX32OTNX5bel0uSJpr+FP+HjTnUS2lP5n+S1Nnh8NjJx141Um7yUI39TSwc2rW2M4bx4egpRRI4qxWoy9jpT1t38zTaHFWnr2M2FJ1JNL7Kdv9mzUslrsYHE5yUXGnUcU5Xbg7T9GRK0TpqzwiyPVafQ8r8RUoRim5LV2JJYz5EFFTqzk9P5klKTv3PMcXdack5q8Vt0JiGdrrOCpSeltEzVlRskzJ4bxJRaTN6tUTjdbPoExMSycZExKq8SXc18dV0aRi1Xqr7NkqWnZVJPJllu2nbokU5u7ZLWTX4EJrjj7cfUW3MQQABq5gACAAAAJh2EAAAwYCAAADa4T8Qzw8cmSM7Lwtt3iYgyJrE+V6XmvhvcNxc61SdSbvJ2XZLlY9VgXseH4LUtJrql9D3HD9UrHHkjVnpYL7puW5Skkr8jqnK8s3YrwejCk37BbavxLFSk8sU9zOrUGtZuK56uxxx6tXS/kQTl3dr9SlwqtKV3icPKpLIlb5jspa38OnbqWgjf8AbnGUYtq05N3+6rv0OcTQk070qz2jrCSd/Y3X8QVY5FTw1OGVW18rcjG41jMZWu3NRV0/ArWcbW19ETwvq+uK6ebr0oZrJ2aez3Xoa9Gco07PaxiU8C5VfmTbk73u3vrc9BXajC3a5EsdaZWbN5GdjkX6Zn416lqRyxyT8ZlWbb3YhgdDimdkFgAlBAMQAJjACUAAAAAAAAAAAuBInwUrTR7jhGI5fux4Km7O56LhOJva32lt36o5M35PQ6b8HuYS5nKlr0MzB45S0vZ8090XlWu0yjVZVJXvciq0H91J/qOU+hFUryirLcFbM7iMa3OSRUjhMy8VS76N6XO8fQnO7d/cya+EkrtXRZabT/KXE0FTd/8ARRxla6tzK8q0tm2/Mr1KxOmM2dqpZehnVJXdzqrWvpyIjXHXXLly33xAEMDVgQDABCGIAAACUwgGEEAAAAABLiW5ZhhM8WrtO2jXIrJeI18PDRHt4MVbY4iYc17TE8POqFSlJqo32b2a7GtwLF+LK33Rfr4aNRZZIwsTgqlCSnC7ivex5nWen2jdq8w7em6qI4l75U1UWZO01zXM4hiasHZ6/Rvy6mZwPiimlrqb81GS1PF3NZ1L1ZiLRuHeH4qm7PR9HoW1iIt3uvxuY9WgvTuQOhL7smu25rW8SwnHaG1WrxtbT3MvG4uKjyuUcRha7+99ChVwFa2svZF4mFJ7lbF11dsoOWbyLs+HtattlaatctuPpnMT9oAAGdEOSSAACAAAAgAAEAABKA7AEkAAEADqEG9EiysMoxvJ6+p0Yenvlnjwpa8VVaKvI14yslYx4ttuztpZW7dfMsUMbpaWkk7Ox7WP4xEOe07lpxqJnU0mUI1dSZVS/dEqq9fCuLz09JfRmzwviykss9JbalDOmV61G/ijpI8zrfT65Ym1OJdvTdXbHOreHqvmeqInWtqYmC4jJeGW5oyrKSPnL47Y7atD2q5K3jcNBYq6IfnL0MqWIae4nXbEK2iE3EK0Umefm73fcuYluTsVcRG1kbU5mIc+TiJlADADreeQjqwgAAAAYhiABAwAmQgABklGi5PT3OKcXJpLmbWEwr0jFXf71Z19L08ZJ7reIZ5L9vEeUdOioqyT+hTx823kV7czVxcI0YOU2m+Sh9Ff9DKw+IVvFRg29b5qt/xO7J12DF8Y/wCIxdHmyTxCslbQ4xa1U/R8jSn8trWjNd4VL/SSf4laph4NPLJrtUSj7SV172M6+oYL8bdOT0vqccd014U87W3s/wB6HdLFa22fR8/JnFWlKOkk1+D7p7NEDgbxbfMOLWuJakK6ej0ZKm+RjZ2tHquT3cf1RZoV2tGXjJ9SjS5Wjfs+o6ONUdJuz27MSqlTHNKN2rt7I5ur6amWv7bYc1sc/pfrVOaOqVU87QqcvFB/2vT2ehY/iKsbJNSXlZ/ieFfpr05l6VeoizepLMzN43WVOUb7PQ74dxSo7r5WqdneWXUofECqTaclFLkk7++hXFWe+E5bRNJTQkmrrY6KnDZ3jbmmWjrtGpcDqLOQBlQgACACGIkIAACUBlnh+DlVllX2VrJ9ESLfBsHm8b22v+huuUYR5Rj30u/zZBOrCmlCNrrRR3UfN82Z2OrSds2t3a9tl2R6OLpcmSsRb41/09/Hi/GN2/wsTQliJXVSlkWylUyu/VponpcLXOvh1/8Ac3+EWQ0qVnezs15FiEVZpv25+prPpOK3mZMfquXF+MQsvhatZYnC36OpOH/KCRnY7hNems7p3p/103GpT9ZRul6k9S1k1a6IY1p05OUKkotreDy+5hk9Fx+aTO3V/wC/nvGrxGmdTrpLJOOak/ut6x7wf3X9HzIsXg8tpRealLaVrWfSS+7L9ov4jEQqf+WKU/66cVGXnKK0l6WfmVvFR1WWVOWnWFRdGuT89UYUjL0s6tzDkz5qZflHlnuByo28r+3kXa1FNOdO+VWbT1lTv16ruV3Ja/lsenSa3jcOTbv5qirt6dubM6qp1G5cuS6IvzSe/TkD0t5ci049p7lD5L5XT9xuq19pWfJovZk7X6M5nRT6be5S+LcLRk1KXCY6MvDKylvf+r/s64u7qD80zKrUGtVt06D/AIyTioy1SknfmeXbpezJFqu6Oo7qTWSj4JaF2Erq5UnHZnVCpbyN82LcbhzVtpbBgI4WgAAAQAIBiY0csD//2Q==</t>
         </is>
       </c>
     </row>
@@ -1266,25 +1266,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cameron Green</t>
+          <t>Mohammad Nabi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2019_test_025</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>30.4</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1293,97 +1293,97 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>85.3</v>
+        <v>81.2</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N7" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="R7" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>73.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>Batting Allrounder</t>
+          <t>Allrounder</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExMWFhUXFxgYFxcXFxgXFxgYFRcXGRcYGhcYHSggGBolHRgYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyYtLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEMQAAEDAgMFBQYEBAUCBwEAAAEAAhEDIQQSMQVBUWFxEyKBkaEGMkKxwdFScuHwFCOCkjNiorLxB1MVFjRzg5PSJP/EABoBAAIDAQEAAAAAAAAAAAAAAAECAwQFAAb/xAA3EQABAwIDBQgBAwMEAwAAAAABAAIRAyESMUEEUWGB8AUTcZGhscHRIhTh8TIzQhUjJKI0UnL/2gAMAwEAAhEDEQA/ALtk7EdWAcXZWmY6N1d03J9rbHFIZ6by9lgZaQROhnRwPELQ2Fj2OpikSA7KWw4wD3swE8DJBUdr7TyM7NsZu7OhktcHZnEbzGknXzzMLcMrDwMwT1K5+rhXtIDmkEiQCI01TUsO9wJa0kDUgWG9GU9ohubLTjMZdLpBs62mkumL6aqZ2tJksm5IDnBwBdEiC27bCBYiNbqOBvUUN3rLlJa9Pbjh8PhmgR3YkRcjLY8yg8bjTVy5tRvmdzR82k/1FcQN6BDYsfRCJJJJUqSSSS5cmc6Fb2TgztHDKzi6w+5QzKgzF7hLGZZHEucB8pPkhsZ7YODu6xrgLibiRMevrHBStprV2HYG1W95Uy3Jq22w0wGhvN5I8mgTKZ3tKWm7CRxaIHS51WPhdstLyalIOzEAkzLd7ojUn6RNgtPGsoF4ph/vDMGsGc0m9JhrjbU2B4m8hEWWuzZaLRZg8p91pUPaOk85KlMidHCCfEI9mBNQF9JzXNEyZmI3EDQ8jC4qtgGtcSCxwF47riB+WSR4eC0sDXqUnirTmSNDBZUAtE/FwnUTv0SuaDkq9bs6lUuBhPp+3LyW43CHe8+AA+cq5mzwblzoGpkeQtqtTDYqljQKtMBhAio0xIO/QXnj0TUKIq1OznK0DS0njvmSJuNIVdwdjwtPPrVZD9nNN0OF+upWHicPlaXBxteDB+iYIvbFPIKjMwdECRHEA6EwZm3JDQjfVV3thNCUKcJQhKSFGFKEqDC8hrBM79G+f2VrcIfid4Nt66/JAkZJwwqhxA1MJhVbxnoCfktmlskxLWtGWxm5J331sD6Kqgwu5CJJ3AIF0DEclJ3JWZ2o5+R+ymx4OhBWjUqjd7o0PHjfj+iBqD+afyj5lKDIyQLAFGElOE66UsIRJJIAlwaDEgmeilUIEpnOA1UqbHO91pPM2Hqj24RjWNcB3iXd43No8lfSaAA5wMF0W4b946TNkneA5b49YU4o71ltw7zvaPM/ZWMwLj8fU5bD1WtjKdNz2iiN1490DSbn/Lw3zvUaVHtHdkw21LuPPlvjoi7FjwNzTikNyxq9BzQXBwIAJuINuhUGmy0NrUTTD2n8PnPz3eMrPbong5FQ1GgFOq69TKJViG2h7l9ARPRcBJSNzVlfKMtEse7Oe9Drw4C4boYgEdDzm7CeybKkBpcSOWXX8R3/AKKO1q2bEUhTYDLW5ncSQO4By+oXo2xqIbTaN8X+ysuN4C9jRphjABkud2b7G0qc9pDpvESPNLFeybAS6kA3NE8o/c9YO5dlUFtEKSliFLmuGxHslVkP7WSPhLWmT4i3huWXjaRpmQ1oa8xUY4SzOIvGrSZs4EcyCBPpb2GLLD27swVGktEPj+7kdy4hdbJcZhK7KFRtSmIJ95oJfnB3cz5mV1OMwjbVA6GOEiNSCNI8d6wMDhXOa6mRBEkEZgO7uImQfFbRqONCnmEGAI6ADRQ1BLZByWb2kxoaHEXWdtSoMoaB7zxc3cb5rnwQ+VSxt3sbwBcfkE8KECAFgvuU0JEWU4TQulLCM2Lbs7E92YA/yyisPhyH98RlGY8LExHEEj0T7HpE06NRuoblM6d10cLWBuLozEU3umfeJy20yiLnxnWYlQPewtdf8pj1N/e6vNYQB5+g+YQWGqVTLGGAZ6Cfl4QoYhwAyM03n8TuJ5IuqMo7OmJPxFV/wzWe+b/hGqU1cUYuQ+fr3QwmI8z8deSkMUHUhSDDm0nodZjgByvCxXN/mPuDAaLaaT9VpVKxNgMreA+vFZmHuXu4uPkLKfvHOu5RvyVkJlOEksqOFnqzBsmqPyPPlCrV+z3xXpHiS3+5pA9YUz5wmM4PsoKcYxK2aOFa6iCXHMJgcCTYRlm+Zs67rqquzMW02g2bv56krV/gG6xvBn8o+iqfRIBy+84yXHd+9ygrvgj8YifCd/W/irwZZAYhwYMjdfiPHkqqNB1ng5Y+I21BFj47kQ4Mp2AzvJjdAJ47gha9VziQ7UGLac45LqeKJblvOp8FG6NfLdzQu1XDI6O8XEAuNiZI3fdDQp7QN2N5z/aP1UYVhuSr1LlNChVp5gQroVGLq5Gly4JIV2xKZqdlN3B5p6X96R6O9F6MK7KYlxjcOZ5Ln9nez3YubUYXEGo3MDEgglhNtxkdF0eJwx1b72g5SrIzlexpNc2mGvzGazcV7TObIZhqr43iAPMo7B1zVbmLMpi44eO9cxtbAYt72y4NbvABcZ3S4j1blF9BF+pwDC2mGn8ME8TxTSdVJhAyWPtrbVWmclKm1zuL3ZW+lyhWYrFu98UDxDHO8ri3VBbSw7jVDxMtltrGCDBB3Xg+EWuiNm7HLW05qOJb7xc4uLvMmLcDfggCSExaAfnq6bE4IdsajSWucKZIkjTMYPAmL8gU9TFzZ1o+i0Np0QHdoLva1paDFm5h2kNO8tzXHBcrtWo5r3Mb8VoOrTvjkq20UsYiVl7e99MteDY6cRH2FDtM9R9TdOVvRv31VsKNKnlAHBWwoLCwWGSXEkqEKQCeFKEJXQtb2UcCypT3sf8A6Xd4esrarMAE/wDF965LBYzsKofEtcMjhpfVp8/qjsZjqr9H5RwAt9/VSuNMsuLn7+7q1TfAuiqtYi1NsDj+/mUF/DuIggXdOYuOaI06TuWXUztN3HkZsehNgeRHirKOOI97TQkSIPBzd3XRVW0nsH4EX4fJKY1GE/kD5j2hHYmnkY5xOgn7eqAwlOGNHL53U8fWLy2lMg953QafvorgERiDfyN/jqUlXAT+AUITqcJIYkmFY6arIGYatIcOrTKnClCuzCohdpRxjHU21JAa4A357uqxtobYpmQ0kjeQI8y6IWJgKmUmmerOhuR++aLq02nXwOhHQrqzg6xCuiqYkKbMRSdaPA7+k6+CKpuZugLDrUS05TF9JsHbwHAe66CCHCNUv4tzQRc7hPvNdwPEc1C7ZwcifMpm1y3QeX0rsTUz1nEaNGUfM+qaFHD0srQPPqrYTQAIGiqvcXuLjqmhC7Rpk0zGouPBGQkWyuBi64CF3Ww8b2zaTgHZCzODfLmN3NPMGfILZqGbLzrYHtJ/BUX06jHvAcSzLEBrrkEnnJ8V3YqTDtzgD5q6HDML1VKu2s0OBvAnx/dO9gm+5C4zH02OY15gvdlYAHEuMF3wg5QAJkwEfXaIQWJrMZ33FrTBAJ1vqBvITlTNWDi8bT7RwacxyhxEHSYkHQ9EbgnAtnyQFXE03vaGOaXhoBAO+LxOt5utOlUBbAskCkdZB7Uw7nupVA7K2iS9wvLpaQxo3RNzPJcy6kS8vdc6CdwW7tStUY915a4AQRpA4rJdcyqtaoMgsLtGuKjgwf4yOcqMJwE+VPlVXEs7CownAUoU4QlGFRWohzS070sBXJ7jvebrzHFXgIfFYYmHNs8ac+SIcMimAha+F2e2pTc5zhabWiNb3ta1+q5+uMmpuB3Sb5m6FjuPVEM2iIOaQ4agTfdbgmoUXVHZ36fC1SkgC4j58E5vkls7DZRmOp9BuCMAVkJwFWc+TK4NVcJ1ZCZLKbCsWEsqlCeFelZ8KivSJuLOFwUZs7GyQ74mmS2+7eIuoQh62Hk5mmHDeuB3p2mFr7cxjKglwytAi+pmdLxNgVh4WmXHO7gAOcb1NtBzzmqHTQf8IsBFz9+aZxkpQnhKFOFEShCrhPCsAUHuA1XSjhQe1m/yndF6bg3zTH5WkdHNBXkO3NuOpsJbSFRvxHMRHhGnNetbIfmw9F4F+yp2ni0Ejw+itUgQLrY7MBAcfBW4gF7MoMcxr4LOxeBpgl2TtH8anfNtwn3RyEI5lZsqypimAbpUzStYEjJc5V2e113UmW0huXT1WhhG6NiITV8S0XJv+4VOJcW0C50jMYtrHh4eaBdqlq1MDS86LD9oKoLpaPjHjeyznCabnzJIvyv7vJEGDMlxgzfkfunfSaZN7gTG+dD1WeXyZK80ZcZKrp4dpBlkeP2KlgaQDWmLkCVdRYL3J3XKspUw0ADQKMvOUohqYBRqVA2BBJOgGquAVNUZXh8EiIMXi8zCQGUYUTWiO66TMC028VNtcRMH3ssbweahVGcsiYl1xIItzUW0yAGwZFQSeN/eRtCMKVTKXe4XFu8RA5XN1aa4GaZsY6kgGBx1UaLsktcD7xIIBIIJndvUeyIe54Ew7TiC0SRzXW16yTQrDXvGRxMAmItM8+STsQQQMjpOnu7td6rfBfmOcAtbEB3E2MBEvbL6Z3Q71ASmBpoiAo9qf+27/T90kXCZR4huTYVgusCVXQpkgOJMm+tukIiFXTokaOtwifCVfxWWfCFpOMiC6STM+7AJnXlwVhcbgHV8TwESrRREAA6Oseckx805Y2DfU5pG47kS4JoUKzMrZBdqN8700ktc+dxgDd15q3JIIL50OkaGU7qIOaDAcL8L70MS6FCjTkavGmpI8lPBssHEkkzqeasosItmmN0AQpUqeUAJC7NNCeEDhW53PDtQfTd9fJX18Y1thc8PudyymYx9PEU3ujsqsUiLSyoZLTO8E93/AJUlJpQeQARqtHE7La4EESCII6rrvZLHxSFB/vUwB1A913kPMFYxRGDqZXNfwseY3/QqRroKl7M2ksrBhydbnofO3gVu4zAdoczXFruI0PULOxOw8QRIqNnjBC6PDiQCFc2mrGFenLiuUwXs89pBqPJRm1wHRRB7zWi3GTc+YW5WpmQuB/6g4h2HxeGrgkNfTex3/wAbswPUCoT0BSuZLSAqu24jRMX6unOGE79b87ykMOOJi1rbjI3I1mJp1RJIa/fwPMdU5wp1FxyWY9rmrFbDhLSg6dEDSf3+/VWgKZZCcBQlyfCoBqcBTATgJZTYUPWeREDmen7+Si6oeOmaf7hHmJRgCcBdiG5HCg3F24ndAgDXwSNZ0Tuy6x8WWZ+iOhPC7GNybChKlQ3y30j1n6DxRDLieKshPCQngmDVCElZCZLKMLChPCeE4Cvys3CqW0I0Pnxgj6pChz3R8rlX5VOFxeU0IY0Lkzrr6fZSFDW9iI05k/VXwq8XVyNnyXYibIhqrgNkk9fOfuszF4wvMNNuP2Q+Pc4vykzHzROGpkaR0KsNpxcqCpViwTYcndf0+mq38R7EPr03MrONMObIjvltTUOsBEGNDdG+xmDZUqPe6mJZEEgES46tO8iD5rsnNWZt23VKb8FOx1P0tPs3YGVWd7U32GWS8ywTqjQaVeO2p92pBkEgCHA8HAhw/MtBlOoWOe2m94jRgBJ8yJPILqcRs+k6pndTaagbAcRcsB055SfUHerKYgzuOvXj4qJ/apgYW313co++F1MOxWl5JcY0Az875cPMKn2ex7HsHeHMToeC3M4XP47ZAee0pnJU4mwd1jfz8wUJhdsOpuLKrSCNZ18hYjmFsbHt9Ou2BnqOsxxHordTaRSdFf8AGcnf4nn/AIngbbnFdSWriP8AqZhO0whqj3qD21G/0mHDoQSuio7XpkCHR1EehWV7RY5nZuptcHOdIiZF+MblbLmwp+9ptbjLhG+QuIxBrMpU6rKTn4d9MRUpyatOCMpqUwJIEatmwMjcpYfajyBlkG0Oae4ecjceOi7r2YoBuHa0aN7o6NDf1RlTA0yZdTYSDIJaCQeIMWPNYL+0jSqOpubME3mNdftZLOzGVqTKrDhJAOW/duWM9mJytcaIdMbxPiAratEMpipVAYDvBzQToHQLeEroaPBOBFh/mj5hUv8AUXkjE0ccxPvHkr/+ntEw484+ACfNc1/D2lpzDiFXlXQP2Qw1O1BLXEXg2McW71jZ2VA5zD7ri17d7XDUEfuVbY9tUFzJtEjdP8FVH0XUyA6L5cY6H2VRCeFKFKEspYUITwpwnhCUVGEoUoTwhKaE0JKUJISuhYcJAKQCmAr0rOwquE8KYCcBCU0JoQtRueq1u5oLz4aesIwBC4T36r93cp+L5+wUtG7kSIBKwqt6hPNHUIIj0KCaZdPFaDKYIVxZb11fsNrWknRlt49/zXVOHj+/QrkvYYOD6gJmWDXWx9dV1/7heb7QH/Idy9gvUdlH/it5+5Qj2/6bjm24I8pH9qqqU4KJc0T6Ho60/vgFGk2WNJ3tHmAqREhaai39ChdqbPbWbBs4e6778RyRuVKLcxcdEWPcxwc0wUtSm2o0teJBXn+KpOY4seMrh5HgQd4PFUtEXI/RdvtXZorsjR4ksPA72nkVxjgfdgzNwdZ0uvUbFtY2ht7EZj5H1ovG7fsJ2V9rg5H4PEeq7LY1DLh6Y3kZv7iXfIoiqLSiuzAAA0AjwCryaheWe4vcXnUz53XsqbBTYGDQAeQhU0nIloktPP6EfZczjvaENP8ALYHMytPaPcabDmGYAd03jMe9Edm7gtzZmM7RgdEH4m/hcPebPxQZEjWFK/ZqtNge4QDkg2q1xwgot4l3T6fqfRZOPpU6Lm5aIHavLaj2tiCRILyNbwL81tjef3ZD4rDdpTcwkjMIzDUE3kTzRoVO7qBxy18NfJR1mF7CBnp1xyXOVacEhRhGV6Zy3MuaSHGIkttMbp1Q8LQqNwuhZoylRhPCUJ4UcpoShNClClCWUYUISUoSXSjCxoTwoYl+VpdwV2HwgdmL+9DSY0aDb4fvKvaSVnht4Q/bt3S78on10Uz2kxDRpqZN+Q+6Jw9KTpYAkjSw3Iqp2Jo2/wAQ9c0zBtm/y8d8xdSMaHEgab0Q20rKyVPxDwb+qqwuH/8A5i8mXHENk6RBDQPn5rVc3IP853a5Z+blRgcI5tLE4cmXNPaN9HW8WeqQPIGMZAtnwJg8rjrOZlPE17dcJ88/hcw1sTyd6H/haFO3QocUv5lVnGSPAyPmrcI+RlduWiVguK6T2QcP4jqxw8iD9F2JPFcJ7OHLiaZ5m++7Xfou9kFYPaTYrDwHyvSdjunZyNzj7AofEMm/XyP7B8EsHemBzcPJxH0Vjm7lRs8w0jg5/q9xWeDmtfRPjcQylTfVqODWMaXPcdAALlee7cqltOjiGYbsq9WqzsKhfmxJEtJ7a1mvaYyZiBmaCBu6v272TUxeCq0KUZ3FhgmA4Me1xbJsJA374WR7NezmKdWbice8udTAFJhLSQRoTk7oA14k3Ol9DZBSYzvXOFifxvJgWsNCT+RJiBxVWtiLsIHPdvv7cV2D2weS5b2jwoZWa8aPueTmkZvMQfNdY9tuiyPaajmozvaR690/NRdnv7uu0b/xPP8AeFD2pS7zZnb2/kOX7SFsuWftxzm0KrmPDH9m/K4kAB2U5blFYKpmpsdxa0+YCvhVAMJvofZXicYka/K4PZlCo3AfymNOKa3+ZTqZnuGV/dexs5mnLBa0bnAXICr2Tg67mYfEUagont3MfSD3mhWYKjwXd7vS4Z4kfE2wyhdPj9nYl73FuJLWGIbB7o+KHC54+kwqm7PxFNzMtYVGZmlzagvAMuLSZ70aXF1qu2rG0gubJJOuRmWyRBEukTMf+2UINlaACHjLiPWBB8LHRbFEz0H1v9VcXT0Qb8SxuZznBrGWvaSFnYj2lYBLWOI3FxDAema/os2jSqVLME9b8vVCvtFKj/ccB1uz9Fbj2tZViwFa39bWz6gefVZ7mwYVf/mRlVzWuotIDpB7SSHD4h3dfFTxrKhlwIa2RzcZnwHqtM0qgpNxiCLctPS3JZorUnucaZkZ5HnnvMnq6cQLkwOaoONp7jm/KC71AhQpYYTJ7xF+93p4ATvOlkbjsA6mA4uBk3toTPkNPElBlGZN7dcUcRiQhf40fgf5D6lOcaBq14/pJ+UqwMygEi590RPiQq3gg94EHn9/EeaUMaRIFkMTgo/+KUfx+jvskualJWf0jN565Je9K1NoD+W7p9QtbA4UF72OMCI4TedY6b93VAYunNNw/wAp+S3MHh21abHkTmYP9v6lBjja03+o+fJIxklZ9RgY14EmXQCRq0cDAnS/VOykKQzOHePujhz6rTdhgIMTlFhwJ670HVogHPVMnc0fJV3PlxBETeNTwHsdNFIacX6HH6QDabnnSTvUMI7s8Yxrn5u1YadtAbQJ/pjxRVfEOIAAysdJAETAsc0aX3LF21VNNra7QC6k5rwDoS0gwrAY98sdaREe089AlpvFN4IQ9enFUOGhlp6tMH6KFZkHMNVqbXID4bo45wf/AHZeI8HDzQD3tm1+J0HiVotdiAdvWDWb3dQt3GPhF7Lf2dWk8uAaHtJncJvfhErs6m3cMPjnoHEeYC43DYOq4dynbiCI80WNhVyJJaPCfqq9fY213Aum25aexfrKTCKVOZOoj3LfddINv4c/GR1Y8euVN/GMBzg5mkmC3vDnoufd7PVf+83+1W7Mw1ai4tJPe0IuDG6+hifJUNq7Naxhe0m2+PgBauzV9sxxWpgA6jT/ALFdXhsQ2o2WEGPPxCumbrJwzXDvGZ/EAA8dYs9qONWLkiDExpfRw5FZUrRhEFVOMeY9TCi+oWgwC4jQCJPSSAud2ltWqa9ShnpsnI6i6YLpdamTpJO62kXlSMpl8xp1/PCTkE9Ok55/HdK6Voj6Kxc/j6gwzC8ubUcawqZXatGhcxsy4gkCRpmFrLT2bjm1SYqMfIbUbkBswgC5Nicwdw3WR7shuIZIvpENxtu3fG6PvWPJFlVvcAbqTjdYXthijSwmKqN1ZQqEdS0tHqfRIBiOFRGwlcY3bT8VUzAEy6abBuBvK3cN7Ml/frv6MFgOp3+Cxf8Ap05nZmpaTYcgLfOV6BQdIXqaDWgYWjKyzKHZ7X/71f8AJxvfID58MhlCxnbBoN0p/wCpxPqUZRpAs7IcRlk+klHVKaGq0N6lfTaRDhZaB2ekRAaB4ABA1KWSnB1ef9I0/fNSpUyGh9QkgCGNO+w8hYW/ZObTa8ZnfB68zxQr6L6hzO7ree4dFh12mk4sJsczv3AclQdTLXRFx1KEFc5xU1IMx++G5XbTrOf33DJDTA1J19NNw3pdsxv+GJP4j9AgNouOR28m3mYTMe4jCLDryURsM5XP9keCddZ/4e1JH9e3cm/TnehIR/svW/lupHWk4j+l12n5jwQcIDGzTeKnwnuv+hUmz1MLo3qI2uuh2jtWk2wdLuABPluKxf46mTJnmT9SLBO5oIvBHogcRQjvCS3iNRxynfqO6eKJDajpy8EO8O4eUrUpmnqG+OqD24Gva2kPiMmPwtv++iCp1Cy4jSY0a8by38LuIRezqZeXVT8Xdb+X9/VRmmGHHJtx109b9WkFYuGGBfhCxcTtbuUaAc3t6gyMzTZjHZZMa2Glpywuj2Ls1jILiXv/ABOjX/KBZvgFwe2vZqscW2pTcMzBnaHGMwpE1IB4623wvR8MbNIMhwDh4iVr0y0tGE6ddeKs7DTphznR+ec6wd3zyzWxSCuyoXDvRrApwrxN1U9iDxNOxF9N1vULVyoXE0krmSIKYFY+HxL22zkxuN/U3KL7eo4RYCI0Oh6lDOYQ42HVHYZs6qn+iouzYPJNIGipc17hlzEiMu7SIuQhauw2vcHOa0kCL3EcCDY6rebT8FNtK6sM2Wm2waB4ICs4ZGFh7SwpqUjTNJheKZZTfeWwLeoCo9n8+HaylVOVrC6zWSHA375F5DiTMb10NSkOCFfhgSoamwUi0sFgTPUynG0OLcBy43jPKcs+jdXsxlMmc7f7gPQrG9pMlWkcO7vNqjvwfgBBiRvOnQHkjH4AKo4DkqbeywxwcHG1+rpQG6rlG+zbaTmnDVeyYAczCS8GTIgudIv1+UdBsbHuDe+0g3HGYOo5HXxRbcGOCvZhRwWg2mQ6UZbEKwY4H4Hen3VNbFuNskDib+iIbShM+FKQdUghVYUw8EIfaLC4kFwjcN3kjcPGZYW2WFtS0jWw1jiBo7pqqe20cTQ8WI1VTanAESJ5os4eTmJEwBYRYBC4miDVpMF75z0bp6obD43TMQJ0cPdMfI8iitkAvL6x+Lut/KP1+SyXio2XOd/JsoWupvsGwfGVpJJ4SVOymgrMhQq0g4Fp0KthLKrcqnCx6LzTd2Tz+R3Ebltvx4NEU8sHSbxYnnOgHLch8XhG1G5XeB3hZv8AAViezLu5+LiOHHwVunWBkzB1/ZRlpabIdlDtXljPcBzExpxjqt9lMAAAQBYKOGwzWNytFvU8yroVarVxm2XV07GQFmbaYWhtVo71NwcOcG48dPFT2dUALqI0b36Z40394R0BH7CNr08zSOIWDRY7JRqA3pPfSeeDAS5pPINLx4K1sVaCAfDzv7i3j5uXmlFQD+nPwNj8HxaF1GFqrWoGVzWCxbajRUZ7pnwI1B5rdwNaVtNK0iQ9oc02KPhRc2VJME6QGFn4rCyqaYc08fRaT3qhzVGW7lIDa6GxW1S0T2biBrlgm3Ikei5Ct/1BpiplIq0o1zsLd8aeq7CpSQGKwAcIIBB3ESEhc5SsazVEbN2u2s0OZUDwd4IPyWgyoeC5Ol7LMYc1F76Tte7BaerHAghWVcfi8NepT7Wn/wBylcj81I3H9JPRMHnUJTTv+K6k1E3aLJ2bt6jWbmaRHK4B4EatPIhaQa1wkHyKcGckkb1aHhSBCEcwjQpNcVy6EQVS9qTaqtDkCJRCENiDvBT+0WGY6m12jiZtrPHrcanRTrQgtuPe4hlMd4gX4DruUG02pHqFX2q7QVgMpOqv7MWJ/wATgC0+8OH6rqKVINAaNAICo2dgG0mwLk+8eP6IyF5qvWxmBkFFSp4RfNQhJThJQKaFgQXvcMxDWwIaYJJEyTqqcU/K8guqACmD3ZN5dc/coyphjmzNcWkiDYEGNJB3pCkA6XOBJZBERIBMmPFX8Y5dcM1QwoftHg08xvkeXAaEgDgrcHSLg17nOJMGAYaJvEDVKnQa0sl05QQBxDoj0Cag0NgNq92bNInfoHcLoOIIt7cT9hEDeqcFVdUhuYjLJcZ7zu8YA5cT4KVIy9wJqe+QInKBaxOivGEbAAdDmGzt4LjOUjgZ0UqdEhxipGZxMZRcjUA+CLnCTHXpu+lwadVTToHtXNzvgNafeOpLp+SzcY4sp4umNSWVPC7XfNvgVvtoQ8vnUAR0JP1WXtgtp1WVHCWkOY8cWuaQR8kaNQ4xFzbzF/WI5ouYCxzTaZ9bLm/ZjaJp1jRJ/l5BmndUcZHkDB/RdvhaxaV5lhJJe7e5y6/Yu0g8BhPebpzjTxXoJuq/ZG2X7h+uXjqOeY4yNQF3dCtIRGaQsfAuluqJNWN6llbZbdFucFS5wQrsWOKHq4xu5AldCMLwq3vCyzijxCUzq7y/VJKaIRzsQAnZUc7QW9ELTLRf1N1extap7jco/E7XwCiqV6dES90e/lmuK5b2n2G6m7+JoPDHjWIGbw3jqrtm7VqA02VW5Kr2l7Q24cAXA/lPdd3Tw5oz2g9malZhAqOkatmx/RZlPCOp19nOfudUpuP9DAAeri7zVRu1sqH/AG7Z58Ale8gLfZtYfFB5jXyUzjmnRw6Gx9U2O2FTc8kd0nghf/LjfxHzKQdqMH9QulD+Cm/aIGqhU2wNzgOpVNLYmQkPY6oJ7rhBsdxBNiE7/Z1n8xwb3g4FnAgAWjgTITHtKnP8JTW3BPS2uzVzwTwC2HV3tYXFggNLve7xIEgER9VnnZIJqQ3LLKeWY95pJgx4IypUe9j2mm5rixw3FsxoDKpbVt3fMDQBGt+EhK55dw6KnTxWZwa0TYF5mzZExzdyUcNiar2hwptgi3fM/wC1RwtB1IgASx2o3sdFzzafRQ2VQyZQaTmuggutHH8X0VEhkEjl6zr96Z5lBikT17ojtK3/AG2f/Yf/AMJI1JQ4huHr9qTDx9vpZcKp+Gk5pP0iCCPU+fJEwlCsgkZKrhlCDCm1xNrxFhwupOwsxfQuP9zg7x0RMJ4XYyjhCEGEIuHX1Mi0gzujifNP/Cb815kQLSXZj9PJFwnhDvCjgCjC5j2ur7uA9Tb5SuqhcJ7RVM1R35o8h+qs7C3FVHBV9tdgouPLzWPhWQ31UqRIMixRIZDPzGPAQT6x5FUikt1ed0uu52PVcaVJ4d3nTM6SHEbtNyK2g14AJeI3w3T1uqvZzDThqPKT/rct04QEEESOC8/V26u17mB1gT7le02cl1JhOrR7BctiqZYRLpB33i+k8FF7y0hu92lrHx08F1lLZrMuUiRungmq7PYAO7Ld44cCOBSjb6w1UsrlqWGqkxkdffaD4z9Fp4PZL3akDkLuHnC26bMtibHQ/dWOAJhwg/PoUru0K7hAMeH3muJQ2FwDWXDQT+IyT66I+kFSSW63HH7qym9VA6TJN+KUpFgmDobfYrJ2ps7tDTB1ZUDuvPrZa1b5fv8AfVSZ3p8D5FS03FrrJSs/EDvKuFfiRdVQlq2efFIBZNCDd2kkwYJtyDXDdzE+iOhPCUOjREtlAta4uE5oOa3ebAkwZHgIN9OaixlRpae8QGiRJMuyunU8Y9FowlCPecF2BA0e0BAdJ1uLzMRpwObwhPh+0lpIMQGm++JzR1kI2FKEC+dEcHFQhJSTpJTLMTpJKyqadJJJBMFIJwmSQRSK8/2t/iH85+iSS0ezf7h8FQ7S/scwqzo3of8Ae5QGqSS2FgHNeh+yX/pWf1f73LfakkvLV/7z/F3uV7HZf/HZ/wDLfYJUdPNPV913Q/JJJI3JTaqh/wDh+H1SxXut8EklEcuQT681ZuPRD4ZJJE5hAZFEbz0KfD6+fzSSUzMx1uSFD4vcqUkkK39Z5ewQbknSSSUSKSdJJBFOkkkuRTpJJIIr/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYWFhUZGRgaGBwdHBwaHBweGh4cGSEaHBwcHhocIS4lIR4rIxkYJzgmKy8xNTU1GiU7QDs0Py40NTEBDAwMEA8QHxISHjQnJCs0NDE0NDo1NDQ0NjQ0NTY0NDUxNDQ2NDQ7NDQ0NDQ0NDQ0NDQ0NDQ0NzQ0NDY0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAABAUDBgECBwj/xABHEAACAQIDBAYFCQcCBAcAAAABAgADEQQSIQUxQVEGImFxgZETMqGxwQcjM0JSYnLR8BRzgpKisvHS4RY0NcIVU3SDo7O0/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAIDBAUBBv/EADMRAAIBAwIEBAMHBQEAAAAAAAABAgMRIQQxEkFRcQUTMoEiM2EUNJGhsdHhNUNygvAj/9oADAMBAAIRAxEAPwD2aIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiVm3NtUcJSNWswVRuHFjyUcTAJ1SoFBZiABqSTYAdpM0XpF8qGFw5KUgcQ4+xYUwe1zv8AZ5Z0x6ZVsc7ZmKUQepSB0Ftxe3rMe3QcJrgTSRbJKJt+1PlL2hWJy1ForwFNdQO1nuSe3SUD7fxbG5xeIJ5+lf85CCD4zuKYINhqPhPLntjYdn9Oto0tVxDuOVQBx5kX9s2zZPyvVdBiMMrfepEr7GJHtnmRLZrC9rAeJmapQe27Tl8Y4rcz3hb5Hvmwen2DxLBFdqdQ6Baoy3PIMCVJ7L3m2T5Ozkm27sm+dDvlErYfLTrsatEaa+ug+63EDkfCepkXE92iQdmbSpYimKlF1dTxU7jxBHAjkZOkiIiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBTdJ9uJg8M9d9cuiruLOdFUd59l588dJ+kVbGVPSVmufqIt8iDko+O8zcflr25nxFPCqerSAZ/wAbjTyQ/wBc83pUy7BefukZMlFXwiRs3ANVN9yjjzMuv/AiR1TLbZmCyoq20Eu6GG3TDOs28HShQio5NNOwKg1C37Z3o7AqFvVsfZpPQaWG3SalADcBI+cz3yImpYHoxazEDuk8bCUcjwt7/wBdk2B6cy08LeQc5MtUIo0nHdFkdTY2bhYaTSMZRelUKOLH2ab/AD3z218LaaZ052TmVXUajf2jgZbRqtSs9imtRTjdbmv9D+lL4LEI4JNJyFqLfQqSLsB9pd48RPo2k4YAg3BAIPMHUGfKTJpu4z3n5JdpGrgFVmLNSdqdzvyjrKPBWA8JuRzZI3iIiSIiIiAIiIAiIgCIiAIiIAiIgCIiAIiIB8wdLcV6bH4mpzqsB3U+r/2zHsKl87rw+MgVm67njnck97G/slt0ePzp7QPMb/bKavpZfQ9aN1wqS3wtIcZV4KT0BM5x1C0pkcJkJkXD0WMmGgQJ7YHVXF5MoMOUjU6BMmU6BtCTPG0H1lVtmgrUnuPqmW1rSHi0zKRPQeN1UtnFr9aw1/XZPS/kRY5MWOHpEPiVIP8AaJouPwuWuVOgzb+W++nhN6+RdMoxg+9T38rPadGDukcqorNnqUREsKhERAEREAREQBERAEREAREQBERAERODAPlTH0DTq1EYHMtR1I7iRLTozQOcvwC28TaZ/lAVP2/EOjB1dg4K6jVRmF/xAiZ+julIkDiZnrS+HBqoR+LPIvDjUpgZjqdwG+ZE6SUk0bSQgtOmueogZjv033kDaGMpEXOFUqQpuqC/XbKpuSDqdBpKIRT5XNU5NZvY3/ZW3aFQDI6E8ri/lL5QCLzxg0lpuhCEZtQCCpAubaXtw8Jv+wtotazE93wkZpRZKPFJGx1ayJqxAlHjOnmFQ5Vzs1/skDzO+WG00TKXYXsDpNAxSVLPWCKgDDS4S2a9sznW5t7hvM9g10PJRbV2zaKfSWpV1SiwXmVN+/ulkmILAEjKT5HuPPsmt9HMfXq0TUIZQqq2ZXD3VywUlG13o1wGzbtJtWGJqJrbNzG6/jE1bDQg7q6ZofS7D5KqOPraHtIP5E+U275IcMFp4htbl1BPPKp08M01/p0tkRuTgHx3e6XHQSrXw9NbsDTqOpC2F+tYXB36gXl1KolFXM9ak5Sdulz0+JwJzNRiEREAREQBERAEREAREQBERAEREA4lftvDs9CqikhmUgEb/wBcJYRPGro9Ts7nz1tTZgfDlxvppft00bvGkdGj80vaT75tPSPCCk2Ip2tmZrcrOAf+4zU+jT9RByJB85hd+FxfJnUw5qS5ova2Gz3B8pH2ngEqKmcOWQWB4gDUC/G3bLmgnLfMj0ddZXGTRY4p7mtJhajsCTZVUIB90bhpumw7FTKbdk61xYSVsmndi1uQnkm3uSiki7xlLOmnKa+cHVBYOzMrCzAm9wN2h08ZstNraGZ2p8Dvnsb8jx22ZU4DCIlPIlO2t9ee6/fJyHKJlShqZlajprDuyN0jUOl9HNh6vYuYfwm/wmw7Jw1kwi6EFaev4VuT7ZSdMHyUHNt628z+UuuhbOy0VcHqLYXFrhVy38biTgr2X1IVHa7XJG8CcxE6ByhERAEREAREQBERAEREAREQBERAEREA0X5QNnZsj20bqtbeCLlT5Zh5TzTZmGanUdGt69xY30Ovxnt3STBmrQdQLsNVHaP9rzx7aaZKqnUEi5B0PEbvKY6sWpP6m+hO8V1Re4Yyz9B1b8ZS4Otul6K6qhbsmc13KLEIwZmbUDhJOwtpsFKumS7dXUG/iPdKrHYpnJCjS8y4OgwAIIJB7yO20lYjdvZG21MaxcI1FwpAy1BlKX5EA3B8JLqOQRyIHnKnCFzTBN7i/wDmTaOMzDK48Z610G25Z0tZzUMw0Klor1rQtiL3Nf27hFrstJycpYE232HCbXsOgFfS9glhx5cZr2BotVxSgWsAWN9wA0v39ZZu+Ewopiw1PEyyjBuSfJFFeolFx5slxETaYBERAEREAREQBERAEREAREQBERAEREA4mifKjg1NGlVt1kfLfjZxuPiom9zWvlAw+fA1ea5XH8LC/sJkJq8WTpu0keYYerYCXznPSFvGarRqXEvsPivm7TA0dOLwU20KpDooHUJsSD6vaRxlvhcPhjr6WuhUDrZQwY63IUC4G7fID0s2o3yVhsTZQrU92l7c5NPBYkurRbO1JOtSxTs1ho1Nt5NrcOEx4XbTs7K1I2U2z2ADAnQ23jxEkYB0KlQmvMi3tMlNSRVyi2vvhyVjxpdWyxpNpcTDVO/9aRh3stuUj4irYHxkSDJvRQ3xT9lM/wBy/lN1mj9CNa1Ruaf9w/3m8TZR9Jz6/rOYiJaUiIiAIiIAiIgCIiAIiIAiIgCIiAIiIBxKXpcwGCxF/wDyyPPQe+XU8z+VbbDq1DDq1lYhqluPWAQd1wT5TzhbTt0PYu0l3NAQlTbgd35SUlbhODTDDWRHBQ67uBmJZOg8FnRqNw3/AAlhQWq2uYjwlThcWNL7x5y9w+OUISbXtPHFk4zRIw4cDUk+ElLm0mPCYxCL6dnj+hMlTFqLW1PCeKJ65Epqlha8h1XLnIDpx7pHeqzEAC5Pl3ydhqGQHiTvPbPXgisl30SKrWZbi5TQc7EXt5iblPF+k20XwzYauhsUrgHtVla6nsIE9b2VtBMRSWqh6rDyPEHtBmuiv/NMxajFSxOiIlhSIiIAiIgCIiAIiIAiIgCIiAIiIBxEg7R2pRoLmrVVQfeIBPcN58J55t35VlUlMLSLn7b6DvCj4kd0lGEpbIi5JHplaqqi7MFA4kgDzM8K6d7QGIxdZ0YMqlVUjcQgG7sLZpVYvbGIxL5sRUZ+IB9UdyiwHgJjtrN1HTWu5c1YpnU6FlhnDKGG4i4marRBG6VmzKmV3pHceuncd487zYKNKcOtB0puL5HapyVSCfUoamEsdPb+clUKT2tYnxlzWwJI0Ej0UZGGmnd+chxkuBGPDbPc7gQO1tPZLTD7NYeswH4d/mZa4cArff4WmZafZ8Z5xnvCjBh6AUWAEy5uU7BDymdKI0Mg5ElE0/p6g/Z05mslvANf2Xlt8n23vQHJUa1N7ancrbge47j4Sg+ULFBqlCiOBLnyIHvMw4BbIJ2/DaSnSalzOTr58NRNcj3tGBAINwdbid541g+kWIwgDIxZB6yN1lA5jiPCbxsPp1hq9ldhSc8HIyk9j7vA2irpZ0/qimNWMjbonVTfdO0zloiIgCIiAIiIAiJwTAETVdudO8Jh7qH9K4+rSs1j95r5R537JoG2/lAxVe6oRQQ8F+kI7XO7wA75bCjOeyIuaR6ltjpDh8MPnagB4IOs57lGvidJ55t75Rar3WgPRLz9aofHcvhfvmilt5LEk6nXUnmTvvMVSvwUWm2GljHMslEqknsdsfi3qMWdmZjvLMWbxJJlZUfQ2G72yVayM54D/AmLDJ6t+LA+WvwlrjyPFgl0UI3cAB5TNmnQJpcHwnKm5liVit5Ou0kIyVF3qbHuOo93tm07FxgqKDxlI9PMjLzHtG6Y9lVGRxynI8UpWkpdV+h1fD5uzXQ9CoLcWnZ8IDvEw7KrZgJdLSvOGzqkahhwOEkBAJz6MicqsXPDgJ2TpiXCIWPASYqTXelNUimQDJI8bPNsfiDWxbOe23cNPjL3DDSU2EwhzsxNgouTa+lxuHEyWu3qCEq3pgeJyKR5B7z6fw9qFG7OBrE5VGkXOS4sd3Ka9Ww5puU1sdQeY5HmRp7Jd4HatCoQErLfcFfqN/V1T4GddvYeyFzvQg2Oltcp05WY+U3cUZK6ZkipRdmZtgdKcRhrBWLpxRrsPAE3XwPhN+2b8omGewqBqZ4m2ZfMajxE8eZ8u+FxObePz85nqaenLuWxnJH0Vg9o0qovTqK4+6wMlz5upYplOZWKkbiCQQewix9s2PZfT7F0/r+kQb84zD+a4b2mY56Rr0u5cqq5nt0TQdk/KXQewq02Qn6w6y/6h5Gbls/aVKuoek4cHlvHeN43HfM0oSjuixNPYmxESJ6UvSDpFQwaZ6zWJ9VRq7HkB8d08o290vxGMDWPo6GYLlQ7y24M2hc9g0lNtHGPjK74isbA6235E3Iig8TbQcTcmYDWzsgAyqpGReAuR5k8TNNOOcK9t3y9hOPClxbvZfuYKyFSVsVsSDuvobcN0xZDx85abRpgVagA+uxA59ZgR3giRWXiBpN9FqcFLqZ6seCbj0I5pHvmIiSiLW5HcfhAQGWOJVxELHA/NpwN2PuHxkrDUCXGmioSe9tB7L+cy18Nesij7C28S0k4PDs4dkRmBZgLA2sDkX2IT4zzh+LJ63giMgFrGZKCXI/yfASQuEBYK7qGIvlUhnsOJA0UdpPhIdbFvm9HSXIu4vvdv4vqjsE97IjYn1ai09Kjoh+yxJc/wJcjxkzC0UfVWVvwn9HwM1jCbMAdmbWzWOa50YAq3PjLqjgRcMAVbTUaeMzaig9RHhm7W2sX0a/kSvHN9zcMACnDyl1QxQtvmubLxvB+zWWeJQLrfQ8bz57UaWdF2e3JncoaiFaN1v0LVsYtjMRx6jUnwG+VCVtd47pzVtx0maxdgl4jarG9hYTXsbimqNkGvMncJ3xWLLHKm4DrN7wIwVKwBUEsTZABc3GrMRyA117J2NF4dxLzKu3JdTl6vXKPwU9+vQwVaCL1QOqmrnm2/XTW3LmZq1fDhmF19dST4m82zaCZUdRcKo1zEFmc8yNNL37+6V2Jwtsh5KJ3oqKjZLByOJt3bNUTCAMVI8PfL/FO64aoli65DlDHVPvK2psNDl3acJxtPCZSHA7/AIyxogFFO8bu8f4MjwrKR65PDNeqjPTVx3H9ecxYNM11k/C4PJUq4c+qwzJ3bx+X8JnTZmFP7Qi9rA+AJ+Ehm6fsTvhmLD4bNdn0Qf1HlMjXfkqDhwsOMssclzkXRR+ryLhqQcsTpTp6seZH++gHPuk2rYIp3yc4KgHqUwbqgemTzN3UAH26SyfaValiajqxQ52uAdBYmwHL3cwZj2emtMkWL1kJHIZlAXwFp22r9NVPOo/tYzHSaq1HdYyl2R0NVT8iMUt7Jvuy/wD+PsR9r+hP9UTVMh/QES/7HT6GP7TIg4ltQgNwpJJH1n3M3d9Udg7Z2w5CspYdW4J56G8xU07NZPpU7jWIUlGHCjydSUpuT3Mm16RFSoQbkOzqftI9n9x9kgmqFIJ9R9D91vyO+3fLvGYf5vDPwKFDbgabEKfAHxGnKQMRgtGRtA2nYp+qw7AfZeVaaVlwc1f8jTqYuaVVLGE+51/ZwbqfVbjyPAjzB7iOc64fD65Toymx8Jk2IxZSjDro2RvbkPnmXxBltVwvzlJrakMCeeUrY+R9s2JpmCWCtxVIrUd/sYdSPxMWVfbaQ8NgMxwyWv8ANFj3Z2tfxmx7UojOBb1iAfwUENRj/NVQeBnOysNkWpWcfRUUTxRc7/1vl8JXxK5K+CqwWGGfEVLaKMi/rvnWjgLOmnP3SywlSlTwyK7jOzF3FiTcnkB3SK20xmuiXsLXbt7AZVPWUoLLRfHSVpvEWu50x2HCMlS2hIRvwt6p8D7CZIGIS2QXdxopzAKBx375W7RxdR0YEgC19AOGvfMeApmooYHrWvft4zDV8QT+X+Z7LSygviLzDG8v2uoXS6W63Mfe/OVWytns6dSmwcb7kBdN5zNYWlmmMCkg7gB7h/vNNOUNVScZe/8ABVGc6M1JYKnHuqNc2ym4vpv0t+u2V37U76A9T2+B5STtbBq7h1DKl+sv1WPA24fGYaNO7ACU6bw1RnxTzbb+TXX17lG0cX3Mq2VeQtMaY9hrZbEZUUk7hqWIG+x18hJNakhJD1VTLqbqxFrXtdQbHdv5iRnwDu75Sj5UFgjhmsddF9bTjpJ62vOLUY3SXMx06blncxYraaeiAZSpLX01uPzljdKgUob6buI7COE1jafLdb9bpirDrX4yinrpr1ZL3p01jBtlTCZkII3e4yDgKRGelxAzJ221A948Zr9PG1EYMrtpzYkdxBNiJK/4ns6O9KxU70O8ciG995qhrIy3wQlp5LbJebUwoKU8Qu+nZj2obZ/Ia92aS8Hs0CsX+65Hkov/AFyfsLHUcRn9GDlFiUcAEB73GhIK3DecmUcLkS2p9GjoOZVShXxy5Zepp2a2ZQ01hml49StMsPWc5V8TYeNhecPRCqlFfUpkZz9p+A7Qvv7pYV6RZxl1NNsics9tXPMDVv8A2zzmGnTXOQvqUxa/2mO8ntka9Xy6Tnz2Xc3eH0PPrxhy3fZGTCrmxFBOToT4HN7lkPFEM7tfe7HzJ1k/YRJrPUO6nTd/EDKo82Ehmnew/wA90ho6fC88kvxeWS8SreZVcltfHZYImft9k5kz0HaYnQObcqaSAH3ywSiRrv5zFTThp/tJmHIBs28DTtEpR62WDAPhAR9SvbwdPzEjtTDKDa+lj3cZnwb2TEIPsB8vEqjC7gdgOsUlsByOonM1F4JyjupX9mdzwy1SToy2lH81sUiUitdTewcGmx+8ozI/eVG/mpm1sodKbgcrjkxsD4AgDwlLtqnkRao9UsoJ5MGBHtuP4zNm2cBkYcA4cdzWJH82ab+NOKktmcatBwm4PdNr8CDtej1yOa5L9lR6j1P/AIqVvKUe1sa4orSUgZ3UPYC5Yn0huT22l3tzE2qU6ABLtSXNb7VYqPMJTbT78pcFVBq0GBJbNWqsCoIAzFEGu82B4cJy68qlSap0n3Ozo4UaFB1q6TvsnzsQ8TQLPZQWI0AUEnyEkU9jVMt2CJ+8dFPkTf2STjNoVixDOwB4LZV8QgExpsus1ytF91ycra+z2yMPCn/cml2Pa3i/H6IHT9gQaNiE5dQO/tygTBsjFegzLSZWYMeuU1UC2UKH8TunJUW3dluN5CUZKpv9a02w8NpQabbf0exzamsnO+EuxseI2yKlnqO+ZR1Te4vx6u6ZExefrWvb1lGhUaagfWEqP2QtrbXlJtLDkML3Ww38Qd1pvjCMVaKsY5O+WybiHDISCCLXFuzWRsIMil97HRAefM9gmM1QrWbqt2WCN/pM6VXfMAGAci2h6qJzvztc+3lPdjyxGdizsm8U+s5+2511PEC3mZGwDMM77iWvcbwRu1memFGHzjT0jll55RoundadKaWWx323SO5LY5q7SrsD843ZfU+ZF5lbHF8uenTqGwu1RSX00tmUgnxkRlsCATb3TJlGVCO4dsrempPeKLFWmtmzs1HDt61AqedOow/pcNaRcb0dpuH9HWyG1wlRSdf3ii1u0gdvOXuB2QWUu7Ki6XLHgSV0HYRqCQdxmc4FMgIcXDsuYk5WUC6WFtcxBG8cBreZp6Wg/Tddi6NeqvVb3NMweIxGCcMrqCyA3Wzoyk2KkkWJU2JA3eM3nYfSRsSHR0VXGQXW+RsxOtiSQbqARcjUSu2nhfQLTYlXo5yWVrFcjn0bXXcPWvf7vZMOC2d+zAv6ZXGcJaxWoClRH1U3B6qPqDM/BOnJJO6f/ZJycZxbtZkmpWCUyw3lSE5/OMzk95BQeExJQyoqfWOrd5/RmOmmZ1U6qi0796U6Yt/MTLPDUSxZu2w/XlPa782rCnyWWdLRL7NpKmoe7wv0OMPSyYZ2HrVHVB+FBnY+dhK6wKk2so3lvhzMudoANkTMFo0167je7ucxRBxt1RpxNpjyKgFSooWx+apkgAHcCb739wnQoStFy6tv25HDq5aXRFTYfYqfyNEtP22r9hP50/1RJefDqR8uXQ1+j9Xxmb66d8RPVuRZdYH6Zf3WI/8ArMh7P+hp/hiJzdZ6an+p2fCfvNP3O+2f+QxH6+skutnfQt+7T3tES+l8iPsY9d95n3ZAb/rPhT//ADtKXo39Kv8A6Zf7miJl0Xz5mnXfd6X+JZ4b6ZP3ie8Tcav/ACz+H9kRNOp9aMNH0s86f1h3CQ8X6694iJvexnW5ebN3CScRw7viYiekSj2jvf8ABMGC9Sp+6f8AsaIkZbEluSq/0OH7vynGI+rEREMxp6o8ZlwPrU+8++IkpbM9jujYOlX0572/tSR3+hHePfESij6ESq+og7Y/6fX/ABH31Ji6SfQ1P31P+x4iVPZli2O2C9et+Ie5ZdbP+jPc3uiJhh96fY7mo/pcO/7mLFethv3n+uQ+nfqJEToQ+UuxwZfM9zXIiJyzaf/Z</t>
         </is>
       </c>
     </row>
@@ -1393,25 +1393,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>Khaled Ahmed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023_test_023</t>
+          <t>2023_test_015</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>59.5</v>
+        <v>36.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1420,97 +1420,97 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>75.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="M8" t="n">
         <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.88</v>
+        <v>4.19</v>
       </c>
       <c r="Q8" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>76</v>
+      </c>
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="V8" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>42</v>
-      </c>
       <c r="X8" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AI8" t="n">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIWFRUXFRcVFRUVEBUVFhUYFhUWFxgVFRUYHSggGBolGxUVITEhJSkrLi4uFyAzODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAIDBQYBB//EAEkQAAIBAgMEBwMIBwcCBwEAAAECAAMRBBIhBTFBUQYTImFxgZEyobEUI0JSYsHR8AdTcoKSouEVJDM0k7LxVMJDVWNzlaTiFv/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAQQFAAb/xAA1EQACAgECBAQEBQMEAwAAAAAAAQIRAyExBBJBURNhgfBxkbHBFCKh0eEFMkJSU9LxFUOS/9oADAMBAAIRAxEAPwDy+KKKVTJFFFOgTiRAR4EQWSBYJI20VpKqzpSRZxGBHASQU4bh8FpcwZSSJSbIFOkgKGFY7EpSHaB7gOPieA75R18bnDbhfdp8DfSFjg5aliGBz12Ca2KRTlJ17hOpiEPH10lIxIa5O7d+fGT0WZr87a9wjvDVDvw0KLpbHcb+BjxKfDM4N84He+mnha5HlLfDuHFwQedr294BtFThyiMuBx1RIkeEjMhktNopihvVyMpC7zr09JHMdQCUjAkLanEUhcxFAbJImEMdJAyQkyGgYickrCRkQ0wTkUUUkgUUUU44UUUQnEnQI9ROASVRBJEokqrOKsIpJeA2SkcppJxTnQloZhMPfWKlKtQ0hmGwfEw3qhCFpyDGram5+yfhEczk6GqPQx219oLUuptYMcpsQbcNQdfAiV1PDsbW1AOnn3yXEYTXT+pl/wBHthh+0QbeO+atqK0NGELdIp6GzHe1lvvtbW0sDsGqvayEDe2nAfkTe7KwqLoqgffNBQpi2UgEeEU8paXDaanhnyfUlr791t/rJtnkoxI3cVOhYfZ7xPaquzaNQFXRSD3CefdJtgthHDJrRbQG5Fvsk/CSsiloxeXhqj3RHh6OdcygngdDoeR75x8E/wBRv4TC9k4ekwJIvuv2jbjwB36QtsDR/ViVJyUZNamRPGouirp4Fzpkb+EyT5JUGhpt/Afwhh2dR+oB4Ej4GR1MOo9hqin7NVx98jmi+4NIC6s8RbxEbVp6Qo4uuugrsRyqKtQfzCSbdYiq9MhBkVNVW2Ylblj3wq6oik1oVDGDuIWF0kVRYaYFAjLI2EIZZGwjEwAcickjCMIhJkHIoooRAo4CcEeogtknQJMixgEnpCAwkTUkh+HoDjB6YtCKbm1oibbGRJxhr7tTD6FOwkeApkkKouToBLSnQVWyWNWoN6IbKn/uVToPAaxDt/AbFEVKiTuBJ5AQbGU1IanmzMQQUpjORcfSI0XzMvV2ez6Vnsv6qldE/eb2n9ZLUppTAVFCjkoAEV4kIvTV/Jfv9BvLWp5dUw7NdjcLmAAtvI0bw/5noz4DqqCACx52tv1md27SUPlW1rqSA3DNc6cJsOnbA0lIcqDrccQBffNNy54prqaOJrdFNhb5tDLqkjHcZ50tOuXbq2qDKMxzk2IHI8+601HQ7ENWTLUzL2sl763FibfxCRKFItY8l6UXlTGU6dy9QDxYXku0Eo4zBVlRgSq5t27Lrf0vMXU2dVNdSLXLWYEXNMaa82O/Tum/wlBlw9ZCAHFNwtrdrs93wkcqVMiUpStUedbPw2Qab7QvPLvG7EWkgXNdgCb99gbeGspGSVczfPqY/GYpwmnLqtCN6pkTyY0+P5/OojGSCmUmA1YZt9b4qp+xT/2yJ0h+0Uvia3ctMfyxyl+VjIx0ZSpTkVVZYinBK66zlLUBoCcSBlhjrIGWOiwGgZhImEIYSJhGIEitFH2inEHAJIojFEmQSGSE4TBM+7dzhrUBTHZFzzO4eAg6YsgZV84VTDOLcvSIk3dvYYqIQSd8JwyXMfRwTHcJa4TZh4kRU8iSDjFsJ6O0fnlv3n0BhHRh7UqjcWrOfhC9j0FWoLd+vkYF0c/wP33+6V5yvHfmWIqkW1JtZFjQbiSYYayXF0+zm4Aget/wlK256BdDD4OpkrgV1zhhV1PaZRZgSt+5W08Dvm66QYANQpP7SqoHuGsotp7IWoTU3stN8q63LEdkqQdCDrNDsl3bCItUZXtqvLlpw0tNvHmjkXMvl5mqskclTXqZY0s1zck95J9b75Z7KRRh6BpgAq5BtvuSdT4kSPFUurY30EptnNWaqAKhKKmXKBZSL39ni17HN4xm6G6Jpo3OOormDAWLAE6cZY7KodlnO4AyjpYm+j5xdjbMSwF+Cngumg4TTVBloNbfkY+4wUTkklEye1zlVr33jq777MDe/Lhp3SqwWyTWU9WwzrvQ6EjgVO4+dpNtHGvVy5rAKLAeO8mG7EFCk4YuzvuCqrKt20sSRcym5KctNvkZHF5/HyWv7VovfmMxWwanU0VVPnLsWGmmY8Tu4LKfH4EUjlLBn+ll9le7NxM3W0K51FuyLZ7HXna8x+1BhzdqVQgnUq6sfRgPj6xuSFRX7lWUUikydoDvHxheLPz+IP2kHokHw5zVUH21+Ij11eu3Oq3u0gf4kR2BzoD6QGqJZ1l0lfUFzJiwGCushYQp1kFQR0WAwRxImEJZZAwjkARWijooRA1ZKsjWTrBZxJTEscErt2V8+XmYLhUG9t3IbzLDryRZeyvIffEZH2GxD0rBBvzHkPZHjzktDEsx/NoElK4lthMNYSrPlW+46Ntlpst7Oo46/Awbo0v93buqN9x++EYIBXU98h6OHs1k5VW+AH3RUtcXqNRa7NZCcrjQ7juIP4S6rbMBplc2hbMWI3ACU+DqlCcqLf6xJJ8uAl1WYsy083aC5j3tobRnDwg3q1frs9Kbej+vxJb0KtaSZslME29p23+AHCSVzla3PX00PuyywpVXbeqm2lzodO8CUfSTEEU3Kiz02G/j2VNvAhvdF8PJfiWo1VdL01W9pFrh1RXbeYG3L8LygooFOZ3a3JbWHoIRT2/Rr0ip7Ljgd4P4QfDY7XUWtw+M1I2XIyVmswFGm6XFRwRzY5e643S92hVtQOu9MvjcW0mQwG0bsF3gnXymnxRL0hcakiw5DX37orNJxhJ+RGaX5XXYzQoQvBqEdXbcpzW5kagetoYaAUXMrsW95kRm29DHqjibVZXLN2g/tr3d3eJR1xvG/kYZVEDxEtqTluKY3ZVO9dO659AYzAapm+szN6sZNs17da/1aTHzI0ncNRC00/ZHvEZN/loNLQHrjhA7aSxqpAqyyYsBglUQeoJJUJO6MI5x6FsgcQapCqkGeMiAyHWKSWijASNYQiyJBJgJDJRPSWGUBBKTSywS6RE3QyJZ4RN0sb2gODMMtxlGe5YjsORtQe+TbEW1euveGHmST/uEhpiFbPFsUD9dLedr/CnO/wDXJBLcvqNCxvbSEUsMTrvYm5PnwheGo3XWS0VCgn0mbJvYsxiKnTsCTzv+fOVPSbBF6TOiktlAdRvIXcQOJHv9JaVHa9uG8aeo/PORFjK8OJljnzrcuwx8qPDcXstixZL3vwEmoYeuN+o5kXPrPTNubGF+vprv/wAQDgfr+B498BXCKw3T02DiY5oKaC8HqiDobgwCWYAngbTYU6ecEAgG+hOg3cTw0vM9s2kKZMtsHjVXE0cOx0qUajeedQD5a+sHPKKg+bb39Nzp424NIBx6EMRmVrb8pJA7r2lZWENxVAozJY3UkSBqRtrMtaMxpFbVEr8QJb1gBKzEmWcbF0KmtsPU51KiUx363h9an6cIwUv8vTP2qzf9smxgv5Q8stUhtUgBzAcSl4ZVrAd0EY33woWhTBHS0HexEMqgQWoY+IDAqoIOshaT1mvB3EfEWMincs5CAH0zHiQ02kyyGEiSikuMBpvErqLWh1JjpEZNUMiXWEGknVhfW/lBsINJM1iRKUtx6C1sTePd8j06n1XF/DQn+XMPOdoINJptn7NVVDuLsbEX+jysOcT4qx6sdDG5ukWC1MotI7xhIvvHwkyi/wCdZmZMnMzRhCiJ6gsSSFy63JsBbfc8rTuErU6yCpSYMpvYg3GhsRfxBld0oH9zxBGvzNTxFlJ1mY/RNtMdVUT6rZ2HNW0zeII17j3RseFU+HnmT2aVeT6+/wBSPFrIodzdpodd2498psdgOqe49htV7ua+U0FenfUaiMr0hUpsn0t6ftD8284PBZ/By8rej92WYyrXoY5jY+6U/SbHNTrYfErupEU2/ZbefW3pNDtDAPT32IvY2N7GVm0sGXSots2ZbBebEWUDztPQKUMkd7TtP7/INrTQ3NaimIpLVG8qO0N+7S/MTP43Y1YC4s4+ydfQyw6IHLSXB1Ko61adny332+ix+kNDMntzbm2MA7dbTpVqIJAqilowvoXykZCR3WvMfBjy5JfkafSm6t94977N3+pn8RjxrWUX6ff9x9bCPuy28SBBKmDJIUWBJtr3zS9FOleHx4KlQlYDtU2sbj6yH6Q94ndr7LFFmrgfNqpa19zW0HgZZUnHL4WRVJdCt4MXDni7RRuwatVcbkC0l/dFyPWQV3k2z8MVpgt7TAufFjf13SKrDck5NiZFUwzE33CJpOadieRjKq6R1igWqIBXAMPrGAOI+ADBHSDVIXUgzx8WKZFFFFDBoYhhVIwVDCKTSJEoKpi8Pw7i9vSVqd0Jw17iJmrQaL3D1OEIo6tAFrgXtvhGCaVJR6jkzR7Ew2eoq8B2j4D8gec1eIlL0LQZaj8Tp5CxPxEusRuuJmcQ9aNLh1UL7gq23HjwPGdKNT7S3K8RvK944le7eOHKcQ91/j6QyieI1Eoy3LSGVqKVUIIuGUqw4FWFiNO475570S2YuB2xUw6sSj0iUvvAbKwB52sRPRqYynT2T7jy/PHxmR2/hVG1cPUU9oojeKCoyNY/vIfAGX+Am2suLo4SdecVd/JNCs0VcZeaNTh8LUpllV1yX7AZSSv2QQRpyhGQnVm7iALf1tH4ypZS11FlDXY2UC2pY8AN/lKGhtVhiqNPrGdK6ObPRFMqVGZXTQHIbEWNzK+Ph55ubl6KT/8AlOT8tletWMlmUavrX6uvuXJ2bTKsgAFxbTcPCVvR3B3eqzjWmQigjc2W5b0It5y7X3iClKi4jMq3o1aZztcdiohULcbzdSRf7IhYJuOOcO+vv7/BBubqu5DX2XTLB17D30ddCCOP3Q4o1u2Qwtvy28b8ImEo9vtUavh6QUdVWVwzNmK9YhVkQgbibNqfrc7RWHDzycG9Kv0W/wBNuoM8rSsoemnQ9XHyjCAU66dodX2c5Gotbc3I+u+4quh3T1qzrgscoZap6oVAMrXfshai95Nri1po6GHqUcQ9PDpqwJWnUORHdFva63C9knh9U7pjKew6p2tQd6QpFqnX1EVrqj0WLOAeILID+/NvAl4c8WepKMXKLb1VK60b03a1a6dUUp3alDRt0107G26QbNaib71OgNrW7jM889J2phOuV042uD3g3F55viVNyDoRoR4cJWwy5l6i88OR6A1QCDOIQ8iy3lqJVA3W8ExYsLS0qWAlNiqlzHQ1Fy0BKkHeTPIXMtIUyOKcihkESGTJB1hKGSyESo9oXRrWN4FHpFySYSZZUnuZY0KlhYSrw8PoHW8rZENibf8AR5WJpOxN+3UX0K6egmhxF13ajf4A/dMD+i3H3qV8Md61TUHgQyMPTqz+9PQ+Fj5Hl/SZPHQcc0l6r4NJmzha8NAiVVJ35W4cj+MKRdeTe4+MgfDqeAI4j7xHUEK6A5l5HePAzNY8MXW+mvEfePxnl3TzGYijj8O1rqn+EQNSCb1FPkQe4HuM9RQX+7mPxlF0vwjOKRCi2dusawNkFN2t3BmVQfG3GW+BzrFm5pK1TXzT9/CxeWPPGvNP5M70xp1nwJ6lS7/NEqBmLKrKzAL9LcLjiLwHorhMXXxDY3Gr1Zy5KVKxXKDvbKdV4jXU5jwtNTh/YX9kfCSCMxcdKGB4lFa3+b/KpcvMl2T5Vb3q1dAywpz57fw6Wtn30vuScAfI/nwkgHDgd0bSO/vkq07gjluiYwvb3/2HYOwkNWjmVgqoXschdcwB7+Nr8oTVI05/fGqdQYKpSJA0wmJNVah6gFVygrTbUGxIue0Bcc4HUwLdatWpTCNYqArAg9Y1JST32T3zSUjAtpi7Ad6/j90s5nWK/T56P9GyfE5pU0vRVt76plX0ge1FnKlkV1zrxKi556i+UnuExmM7YFVSpDDcL6a2vqANCCDYnhffPQTYgg6g3uDuI5GZGrsypQqNTyK2HZiyNUDMKRCkb1N1v7HIi15b/puaGTG8MtHdrzb9/L4FHioOORSq00ovRvl7PTWuktHW+mrM1WQDU/GDPilAuD+eUZtnCFHtmzX1VlYEH0lUQb6y4sT/AMtzPctdCbEYst4QRzJnW0DqtHRXYW2J2g7mPYyBmjkgGxZooy8UMEYpkyGDqZMpnM4JUwilA0MKRoqSDQWhhNNpXq8nV4poNMuOidUUto0qg0FYGi45lvYbxzBR4GetMJ4iHIsy+0hDqeRU3B9QJ7RRrh6aOGHaUN3G4vpKP9Sx/lhkXVU/itv0+ho8FO04voRVDYySi9/GRVPGSURMObL6ClktSiHUodzAj1FvWRC0JoiTjabolgSKVAU8AB6aSRTHbQFiG56eYg4rDnOcXB0ybvULpmGUjKpa4klTaaIFufaYKBxJJt/WWeHlzTUVuxc9FbJse6hrXANr7xzMjSpfWZvpCcOcSDUBLZQC3zmi5lJBy6A2LW798ECimqthq7dlWaqS2ZVyqCAw4XLBbDjeauT+jttyjNX2opfj1F01t56/LT6m7pPKTbO2KaVkpsbE06lQeFPItvEmqLeEj2Ntc1qd2Uo66OpBBBIuDY8CNZnOktRWrhiP8JD2uWexI/lSUY4JZJvBPTv6fzRexVOpRej+gXU27ULg2sL6ICLkcc0jO3KnXKWOpOlMGygcb/jKulVIHWPoTaw+AnarqBnzDMdBz8xNaPDYY1UVtXp+7vffzLWht26itRIqqpRxqTYEa6WPMEXnlW2NnfJ6pQkMN6sNzKdzdx0Okv8AEY8k5RcqALWvbv8A+ZFiKJxNMoQQ66oTp+6e4xODA8aavTouy7X1KXFcJ4i5o7/XyMhiWuJWs0sq4tdToQbEHeCN4lZUlyBgyI2aRNJGEiYxyFnIo28UI4jUyVTIo9TJZAQpkytBVMlUwGggtWkgaDK0eGi2gg2idZv/ANG2MPUVqTEBab5gSbACoCTrwF1Y+ZnmyVLG8WOxNRVsjHIzIaiBioqKpvkNud4Tw+PhliutU/f09R/Dz5J2elbQ6YpcjDU843dawIT90b290rTtus/tVCO5eyPdv85abRpUnoJUogZCilbciNPcZlWYgyrDg8OPaNvu9TejRf0MSDv1h+GxeU3BI8Db4TN4R7y1wxvGSV6FiL0Lba22q4FMLZ0ZiCTo6EKSCGGhU2tqL6jWADaNa+4DxYn4SUjgY00COAPuMqS4XFJ3KIDxpNtETYmsx1qN4J2RG1C4KsXZSpupzksCeI5Sxpui79O4ypxu2KCkg7/GWceCEP7El8PdgtLZjK71GObrHN9b57eO6Oz1AQ2Yhhua/a/i36wahi6b6qTca33W7rcZImIHE34RlNO7OdSjyvbt0CaGNqo9SoGBapbNcadkWFgDpppA8SHe5YnU5jYAXPAeA09JN8pEnp1lPpA8Nczn1fU6EIxVRVAfyfNbNc23X4QingByhS23yZHE6hg2hgwOEsMJhxcDdI6VTlC6DqTr5GTSO1MD0/wHVYtrbnRX8zcG3mvvmUqT0P8ASjSvTo1xvDGmx55lzD/a3rPNXeMijzfFx5c0l6/PUa5kRM6zSNjHIqHYoy8Ukg5OgzkUmrOJFMN2bhHrVFpJa7X1Y2VQoLMzHgoAJPhBsJhKtU5adNnPJVJ+E2eA6N1KGGdq9Snhqlb5s9a9mShoXsguxd2AG72VbnKnE544o1a5nsvj1rfRa7eW7G44Ob209/UydEFiABcncBxj7y2xO0MNQU08IGdyCGxDixsdCKSfQB5nXwlGHhwk5600ul7/ABrp6690iGqJgZPWAKDnu9PyIIrQygmZW+za55A6fG0fhdTOjuX/AOj/AG3cNhH3WLUz3G+ZPW5HiYdtHCEEj0mBxeO6iwpGzAhs3eDcCeiYDaK4rDrWXeRZl5MNCJOaFOzZ4TLzRp9NvgV+BuDvmiShcBl85micr3G4maXAYgZe4yszRg7O9eYVSryLMDwnCoGsBh1RYVKaupDC/wAfKeU9Jtl4inVY0zmW+gZdfWenUao5xuJwivvtOhNxdgTgpKjyPD7UrU9KlJh3qLy22dtuk+gqa8ibfGbHF7IAFxM7tHo3QqHtJY810McskXuhLxyWzsNpEH+hhFKmT7LfjMv/AGDiqB+YrXH1X1HhD8JtV1IXEUzTO4MDdCfHhOa6p2SpNbo0IV+JEkAaNo1bjXyM7c8NYA1ND6WKINiLSzwuLG6/G8qq1VbDMADz3SvqY+mp1qqPMfdJqznOMd2Wv6R8UPkKLxastvJXJ/PfPLiZ6LtPB/L8PloVKVSpTAekq1bVGJuKtNka29chBH1DzmBx+za1E5atJ0P2kIg4c+ObcE9VpXX0W9em6Z5/j3zZXJbd/en8agjGMJiJnJZooiiiihEGtOG2PS31cRiTypItJD5trOf/ANRhaf8AltnUV5NWZqzehsJk5oNmbFppTGKxxKUTrSojStibfUH0KfNz5bxM7NgxQV5pSlfRvd9lGPKn9t9FbLEJyb/IkvT7u2XmA6RYp6bYmvVNPCobLSoqKPyipwopkAOXizcB3zIbT2jUxFVq1U3ZjfTQAbgqjgoFgB3R+2drPiXBYBEQZaVJBZKSfVUfE7yZXxvC8Msbc6Sb6LZLt5vq312WiRGXI5aXa+pKGjgZCDJA0siiQGaTorQ61MZSHtHCl18aVSm9h4zLgzSdAsSUx1EDdUJpsO6opHuNj5RWZuMHJdNfVa/YbhrxEn7vT7mPx9LMVI+lrfkOJPhYwjYfSFsNVJAJpMArJfgNxH2gPW5nNtUzSBpEdrO694AbUetvQyuo0fm6hK9oZd44Nf8ACaEknaLeNuKTPSPlVOtTFWk4YceBHiOEssE/Z3zySnXZFRkYqQz6g24JpNlsfaVU0VZiCTfhbieUpZ0sas1MPEXo0bJMTaPOMsLTN09p/WHpC0x6n6XuMrqcWO8UtGqG/ZMmp4uoOHvlSuPT63uMnXE3AIBIa4Btytce8es5zgt2dzoPfFMRBspN8xAhuF2dUcC2g8JaYPowGPaJ9IiXF4Y9SLKJcJcXDCN2lRpLSLV7sgIGgvqb2A9DPQKWwaNOmxCXbKbFtbacJ5x00TJhUH1q4/lpv+MBcdeWOOK36sVmyuOOUl0M2+2WU2oXRBuViGv433eAkVbblc/Tt+yoHvlcTIyZo0YUuIyy3k/nQ6rUZjdiSeZNzITOkxpMIQOo1mRg6MVZSGVgbEEG4Im3qdIsW9E4rDVTZbfK8MwFRKbfraaNe1JuIHsm/C0wRML2XtGph6gq0mysNN1wwO9WXcykbxEcTw0c1Ok2tr1Xmn5efR+VpsxZOS10fb6l+OllGp/mNn4epzakDRf1XT3RwXY1XjicK3flrUx8DIMTsqli0avgVy1AM1bB3uy86mH4vT+zvXwtM1E4cGKarHzQa3Sk9H8G3GuzWj6NhTnJf3U72dfff46mu/sDZn/mn/1X/GKZCKO/DZP92Xyh/wAAPEj/AKV85fubLaWJwGGqs9NaeJrCwpoo/ulEKLAsd+IfS99FJJmY2ltCrXqGrWcu53k8uAAGgA5DSCRQsHDRxa23Kqt712XZeS9W2dPK5abLsKKKKWBQogYopxI4Gaz9GeF6zaFI8KYao3kuUfzMsyM0/R7bAwlBihHX136sH9VSQXLnkSSQP2b8InPGcsbjDd6L16/BLX9Nx2CudN7LX5fyUHTypfH1yu4VXy/xsb++C4EmrTxJZhnC0yF+sMzKbeGYQ7pjVpVcRno0yidXTFr5u0FsxvrvN4HsPCC5dmy27OUj2gQbm/cQPWXIpUvb96FpzXKysNL5m/Kpb1S//bN/s/YzLTRSPoL7xKLZWz1qJSpFgM+LAJYgZUWmLsb7h2z6T2Bvkulq1Ld+tT8Zkf1fiHjcIrzf0/kucNUrZjKfR5zDsP0UY75r6GJwwA+epaf+sn4wpMfhh/49L/WT8ZhvisrLdIz+D6Jpa5H/ACJpcBsemFy5RbRx3cD93pFT2ph9R19Lff8Axk/GS4ba2HBX+8UuIPzycfOK5pSkuY60WOHwyjcIXTpiVibXw1v8xR3/AK+n+MmTbOG/6ij/AK9P8ZaxLbQCTLGol1I7p49+lbsLhk5tWY+XVgfEz1b+2sL/ANTR/wBen+M8i/TBjKb1cOKdRHCpUJKOrAFmG+x+zLuHHfE45VspfT+SpxM14Ml8PqYItGlowtGkzZMccWjSZyKFRAooopJBLhsQ9N1emxR1N1ZTYg8wRNPQ2rhsS6tiQtDEgg/KBTzUaxB3YmiNxPF156iZOKIzcPHLq9Gtmt9enmvJ2hkMjj8Ox6n/AGZs7ngP/k//AMzs8rimd/4zL/vS/X/kP/Ew/wBC9+goooprlQUUUU44UUUU44U7FFIZzEJ2KKR0OW4jGxRQ4bATOxRRRwIooopDOOGcMUUBkoU6s7FAewa3OGKKKSSKKKKQcKKKKccKKKKccKKKKccf/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVEhgSEhIYGBIYGBIYGBIYEhEREhISGBkZGRgYGhgcIS4lHB4rIRgYJzgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHhISHzEsJSs0NDQ0MT81NjQxNDE0NzYxNDExNDQ0NjQ0NDQ0NDQ0NjYxMTQ0NDQ0NDQ0NDQ0NDQ0Mf/AABEIAQMAwwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAQIDBAUGB//EAEEQAAIBAgQDBQYDBAkEAwAAAAECAAMRBBIhMQVBUQZhcYGREyIyobHBI0JyB2LR8BQkM1KCorLh8RU0wtIWQ5L/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAArEQACAgEEAAUDBAMAAAAAAAAAAQIRAxIhMUEEE1FhcRQykSJSwfCBobH/2gAMAwEAAhEDEQA/AOhtC0daLacRuNtC0daLaANtC0daLaAJaJaPtIcXiEp02eobKoJJ7oBJaFpxvE+3NMKRRUlwwF2GhW1yfnbxEx8J28xKsA4R730t7PrbUXty9JdY5Ea0elWhaefJ2/qDMWorbNoAxBAvsSd+est4D9oNMratTYMNLrZgx97Ud1gPnIeOQ1o7W0LTK4J2go4nMKdwV5NYXB5jumxaVaa5JTsjtEtJLRCJBYYREtH2iWkgZaFo60LQBpEQiPjSIAwiNIkhEaRAI7RY60IBZi2jrQtBUS0LR1oWgDbRQI60LQCtjsStKm9VvhRWY9bAXnm3a7tMav4VMELoWuQRsSNPMn0nU9uuI5MI9PZ3KoOhHxMb+Vrd46zy/E4i/u5QGAvob3Pum3y8Ztjj2ykpdCClqMx3AuCbELyOvgJDiLBtNUubEX11i1nugtc6km52JN8qjkOo6gRlSoSoTcDXztofmZsZk5ppkupvfKpB0Kk/CVPMeOx8ZV9nZgCNCAddBY6D5wz2J6EW8DuD6geka9QkAHcW8LDl9/OAWcPXdDmpsy2GpFweVtu+07zgnatqioKjFShqMSP/ALFICILD4jd9uoE87atc3tppp4QpV2VlcGzKwZTppY3EiUUyU2j37DO7KC6ZCfy5s5A7yNL+F/GSkTh+xPaSpiHNOs92GqWYKSNdCtrm3W87ozllGnRsnaGWiWj7RLSAMtC0daFoAwiIRH2iEQWIyIER5EbaCoy0I+EAs2haLaFpNASEdaFpAEi2hFEA5vttg0fCu7tlyAsCBmuOlu8gek8qwvDy7CwJPIXAGvWekftGqMKNOmCQrucw5MqjY+bKfKRdluDIDdt/ADnp9prGWmIjHVL4Oew3Zi63YBe4XP8AO8cezKX1OnhrO/4hhAtrdNPLkZmVKYAJmMpSXZ1whB9HIvwCkL6fOZWM4YEBIXTpa86/EbmMWhTYWYXv8u+3ORCcr5GTHGtkcI+GW18vofWVHXu6zs8fg1Bt0v4mcriaFiR/yBOmMrOPJDSM4ZinpVEdHtYg7m3W9v52nvVFrordQDpqNRyM8Eo07uq23YLbpcgT3yhSCIqKLKoAA6ACVy9FYCkQiwtMi420LR1oWgDLRLR9oloAwiNIklohEAjtCPtCAWLQjrQlgNtC0dFgDbRbRYQDh/2hrmfDpc3/ABCBbQm6c+svcEcqbc7bx/bHBh3w1Q/Cj1Ax7imf/wAJj/8AWXT8SnQLU/yk3AbvMPeq6NYUk2+zpcbVZgNNpmshbQDX+bzCq9uqztl9ktr9NbeH/M3MHxMmmKmTKPAnXu0mc07N8ck1sitiMG3MW+sovSZDfkPlM/jnFcQWIQlV5Hac+mPqO3v1XbwVm8tLSYY+7K5MvVHUM6u1x36dJi8VweXX8uuvISbCUKb/AA1Sr9CuU+YM0atNsmWpYn5GWvSyunUt0cjTFqiNzD0z3aMPrPeQJ4PVQhyijXNYC1766T2zh3EqVX3abXZQNCrITbQkAy+R3RzKL3LloWjyI20zJG2haOtEgDYWikRIAhEQiOhaARwj7QgFi0LRYSwEtC0WFoAlosLQgGF2jroWp4c7uS2x2AKnbb4uc5vF8Nq18QiMCuGFgWUXuN9FuM1gNjprqDsei49QP9JouNitRD3G6sPoZcxOFHs8x9Ospe+51RitKrs8ixfCmGJZaakJnsmbIrW2BJCKBfwFp6Ki5MN7O2bUDcEDTrzjsLw+nnLBBmN7u12YdbFtvKSY/KqJyXMbnuFpE5aqL48emzmeNUEdbHQ235+HjOX/AKIrIqEBSrs2YqMzA2spJU3UW2212neV8PTc3za668u6ZlGiC5Cm4HPlJUnFbFZY1J7lFOGUzkamTmAA0VQNOYA/kzUxlIhBubaXl6nSykbd2wvGcQAyG2+npKOTluy6io7I5zhy00qO7kBiwVWba9r9PGbmZaXEaL0lAWrYMF1U5ha+nnMH2YenWO7hhktbMXUIbAczr6XnR9ksIXrI1TejTvbpUdiQD3gay29lbSizuTEtHmJLHGNtEtHQtAG2iWj4lpYDCIlo60IAy0I6EAntC0daFoA2EWEASLCLAKXFl/Dv/dKnw5H6yKhjUFMl9fdk3GB/V6ncjH0F/tOQxuKtRY393KSfTQSkrTTR04WnFpljhnEnr1XK+7ST82wLHYd/X0lji1IFUGcNcZrjYZuU5HAcVquGpUWSmgI1LZCNb5u8mJiDjVYA1UYanP7RSAPH/aS4e5Kzezo0npqpsawFjbKqs5Y+AG3fM53ag+YC9Njy1yzMbCYouQKpZSCcwzkWvtYD598h4mlVECvU94BrIQ4JAJuQCPESVjXFlXma6O2oY+myhyoNtQbA5Ta30Mz8fi7g27/WYnZrFM+dDe2W/nJaD3Wx5XN7Hw+ko4tOn0XU7VrsscGpXUsMpYO4J0zC4G3dO/7M8N9jSuQc7m5vvblf1J85g/s4QXxBtzp2JH6xofKduZbTvZjKdrSIYkUwljIS0LRYQBLRI6JaANtC0dCANtCLCATQiwgCRLRYQAhCKIAypTDKVYXUggjqDoZwlLD5faYeoNsytrY25HwIsZ305bthhGRTiUFxly1AN8v5X8tj3EdJDVmkJKL3MLhHZih7FmqIrPnNmIuVVfh13E6x+0bIoBNNiAQxKLoDbmrW/KOQnK9neK2JpsQaZOhJ2YkmwHLcR3afhyFQ9IgEna/r5yWne5opRS4TNHF9pM1lLqq2KXQIpIItYbn0mViMPTYkm7XBzM5JOXewMwsJhSr56htbr3d32i8X4gbZaZNuZ9PlIpt0iXJJW1XsWeHrTpvUCbbDrK2MqKq2A94nbfwmYmMOpvqNCb6kcpawFIufav8ACNEB5/vS2inbKLJapHS9leN4fC03WqWzsUsFXNcAHntuTPQMOzPRSsUZFcXCtYOFPw5gNrjWeddjezZxmND1BfC0cpfpUqfEtP6E91hzntVWmrKVOx0l1C1ZhOVSpHNwklekUYqfI9R1kcyokIQhJAQhaEAIhiwgDLwjoQCeEIQBIkWEAIQhACI6BgVYXBBBB1BBiwgHlvafs++Eb2iMXoMTbcNTbe36enh5zMq8ZYpl7rX305Dw2nqXaWplppSKghyC5I2G6oO/mfKcRiuy1JrmmWW40AIy+kvqXEiY45NXE5StjWYb3P0lNa5OluencZut2add207uccnDVTZdeu8eZFcE+VKT3MrDYXM2Zxp/d3uep/hN7BU2q1KeGp29o7ZVB1CL+Z27gNbczYc5TqrkBJnT9iuy9ZyK5ujuAwc6ClT0KDvYi5t36xFuTJnUI7HpvBOHU8NRWjTHuqNSbZnY6szd5Osvu0YqWUe8SRYFja57zaDLfebnKUceuZQdLg/Lp9JnMhG4mhiNTYbDSJQw52O3rKSgpbloyoz4TRfAg7aH1BlKrRZdx58plKDiaKSZHAmF4SpIQhEgBCJCAWYkWJACJFMSAEIRIAS3w7C52ufgXU955LH4Lhxf3n0XpzP8BNikyqoyiyi+ltrTSMO2UlLpHBduCVqJfYvTAPI5nAbz+1pnKWAIGpE1+3fC2q4eoyXLqpdbasXQ5h/pnP8ACMcK9Nag+IrZh++u8yyrezrwNaaIcTUqE2CeekVMGAmZ/iOwGpvNzs7g0r1GzKSqC5AYqC1wAC3Ln6TpXenR92mioT/dAzH/ABHWIY3JWTkzKLqtzj+BdiTiCKuIutC9wmoeoL/5V79zy6z0paCqLKAAOQ0E5TEcSctem5uPz7/8ibXC+JtU911s3JgPdbxHIzoilFUjjyScnbNArIa9wth8R0H3lmMUAse7QfeXMyomH0lhadpYVR0iNJII2QGRVKAMsRDAMerw4E6HKfC6ny5TPxFBkNmHgRqD4TpWSQVcMG0bUdP52lJQT4Lxk0c7eF5axuDKajVPmPGVJztNOmap2EIkIBbiRYkAIhgYWgAqkmwFydh1M2sHw8JZm1f1Cw4dgcnvN8Z/yj+MvmbwhW7M5SvZEeIYhbLubAeJmZQqOzkITl26rl6kdTqfOa7LqD0uflIOGYfJTUEe8QC3ieUu0UG1sHcG2/TkZ51T7M1qONFOjTIw1RmYsdVoEC7A9VN9O82756kRIaq3PhuZEoqXJeM5R4MDCYanQX2VFdrlm1YluZY8z8hKFXB1atSyX13c7Bek6j+jg7czvzPfLFOmq6KLdYUSNTuzJwvBEUAHW256maVLDKuwliBlqKkZTXukdMbx4qqdmHqIFhykChViFYqxb6yQMIjssSqbW7yB6mOMAadPGRMscDcn084pgED0wRYi4O46ic9jcOUe35Tqp6j+M6ciZ/FaGamTzX3h4fmH38pScbRaLpmDCNhOc1LsSLEMAQy9wejme52UX8zoPv6ShNvgaWRj1a3kB/uZeCuRE3sadowam/pHN9YAWnQYgBFMq4zGLTFzqSQLDe5/n5iQ0MfmcKNQQATyDe/ff9Mq5JOi+iVXWxoSJxc2ksgFP3s3f6CSyhITyEcBaIo5x0kBMbtFxNqCLkHvucqsRdVtqSRz05TYJA3nIdpMQtSulO4yqNztmYXJ9LfOVk9g9k2ZuG7QYx1zCilRb22RbMLaWBBO8vUeMVlytiKNNVLqllciqCfevl5ix+cr4DhBRU94lXcjOqMLkFtAwJIHujcC99L87PDaFN8aqgXFJWJF8yh72U3udbWJ13v3zGpGkGtKt79o68bxjtYg9CAfOSLv5SurXZ16ezPrf+E6DMXEn30HVvopkrtpfpIa39oD+6QPEnWOxBsAvhAFQWAiwO4HdEvAFjKi3EW8UwDm6+BYMQt8t9PA6xJvZe+Ez8tF9TMKBhEMwNBJ0HB/7MeLfUznzN3hWlNT1L/U/wADL4/uKz4DiFZ8yrTsWBDMpvfIbrew3F/pKtQVWYgkkAFsoIANrDIddbg2ub6gzYyi5Nhfa9tbb2vBaYFyAASbkgAXPU9Zq42+SFNJcGfhuHDUsDYnQEi4UEEA231B8tJapYVFNwut73NyQbW3Ov8AzLMbJUUuiHNvlhAnSC6xSJYoIp5dI6NQx0AyuPIxpjKfzEHf4WVlPjvbzmNi+Ems3t6bKapClkJa2YAXy6i4vOsZQRYi4PLlMyvgqYYBXAY6hCwBYDpzmM4u7Re4uOlnLJwLEVBrTy5dAxcKdPEaiWaGGGGBUNmquBmcfCqg3yg7sdOWw8pt/wDTy7e9VvYi63zEePT1ljD8KpI2axJ03NwLd38bytSl7CEccHa3LODD5b1LZjqQBYLfZR4C3neUlq5cXlOz0wR+pCb/ACaaFeoFW5Mx+KGzUKw/K4Un919PvNypexT/AIyL1J+QvFq1L1APH+Egxz5aivcXsVX9TMo+hPrI6NW9duiICfE7fUQQaGf3mPICNRtJXL2p35uSfIaCNxxYYdyhs+RgpG4axtDdKyYq2kWg0edpw+F4hVpolUVGYVErXVmLgVEBIt6D1Mno8Trta9U2K0XBAVQFYhWFhva5PlOdeJj6M7X4GaezVf1HX2hOPGGrHatU00Pvt8S+6efUGEfUP0J+jj+9fhl6EIkqc4hm9wvWivi3rmJ+8wTNjgj3R16EEeY/2l8b/UVlwalMx8iQyWdBkEY5sNNzHyPnfpAFXT5CCteMvp4xacAkWLEEWAExq/8AbE8gysxKsCoVN821v4mbMa20hqyslZg8Gam9VqlPKAqlQgINQgtcs/TbQGbQeNAABawuedhcyJWuYSpCKpUN4mbqR0UmZ9X8TDsB/dDD9S6j6S/WXNmH7syeFYgAGmxtYsNfGCw7jB/EoOT7qsxP6shy+hAMfhlOS/567Zv0psg8hrKXaesPYHIdPaIt/HMPvNPBOPeq8lUIg8gBHZPQ+uQXCL8K2A8pLjTYKnr5yPhyZmzHx8hBjnqDpe/kNpJBzuG4NWDLTZQKKVHcHNdmUiwAA2B0Os0MF2bRUAeozABlHwrZDfTn1Jv3zVrNdj5CW1WyiYrBBe51S8ZlfdfH/TLq8EoMxY5rnezWBPXz3hNO0JbyoeiMfOyfuZzkSLEmBcDNHgh/EYfu/cfxmaZe4M34tuqsPoftLR+5ES4NvZpNImj7zpMRj1ALAkAnQAkC56DrEY6TH7Vj+rlv7jKfDdfvMTgvGapqiiz5gVYKTqVYC66720O95hLMoz0tcnXj8JLJieSL45R2bbgRae05rs9xSo1VqNU5iASGO4ynKQTz3+s6WmwI0IPI2INjNITU1aMMuKWOWljw0LxCY28uZj7xlVrCOEgxb2XeAI7WQSCg2sfiXsAO4SvRfWATlvfmPxfAlW9omx3E0aja3vzlj2yMMjSAcZ2gq/1S/SpSJ/8A1b7zc4c2ejTp8ipdz0Xb/bzmD24prTw7qrfGUsOhDBvtNLstXz4dCPidaSeAVAWHqZHZbo6DNlplts3ujuWMwC2Vqh56DwjMQc7imvwrofv6n6SfFtlVaY85YqRUFzMJoPK+ES2ssPAIbwiwgHOQhCchuIZa4UfxV/xD5GVTLPDP7VPP/SZMeUJcHQuIK2kVgfP690iJ38Nuk6jA5ntVxZVX2IAZn0KnYJfUm3XYeZ5RuE7P+yxiVA4Ke9ZSDmX3GsOh8ZS7R4DNUSuo2IV/D8rfbzEXBceJrGvVByC6og1y6d9rk33nBOS839fqq+D2seOX068l8p37t8Ir4aqVr12U2IXEEHoS2nzIjqdC1BXDG7ORbS1gND46n1icNos6YitbTIw7szEMQPAD5iWqbA0qFMHXM1x0uwt8pkla396/JvN1Kl00n/hMlfE1/wCkVKdJmJZrWuTlVTqRyXvMjPE8STWqLUsqFRYgHKCxC2BHdY+M0eAm+IrnvPzZpjUB+Dih+9R+VRpo9SSab3v/AEYRUW2nFbaeubqzXrcVxSIlTKpQqt2IGrkG+gIPylnC416tMPUCi7ELlvqBpfU9b+kyuK1SaGGoruVU26kgKv1M2q1EIiouyBAPK2s2xOTk93SS/LOPxEYLGtkm2/wmTVnBPKNVZSpveSioRsZ1HCS1QQI96AqIGX4gJTr4prZbCGCxjJpl0kA5Hthh3LANsL+F5L2AxpQVaW7ISyD9eVR8wxmp2sx1Nqeqa9Zy3YviSpxBVt7tQMn+Me8p/wApH+KVbqRdK4nqeEw4Rbnlqx6tIkQu+c7S5UuRGoDLlCRFg4kirpGEQCLL3wkloQDlrwhCchuElwmIRHDubKt8zHZRYi57pFKXGWth6h/cYeukJ1uTV7HbgggFTcHUEG4I7jIqgOvgZ49huIVqY/Dquncrso9BpNrszxvE1MXTp1K7Mje0BQtofcci/XUCaRzJuqEvDySbs7HG0GajUVFzOVNl0uTcbd8OD8HpjD0xVpAtbMcygsCxLWN9dLgeU0sMN/ISw00eOLlqfpRVZ5KGhbb37kNKggGQKAuoygALY7i0g/6PQFrLaxzLZm+LTv12Et095MZLjF8ozU5LhszcHw1KTOylrva9yCBYk6ad8za/ZsM7stQgNchbGwYm9yb6jfS3OdAxgkq8cWqaNI+IyRk5J7v+DlsXwbEhlZCpKLTANxcFRvYi29zL3DRXKsMTbPm0tl+CwttpvebjbTPdvfkRxKMrTf8ABM/EOcdLS+a3MzEJkfuiZpd4lSutxMpGmhiT31iuwF4iC5kONSyGAcT2txxLZQZzOAxXsq9OsbkI9NyAbFgrAkDxAM1ePITUmFjl0tMW97N4raj2X/53hcoPs6xvyy0v/e0z8X+0UKPwcKWP79UU/wDSrThMI2amp/dF5FUGsz86Rv8ATw5N3H/tG4m39lTw6D9NSq3qWA+UwMR2q4zUJzYx1B5IlKmB4FVv84wiRuJPmSCwxXRF/SMWdWx2Kvz/AKzW/wDaJHZYsrrl6ltEfQ9bEWEJJyiiZ/H/APtqngv+pYQkMmPKOGE0+yf/AH1H9T/6HhCUj9yOyX2P4Z6zhvuPvJX2hCd55Y2jJjCEAhaOSEIAtTaZlT44sIA+r8EwPzmEJDBZw+8bxL4D4QhBJ59xce+Zz2J+LzhCYyN4m1RHu27h9JXrQhOeX3M7I/avggbaQvCEsQxkIQgH/9k=</t>
         </is>
       </c>
     </row>
@@ -1520,124 +1520,124 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pat Cummins</t>
+          <t>Litton Das (Captain)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_015</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
-        <v>39</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>33</v>
-      </c>
-      <c r="N9" t="n">
-        <v>138</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>17</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>20</v>
-      </c>
-      <c r="X9" t="n">
-        <v>47</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>96</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>59</v>
-      </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>WK Keeper - Batter</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVEhgSEhIYGBgaGBoYGRgYHBgYGBgVGBoZGRoaGBYcIS4lHCErHx4aJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzElJCw2NDQ2NDQ0NDQxNDQ2NDQ0NDQ0NDQ0NDQ0NjQ0NDQ0NDQ0NDQ0NDQ0MTE0NDQ0NDQxNP/AABEIARMAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBQYEBwj/xABEEAACAQIDBAcEBgYJBQAAAAABAgADEQQSIQUxQVEGImFxgZGhEzKxwVJyktHS8CNCU2KCogcUFSQzQ7LC4RY0VOLx/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECAwQF/8QAJhEBAQACAgIBBAIDAQAAAAAAAAECEQMhEjEEIkFRYTJxI0KxE//aAAwDAQACEQMRAD8A9kMSLCSEhCEAhCEBIQhAIQhAIQhAIQhAIQhAIQhAIQhAIQhAIRYQFhCEBIQhAIQhAIkWJAIQmd6Z9I6eCwzOW/SMCKa7yW0Ba3IXvrpukCTb3SfD4YMC6tUUXyXINjzYKQPGZ/Af0o4Rn9nWp1KIJFnNnQgm18w1tfjaeUvj8TUd3V6l3OZ2De8/M24yvAc3U5mtc21uLm5sOEr5LeL6go10dQyMGU6gqQQQeREknz90c6S1sNUAOcIdGQk5SL6dU6cfWeydGtrnEU8xtuFgCCfHW+62vwkzLZcdL2EISyohCEAhCEAiwhAIQhAWEIQCJFiQCEIQCJFhASeOf0gJUxO0xQIAClEWx1ylQ7E/b9J7HPMNr4YLtio5UtZRUUbyTkB47ut8BM87qL4TeTqobOpU6YpqgCjs39p5x1LZuHU5xTXNztrKLE7ZxQcjPRDan2YDuRYXIZ1FgQN8tcRtBxhxVUIHIGhBIBO/ysZx5bj0sbjZ69Da+yademy5dbGx4g8JVf0X4x0xfsGJKurjL9FlGbMD3Ajx7I/Z+1cQ1SxqI5Bs9PK6OLe9kzaMRykvRTAhdtEKOqodu4FSfi1ptxbl1XNz6s3HrEIQnU4xCEIBCEWAQhCAQhCAsIQgESLEgEIQgESLEgExOOoZsa9RtGy5B9XTL42B85tpQ7awBuay24ZudgMotz4esz5Jbj024csZl2zlXA09Syr1bi9hcePCRZ6Oie0S18tr8juvzkmPzEgKC1xc2tv14sQJUJQbPcKM3Y638rWnHI9GX8L6lg1BFlUcbges6NgYZUxrVF31FKk8gFBsPFRObA1GykPcHkbX9NJo9ibOy2qta5XS30W11mnFLcumHPljMdLmEITseeIQhAIsSLAIQhAIQhAWEIQCJFiQCEIQCJCEAkGNW9Nx+63wMnnHtOoVpOV35T5cfSVyuonHuxiXqqhNzY24zhTFU82YEX3TvxNFXJVxeVY2HTz5rsONrm049yvQ1ljelnRfPbXX5Te4X/DT6q/ATC4ekq9VBYfnjNts+pmpof3R6C014b3WHPjZJa6YQhOlyiEIQCLEiwCEIQCEIQFhCEBIQhAIQiEwCNZwOMjeoeEhIlbknSY1uQi1EDKQdxFvAznzARRX06qk+g9ZTzl+6dX7MW2YOyOOsrFSd2ax3+IsfGMCjNcgy+2jgWZvaEKG45b9wvf3u/SU1RitwwsRpb4Wnnf+uPncPvP+fl6fHlMsZfujqYgqDlGvwmw2IGGGpZt+RL9+UTI4bDF2udEB6zcO4czNhQxGgUqVtoDvUjhqN2nMCb8HJPKxh8r1JHZ7UA2MerA7pyMwO4xEuNZ1zOOPTthIVqnjJgZeXaoixIskEIQgEIQgLEiwgJCEIBI6hjzIGbSRRGxiXgN3dBB8Zhl3ZF0T6anQdugAjKNdWvlYNY2OUg2NgbG27Qg+IlV0zwFWthrUlLlSWyadY2IW4OjWPA9/CcfQ3BvSRziLI9QoFpsylgqAqNMx1PIdmgJIF9fhXy7aZxcGVOI2b7V1PI9btXfbv+8y4tCgmVe/X7p5nyfiZZ/JwzxutTv+vw34+S4y6R0sKi2so00HYOyPZorMN5Mo9q1HNLPUzKobrIlrgZWVcxvuLEcuB4Tu1MJqRnbb3V0RH7pnOj9R8hrBGKOcoXUaqTchSO0jTTqzRgXESzKbk1UbKknpGc/M/ncJKrAW1m2NRU8IRZoqIQhAIQhAWJFiQCEIkBGOk5C2/v8A+Z01TpOOobEnsB8tD6SmV7WhjuOJ3+p5fCT0yLTkrA2tqd4Ft+YbvOS4Zza35tv+cz/2h9ldisFXqVM59mAu7VzoHLKct7X0W/eRGrsdwQUqKljmsiA9cghmBJut9DbdpbcZZ4zGU6ShqjhAWCgn6Tbh4yL+0aWZlzG61FpNodHcBlHdYjXtl0dJ6VMgWZixudTyJJA8Bp4SYmU56QUApYByARqEYgq17VB+5oRm7o9Nu0Cyr11LFQMyOti5IQNcdW5Gl4uKfKLKVbbFSxAq11Bvce0LDXfo99OzdOn+0qWepTJN6Sh303KRm0PHSTjFU8yJfrOpdRY6qMtz2e8PORcZfa0zs9Vw0tm1lK5MSSqkdRkRjlHANpbvtLUyHCYunUUPTdXU3AKm4JGhF++OrvYG2+xt5SLjMZUXK5XsI4Ph+RpOXaoVqT5hcKATbQ6EEkHmPlH0RYAX7zJmpZqbKRfMpBG69xuvwidzScbqypcA90U5s3DNa17aXt2zpldsfDGmhXKQL3ALBjqBfcBYaSxms9KZa3dehFiQkoLCJCAsIQgESEIEVQHfv+M41rI4DIwI3G2/UbiOE68RUyozclJ8hMoauUZgbHmNDMOXLxsbcXH5yrtk6hvwG/u3Hy08I3DVCVufLmRuHrKz+2GKFXW5PVBGmp0Fxu+EsNmOTTzm9rEi/hbTykTKZdwywuPVUnTFA1NFZXcGsqFUGZyWSoOoLjW+o14StwOLJVTUNq1XEYRmpmwfOlqVQ5eV6bE8rTYnCq4QOoYhw4vwcXAYdtifOPXC0zU9oKaZhcK2VcwzEliGtfUk+c02wuPbHUsan9UxKUmz0koK6E2z087ODRcg71Iva+l5Z48EYpmLDKKuEVlt7zEnIc3DKTe3GaRaSAEBQATc2AFzzPMxXRTvA3jgN43eUnafFjVrMVqVXTKKtPFFWJU51zApYDUWQAa850bXxYH6Wk2f+6mimTrH2tSoijKBvIy3t2TVNSUixUEbrEC1jvFpD/UaRt+jQFTmUhVGVhfUaaHU+ZjZ4qbovRCUCiAqvtazIrAqwAqvZSp3HLbSWuLUZL3P0h85OtAAdQWOYvx1cm7eZ1kWPA9mSATpoBrqTa3mZTJbGJMOmg9flG4raKoGHvsBoq7yeRO5ZR0dtM6AoMgI46tbv4eHnGlxl0mV5NenRjw291psE9Qi7oE7M2Y+WUWnXGUzcA8wDHzqxmo5qIQhJQIQhAIQiGAGJCEkcW13tRbuA8yBMZiK3CanpFVtSC/Sb0GvxtMfWW/WnF8jL6tO/wCNj9O09Nc9SmnAugPdmBPpNJgaTKXpXJCvZSTfqEBhrxOso+j6Z8Un7oZvSw9TL/B5xUrZmv17Lpa1wD8CJPHPp3+2XPlvLX6dgO9vARwNhEy6heA1PfEPWabuc7NpfnFvGvqe6KIScIX1EBEeA4nf2ayF16ygC4LA+A63ykx4GQVKRJUA2Kurd6g6iKiMZTTIz0/oO6juDG3pJ6T6R22Ey4moOZDfaUH43nLTOs48+sq9Lju8I3mBfNSQ80X4CdMrdh1M1Bey6+R+60sp3Y3eMrzcprKwQgISyohCEAiGF4kkEQwiQM/0nfVV5Kx8yB8jM0x0lx0iq/pmH0VUemb5ynJ0nnc13nXqcE1hIs+iy/3g2/Zt/qWakgZi3LXvawA+Uz3RCnrUf6qj1J+U0KsLEk6An0Np08U+iOLmu86RjlHaY5BlW85cazCm9QGxAuOzwMz1fatfd7Q6di/dLsmoQRwmXTadc7qhv9VfujH2niP2h7Oqv3SdG2sWK40mNba+JH+Yefupu+zIztrFftT9lPwxotbenqtottR2fCedYvpDi0NvbFR9VLk8hddJFS6UYxzl9oed8qHdvvZdI9i/6Sr/AHodtNT6sPlKtWtODaeOrPUV3qEnLa9lG4nkO2QDFvuzfCcvJhbla7eHkkxkre9Fqujr3N4m4PwEv55Gu3MRSqfo6hW6kHqoddDxBk46WY3/AMg/Yp/gnTxdYyVyc1lztj1eIDPNMD0lxjNrWJHHqp+GXFHbWIO+ofsp900ZtpCY59r4n9ofsp90IGvhCJJBAxIGBiekL/3ioO1f9CytJ0lh0oS2JbtRG9MvylUz9Weby/zr1OK/RP6avoilqLHm59Ao++WajWw1sSfEkn5zi6PplwicCxJ+01h6S5SmFFgJ2YzWMjzs7vK1w7Ta1Byfo6ecpNj0wQxKBjdLXXMDe/VJKkKDpr2S72qt6Tk7gvzEzdKmGRzqSLWVWCEg3ubkG4Fh5y0VWGFq0VyHqBhbMbgEPlcPmAG69t5ta1uMKTI5phwpUI2bKB1Sjlju3AgW5dYziTZi2JFZTYkWtqSFzaa8dw5ybE4CmoYo5O/TQ3AL77EfREkczV6dxoguGLDKLD9GMo1GgzyWmtMKTdSSuuijrhBa2l/e5EWN+cednUyq9cA261yLKzZSvhYm/aJCNnBWW9UFS6owFgcrb21JsOF7bwfEObaeHXWwQkM2QkKgDZkul3pkGyg9Yg7yNCZXqi5LrlSzGypY5gWe4N1DDS282IC6C2lhUwCEZmqBMoXMrsrlSXKi5BH6oDbuMjw+zkNz7ZTZXDBcpGdQ9ra3yhlAvrm4WvpEQrdppZUI5keY/wCJVO9tZrtp7IU0yTWUBSWJAB0VXNgM3vG2794d0p6Gy6RZ1aoHZHyqEOXOQtUlQWW1yUXUXGttSRKZTtvhlrFSoQXsddW+Bk39UW+8zuxOARCHVGuQSzGojKjFmHsygW7GwBvcb9055fH0zz7ydGGAUWEsqDypV7dvZO3DObC4sZdRabxCR03hA38SLCSgkQmBiQMl0vT9Ijc0I+y3/tM2x0mp6Zj/AAj2uPMKflMtRANWmnN1B7sw++cPLPrejw5f43o+HTJSVLe4gBHPKNfWRqlbLmFQXJJsy5lAJJA0sTYWF+yTYgAqVO5upobGzaGx7rx1tyjQD4CdOXvX4cP7V2MoYh0ZS6G4t7rAfEypfYmIsRmp+Of8M1BMaziR3Esumw64/Wpnxb8Mcdk1vpU/Nz/tmlvGg6yN1GmZfZGI5U/tP+GMXYmJPCmP42/DNY0FMbppkq/RWu4sWpjhvc/7ZBT6G1kFzVQ25Zh/tm3BjajaS2zTLYno/UbDt1kJyE2F9Suo4cxMlRwpsCCNZ6lhHuCvL4ETzKibEi+4nyBImXNbJK6Pj4y2yuzZ2wnr1LIyAqhOua1rgcBLX/ouv+0p/wA/4Z19DmvUqHkg9WP3TWgzXh7x3WXN9OdkYhehlf8AaU/5/wAMnTopXH+ZT/m/DNhFmumTLL0aqj9dP5vwwmqhGkEgYhiQCNMUxDAzfTJAadIn9of9JPymZoUx7RKn0XXyzCbLpPRD4c3/AFWUjvvl+BMyA327LGcPP1nt6Hxu8LHoFZd3Y1/IGKnOU+z9qmoy03FmsxJ4NYDUcjv0lsNxnRMpl3HHljcbqlz6RgjSYjnSSI3e7dgio5kIMch18JOlUxc2jg+shB0iodZGk7dStI6zaQBkdZpCSYBus3cvpeeeUqZJJ3XNz5mavaO0BTR0X33GX6q8T90z1OmLATn5st6kdnx8bN5VfdDltUqdqr6EzWiZvolhsodyd5CD+EXPxHlNFedPDNYxy813nT7wjYs1YlvCF4QAxpjiYkBsDEMS8Ct6QoWwrgbxlPkyk+l5j3cBZudoUS9J0XeykC/O2gnnFLF5i1NlyugK5Te9xca/nhOT5GPcru+Ll1Ys9k4kF6bKf1h5MLH0Jm0z9WeeYlFo4gJRuAyJURb3YXsSTft18ZtsDXz01fdcXI5HiPORw9biOeeUmUdd41zpFvI6hmzlQyCrVsbyZmnDXb8+clDrpV8wvJ0bWcVAW0nUhgjrvObE1AqlmNgAST2DWT3lXt+uqUHv+sMg720/PdK5XUaYTd0y9avnqEk6tdvD/wCWnWiAWnAaABFXXS6Ac9FYn1HrHU9oqQSQbA2vzPZOSx6WOpNNl0WqXpOOTt5EKZdzP9Eagak7KNM5F+ZCqGt3HSX87+P+MeXy/wAqdFjYXmjM6EQGEgEQwiQAxpimJASYTpbhDRxAxAFkfVm5NuYHv0YfxTdEzmxuFSrTanUW6sLEeoIPAg2IPZKZ4+WOmnHncctvKdpM74nDCmSC+VEqLwQElh9g3sfoz0jBU8iBASbcTvJ3kntvMVgMDiKeK9ktMsqObPYZQNRmHLMt7jge+bWnUtvExwx17actm+r17dd5E7Rr1OUYTNGZlVrAyp2ulQ0y1MgFSt7i4yvcHxllXO4czHYennpVP3iwH8KgD1vJk2rXHs2uXpqTvtY940MsUlPso6MP3jp26Xlsh0kJjqR9JT9JKTPTVVpl+uCQCBbQ2JvwvLG8gxTuUbIBmscvLNbS/jK2bi+OXjZWU2nXSnkpZhdV17XY3a3oJAiM7rSpJnc8BYWJ3sb/AKo4mT4HorVesrYpxlJ3Lq1uJDHcTzsZvsDs+lRXLSpqg4294/WY6t4mVx4bbuts+eSanaTZ+EWlTSkm5FA7zxPibnxnTGxwnTHJexCEJKCwiQgES8zNHaDkHNWYWtbdzF9LXOnwk7Yzfau362pKkWB00tc3HLskbF/EMoTjNf8AuG423G+mm5dPERwxQ44hjrzUaW7uevjz0jYujGzl2ZUZqSsxuTm17mInSTJFYG3+siJ1j3NmbvMhU6zFaJohMaDBzCXPXexvyBP58537LW1Jb8bnzJla+t/AfEn4S6oJlRV5ADx4y2KKztGmUquvD5jT5Szpvec21AUrB+DWv5kfMeclQ6yt9picmCHWNJiAwl1J7y94+MsZWodR3j4yyBmmKlLFvEiyUFBixIQFhC8ICZRyHkI0qOQ8hCEBpUch5CKUHIQhAZAwhAp6vvP9YyFd8ITKelvumEbUhCEudPeH1h8peiEJbFWqbpDuTvPxWMo8IQkZe0x0iNhCQl00d694+MsxCEvj6VpwiwhLILCEIBCEIH//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgVFRYYGRUaHBoZGhgYGBgaGBoZGRoZGRkYGRgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzErJSQ0MTQ9MTQ0NDQ0NDQ0NDQ0NDQ0NjQ0NDQ2NDQ0NDQ0ND80NDQ0NDY0NDQ0NDY0NjQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xABCEAACAQIEAwUFBAcIAQUAAAABAgADEQQSITEFQVEiYXGBkQYTMqGxB0JywRQVM1KC0fAjYpKissLh8XM0VKO00v/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMEBQb/xAApEQEBAAIBAwMDAwUAAAAAAAAAAQIRAxIhMQRBURMyYRQicQUzgaHR/9oADAMBAAIRAxEAPwDs0REBERAREQEREBERAREQEShnAFyQB1OgkVifaXB0zlfE0VPQ1F+eukCYiQ1L2nwTGy4miT/5F5+clKNdWF0ZWHVSCPlAuxEQEREBERAREQEREBERAREQEREBERAREQEREBERATTPaX7QcJhg6o4q1l0CLqM1tMzjQAc7XM1r7S/bggthMK/VazrbfY01bl3keHWclcEfygS/FfaPFYhmatWdgxvkzEIBe4AQdmw79ZDs5nqq39WlJNtzrA894esysDxGpSYPTd0YahkZlPnY6zEZhLcDr3sh9pxH9njiSCezWVdRc7OBuO8DT5zq9GqrqGUhlYAgg3BB1BBnycrkeE6B7D+3tTDZaVQ58MLCx+KmCdShG4B1se+B3aJbpVAyhlNwQCD1B1BlyAiIgIiICIiAiIgIiICIiAiIgIiICIiAkD7Z8YOFwlSsvx2CJ+NzlB8rk+Unpzr7YqlsPRF96hNtLGyHf1HrA43Ue5JY3JNyTqSep8bywpJOm0vJhi7WF7dZL0OCpzuZTLOY+V8cMsvCDy72v6aekoakf+puFHhitoBoOf8AKSFLhKAfCJS80+Gk4L8ufe4Y8j6Q2FcbqROhnBgchMDiGEGU6dZH1vwteDt5aQiGVobbaGTmG4eANRMLiGFy9oTSZy3TLLjsm3XPsf461Wi+Hdiz0jmW5JPu20tc8gfrOkT51+zjHtRx9HKbB292wJ0Ktpr52PiJ9FS7MiIgIiICIiAiIgIiICIiAiIgIiICIiAnL/tqfsYZL7tUa3PQIL/5p1Ccy+2RexhjbW9QX7rIfygc94Vh7LeS6CWKVDIgHcJR+lIDvOXPdrs49TFOYVBaZgtMDBOGXTyme1JgNZXVa7lY1WYOJtY3kjXp2GugkLjMUg5j1jptLlJO6jJpI/FUbgy4vEFBsfWVhs00xljHLKZTsheEjJisOeleif8A5Un0/Pml6eWvTtvnpkeOdSPnPpabxy3y9iIkoIiICIiAiIgIiICIiAiIgIiICIiB5ONfaLxipXbIVUUqbsFIBz/ukk7WuOk7LOSe0WCb39ZCNMzW7w/aHyMpnlZqteLGZbiA4wGyqE5hfMESK/VgPZ94FPS1z52mwY1OxT65QNtdBb6yHPB1LHOzgNfa9tegHOU6tXS8x3NsTD4N6T9lwe4XU+QM2/hWMcoAd5rv6mym6FyL3u38ryUwDFGsT/3K5ZNePH8POP4hzoCRflNYHDgWzO9rb2t82Oknce+d7Em2/wDXWeLw1CuqsejCwtoRpbbc6Rjfyrnjv2RSUKBFlYnobgi/isuYakUNrkjlMhuEqdlOn3jfTzl1KWoXp49ZPVtTp0icSz++BTRlZSD0IsQdelrzrP2bcXrVTVpVXZ8oVlZjc9q9xfe205fiBldiAPjsf68p1D7McCQtWsdmKqvgAGb5kekvMr1aiLjJjbW/xETRgREQEREBERAREQEREBERAREQEREDyc39s65TFkqPuqT6Wv37TpE0X2+wL5krqLjLlbTYg3F+l7keUpyTcacV1k0p6mcKL3yllv17ba+klFw4KDTWQOEcDMOjN8zeZ9TioQZQRfx0HjML5dWF1GVWRkXTT6yPw63Y6SitjFIsXuTub6S9gMQitci62OmYeG4lbK0mURuI7L6iTWEpE6gyExuKQuQAT6WHmZXgeIBAbuND15HYSem6R1zaexA0tIKqcr6zPo8TVwSDr0uJEYutdj05ScZ3Z8lnSjS5dt7XJYnuH5zt/wBnlMjA0yfvF2HhnIF/Sck4N7PYisUFOk+R9nytktcgsXtawsec7twvBijRp0hqEVVv1sNT6zfGd7XPnl+2RmxES7IiIgIiICIiAiIgIiICIiAiIgIiICUMoIsQCOh2lcQONe2uH93jqigWVwjjp2gBoBtqpmm8aoOHvc2Iv+RE6N9rWFKPQxNuwf7Jz0YEvTJPm80Xi9UGmgtckg78tdCehmeU1dtcbvGxHYbh1ap8CsbWvtcXmV+qMSnZXMLEmxVgbDfTXbaSOExVrOrZWAAJHToes2PA+0LoP2qE2t2gL667raRtp0TTRRwTEOSSHt8V1VzpzO3zljEcMdGyMGudr6HYH8xpN9xntK5GU1kGhBy2Gh8bzWamKUsWzZm6k/zjdPpyeUbwbCOKo7XZGYtY8gvzvpMnFvrcd8cNxYAdSLOSfSWaSNXrJRT4qjqgtr8RsTbuFz5RJbVLZMezvHsRTC4HDAc6at5t2j9ZPyxhcOEREX4VVVHgoAH0l+asSIiAiIgIiICIiAiIgIiICIiAiIgIiICImHxPHpQpPWqGyICx/IDvJsPOBpX2qcbppQ/RWUO9XLube7BbKtTTnm222M4vVZ0JR79nS1/LTrJj2j4g+JarWb4mOYDkoX4VHcAJTxHCiquYaPa4PXuMrlda2YS5b17MPD4kZbevgPDUmXaWEV7m9tzvrfQDy1kOxIazaMNCO+XjiSNAf6/q0jp+F+r2rLfC5Tprzv8AXnLOIrKNOfjpMb9IPM6/WY7tc3Mnp+S5fC+lXW95M+z+PfDP+lKFZqYLKGvYk9k38mMhsNSubnaSGK/Zkdco/wAwi3vpEnbb6O4DxdMVQSvT+FhqL3KsPiU94OkkpxX7LvaMYeqcPUNqVVgATstU2VT4NoPHLO1Syku3sREJIiICIiAiIgIiICIiAiIgIieQESM4lxuhQ/aOA3JRcsf4RrNS4z7csRlw6lSfvvYkeC6j1hlnzYYea3urWVRdmCjqSAPUzk32n+0y1iuHouGpqczsuzP90A8wuvme6ROMx1So2aozO3LMSfQcprmOHacd5Prr+cmMMfUddsk0oTVZKcM7SAdND5f0JD4Zpn4CuEcX+FrA9x5H8pTlx6se3s6uDOY5avir/FOHqwuRz05SDfgzk9k+R0PhN69yGW3ORxwJGlr/ACtMcc7Jp258ct21L9TVb7QOHZdDqflNoro9rWPqLTHw+CJa5lvqKfSjBwuCO8oxQ1A5Lr58pNYxlRfoO+a9iX9dz4yePeV3VOazDHpnusl9xO3ewntjTr0Fp16iriEAU5mVc42V1vubWBHXxnDKepkvwodv+E/lNq4ss7jLY+kg4OoN5VOG4PH1UF6dR0/A7Aem0mcL7ZYxRYur/jQX9VtK7Ux9XjfMdZic7wv2gVLgPRVhzKsVPoQRNv4Tx2jiB2G7VrlDow8uY7xJb48uGXipaJ5PYaEREBERARE8gJYxOKRBd2VR1YgfWQ3tLx8YcBVF6jC46KNQGI56g6d053jcfUqsWZizdTv4DkB3CRtz8vqMcO3u6BxL2uoU17B943ILoPEsdhNPx/tViKlxnyg/dQZRb8XxH1Egyp5z0C0OLP1OWSl3OpN7nc7k+JmM76iZcoZBDmuW/LFYSO4vSsytyYW8x/wZKFZZxtPMhHMajxHLzF5MacWXTlK18CxmQtmFpQ4EtlCNQZd6Ke4LxHUUnPaGik/eH7p7/rJ0N1E0dWD6HRhsZL4DjeTsVt+Tjn+ID6zm5OL3xd3BzzXTkmqqiY1VwouZS2MQ6q6nQ6BgT6CQvEMdmOUXtzOx8LchM8cMsq2z5sMZ5WsXiS5vyG0iq73NpkVH6S3So9Z144zGajz887lluvcPTktwpO0zcgLfmfymFa0mcFh8iWPxHfxPKMnLz56x18rwlwJK1XWXCsq4NreWVUMQyMGVirA3BBsR4GekRlhMzsbjwj26ZRlrjN0ZbBv4hsfEWmzYD2nw9UgBijHQBxa56BrkX85yc05SGK7ekbdeHq8p2vd3WJpfsLxhnzUKjEsBmW51yiwK37tD5mbpJd+Gczm4T2Ihd5LOKxC01Z2NlAuTL00v284jYLQU79pv9o+p9IZ8mfTja1fimOavUd257Doo2EwgsN2SpPPfwMq6eY8xIeNnlcruqck8yTJAlJWFWO2GvtMd6LjbWZ6PLmaBCuHHKU+8I3Bk2QI92kDUsdRUHMux3HQ9fCYjmbq+CRhYjSYicIop92/4jfy8JaZOrDn6cdVqam5sFzHoP60mVxDBPTRHe1r/AADXvFzqCe7abG+Fp20AHhLL0A4CXuAwOutrA6iNp/UW3x2QWHxNlBK2drnbW17KTbu1/wC5lDh2fV73Ouls3h0HWSwwqLsvmdST1JlWS47pXbLPltu41qpw1weyMw9DMdgRowIPfpNwSkOUp90L66yepfH1OU8zbXuE0c7kn4U1/i5D8/STZWXUpKvwgC51sLQVvItZcnJc7tSgsJUq84IlyGbwLKwsKJUBr5QLFVdR3kCUolz4E/L/AJtK6/xJ+Mf6SYJshPNibephaRVhMS1J1qIbMpuO/uPcdp17hOPWvSWquzDUdCNCp8DecfZLC02r7PeI5aj4cnsuM6fiX4h5j/TEdvpeTV6fl0SJ5El6BOR8exfvMRUa+haw/CvZHyE6hxXEZKNR+aqxHjbT52nHW5yK4vV5akxX63aBHcR6EylHvY9bN69lvnb1lCVL38b+TC/1zDyim3Lo1vJ9R/mtDzmZR1EqKSmh94dDL14GKySkGZTLLLIb6b9Bv5QjS2TPCZO0uHIhAqBPhBYu+VszAEKFv2ALjU6k90weKcPamQbHIwBRrhgbgEjMNDbrzjS948pNo8uYzGVZYIhRjssowgvc9dvDSXqw5dfpPcMO0R0A+f8A1BB0lKG3hzmQ6S3TXl1vAMttRtPCbyqnobGHp21ECkCeAS4okjhcJQZQXdg2lwBsb68tRaVtk8r8fHlyXWKJCz1RJz9Aw1v2jeh62/dmDjaVNbZCxGt82+h00t0iZStc/TZ4Y7rEHKep8R8BPQu08pHtGWc61jF1p23L/wCxobV9PhTsjx5mXMc4VkJ+7nb/ACEfnLVIWA62LHxML+z1pVw7EGlXSoPuspPhexHoTCjUCY76ioehELYXV27X79esTkH6+r/vxG3f9f8ADo/tjWy4Vv7xC/O5+QM5g/I9Zv8A9oFe1OmnVifJVI/3TRfd3BXmD9dZLn9XlvPTDzEE23GoHVTqwHeDqPOes4uDyYWv8wR/XKCtnH9ajWWqo0JG3MfuN1/CT6Q5Kl6O9+oE9zayxgHzIOu3pMipIFxDJmkiUcOtRheo7Ap/dVGDXHp8wJAo0l+Jtmp4dh8Pu8n8SNZh9JMacd1u/hM4tA74hWCsqBaiXB2KFhexGYXGxmI/EAow3vQGDU2L3tYCoRbTpZduQ2lzAOalNmHxNQak340Nk9Vf5GQvFqmaqQuqrlRO8KAot4m585NrbPLU3Pda4tg/dVWQfDuv4W1H8vKYdpJ8fcGra9yiohPVlHa+ZPpI4CVrnzkmVkWaiaiU4de2x8B6Xl12sCZbw2ht5+fSFWRaWSLEeJl9luJj1UI9QYQu1UvrKUbkZdQ3EoK6wGWR/EaF6bvrmWoNrj+zNNLDQ8mZf8Uznqqt7na1xz7RsPnMum9PK6PZmdSmSxBAJAzhtbZfd5ttMokT7p/Fdvpsb03/AAx6XB8OQGzVrG/Iki1ibAAXUC/aPSMTTVXKImRVSmCt2JLnNdzm1uQBJirko5FzoEJyHPVOZqR3dQRlOY5Scpvrr0EPxHFL7xwGzZUDFlIKki5IW3TPYd1ttpW42Tdvu7uW43CyTvr/AGttsJbontQagKix/wCL2P0IlINjLvG1pY4o93pryJN/DQ/lLgJb+I/ISPxdTPiEA5Bj62mepsCRueyoha9tLqMBnc7AW9JirpRJO7G/zlWOayrSXdtT+EbnzM9xgsiryFvkL/mIMfZhZYlGaIbN89vMTmrqnJFHqxv9AJrjnKwPUfSZ/tPVzYusehC/4VUflMLFL2b9NYU57vO1bxlPTOORB8piYg5WDj4TuOVjLy1sjZX1Rtm6X690s4oZRbcA2/hMMV7BsFYqp03t0vymc20gsM1n7xp4jkfyk0h0hNeI0kcJXupRwxQnN2Rdla1sy8jcaEc5GoRfXbn4SZo4+koyoKosSVs2xItcC+/1tJi2P8pDg+KWitlpVXZviIQqvOwUHXY/OYb08jF6dJ1OhQOBZL31H7x00vt3zLuGC2UnMSULVXNwLlraaWHPS4tvfXzHOEFzTRgWIHaY2JUE5Taxtc6jbblJbWft89oga1NlYhgQ3MHfXXWUGZ2JxYZcoRV21G+hJ6Dr8hMO0q57Jvsx31IHTWEffxtfv5mVObXMpw66AdxPnCF8t3yiobg+E9hSbE2FoHlHYSpxPMOvZEraBYq0wTrbtKV6G52AO2vf0HO0pNM3zMFLgFS4UnskFe0psUJU87ee8vEddpaKEbHvAYZgDpsbhl2GxtMcscpl1Yu/h9Tj0TDP28X/AK8q4qq4KOKLU7k6q25ubgZhlOu/hMV8MPgQBb2L7gldbBFbkSNzoNTfSZrVrgDJZhe7Z9Dck3uBmJ1205amWKrG2p06AWHXXmdTzJkb5Mu1mv5b3l4sLve/xItMoVRa2pJ021O/nv5y0zyus2nlMarUspm2M1NPOzyueVyvm1hYVs1d+gAH5mS5qgdttFGijnryH94/ISC4K4OZ9WZmNhsoANgSdzJlaV+25uRsB8K+Akq8k/dr4e4VCzZ33OvgBsIxCs7oiC7udB4mw+Ql0NoeQtdj0X+ZjAYhVSpVYhXqFaVPW3u0c2d+6yc4a+n47yckxjJ/USf+5w/+M/yiXb4X93Cf4W//ABEjb1/0GHxTj/8A6mv/AORof4PKexJeLy/dUZjf2Q/CPpMep+y/hiJLOeVgfGJNUtoiQgEurPIkkbNR+LzP/wBenMbjPw0/Gp/riJNdWX2VFGeREq5WPifhntPceERArq84X4Z7EJe0tpU0RAoMpMRCFuY9aIipWq3PwkfivhP9coiF8WJ7KfAPFvrJvF7REHL99MZ+zfxH5TDxHwDxH0iIvh2f03+9GNEROZ9a/9k=</t>
         </is>
       </c>
     </row>
@@ -1647,124 +1647,124 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Mahmudul Hasan Joy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023_test_023</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>66.7</v>
+        <v>62</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>80</v>
+        <v>71.3</v>
       </c>
       <c r="M10" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>37</v>
+      </c>
+      <c r="X10" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>56</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>125</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="n">
         <v>5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>-0</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBIVFRgWFRUYGRgaGhkYGBkYGRgaGRgYGBgaGhgaGBocIS4lHR4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQlISE0NDQ0NjQ1NDQ0NjQ0PzQ0NDE0NDQ0NDQ1NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABCEAACAQIDBQUEBwcDBAMBAAABAgADEQQSIQUxQVFhBiJxgaEHEzKRQlJyscHR8BQjYoKSsuEzovEkY3PCQ4PSFv/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACcRAAICAQQBBAIDAQAAAAAAAAABAhEDBBIhMUETUWFxBSKBsfEy/9oADAMBAAIRAxEAPwDZoQhAAhCEACEIQAIQhABIshtr9o8JhtKtVc31F7z/ANI1HiZSNp+0qo1xh6SqOD1DmbxyjQfMxNpDSbNPjDF7Yw1L/Ur00+06g/K8xHaXaDFVrmriHI+qGKp/Sth6SuPtUfRUk8b/AK1k7h7Te6vbrZy6e/uf4UqH1y29Y1f2iYAbjUPgn5mYU21TY93XhOibWW2qtfyENzHtRuC+0XAf90eNP8jHNHt3s5v/AJiv2qdQeoW0whNqoTqCPWPqdZW1VgfAw3MNqN+wm3MJV/08RTY8g63+R1kkDPnER/gtr4mib0q9RegY5fND3T5iG4Np9ARJlWzPaPiEsK1Nag4svca3qD6S77H7WYPE2C1Arn6D2VieS30byJlJpktNE/CEIxBCEIAEIQgAQhCABCEIAEIQgAQhCABEhKl2s7ZUsLenTtUr8vopfi5HH+Ea+EASsndrbXoYZM9Zwo4DezHko3kzMu0Hb3EVrrQvRTUXFs7Dq30fBfnKvj8dVrualVi7nieA4ADgOgjaQ5WWo0K7EkkkknUk6knqYlp6kdtXF5Fyr8Tei8T+AklHjamLAUrx/V5Clid0AnE/8xCYwPSmdbrxIHrOM9gQBHQBRx+e70nujTJOgN+FjFSiRvFxwKkHXwvPeUAhrELcBtDbXjJKHlGtUXT4uh3+R56bpIUqqsAQd8i67sN1t/y158OBiU63M66359Dcb/GANEzCNsNXzDXeN4jgRkln2B20xWHIV2NWn9Vz3h9l9/kbiafsLtBh8Wuak3eHxI1g6+I4jqNJhU6Yeu6MroxVlN1ZTYg9JSlRLjZ9ERZROyXbla2WliSEqGwV9yOeAP1W9D03S9Sk7JaoWEIRiCEIQAIQhAAhCEACJCU7t12o/Zk91SP75xe+h92p0zfaOtvnE3Q0rG3bftj7nNQw7A1NRUcH/T6L/H93jMtdiSSSSTqSTck8SSd5gzEkkm5OpJ3kneTCQ3ZaVBCEIhnHE1wi5m/5PIdZXatQuxdt5+QHAeUc7Sr53I1sug8eM8UcJUf4QPwETdFRi5dDRieU9pTJO78ZPYTZai2bU/rdJXDYNBuUfKZvL7G0cDfbKrTwjHn+vunQYU/VOnTS0vFHBL9Ua+sk6GBp7si6b9N35SPVZp6ETPqWFYiwXTw1B8+E91MM4GU5wNxGvp03TSqWDpj4UA8p0bDA71B8hF6jK9GJljUWy5deVxa5GuhNrkTl7hk1v0uLX16zT6uz6e/It/CReP2HTcDIiqb3O+xFt1r841l9xPAvBnyVHRrn9Wk7Se4vI7a+z2QX1ynUG+/kY12VXYOF4HQzeLtWck4uLonoRYRkhNB7EdsiMuHxL93dTqMdRySoTw5N5GZ9AwToTVn0XFme9gO1Je2Grtdx/pOfpAD4CeJHA8R66DNE7IaoWEIRiCEIQAIQhACI7R7ZTCUGqtqfhRfrOQbDw0JPQGYdi8S9V2d2zMxLMeZP3CWDtztw4nEFVP7umSia6Mfpv5nQdAOcrczk7LiqEhFhEUJPFRgFJO4Ak+U6RltZ7Uz1IHlfWAEGguRzJvLJh0sgAlcwvxCWbDDQTHKdOBDugkksNTEZ0Ukhh1MxOpElhkGkkaYEY4UGPg0AOoUTsqCN1qX4TsjE8IAJUQRi6yTyExvWpRMaZSu1+F7gIHEf8Sl4A5aq9dPnNH7UUC1LTgwPoR+Imb4pMrAjh+E3xPijkzrmyxwnlDcCehNjmCFosIAKjlSGUkEEEEbwRqCJs/Y3b4xdDvEe9Sy1BzPBwORsfMGYvJXs1thsLXWoPgvlcfWQnXzG8eEcXQmrN2hOVKorKGUgqQCCNxB1BE6zQzCEIQASVrt1tf8AZ8K2U2ep+7S28XHeYeC387SyzIfaPtL3uKyA92iMn87WZ/uUfyyZOkNK2VC09QhMzQIQhGASM22e4PtD7ryTkXt9TkQ8m16XBtABjs2lmfoNZZqS62EgdifEfCTjMw+Ed46DkJzz/wCjswqo2SFIgb5LYF0Y2zC/jILBbOZz3qmXra5J890et2ZpEX/aHzfaQegF5PBo2y00KA5i8cCheVDC4o0iAKmcA9PW0tezsYHtENNjijhRHdOmLX0njG4XMosbecqWMoUw2VsYVYa2ylrHdfujuwVA2y4VHUcY3rJcXEg8FgnK9zEo4NviW349I+VcRS3gONdRcacLrw5XuYMEzjjqIdGXiQfG/SZVtSlY/MeHKa7UTW48RffM37SUQtRwPrG3mRY/IiXjdOjPMrjZ5wb5kU9NfEaGd412apFNb9flmNo6nQcQQhCABEixIAat7NNre8oGgxu1L4b7yjE2+RuPC0usxDsdtL9nxdNibKx92/2XIGvgwU+U2+XF8ESXIsIkWUScMVXFNHdtyqWPgovPn7E1y7u7b3ZnPixLH75snb7FGngatt75aY8HYBv9uaYvIkXEIQhIKCEIsYHl2sCeQvGe0aDumneBsbW1BG6xEdYhCyMBvI+7X8I62Y2dL5TbKAPtAWPzMylJp8HXhhGUOUV/Yi989Bb11llpjSMXwoWsWUWDLqP4wbN9w9ZIURpM5O3ZpCO1UNWp1HcasE4hTqR06+vhGFTCulTccoDLnz1FPfYlXIDXzKrAAbjl1lhRwI0xbBtN8cZNCljT7IzDnNUd+9a5ygm5twzHiZadj1yGtflIWhQVY92ZU79+UmTs1hGjQGq3UddPSUKrhVBqKUvqpTMb5srAtnsd7WIuNwMuOArZgQeO6csVgRmvaJdg4rlMrfZfYrqrMVqKyq4DI5BdqjKVLqxKBUCkZbNmzm4sJZ9le+UZawW+7u/CeoU/D4XI5W3Tth2Cid3cNulSlfZEYKPCOWKUX03TNu1aWrm3EDrv0/D0mlYhdJA4LZq1MYzuuYU0Vram7tcJpxtZ28hykxdMclaogtnbBb3ae8bIWKogyn4mPdzct48LyNZSCQd4JB8QbGXbtTVK+7X4R71GudDohv5X+6VPaqWr1R/3H/vM2hJu7MdRCKimlQ0hFhNDkEtCLCMBCJvHZ7He/wAPSqXuWQZvtDRvUGYRNV9l+KLYZ0P0Kht9lwGH+7NKj2TLousIQlkFF9qla1Ckn1ql/wClT+cy2aL7V31w6/8AkPyyD8Znczl2aR6EhFiSRhFhFgALvjOpUK+6Tcvw+eYg/hHk5tQV7qwuCbgjQqeY9PlImvJ06eXcTviqQTIqjRSbnnm1v844pNpOWIw1TJ8YYAC4Yd7TqN50iYV7iYM6VwyQRc3Cea+HI1tO+D3gSepUEy3bdaIsqqJnHIDUk6bufSSvZn9nfMVYMQbXBv6RljQBmynKGBUjgQd+kcbAKhtwHVQBoDqYCLSmIwxqe5WooqqASmbvA772t4aC86Yl7sR6ffOXu6bMr2QMLEMFGbQG1z/MdOs7Vk7wPzMBpCU6fMR4lEAT3Roi150eBLYxxJ0kfhksjuGsQ4fj3gistr9DmnfH1LZjYmyk/wCPGcKmza9Sk9NmVEtYFNXa+pYk6DUnT1guw7InE4pMUl6nwU6qsx5oEcso8colZr1mdmdvidi5A3AsbkDwvaTu16dOhR93TvYtYlt7t9I+AAt5yvTfGuLOfVSuSiukEIRZocgkWEIwCX/2VVu/XXmqN8iR+MoEuXsvqf8AVOOdJj8nT8449il0avCEJoZma+1gd7DHpV++nM+mk+1en3KD8mdfmoP/AKzNpnLs0j0EIQkjFhCEACKjEG4iQg1Y02naHq4pbd4HwjTAf4nmGENmYdb+R/yJjOKiuDqx5HJ0yZwu+SVWuShA4CRVJrER5iAcjAb2G/iPCYo3Ip1dzbnJbAYYKhP07aBTrIEYHMQC726u35yewGylW3fYaad99PImVwaRryTWHw72FrfZB49ZIo5sA3SRVPY5Nn969xu772+QNvnHBwVRWRveO1jqrEFSp38N/GDFKvDJ6junmoYqHS851TpEQQO1a6oCzfDcX8MwvO2J7RYZBmFUMTrlTvMeluHnaQ3aN8yOBuXIT/M4X8L/AClXmuOKasxy5XF0h3tPHNWcuRYfRX6o/PiY0hC02RyNtu2EIQgIIsSLGAkt/sxH/WN/4X/vpyoS7+yynfEVW+rTA/qYf/mOPYn0ajCEJoZlP9pmHzYPN9Sop8m7n3sJk03btHg/fYatT4sjW+0veX1AmEyJdlx6EhFhIKCEIQAIQhAAnFmIN+RIPhO0521PjM8nR0YFcn9EpQqAgER6K1xbylfo1Mhy624co5oYjW850jpslEyg3MlsIVYaaASuGrdrS1bJw4yg+B/KOjSLRL4OkFG7hHYe2to3D2/x6CeWxQuNbg8ugJt46COiJMfZtIxx9YKpJMKmKFvEaAcdLyKBao2vwDUdSN/y5SbF3wRG00PuHLb2ZGPTvrYeQ+8yuy27fT9y5+z/AHrKmZvhf6nNqFUl9CQiwmpziQiwjAIQhEATR/ZVQ7lepzZUHktz/cJnE2PsFg/d4Onpq5aof5j3f9oX5S49ky6LLCEJZAkwvtNs84fE1adtM5ZPsOcy/IG3lN0me+1DZd1p4hR8PcfwOqHyOYfzCTJcFRfJnEIQmZYsSLCACWiiEWABPAGpjhKByNUbuot+9a+Yj6KjifQRthnDDMAbGxAO+Y5JJ8LwdOni91np6dxG5JX9co+ZN3GeWpg7/wBeMyOiSDBMosT+ctWAxVlAvy46j8v8Soph2GqmPcPcHTMD0H4/OKxK0XF8ULXuBfn6b+GkaPiCTpcbrX0tY8eQ8esZYOiTpa/DvXI8dfP1krhsDxf5a9DCwoVaN1ubknS3XnytrHyIFUKOH618Z5UDSwAA3cLTo4v+juiRSIftAn7l/Af3CU2XvaxARiwDAAkg7iBqQfKV/auxrUlxNEE0WFnFyxpMN5J3lDzPw8dDcXjyqL2vyYaiLdSISEW0AJ1HIJPUIQA8z1CeYAOMFhWq1Epp8TsEHS53+W/ym9UKQRVVdygKPACwmZ+zTZZes1dh3aYyr1dvyW/9Qmoy4oiTFhCEskIz2nglr0npN8LqVPS+4jqDY+UeQgB8/bQwb0aj0n+JGKn7wR0IIPnG80z2j7BLoMTTW7ILVAOKcG6lfuPSZnMmqNE7CEWEQwjrZuCNVwo0UaueS34dTuH+I3RGZgqglibADeTLjsjZ/ukCm2Y95yPrcADxAGnz5zl1WdYo8dvouEdzIrtRRy4cqosoFgBuAA0EgNn07In2V/tE0h9kpiKbI2mYEX5dZRcJhmVQrCzJdGHJkOVvK4nHp8lxa+TtxrkEQTjUp25x+qT09G4nSmauIzpDpJLAOocXGn6teccPQOo0EkUwIOu4wJosOGRCoYC2mkKka4VCBYk/hHTpGKjmug/XjOqr+vvgq2nVQIiqIntHWWnQqO25UbzLDKB8zLB2TwLU8HRRx3silwde8yjMDz5SnbRq/tmMo4RNUVveViPqp3rHpfKPFppiiwtOTUy4Uf5MM8vBR9v9igbvhbKd5pE2U8/dsfhP8J05ESispBIIIIJBBBBBG8EHcZuREzn2h4AJXSqu6ohV+WemRZvEo9j0QTo0molJ7ZfwcskuypQimJPQICLTQswVRdmIVQOJJsAPMxJevZzsHM37U47q6Ur/AEm3M3gNw6k8o0rE3SLt2b2WMNh0pfSAu55u2rfkOgEloQmpmEIQgAQhCAHh1BBBFwdCDxmPds+zZwtTMgPuXN1P1DxQ/h08JskabRwNOtTanUXMjCxH3EHgQdbxNWNOjAo4p4Ooyl8pCKLszaKB5y5f/wAi1KtkA7m/3p7zMvJb6K3Ow+cc9q8Aq4XIgst1uBxFxe54zyc2tcZ7Kr7OqONNXZB9nMEnu1ralnBsd2VbkWA4E218bSfRI22IBkZAD3KjrrxVwtZCOlquX+SSKpPN1E25Nt/54NYKkOtnPlaVztPhRTxJYDuVlD//AGL3XF+qhD5mT9HQx3jMEmIpGm3HVW4ow+Fh4eouOMWDJtf2Ve2W4oBSdkpmMy703anUFmVirDqOXQixB4giSWG13T04yOn6PCUxeSeHSc1px2iiaoljimJ7vOYYT0HEZKPSpIjtHtgUEIB750H5x1tPaSUkJJlDw6Pj8UqXOUksxG9UW2YjqbhR1YSOlbG5F19mGziKb4lx3qrWUnfkTcfNsx8Asv0b4LDCmiqqhQoACjcoAsAOgEcTy5z3ycvc4py3Ss8mVTt7hFdMOWYoorFSQL2NSlURSRxGbLcS22ld7ZUc6UaYFy9cED7FKpU/9Jphk1K18k8OrMyxmFem5RxrvBGqsp3Mp4g+moNiJxlx2TRpYlPdV1uV1RgSGS+8qw4aC4NwdNJxq9iK5cLSdXUnUv3WQfWNhZh4WPSejp9ZHJ+r4Y543F/BF9mthti6wUXCDWo/1V5D+I7h/ibPhcOtNFRFAVQAoHACM9ibIpYWkKdMdWY72bix/LhJOejFUc0nYQhCUIIQhAAhCEACEIQA51EBFjILbeDHu2DEW4ElVHmSQJYJxxFBKilXQMrCzKwBUjkQdDOXUaWGZc8P3LjNx6Mt2bj6KY40UrJUFamPgOYJWo5jkZlGUlkz6Xv3AOIvZ8s89puzbe7z4VBnplaiItlOZCGCqbbmtlPRjO+HKsAwBAYBgGBVgGFwGU6ggGxB3EGeNq8DjX61497rydWOafk5hY7w1S2+cwgG+DMJwco1I7tdsD9pT3lIfv0ByjQe8Ua5DfS/1SdxNtxMo+xtoX7jXBBIIIIII3gg7jcbpppxSU1Jc20vaxLW6KNZU9tts6szP7uqlY6h6aqrOwFhmDNlY/a16z0dPnVbZCjKUflDjDMCNZ7eoF4yp7H2+GGV+46izA3ChhoRfgbgix3cZ3xO1xbeOh01nobWuzRTjJWmTFbGWjSrtOwOsgX2nfj6yOxeLYkKvHS/8R3AfWPQawUW3QSnGKtht3aTVGyg8eYHqdB4maD7Oezr0qZrOMr1LaaEqik5Byub5v6eUpuxOy2KqVFdqRWmrKzmspQMA3eRVYXYso4C3emjY6piFPvFZlZjZU3qqjmp0J4eZnFrc8YJQTu+6MVNzulX2WhUA3RTIPCbaa4SqlmtfMo0813jyvJZK6sLqQeduHiOE4FKL6Zk4yj2dLys9qFd62HSm5p1EFWur5QyhlVaQVlO9W98wNtbA2Oksi6yHpbFq1cY+Ie6ooSlTXi6qGZm36AtUI11/djpOvTY5yb2q2l/YpUnyVzY+ErVsQ1qfu3BBrrrkRzqWRj8SP8AEtiTqQbWmj4agEUAeZO8z3SpqosoAHSe7z18Glhje6uWZzyuSrwj1CEJ1mQQhCABCEIAEIQgAQhCABCEIAJG2JwaPqw1G4jQxzCTKEZKpK0NNroh8Rs224X8DY/5jd1I3DLztv8AmdZYJ4amp3gGeXn/ABkZ843Xx4No5q7VlIwOGszX4sQb6k3N9Sd85Y7Yyam10O8Dep5iWupsdCSVJBJvzF/P84Ps5uBB9J5svx2og7q/pnR68WYp2uoPhq2dMpSulnBUMrVFGVjY7jlysCDcHNKjVx1VibMF5KFXw32ufnxm1dr+yFbEUXWkLNoyi4yl1OhGuhIuD0MzbB9kdpIxZsFVzKCFsoPebS4INtBfXrPa0jk8f7qmuOTizcSuPNkXSV1UZgWdjlRF3sx0UH/EvvYvsq+HxFKtiLNUuSOKrnUr3eGmbhJPsL2GqUycRiR+9N1Rbf6aHfv3Mee+3K5l6fA6ABb5dRcjQ85yazLlf6YouvNLv4NsfHM3b/o5sczdFjbEIGcDgJI0MEwGpA9Z7pbPUEkkknynnx/H559qr9y/VjHz0QWGohqzNbQd0eQ1kgNkktmGnXUH0krRwyL8IAnad2H8RFc5XfwiJahvo40KAUbyTzO+d4QnsQxxgqiqRg232LCEJYghCEACEIQAIQhAAhCEACEIQAIQhABIQhABYQhABIRYQASEIQAIQhJXYwhFhKEJFhCACQhCACwhCABCEIAEIQgAQhCAH//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYVFRgVFRUZGBgZGhgYGBgYGBgYGBoaGBgZGRgYGBocIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHzQrJCs0NDQ0NDQ0NDQ0NDQ2NDQ0NDE0NDQ0NDQ0NDQ0NDQ0NDQ0NDY0NDQ0PzQ0NDQ0NDQ0NP/AABEIARMAtwMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAECAwQGB//EAD0QAAIBAgQDBQYEBQMEAwAAAAECAAMRBBIhMQVBUQYiYXGREzKBobHBFFLR8BVCcpLhI2LxorLC0gcWM//EABoBAAIDAQEAAAAAAAAAAAAAAAAEAQMFAgb/xAApEQADAAICAgIBAwQDAAAAAAAAAQIDEQQhEjFBUSIUYXEFFTKRE4Gx/9oADAMBAAIRAxEAPwDklAvL3K25SoJJZZ6vxRgpsgw0gysLGFshg3EU++Jn86ek19jnFrtpmnDpYTVSIG8VCnpLRQ8I7jSUJC1b8myioddJmxG03tRmbFYc5ZXyJVY2icLc2mD8NqYSUTFgaesIZJRwesZZyn+ZYzi0pIkihiCmONdC+3szVnkkFo1ZNRJ5DaZ3GnWWkOZ3vHJZTe28hUe5iRDEyGaDS2Kd6KHqWj4WqhPetM+MBEHvUtMTlvxy7Rq8efLH2ei8Hr4cakL8oeTi9BdiPlPGlrHlJGuRzPqZM5OvRFLT0es4rtFQ2us5HjfFUfRLfCci1QmRFTWcZMr0dRKb7CtJopjo1LmKMYeRXgVZME+R0K1gdZdT70wUPdl6ORsZrzup2Zzeq0Xu9jaDcdoc01sx5zLjkzLKOTG8bLcFao04LHKRaavxAnO8OokNrC5kcancJsMy8aaRuZ9LzNVe4kQT1kTLqnaaOFXezHTq5Gm5a9xeCsXROab8MlliXFbVVP0MZ1uVX2a6RvIu9jGXSQcR3T2LfBTiG5xqWKG0euukw4VO9EG3GfS+RpLyxbfwF1qS4qLXmSSzTQ8RTyK66ZhOfxqWNp0d4Fxyd8ecQ5uJNKhvi5Gm0X4DBAjWbk4Wp3lmESywggl0Y5ULopd06fYIfhyg2grH4TLrOnqrBXFU7srz4pcPo7w21a7BeBW5jyXCl3jyjj4k8aLs2TVsP0KQK7zSmF8YKwrteFEc9ZoYsnlKaFLjxrTHbCjrKsRRFpsqjS/OZKtyJFt1LCUlSMWEpgHWEVw4POAKtYq1oSw1Zrbxfh37lfBfyZ01T+QkcGLbys4cCKnVJ3Moq1DfQxzbF9rRmxNIl1Ci5JAAG5J0AE9A4V2MSnkbFMGDNkZUawRmGmdhvrcG1gOpnE8PxKpXpVHAKpURmB1GUOC2/heeq8UxDpQqKSr1GYGkmylcwK33yqwBFtba+MxuTkrHbUvWzQxTNwm+9CxnYTCkEopTTQZ3I87kn7zm+KdkqdMqqCvUL7mmqsiXNgGNgbeJtOgwfEqWJxD0HrEVFUOEUjS99BcWJAsbb2N5XiMVVp1QlOsgVwG/1XRWU+7kVVXvC635HUiK/qssrfkxmeNFPWkcnx7sdWoIXFqiKLsy7r/Uu9h1FxONwqgMb9Z73hcQxXN3Sx0NjdXFvetbQzy/j3YvEiu7YbDsaRa6AMl1B1y2LA2BvbwtLY5TqlV+0V3xvFOZAy0gZaMKJoHZzGLo2HcHxAt63sJrw3AcSQe4o86lP/2mx+oxpbdL/ZnLDe9af+gT+HEC8RQBxOl4jwuvSGZ0AXqHRt/BWM5fioN7yvNc3i8pe/4Jxy5vTWg1hlBUTbSojrAXDSSN4TRzfeW468oTOLXjTRpq0B1g7itIZJtqvfnB+PQlJNrcMiXqkDeCga38YpiwrkMRHiGPN4zoayRuthvCLrNqyOEKgm82rk8I1xdLHoqz91spymNlm3MplZZRLyo5/FURnmlEsJHH+8CJeMUoUdbj9ftEsVLFdUxjKncykWUaJIvy68pdUwotcMT17tvvN/Z+iuJfKWNgQMqjwJuTqQNCNtyJg7TK+HqumuQNlRtLHS9rjn+kVvn3V6T0WzxEp2+zC6Ag84fw3HXeiFL5aqgIHZS/cGl1A/nA01058yJyGFqkuNQATY5iANfEzt+yvZ9md2qrelSNibd13OyDra9z8Os5upzNVZ3jTxrSOfOOpApSpB0dXLiszqrGoQe+51vc2F7ra99AJ0C8Uq1E9hjKLgBrpWZXWz6kq7Dud4k2YCx0G4Bg/tH2ZFJva0rmmT3l3KX0GvNeWuom7h3FD7MU6rFqaqxK8yFGYKTztbnElFU3OvSb/wChttLVJ+3oK8BxorF6QZ/9JVLMRmHfUsiqQQWNhr/UJrx/EEolA9Q5XLBSC4HdtfMLmw1E5el2wpNemlJqefTOCgN8tluAPIb6fCAsVVGYGGLjq5db9NHWXI8dJa9o9ISsjjN7RCOocH1JMF4viuFQ5URqh6oxC/3X1+F5ydHEIRNdN18JoYv6Vi/yqm19CeTn3rxlJD8S4h7XQIEH9TsfiSbfKCcbhrjaFqlhymfE1BaaDxRGJzC0hJXVWqp7ZjwFGyzSFMhg8Wo0hOnVTeTx6Xgkgyp+TMRQ9JF6RIhY1FPSUvVW0sb2tFejmfwgzGPNeJazXimZ1LaH0trYMxdQq024VyRcmQ4hhTm0mqhQssY4s1OVp+ijO5cJr2TpPbePVqXjphyeUd8ORNHrYl3oyYhbrBFe+RiORB+33h96GkHYjCsabgc7E+QIJ/X4TM5kN1tfTHePS8dP7Rm4Hxo4dmYZ8xtqjZTbXukHQjW824rEVMSQAhRASQGNzcixdjYXPLawG0F4fEUkOVVzNsS2wPlLald3OQ7GwCrtc8rDc+Gsxa8Zrb9mjM1S0ukXY72KIQWLMdO7qAfE7Cd92IxdZaZw7KTTZKeIV+lQjJVQm+veGbTa/iJxC8ERVJxLFDbSmlvaty1B7tIf1a/7TO97E4dHpUq4qZndXXINqNMN/wDmbm7MWVXzHqTaxlmOvKgrH4oPUgDmR1urAhgehFiD5icP2p4eMMSgbNmRjbmBqoJ/q6efK09E9jfbfl+h8ZwfbjCk1xe9nCD4KDm8vd/6o7DUbp/TKaXlqV9o4zh474vNmNS4mXCjviGMRh9JHDXnitBy/wAcksH4JIRpmxvK8NRsJppUrzV486xpMz8r3b0J6l+Uz1TcTe+FMofDW3ljSctFfe9gKkhzwwr2FpQuG715palF+LDlPf2W8ivLWiaVTFmkkw5O0f8ADGMvRUC+IRTVjMNyimXmwN22OY8qU6NT0wRcyjNaOLxAXmqloRb2ZX4qENiJoXGZxcTn+MUyGHnC3DUOSLxkdZHL+C2p1Ca+TbSN947rbaVqZK8uaW9lafQKPAkeqDdwXZQoUqBnJtuQfM6c5Y+IqI2WiFBuyEoO+SN1Le9trbQEWMNcPRmrUgoufaIelrHU35WFzeF+M4QVapR6d0CFWbNlV6hdTmve4yhLanQuRrrMPmcdK9Sv3NXjZ257OJyouRq2dzkYLSpkAuxdxbPYhdTbQE+E7Ls3wOtSzB2VA9IhUp5v9Is4JuxN2chFu+/ctewEu4VwRKZVkCXzHIe82VnAUhS3M2AsOk7bD8DdiGZggsu2p/wfjKJhT3RfVOjmezIxFCq1Gs5qBrsjkkghcuhzEkMCxuOmtzaD/wD5NxiGrSVbArTLsOhdrW+GT5wtx3iYRmCsO4xANhmOU2ufn6zzjjeIerUNR8xJ0JPy/wCJXkyS1qdlsYmmqZjwh76+Y+t4YLkmC8AnfGnX6QgQek1f6TP4N/uZ39Tr80v2NDsLaSCVSusjaLKTNXWkZreymrxsg5ZeuKLi85zHIQ484dwiHIIrit1kcv4GLlKE/s1Un6x3eQVDJGnGtLZRt6IVMUUF5kpcVZjaXYyiShgjAKQ9opyLc3KXyX4pVJ7+A6XJ3ikyhsNIo4vQu/Z0g4ehG0h/DUHKaEMcmcdnW0cV2qwoQqRteEOBU1dAI/a2jmS/SYOx7E3imvHPr7Rf/lj39HVpw5Bykzw1Ogk76yd420yjaNHBsKiVUbTTMB5lSB9TDWF4clIFUHvM7sSbks7FmJPiSZz9N8rBuhB9DedQjhgGGzAEeRmZzty1Q9xNUnJkBX2yjopIFhYE3BPvXvbTQczr0PUsX18z58gPICAUpt7ZntZcgUG+53vbpr8psVwDqZlrI3vf2aVyutfR5LxTHVGqONu+/n7xhDhXZepWs9Vii353LnQHQHQCx3hbjHDkouKlOl7TO9R3LKX965C5baL3jrvoNYf4WjijTz+9YE6WsDewtysCB8JTiSq2qGMm5xKk/fX7l2E7M0Gwz0UQK+jq51cuL2zN03FtrMdJyqYBVuGFiCQQdwRoRO64dVyuB10gvtbgcriso7r6N4MBv8R9DNrh2ovw+H6/kxeXLa8vk59cEh5CTGBQchHQyYM1HsR2jkO0/DgpDgbGb+CIrrNfaCjmQ+UHdlwcusV145lr5Rcu8f8AB0NPCIOQlhwadBKwdZbeMtMpVFGKwaFCABOGqJkrGd8x0nG8bo2cG3O0V5U/in9MvwVt6+zpuHUlZQbcopPh4sgjRmN+KKmls2LT8ZIUvGVK5J3lmc9ZLTK0Q4pg1ZD5QZ2Y4eNbDnCVZiVIvBvDOKCg5VtjFcqc0q3+wxjflLkOYjBFd5UqjrJYnintFusxU2PWMwqc7YvWk9G+lRBOpmzC49aJyObIx0J/lJ5HoPGCc56yjGrddZTnw/8AJLTLsOTwpNHZtpElO4v5fUznezXGw59i/LRG+in7Tp2NgB4j6iefuHD0zZm1S2jGUufjLKu9ulv1l9Ndcx5fUyAT5n9/WTL0SyNLQg+I+8J4rDCvSZD/ADC48GGoPrMOW3y/fzhHAtpLU3vaKrlNaZwy4axsdxpJpQE3dpMKUr3HuuMw89mHrr8YNZvGbmO3cKk/ZkVHjTT+C/G4ZChgrs/gQQR4kTW9yCLwVh+JGg+XrKsm5aeyzH+UtBvE4TKZUoBlGIxhfXaVU3tGpmvHsXethGki84J45hUYqR1H1mnPKcaO7eVZsbcstxVqkHcJw4GmPhFAvDuOvYje2kUpira3LO7nTLAjDcSesu4viV/ltMFKuecdndT5aFuk9GpaZaAuMcJbOGF94XGJI2kqlfMATyi/Jx04L8FJURw+CYINJEU2ENYbiCZNxBFbEXY22neGqpa10V5FquxBTLjhSy2lYqSdLFEGWUm10czpMwYHhrI7HxuJ3GFdnRS3vG49CQD94Ew2KRWOa2sN4TFK4IVluOVxt1mPyJ8setemaWKvHJ76aLXNtP3eIn6fX/EfJ4i/KQFM8yPnEUh3ZJeQ6n9/SEsEl9pgo0hfmYew9MBb8p2/xRw+2YOM8MSqgzMVKm4I1Nja4tzvb1tBWN7PKKZNMEMozd5rlgBqDyv5To6tPMQSbAbdfMX5yTU7DTaTjzXGkmV3imtto82p0yecF8T4Pd1YdYTxF6bsv5WZfMA2Bk3r6Bjymtn24VfHRn4eqaMp4ewUWlC4cws3E1K2EHrVJjOO7qdlFylRBaDTWuAzLYmVGpLaFdr2k5PJyTGlSB2F4TYtbrFCK4wU2ObnGiOG9TocyRutgf2bBRoYkB6H0nQDEqVvb5SoY1Onyj853r0Z7l7A636H0lxpMVPdPpCf4xByPpJjHr0PpObyOlrRM7TOawFF8zXVt+k1sjX90+kNYfEqxsAZXi8WqHUH5TjBfivFdneVuntrQMCP+U+kmiN+U+k1LxNeStH/AImo/lMteSvorSMXEcM5GimHezPCmQCq+hIIVTvr/MYPbio/KZ1lCsXGdbZMotrrf7W2mZyPKN6+fZoYGr1v4LssiwkHqnluefQSoEmIJ/SHtGhalthLRjySFGw08CeZ8plc6fvaVoOfX6cv3+xbpP2chzB4ks1uWtjzJHPyhC0EcNXvDyP7tyEMGL2kq6Ol6PMuLYdhXq6E99jfrdiR9ZmrUXyGym8NdqKpp4htL5grD4ix+YME/wAQP5TNuG7wra60ZDbjK9fYNwmDcDVZeuHf8sJYfEZhe0z1ceVNsstw01KU9nGXbptlS0H/ACy2jh3vtEuNb8sdce35Z23b+DhdGbifD3YiwHrFNNXiDDdfnFMy4xqu2aE3bXoG4DEsy2O00LDGD7NhBbWXjs+PGNYuXiUJNlOTj26bSAmaSSHF4GJdT4GvjOny8P2QuPk36OOxNdkfum15GrVLWLGdbiuzyOQfvG/+upa0X43LxxVeT6+C7NgqktI5NXks06peziDl84zdnk6fONf3DCUfpMhyx2nQcGxaJhleq+Vc7AFjZRc2A8dQTr1m1eCJa1pm4lwTNRFJGtlbPyIJvcX62+HmNwhzOVGSdR7GuLgqK3QVSorKGUghtQRqCPAyJP6THwzDulMI5BIJtYW0JvryvcnbqN9zodpn+XQ949jO99OpE2Ut9Bc/T9JhRMxHW9xDpwmVV8d/PxkzkZFSNQq5dc2u2igAeeY3m+hjAw10I310+Bgll/f784kWxFtCAx+RkU2+2QloEduFtURuqEf2tf8A8pzdJp2OOwwqhc2uUG1/91iR6gzMvCEGwE08HLxxhUP2IZePdZHS9HFq7hyASBLydZ1q8JS98o9I7cJQ/wAo9Icfm44TT+yc3Gq3tHLK8kHE6gcJToI68JQchLv7hiKf0lnL4he7GnVvw1LWtFM3Nmi7bH8WOplIJAR7SN4rxMuHIjyN414ATMa0jePeACtGtHvGvABWlFXeaLzHW0nUklVRrTO0TvIBrwbJQQ4XSuwv1nSVbEEeY+MC8MQi2W17X1hN3fkoPxH3giH2YG5+Gnx0Eiq/9tvURYhjc3Tx2P2MpLX5Eev3nTZCRO0VoyxSskcCOBFGJkASikbxXkgOY8aKBA8QjR4AMY8jeK8AHvHjRQAUa8aNAkleZ8a4CFrXt+/SXiU42r3mDKDe6kcu74bfGTtfJKTOdq8RUX1BsbfrLcNxBXF7MT0VSxPkFF5Y+Eomx9im55ac+W3/ADLVe2igKL2sBaDqfgFNBvDVQo2zAi3+Yz1h+QjyZt5XwumXXXz+Y/WW1KRFr9T8pHYemUM4JOp8dY6kdTHKfW8gqfUmHYdFyx7xrRQIHvFeNFAgeKNHBgBKKNeNAB7xoo9oEjR7R4oANaK0eKAEYpKNaADZ7a9NfSYKx+5PxE3uNDbpzgutU+l5zT0dSig/y/H7xl+4mariCOh8wDGo1yd/ty8pWqRY0zqeBLo/QWA+f+IQxCi3kNPjM3Bh/p36n7S+s2/mB8oxPopfsHsLW8ryocvKasZ7zdAAJl5+kGBOIxRTkBRCK0UAHtGj3jQAcRoooEEgYryAMeBI8QjXj3gAo940UCRGKKISAGdtD5QNi20c9AB8/wDEMVTp5wJjD3T/ALnA/frOaO5KKnvHwAH0/SV0BcqPBvp/iRrPq58T9DLMObG9r2UWHUl7ATjR0dtw9LU1H76R3W/937+sWGJSktxchQT57n4XlCcZok2FRNNSL2tb6fGXy+lsq8W9tIWJXuOerD6zCNzCFepnQ2Fu8ot6TCiHe0miEIR44Q9I/sj0nIEYo/sz0jimYaAjHk/ZmOKLdIaArilv4dukUnQG3+HCMOHwhFJ0QYPwAjjAjpN0UkDIuDXpH/CL0mmNeAGY4RekicIOk2RodABOKIEX5k+dxpOI45xFqZRUyajOM5PvZhcb8rgzse013S6MvczBhpe9wOfIazheJ4cuil7NbMNiWOzXP92+/XlF6pb6Lo69mTBcVd2dGQDuFyyknW+UAgr4H0M7Ds7TzVBcchb+xjf1i7OdkqX4Ye0TI7nOGUBXC2AUMba6a2PWdJw/hSUASuZ2sBdiC1ug2Anan0zmqXei3iCH2ThRrkIA21toL+c5g1TVbKcO6klRnIQqtmJzElQVsCdgNhsYe4jxFUW9RSBY6X948lA3PXa05ql2lpFgCiAXtdRlbewsVPW/pKs3JnHSl/8Ah1j2k2kdVUWyqLWGdbD/AGgC30l2Gpgop8B9Jiw2PVgAFOUsAWJFr2uR5iwPxhLCgBEAOmUW8rRmXvsp1of2QjikI7HpFmkgRNERvZCWZvGRLjrACHshJBBE1QDciVnEL+YQdInTLbRSn8Qv5hFI85+w0znxxiodDcX5gj9dIqnFXAJzE6jbp1mDOAALXkfaCZ/m/s6CP8VcbMx+kS8VfYsb+H1OvlBhqeEZn00HnJ839kbC6cWcjV7ev1kG4k99z/dz/f1mC4ttEtQflkeb+2Sb14gx3Y9Dcm/W+8ieKPc6sByvf5zF7S2oEQq76Q8v3DZoOMzakbi97G9+X/MVLFHrp4g39TM61fhGeuSLXE56J8n9m5cax35bR24ibjXw/QwYa73A0tLFJvc2k+QbZrfGEsDbw10v05SQxWvugWF/heY3fTT5yGduZkdB5MIfjGAygem3K3wjHGmw038Tp5TEpbcGM7HrJDbN9LFkcrdN/jGOMPQ/DpeYw7XNjvvEwPJpAbZqGKPQ+pkjiTvYep+cx97rGuwGph0G2bmxRtsPnf8AxGbFNfb5nXpMIfTeMXPWAeTCK1zvl9ST94oO9sesUjonyZUDHvFFIKxCNfWPFAGJTIFtYooHI5MYOesaKAMkx0ld4ooASBjsY0UCSJc9ZN9oooAQDnrJRRQQE1jZoopJI14zmKKAMheJ4opDAYRRRQJP/9k=</t>
         </is>
       </c>
     </row>
@@ -1774,25 +1774,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mitchell Starc</t>
+          <t>Mushfiqur Rahim</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>59.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1801,97 +1801,97 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>71.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="M11" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>63.3</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="AE11" t="n">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="AF11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>WK Keeper - Batter</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSERUSExIWExUVFRYWGRgYFxgdFRgYFxgYGx0YFRUaHiggGx8lGxgYITEhJyk3Li4uFx8zODMvNyotLisBCgoKDg0OGxAQGy0lICUtLS0tNS8tLS0vMDAtKy0tNS0tLS0tLy0tLysvLS0tLS8tLS0tLy0tLy4tLS8tLS0tLf/AABEIAOAA4AMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABgcDBAUIAgH/xABDEAABAwIDBQUEBggGAgMAAAABAAIRAyEEEjEFBkFRYQcTInGBIzKRoRRCUmKx8CRyc4KSwdHhU4OissLxM1QWF0P/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQBAgUGB//EADIRAAIBAwEEBwgDAQEAAAAAAAABAgMRITEEEkFhBSJRcYGR8BMyQqGxwdHhFCPxYgb/2gAMAwEAAhEDEQA/ALxREQBERAEREAREQBERAERcfb+8mFwTA/E1m0wZyi5e6PsMEud6DigOwiqPHduVAOIo4SrUjQvc1k+gDiFo/wD3fVmfoIyjX2hmelli5mzLqRVXs/tnoVHNb9Gqgn6pLQZ5MMw49DBPCTZT/YW3aGMp95RfmFpabPaTwc03CyYOqiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiA4G+W8tLZ2FdXqeI+7TZMGo86NB4cyeABK83bb2xWxtd1bEPDqjuF8jBwYxp0aBw4mSbklTTtz2uauOZhh7uHaARN3VKwa826MDL9XLlbsbluqtD3H3hI8vVR1JqKyTUqbk7IiMht3RpMcfh+dVr/Ti6WQBMj/r1hWRiOzd50dPnPP1XV2N2esps9oAXai2hUP8AIhYm/jTbKjxLO8MGWPEWP9NQt/dvebE7PxDKrCZYXAsJs4OiWu6GAfMT1Vn7V3ToOEPbPXiPLiFU28uF7msWhxe0aGDPrI9PRbUqynhGtag6auz1lsXadPFUKeIpGWVWhw5idQRwIMg9Qt9VB2F72U30jgHDJUbmqMvZ4Jlwa36pGsD7x6K31YKoREQBERAEREAREQBERAEREAREQBERAEREAREQHnbtDcHbdxFNwHifRb5A0aUzy8M/FWhsKgGsAA0soP2lYNjts0atOSS5lOrawfTAdMg8WQL8uq2aW+lVmbucNnY0kFznNaCRrBcQFSrx35K3rJfoPci76/ospq/HgclF92N7TiXd3UoOovuQDBaQOThZfW8+9D8N4adA1XRJEwB5lRbubEnM2tpU5BPRVtv/AIVhpCYBBifjN/zou43fmq5pc/CgMuDle1zh6NJ+fyXB3ucK2D7xhkZg4HmJ0+CxCDhNNm85qdNpEe7NvDtXBmmZPfwI4tLSHSOjSfgvU6879ieBYMf3z2Ehs06ZEQKjmw5xH6tv8zovRC6SaZy5RatfiERFk1CIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgKn7SMGGY2k8NHic2oTx0FK3P3gt3/AOPUatMnuwc7A03IIGvhI92/KCpHvpsR+IZNNmd+UgXAIOoIkgcSuLu5iZp/n86qjWvGR1KMlOK7l+D6wmAZRdShsFuVo55QCLnUm9yTJhamNw3e1nHKHFrmkT93lNlt4nHs78Nc4MtIzcYBNuq5R2qxuIIa9riHX5RzKgbepZjFJH23dqiCancNYcxcXTLySSbXtcmw5qLb1WpVKbRqIi0XtbgrAxGMD6ZBEH86FQHblX2rOUsP+qf7rZO8iOaSja1iS7nbGGEfQoB2Z2Zrn/rEy6/IgTB5K1FH9lbDLKgqvLZaDAE6u1LiR5/FSBXaMZJNy1Zz9pqRk0o6JWCIimKwREQBERAEREAREQBERAEREAREQBERAEREAVQbTxFTCvxFBvvg+Ho1z5B/hcPirfUF7SdilzBjabS51Ee0aPr0hcnzbc9RPIKKrDeRNQqbkivzsaviahbiG3sWlz2hvDQk6f0TE7nOpjMa7JNoa4ukTazWQIB4FSvEY/NTFSi5ptJb8dOS08LiK7iG1CwRcmLzxEcLKnvOx1dyPr19jkbKp18NIquzNcAcpNx4gRf4ytXGjvMVRY3i9o09D+P4LY29twMq5TBa0Zupgxp5gAeq1tmYd9NrcS8e0cWuA+yAQQPMmJ/smnWZC1vdWPAv1Fgw1cVGNe27XtDh5ESFnXROUEREAREQBERAEREAREQBERAEREAREQBERAEREARFr47F06NN1Wq9tOmwZnOcYaAOJKApPerC1NmY2p3bS7DuPeU2ge6CJyRyDs0dI5SuLid6CQMoeXG0BpnW/wDT90KW4ne2ltOu91FhFOkRTa52tQXOeOAJmBrzg2G3h9kU2mcgnyVCtUUZtWOlRpylTWSJ7sbtPqluIxeojJTmwjQu5mylO0qEwOGvwXSeAwFziA0CSToAFVe9m9bsWTSpSyhcHg6r1dyb93jx5CKMZ15esE8p09nj6uyRYntLxGHY3D4R1J7WEgvcxzgBMhrXZgDF+HK9l1OyzezEVtoVGYms6ocQwxJ8LX05cAxgs0ZC/TWBMqqWNgawt/Ym2hhMTQr+J3d1GOLWxmLJ8WsC7cwHOV1Ix3YpHInLek32nqxFzdhbaoYyi2vh6gqU3cRqDxa4atI5FdJDUIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIotvzvpQ2ZSD6gNSo+e7pN950akk+60SJPXQoCTPeACSYAuSdAPNUf2tbbq7TrU8Bs+cRSZ46rqd6ZqEkNDqnu5WgE6wSeiklHZ2I2tSbWx730qLwHMwlIlrQ06Gs73nuIgxaOh0kmzNk0qDBTo0202DgBqeZPE9SvP7d0/So3hQW/JeEfPj2YxzJ6dBvMsIqXcbZf0evWw+YPc2A5490vZ7wb0a6Wzx6KY4vaDaIdUquysa0a6lxmGtA1NtFt7sbnPwmeajaxe5zzUIynxuJILZPHreVuVdx6VWuK2IqOrNbpSgNpg8yBc6aTfjayz/MoSzKe9hZSy3bsxa/O1uxFyNVU6aS1+hXVZ20NrEsoU3U8PMG8A/tKuh/UbPqtraHZVWp0QadZtSqAS4GzfJrtSRzOvRXEA1oDWgAAQAAAABwAWJ2oXM2rputCSVC0Unpr53152t9LQbm+7zyeZd5dm4jB5G1qZY6oCRMECCAYA43GvMLhUpMzrY31JEq3u3Nud2FEgBoruJP+UL+ZB+Cq3CYBzna2jlEjyXqOj9ontGzRqzVm76aYbXPgVaiUZNHb3L3or7OrCrRMsMZ6ZJyPbyI4OF4dwk8JB9I7sbx0MfRFai7kHNPvMdycPwPFeYX7PLV0N3Nv4jZ9YVqBvo5rpyPb9lwB/6Vxo1PVCKvtw+0qnj6ncVaYoVolsOzMqRqASAQ6Lxy4qwVqAiIgCIiAIiIAiIgCIiAIiIAiIgC8/CidubcqveZw1Ajy7phORn+Y7M49C7krq3txZo4DFVW+8zD1nD9YMdHzhVl2T0O4wFSsBJr4hwbb6rIp3dIAu18EnVwVDpHaJUaD3Pek91cr6vwSZvBXeSSYvGYmtiKTKDmNw8zmbLnODHeLxRlAIAiCbEkg8JWGqN7t7Jp0azn02k5wZe4lzmjwgUxUdcNhosLkiTJuZMvJ7RGCajFKyXZnx1+r7SxFs/QFytqbbbTd3LAalYtnK1rnBjft1SLNaOUyeC6Nd0NJvoTYSfQQbrgNpU8laO9zViC5z2+KR9V0EWtoAIkjkBY2Sjv5tdeteSWedjO5OS6qPrHY2qHlufIeEBha3QeIkH7QvNzFrrs0bwZBkAyDI0vBGq49LZNE0Po9N4fnOZxzw9vinwMmWtB4ehkkldnBYNlKm1lP3WWuSTfmTfVY22jSlFKKtZtrCXV+Wl8a4WTSO9Fve7CnO14h2PDSfDSoszDhq9wnzzT+6ophacCT77jJ6cm+gXa3+xgqY7Ev1Aq5PPumhkermx+8uMHZWk6kCfM/wByvX7JD2dCEexIryd2zcoUswJPMhaeMw4XVwbMrADcjU8zxPxlau0GXHWQpzU5WHzMeHsJa5pBBBgggyCDzBuOq9GbibfOOwbKro7xpLKkaZ28Y4Zmlro+9C86usVbHYe4/pTZ8MUSB19pf4R8AjMlrIiLUBERAEREAREQBERAEREAREQEe7QWk7Lx0f8Aq1z8Kbj/ACXA3R2EG4LCNdYtoUyRAPjeM7vekDxONwJtqpxjcMKtN9J3u1GOYfJwIPyKi+1dpfRW0mtbmnPP3WUqL3kjrLWtA+/0XD6alP8ArjDi5fJfhktJLLZ2aFANnLxMm5JnzKyOUUG28U+saVIUT3c94XB4EEVaYcL6CvRqTr4SwayVr7L3hxTmU6lcUAKrMPUGQPGVlXM45w4692x/qFwp0J7t8X71clUlcmoC+44KJ1t5alKmC6k1z/0anlBI9vVGeo2bw1rCwjzhSwKWNPdSb4/hflGG7muzCMY/O1gBIykjWLa89BdZCQDPLVZiVxt5Mb3OFrVtTTo1D5lrSW/EwtNob1WW9L9v++abXZbZScnlnnzH1zUqFx1e8uPqS78Qvqo67RzI+V/5LlHGXY0XAm/Q6T8SPRfr8TdzvsiB5usP5le6sUzuUsYDHV0D5n8B81kxtQHKfvBcFryC0cm5j+9p8h810gCaQJ4un0A/usAYhnH0/PzVjdhlf22Jp82U3D91zgf9wVd1TYjmB8VYHYdhz9JxFTg2k1v8bp/BiMyXIiItQEREAREQBERAEREAREQBERAYMXXFOm950a1zvgJUA3iFfv21RTfUpM7vwU6RdUJZUplxBmIc2q9sfccZtbv9omP7nAvI1fUoUh/mVWNP+klZ6NWY8z+K8109tPsKlJ2viS83EsUY7yfh9yEdziGuqE0Kgq4fBYhrntY7LWNRlN7WsdfvHd8ax8OluJX3tllSmxg7uoabKdOlUa2m51Qt7gjwRxGZ3qItKn7NVrVjqfzr/Zcep0i11nFcf9789y7MEipXwQTFmrVxDH5WikcZTY4kuFTO7EsqNytiD7CjhgSTaSBxVjly1m8RrER6IXktkcFHU2zeiko2sn5J5/JlQMjqq5u3sH9Iw1agf/1puZPUix8wb+i3nDj9V3yXwymRM/nqFSnUqxeHnt56p+Kyv0yRRjY8u1qbmviI1kHmNfnHwX5h6clrTxJc7ybYfgfipF2i4PuMZiGAEe0NVh4e1GaB+84j0XBptOUxq+Gjy5r6bSqqrBVFpJJ+av8Ao5zVnYzYZuaX/bdb9Uf2XZxDI7tnOBYE3J5C510C18LSEgDRsD4a/wAlL90NjHEvrOY4NqMApscRPdkgFzgJ1gwDwuotq2mOz0nVlorfN2zy7cPuehtCLk7I0Kmwv0eu51KrSdSpte17yId4oylgENNjaSRx6yrsLq+PFDmyi74GoP5rib5Yujh8ONn4d/eHN3ld/AuBByiOMgE8soFzK6fYgf0nEDnRB+Dx/VQ7DKpKnKc72b6t7+7ZK9m21vWbtfF8W0Mztey9f4XIiIrhoEREAREQBERAEREAREQBERAR3fPdz6fRZTFU0nU6zKzTEtLmTAe2xIudDrB4QtajWIYxxb4jfL1PD4/kqVqFGiRWdSc7wXqa6CSCJOk/10N15z/0NBTjSm+Dfla/2LOzytvevWpnZnqSYDwObop9REOmOfO08vqjVyjIRkPL6h/Zn+XTS+ZYhjWucacREwCOAygQB6+QPBfv0iafiaIGh4+EWkC026dBFzxG2o2lHD1XJ6Pv44S5SWpJq8HXaYqN6yPz81rfSQyo5jRmJsdA1pNwHONgfuiXReFhxtezRckETlMHKbA5hpmmLX96D4SRj2lhSMjwB4fqQAyCW2HrAM+eovNT2X2cN+qruMrxSxdNZd9WnZ6WbSbukrvR1LtKPFfc/ab3uJZLi03HdtAHl3jic3oGlbuDpOaDm6XzPcT55iY9F91HB7G1G3kBw8jdZW1AWg81DPaPepJKKtdWWqvpfXD0/ZlR+K9ype2jADOyrHv0i2eGak6RPmHx6Kt9mi+Y3gWnm7+0K7u1fBd5gc/+G8H91wLSPiW/BU1stns25RJNoGpOggL1fQ1Xf2SP/Lcfnf6NEFVdY38LYkxOUfn5rX2fjajS/JVezMfFlJAdc2cJgiSdVKdn7lYxzYJpUgdSZc75QuxgezykweOvUcTrlDGj0lpPzV516fHJutlqPgV9izBEaf1mQp/2Hn9LrfsP+bVj2puHSiWV6gMcQxw9RAPzXY7IdjvoYnEl0Ob3bGh4mCcxJB5Gwsto14TwtTFTZ6lNXawWqiItyEIiIAiIgCIiAIiIAiIgCIiAKFYyqPpD7i0CZESXgxbQ8upHEqaqC45v6TWAPEzOYG+SwIItfrwtxXF6cX9Ue/8Af2JqOr7jY7rwu8DczgDLmWAAAEttebRbTpf8qNg5iQPaZYm4LjOWIjledI9f3CMDWho0ytAgQPedYfnivvG8T+ofUd5f5fJeP9q3OUfD7eGGW93CZ+VmHugb+yJbe05SQHHyaC7104LoOYKlKLRUaWkj3rg3ngVhwkEu/a9f8Ic/XRajM1N7mss3M3N90Odllo56iNII+zfp77nJQfxw+7XyWmH52K6jh8mbOycV4chEubJyjkSZHQB2Zt/sL92fWNTMYDWhxbEy6RBDp4eXzWnXosw9XvGufLifADOc+RubnjpOoW9Tpvlr3ZaDLkMiajh+qNNb2kc1Xp7N7eD3Y3txeLJrN825XvayVuw33rMw7y4c1sFXYBLjRfA++BLbfrAKB9l2ApDCMrd23vHOqy4gFwAqPaGg8BAVmOs7odfP/r8FAd0Wd0KtAWFLFV2AcmmoXt/0vCudE7RaMqLebp+Sd/Pq+KsT0o3qX5P6omIaFq4gws1N61ca5dtvBZisnJ2lVsVIOzulGHe/7dV3waGj8ZUT2rWsVPt0MP3eCoDmzOf3yX/8lZ2RdZsr7c7QS5naREV85YREQBERAEREAREQBERAEREAUJ2kQMbUbm94T5OIZby/mQOSmVR4aCSYABJPQKp9nbSdWfVrEnxPe8C1g57IHpI/h6BcnpmKls1uaty4fcnoJ3bJFSqmQ0+E5gGyRbiQ69xYWHTSxWV8mIOafem06XAE5YgWN7cblc9tc1XNA95pDnAWLg0wYHqNdLdCui+mWhzieEjUXdPAmRJOkCNL6rx02k84k8W5/XLd9eepatmxvYOoAwucYEufe5gkhsAfdkR6LRZii09+XZmPaPZwLGwAnnNjeJPJZMFVaX9w5ji3LY/VNoJ8gIHm420SlRaHyLsw+nJ9UyAPQkzGkkcF0ZUN+UEsWsr4aUV1m/Prd2O0gi9TJVeMMHOIOfLnfUMEttOWmDYAT7xsJ5TGszaBY72kNDjJJMmWllnvJvIe2AOMtE2K+8VVDmZvecCQZEEvl9MZuQJcfRpABsFo0MIXBzXEHLTIkwGAEVWuHO9VuYk/ZBJmAIq+0b0r/AvdXLstpvLVt57LPXZLhxJHSqZ2iQRI0OoPLzBVfveaW0sZTIgP7mu08HTTFNxHk6m31cpxgg/IC4EHgSIniYm5vxiL2XH3swAeaVYCHNLmE8crxJH8TWH0WmyzdHa92Sa3saNYbTTV84dl3XfaT0nZqxmwlXMAVj2m6yw7IPgCybRPhXpOBcWpE9q1SQQLk2VyYaiGMawaNaG/AQqQFb24GsVWf7gr0V7ZFZMobe7uPiERFcOeEREAREQBERAEREAREQBERAR/frEmngK5Grmhn8bg0/IlVtu2BneJAOSRPu6izuQ68LKe9pp/QD+0p/7lW+znHM6A4eECRqJc2SOXhm65nSD6jVr446a+s8C7QX9T7yUYVrhVJJNKGhsywnNqbPDgbQZA48ZXSqva2C6rmI0lwj0YwC/XLYTdadJgysNQOLbGQ0lsgus4AE3aRYrMyrSDQ1uZ93Q3KSTmEQRHnrGq8vOKhO8YN4VnbNmrrOl9FlPN8cDLzqzfwmc5aDTDjmLnfZbmMuPXl6rZ2jDKQyWYyA0Rc5iGl5mBMExMACeBtrsPdNIcJc8jOGwTYS2k3gbCSOJte6/HOzllbVxcC1uawzUyQACYz5WtNiJ7wiYN7MIKNKVD4tZc3rud3bqlpmzI5PO95fn8GjQIBa4y0ue9uVpNnOFUAwLGqAyM1rO1gLpVqgpZTlzPd/46VoZH16kWsdBppx008BhnPc1zc0uEMa7QNyhoLm6CzMxPUAG1/vahZVDmtdkptim6r9ZxAc4+k3JHDQ8o6F1F1GleOI3z1r3dl8W7nXi1m+Vl/X6fsUsZFdhdLzUzNNQnwyI8NNvKTr5x0/d5a5a2nABzVRPkGuM/JYdj0XnKaly0lrJ1ptkCCI94gcbxbnPN3jcTiabZkDM6/DQAR5E69VFGHtNphJ5aeebV3y4eDeiRJRebI3dns8K+NruyMut7ANsAuPvHUzTGjQvQrCOhfNiO7sYTvcXRm+esHnqGEuj4NV3qquzykDi6dv8Ax0Xu9SA3/kVaq6Wze5fmcvbH10uxIIiKwVAiIgCIiA//2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUUFBgVFBUYGRgYGxoYGBgaGxoYGBgaGBkZGhoYGBgdIC0kGx0pIBgYJTclKS4wNDQ0GiM5PzkyPi0yNTIBCwsLEA8QHRISHjIpIykyMjIyODIyMjIyMjIyMjUyMjIyMjIyMjIyNTIyMjIyMjIyMjIyMjIyMjIyMjIyMjIyMv/AABEIARgAtAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAFAAMEBgcCAf/EAEQQAAIBAgQDBQQGCAUCBwAAAAECEQADBBIhMQVBUQYTImFxMoGRsUJSkqHB0hQVFiNTYtHwB4Ky4fEzoiRDVHJzdOL/xAAbAQACAwEBAQAAAAAAAAAAAAAAAwECBAUHBv/EAC8RAAICAQMDAwMCBgMAAAAAAAABAhEDEiFRBDFBExRhBSIycYEVI1Kh0fAzkbH/2gAMAwEAAhEDEQA/AMzwlwtdnqZq9YZ/B7qpfALGa5NaBh8P4avEtX2gdLZzExRe3chdqds2lG4pnG3ANqssk12EPQu5BxuI0oM+IM0/jHnnQ9TrTYZJP8ijUW7iP4m6StcYbPcVbZPgUyBA0Pi5xP0m+NOqmYU9YdV02qJUnZaNvYkJg8omo95stOXuIACJoNi8XOgrJk+6RthJRiEsNjgpqZc4kI5VU9d68N0jnTYTcVSESSbthm9isxpsPNDUvUSwJDGseXG7s63S9QmtL2O8O7K4ZdGBkHT8aMYUF2zNqSZJga/ClbwqkSBRDAWNRTcOOWkrnzQ1osXCrQjYUcXCoRsPhQvCW4FTFxWWt2NuK3OV1DUpbDWMwCbwKGHEJbOsVOxnEBG9UzjeKmYNXc1IXGLiF+JcatxAiq6HFxpqr38S2YiaP8BcHelwknLcmadbFgwuZFhWABMxA9OnlSohaAgUq1fyxVZCjdn7IQ1bkxAC1Jw/BAuwpYnh0A1hlHg1Qn4YDxXEiu1QjiHuAmDA3IBIE9TyqLxdSpNNcP4j3aOmUnOImYy6EbRrv5bUzHKK7mbNguVkhrYNMnDkVM4amdqs2H4UGExV5zTexEIOKKijQKHY2/0q7Y7hKgGqTxjClTptSpysZFA175rq1rvXljBXbgm3adwOao7D4qDXjq1s5XVlbfKwKt8DrSJDYtE1QIqJjUKnxKVkSJBGh2InlTRxGkU/xjiffFCFy5VyxmzT4i0zA61EVRaUrIavUjD4koZqAGp1TVyqddi38N4kCKs3C/FBrNMHiCjVeuB4rQa03HJJ7i8ltF7tRlqLiLDtqu0wT7wJjnuKhrjehqfhsWoQyCSeYAOmkbnyNP1LwZfuvcrXFcJfDQqzqwBkCcsmYJ0kKTrVdx2DxPO3uQPaXcsFHPqR8avONxlvUBW1LHZd2VxJM6+0KGnFW3cgyoDZ8zFFAh0Ybtr7PKkTjT2NUZ2qZmjocxncEg+7SivBpnSomIUZ3jYsT8SaN8JQADTekyvwNi4rdhdMUQIr2uMlKoqZHuIF5W55VE4liAFNThYoF2gUhTTWUj3KPxi+GuRTVu0KhuhNwk8jRNFJGgpSluPmrVkvhQAernYxQC1R8PauKZymif6WQIMimOVISo26JfF+JADeo+G4XbUC7fAYnVbZEgTsXHM/y7dfIbcQPcSSILLM7RImZolisQCSWuL13J+9QRSPUbM/XaoJKPkntjmIABAA9kACF9F2qTjGTFIVxNtHRRoTAK+a5QCD5yIqvW8daBzPcbKBMKhZ2IIGVVExz1PQ++JxHtDduA27dvurJOq5gLjjq5jX0qrruzP02LqHstl+hV8Rdw63GFq1nQEgNdZizDr4CoUdI186jYqwh8duQJ1QnMVno0DMv3jz3olxThyLLIQAoBC6ktJUGDtAzCm8LhZ5VZStWdNYpKVWBsleg0XxeGihDjWrp2Eo0OIdRVq4TdgCqrhh4hVnwFuKlvYiKtljs4gdaL2rwC1VO/g1KHEYWqwm7G5MUUrJ2OxUGgnEr8imcTi5O9MX1JFPdmZUDEaX1qz8NUQKquUq9GMLjcopmHT5KZU2tiyFaVA/1p50q06oGT0ZGwMygVVe0eJUgioOK7ShVOtU7H8Ze6dNq58nsdGMbZ47DMTVo4KiEDaqU4IFPYHjD26TD8jXlxuMEa0mCt5ZgVXOM2lBobb7XErvQvH8dNw+VNm9jLjW55iLgGo5aj3VNxVm3esqtpsrs5iFOcrDEBjy0Ka/Kq7jMVNdcK4u1vQrmDGN4ILazseYrPKMkrQ+XpyklJFm4GyLaVH3WVYdCCQRUi/wu0TnRQT0oLgcUAxzCCTJ/rRhcUMpCHU7VlbdmxVR1gEVy9trRylHUtoMqkEEgamNukaHSqfgb0AUeVWBLXAfCC2fOJ0U7KIMfy7dZoQeHKpyhyDykZgeniAEekGtEKUd2Zckv5iik234Xci4+9NBnGtWZ+z111DI9pp3AfKU83DgQPSffStdjMQ1sur2TDFcoffKFJIaMv0hoSKbGuROZuNuSarvaqgLwoKLqG5GTMM0gkR5gb1ZzdQ3G7uMknLG0eU0AxXDbllstxMpOoOhVh1Vhofw50Q4QfGBTkrEqSatBG5hmbUCh2KDLWgcP4eClV/tDhAgNW9NLcs8rexUkuGdaM2BmWgYOtFcJdgUWUaPMThBPnUW4kURv3QagYgzUxIY/wAJuWMh70pmzGMysxiBzUxvNKhncGlQSHX4HdO5qTgOzNznV2w9nNrRjCYRRSS6dMzrFdm3jShLdmbla/iMKsUPfACGb6onyqqVDp5nKOlmWt2Zuda9Xs1cHOtADrMaU1jsX3cIgM5c7NooAJI1bkIHpvUykktxKU29MFb7962Xlsor9mLgGZjlXqdB/vUjC8Nt21yg5s+YFjp7OwA5ag0es4W7iXi2ueDq7SLSag+/3/AiofGythsjuCVjLCwW8IjKg5QQNgI6UpzbMvWSioJRbcr3rsvi/ICRVYkNuCQfUVxfsBfYdh5T8q6vXkY55yk/WG8dYP40xcW4SBpDbMDI92lKcWnZv6fq45FGDTt7V8nAcsrySQCACT6T86sHC8JduouTKBuXDW3KgakMsyD5UGNldEEwPa6GOU8z/WjXEeErbKjU5lz6gAgyQRp6VdO1sYOsfpZmm7afdPsWVeydyCRfR9pD28kz/MpLD3UP4mjYcJbuKoMMxyEkSz5Z8WuyJQK1i7toju7rppoAxifNdiNtK84hx25iLatcILoxUkDKSGAIzRodUYaRQu4vLnllxOGttbbNhcXkuCGCOszkcSJ6+R8xrUrh/ZK1cTvrbtbYs4VCQ6MFCk5SYYe1zJ29YqK4n6S6yP7FX3hvF7a4H93cRitts/iIuC5dLKVNsjUDMkOv1W11pkZNC+jhob1PZJ+fIS4aihYDqffQntDwlrgMGgOGxx018polw7jDZMplzLBVJ85nNyUU1Zm9mVx9U0/vX/RXv2XfrUmz2ccDerrgstzSY8ObTXy+dd4V0Y7ijUdJNSVoph7Nv1NNnsy5O5rUMPhVIp44FatqaCkZvb7LmK8rTP0VaVVtk0VwEIsdKewOMB51WL/EmcabVP4AOtQTQfxOLEamKiJczbHeo3GPZoPgcRcU6KzAdAT7h50BOSjG2T+IYcIj3BJKqSACATA1I9N/dUbs4lrFIpuM37klO6DeEyWdXPPZyvL2I20qJxLjCK6vcW6mQgrbOQZo3lc0mZImBoaqNjibJmW2ciuuQwfF1DM3WdPIMaTN32MDl6kr3rt+xpPGu1VnDr3dnKzLIyqBkQ/zREn+Ue+Kz7G4pLrtcuF3dvaYgaxoAADoBsByoYrnbbU0U4fwtrjKrHIG9naWnmdfCNarsu5f05ZHpgnRGBtnQIT8KdVAsZREzrJ02289TUjE4MWmK7xEkTGsxJ/yn4Uw16FB+sSFHLKNJ95+VS0JueKe2zXyO4a0F9kzG4306j+lTVuM20kgesUOa6QQdJ/v7qIcLugXM2UMIMoSASDoQJImP6daiTpFMUFPItW/7jXErD5MzqF105Ekc4Oo5/f0oLnktyzACeU5lI+R+Aqyccx6MoUWzbUEsFYhnZiI06JzM/8AALBOMwUqGDEDzgkbdDzB8qrBto2yhihkVdvKQTs9k8YJ8Caci48Q/ljn6xQ3EcOxFloa1cU7rClgZ5Zlke6tAw3GASFbejCXQ1P0Iu8MWZQmIObWRzIOhB6EdaMYBMviYwNgCd+Z0/vl77J2n4LbuI10WxnUL4tRIBA8QHtQJ3qsYa2o29Mx+Q5e4VVqjndTjUHQWu3C2TLIIPLTQ9feKMcGwbBpM1F4IikkH2ozD0BA/EVZMMwBpkexs6T/AIl+4WwiRUkrUTD3hUxWq5qPIpU5SooDM04K2QfvF6xB6KY+DUQ4ZYNsgEgzm2/lYr+FN4nFXLYHgEbTJ+qqz/2ffTmHxaMwZT4VDFjBUCWZifFrGtQRZG7TcSFrKIVmOuVmKiPdrVQxfGgRpZUNtmzkiOUAAfeSajcXxTXna458WZ1jWFCsQADERQt94kUmTtmOa1yd9jp3LGSdaMcC4A+IYE+FJ1fmY3Cjmfu+VEey/ZtLireuNKGYQAicpI8R5iRsN6u1sKggAAAaAaAVMYcj4Yxq9wKz+ivbt20Dd2wRioLZwpysWIkmYM1ReElbdsXbqMys3ggz4hmkGHUrMHXy5VdLvFgugOtU/EYnvLa2vAFQgiRGsGTuNyzH31XJVodL7cTmk7TXbwnyN8X4lauJlt2sjl5DTJIIywdPQz1HOSaGlszgD2VAUeg5+8yakHhdwZSis5dxbtsFITO2gRWOhfXaepqbw7s9eYAkKgOY5nMABC6uzRJGUoQRuJXTUVBz5yc3qS/3kFYht6Z7yR8+vkRVgwXAVuXbdp7ist0XVV7ZzgOivEH6WvdtHRwNDNErXC7KSHw6o2UIshrwdwim5kW5cCl1K3lmYHgMcjNBDG2ioCy2XOR4JC5xtJkgH4H094qM0q0DcbVdOMcWtiybVwK3eKqsiFXFk2+jBVytmMFZbS2NYIqp4mzAUzK7Bh05T51AbJ0H0fvGQqVJfeDENOoYGMv9CKP4Jbq3Mp5aGo/ZfAqU74NM3MwkcyJA8yNdR+FWTEuFDPBkAtoJJMaCJ5mBuN6ZCVx3OnNRv7Ha8HHGrWfDOqq7vC+G2Mze0Dqv1dDNVXC8GuQWIhh9BgUIEakKRoPMnlVswGLxzW7cXLdoZVLqqZmJ03d5MxuSK7x/FLyKq3rYxCFgrAhG0O7ZQoKnLJ0nb3ijnFurE5uilP7pXVAHs9azs1wGQFyL08RBPqdB8amObgfyqSti3hrjWbYKpOdVJJjOASATrEzU5ACabHZEYsfpx0neAuUbw6yAZ0+WhP4UFFuDpUheJFIUgaaT7j/Wr2MDPd+YryoacT02HxpVFgVsqHXahOJu20D2kBLurKDsuZvCEBIgnU7dNjrE/iTrbtm29wW1ZTmuE5QikhfakQxmBT+H4XbZRdRtUJgyIDRH1Z25CN9qVKW2xK2ZV/2ewNtIf9JuOQCxJt2/FAkBD7PPmfWoGF4Jh7rhbdsqU9sd4X56Z2ACrI5AT86mdrbb2GRGYA3AxYgHMijYlRtPLarhgOGpZtpbtqAAok/WMasfM1C37kOEfCB36QltQigAKIAAgD3Dag13iDuxAmKtP6tBMkVynCVHKr6kFFKshiSTO1RL1pcuvtMxGu0AAgD1JP2a0FOFKJ0FMXuHW0Vi6AqYDCNwxAgeetVnpaJam4yhF1f9yr8C4jbtW3t3mChWW6mjksyEPlUKCsl7VkS0aF9RzlX+2tpQ4t23OZnMNBE+GLkwpIcojMkD/qP0Wq7xYBbjrb8SBjkJ3j1O43+6hlq2jHKSQ0xB5noKqmc6ORpUH8Z2sc5e7tIAiqENwm86Fc3iVoUTDBdQdEWg922t/wAQbxQBDEkwNhryqanAMQsxbzwVGQyGOYEgr5eE14eDMdTauIZjTxagwdttRUESk20CALlrdZXmDqDTtu4pnI+Sd0fVD7+VS79x7aguGdJABZCNSMwhvTWoQxueQltZ5lvZHqaKBKT7ot3ZbFhclsgr3a3CQPGhzn2s4OhllEEbD4mbnEGa5lSQYYgjSCoLSfLQ1XOy/d25vO7ZbersoUgCR4e7Y+JGzFdAfdoaufB8RZxToiI69/nX2UR7dtVDFlzSCrHKZGbaOtWjsbsc5OKT8bL9DjC8RsppcxDwpK5yyQxIOaZAELIA0nTXnQbG4m9cZFJFy33wEojo4UmEcqpMiCTynnvVztdmkKZVuugtO6q2W0xYmDmebcabCANKDYHhH7+2BbVGBtu122oQPkCk+AD2S5GxgwJ1XU0xXgfrk1VgvtDn/TXIndY9MoincJj2DQ00YxWEi4Q+rLCzvoBpHlFeDDpMwKZaK6HwOWMVJp5kzHWmktgGRUy1dHOiw0S4Okw+lKpQuLSosNL4KZ2txttFLHIXQLAbcAt7Q9DGwP30V7GKlvh9u4QJc3H8K+GS5AKp1yqup6UsVw21cIa5bViNiRr6E8x5GukwuRFt22yW10CAaAbwpnTeudDq4qKTGSxtvYD4/hty9iVvZRlKqrFiJEFjMdIIHuq1JiQAwIOtRxSrPLqJSdl1BId72l3tNUqX6s+S2lDve1y5DCGAIO4OoNc0hU+rPkNKM47VYIYfEvbtM2TwsiyHADjNAnkJjflQG3jMtxS5UQyliVZWABEkRzjarZ2tto2LfxEjKkT7Iyhhp8RVcuG2dC4+B/GupF7HCbSm9g43G7TSFuqBAAgXACR3vtDdh40nXXXzp5+K22Mi4PbVvZaYF1HP0fqqaqN3DWz7LgH3gffXJUrodJ58j7+VXsvrb7f+Fq49hw+HRoL5nQgEZF8NthPVht8aADCHTMBHJR7I91MqtxIyv57yKj4jiL7Zp9KO5V6pPYsfDL9u0ji4gfOEiYIUoSQCDuNdRVl4V2kwFl0xDXlF02TayKhCWx3hLFUUHKxkc9Y5VmljCPcMuxC9P9uXvq0cDvphgQltCSZDECdoIYxLL5cjqNzU3Q7HkUPtlL+3YuR4s93FWXt3AtrL3uUqczh0dycwbYAKIIiY30rvh/afvEN11yIjXEtKDm7wJADgx5Hymgtu/wB+5GYpnQpKRAMHlAgHbTWdZqBicM1vRiMqKERF9lFmWMndiefkKVPIoqjo9JGOeaUXtdMN2e0n7x3cMcwI09Rvr0FRv1yaCW9q7rK8kuT7aH0/Al+IZHGTS/XRoNSo9WXIz2GH+kPfr00qAUqn1ZFf4fh/pL6bgr03B1qp4/jIR4B56Uy/GWiazrBI+L1IuS3Qa9ZwOdUfDdoJMc6k4jjBAk1LwSToNaLetwHnXQNVHhPGO8O9HL2OAXelyxSi6ZKdhE3AK874daq9zibE6V1fx4S0rSM5aCJ1jxbjlsPj8LrDJkakR+2OGYvnQSAgZuvthNOvtD4UCTCrlByAeR1Pxqx3MV3gUjbJcn7DEj3eA++hVwb1uw3pSZz/AKrjUJQlHyr25BmKsKVOg2/EUKyXE9kZl6Hl6UYvcx5fiK5gRqY99OOfGdIB3bjNACZY9f7FcYa0CZnQbt/Q8vWn+JXRBgs4EZo9lZ2kgfOlw9Q4kjbYahR5wNz60eDRuo32CFhwRCKY6xA+J3p9AefzrrA2gbih2ULInWBHmSdKfxVlBcYWzKgnKc06fGgzPkkYG6VYeWx5g+VS+NOdG5Nr7+Y/vkRQ+2QBLEADcnQf35U5f4nZNs22fXQqyjMAR6HoSPf5VSePUjd9L6j0c6lL8X3/AMnlvauqgtxG0uxLegj51Iw+KFxQcmUwJ1JBmYInbY1mliaVs9AwfV+my5I4oNtv42HqVeUqWdY9pVMwdm2ykvEzpLQYgco9aVFCXmS8MD933l70ovi+HwnuqDwRM1wnzo5xV4tmmTk1JRR5/FbNlW4ZhJuGjOPwMLUfs+ksT50S41chDVpzbmkRFbAPgyZSxHWpvE8aVSmuFW5Waj8WTUA9amlKe5PaI7wu/Opp/iTaaCn+F4RctOYm1VXJagS2InDmbIi6jO7JPId4FUe/Qn/LTYYbEgnnGn3VZuCYpLIyXFlbhVNgSralDB8/kKrjIOfLY0+ElJWjmfUYzWly7U6/TgiX03HWhz4Qncz8vfRW9UPESQRy51cxQbQS7M8OQ23JAIclTOxVdPmTQHH4RsNdKicjaqeY8j5j76u3BbHd2EG2kn1Jk/OgPG4d8p/vzrPCbc3wdmWJPEl5IVk5uf3CpKJFMLhso03HLn7q7XTXWB51oOPPZ0M4py0jkvLrsffUvh3CEuXEVgcrZgIMaxI1jyNC2YliY3kwSAff51Jt8RI5SuseW8R6GKv3VD8bcGnV/HJaX7P2VtsAFBKsAxYTJBgxFBrVnKinqII6FSZ+dJOPACO6k+bQPlTeHvm4WY6a7ch1j4UrJHTB72dr6ZleXrcVRSpvt+g9SpUqxHogqVeUqCA3wngz29wakcV4a7rEGrytpRSa0pra+luWqzzrU6qigcJ4U1sbGneI8Ge4jHUZRMRv76vdvCrTrYQR5Heo9rLVqsq50qM74ZwxlWCDUbi/CC2wNaP+ioNhXD4ZTyqvtpKWqyVNNVRl+Hs3EEa/CpNrC3GMma0I8OQ8hULjd61g8O991zBBOQQCx2AB5etTLBLuCl8FYv4UjJmIEOhAOkkEbHkRQK5ufU1O4lxh7qm46oFSSqkaDOAwUzEsFAkxudPMXbxFu4FCsEuMdUYwmv1XbY84JjeIiKvDG4xpnLz6s0tv2RzdO9dvgWW5btzmzwdoMZiCIPoa4v2nXMGRhBIJiQCN/ENKLdkUN3G2muMWy54kztbeBr6z7qtV7CceNqaUlTvyH0wTBYg1V+KcFuM8qDWvLhVPKuW4cnSqQ6WSd2diU0+5lbcDuPbBCnOo+0Onr0qr8ZxDhu7TkBmOx8/St7XBoOQqFiOAYW4/eXLFtnO5ZFMxzIOhPmaZHFKJmyYozakjCbCwFHRf+dedHeCcMt3Lau2aQR0yGCsiDqfaO22lR+PoFxWICgAC5cAA0AAdhApvDcSuW0CIwC7xCneJ1I8h8KsY7SluG7nA7UlpdRmuSPCNAHYZRGg8ECd6m4Ps8kHKXPjymcvNwOnQ/dVcPGrx3cc/orzDDp0Y1ff8O8S123da4c0OI0A31PL0qHBS2N3QZ1izKce6sqtzBuCRlOhI+Bps4Z/qn4Vp74BSdhXP6uXoKV7T5Pr19bXlGZdw31T8K8rTP1Yn1RSqPafJP8bjwOZx1pZvOquOMHoa7XjHkad68OT5X12Wm3djnUl72m9VEcYFOrxkVZdRDkpKakHnuGdDXPeHrQT9cL1rk8VXrQ80H5LQyJB0XT1qn9vsSkWxncvMhARkIEwziNwTpEbeVTr3GFVSxOgE1QuK4i5cJvuD4zlQ/RAE7eWh+BqPUUlsLz9R9umPdkW7iZGQknJ8CxM6/P4UsFhVuv4yNB4VmCZ59f7HWoNwgeH3k/3zNMG7VWm1sZcaUZKTV/AbfA3bWtq4yxqZOXbzH40uCcaxfeoLWQ3GOVD3aEy0ySY6EyelDUxty4vdhmYGBB1J6AHerr2Y4emFJuOQ1wiBGyA7hepPWqJ6fyZrnOLa0ppGk4O6yoqu+ZgAGbbMQNTHKTUpsR51UP1wOtejjI609dRDkmU4ssr39dDXPfHrVdTiwYwNSdhSfikEg6EbioeaL8lo5IrwZtxw/wDiL/8A8lw/F2qBO3p+FTuOGb949WY/aJI+dQjVbOZL8mJTWi/4dNFm553B/pFZytXTshje7ssOrz/2rQpKO7G4HplZoGc9aWc9ar44uK7/AFsvWp9aPJ0fW+A+Lh60qB28eWErtSq3qx5I9VFbYSZ99LLXUUq5NmU8C0ste17RYHJWllrua8ZwASdANTRuydgZxe8oQqWEiCROoXWCegMfcelAsRxEm0LZUCGzDeSTmgH7X3DpT/FcZ3jaaKukdT5/P4ChLtOvw/E10McNMaM7eqVjLn/fzNNV0xo12c4Z3jd448C8vrN09OZqZyUVbGxRP7O8KyAXHHiPsA8gfpep+XrR6KeFKK585uTtlxrLSyU7SqthscWjlYNAMGYO1e3nLsWO5M13FeRU2QVXj9uLn/uC/OPwoY1Ge0f/AFFH8oP3sfwoOy6e/wCX/NdDH+KMs/yZwDVp4Kn7oeZP9PwqrgVcuCW/3Kf5v9Rpef8AEvj7jwWlFSe7pFKyGixYbFZBGRW1mTvSrnu6VGphZxkNLuzU7uT0rruj0qtMimQBaNed0aIi0afshQrg7kaaA9efKpSCmClsmgPaDFFT3Y5gfE6knyj8atq26hYnsjcxj57bqpEIc3SZJEdByp2BfcVlFtGfP05UxfPStCxf+Hty3Ci8ru2p/dsqKNgMwJ6HeqJxnh9yw4W4sZgSpGqsJiQef+9b9NFIwaZHwGEa7cW2u7HfoOZPoK0jDYJbaKiDRRA/qfM1A7JcBNq33lyFdxoDuqbwehO/wqwraH1qw5pOTpdhyiQxZr3uKlm2OtSMSEJWDoBB0jmenupGknSDf0ekLFTiida87tPrUaQ0EQWhXndCpgROprwqnnU6fkjR8lC47eDXmK6geEf5dD95NDgZ0IB+I+Rmur94jKH0IXWddZE+moq/dk+yFu5hRdxFvxXDmU53UpbOinKCBJgnXNuPSuljjtSMqg5NmfsViAgB6ySfvOlXbgoHcJ6H/UanYrsjaw37wrdZGBSBkuEE7EIUUtpOzZtNiK74ZbRLNtZD+EagMDrrqGEjeldRHZWOx42nuzkRXhHlU0lB9A16HXktY9K5HaVyQJHSval5h9UUqNC5DTHk4AnZxSNs/WH304lu5sck/wCb7/DXS2bk65P+737CrafgtpfAz3Z+sPga97rzHwp1LVwjdJ8s3nyipDW9ozTzkEj5eXuqVFvwGh8EIWjyYfA1auzNnJaZ3I8baeg0+Mz8KrgRtgyj1DDTqDtU6zj79te7UI8ajMWQCST7QmdY+NMw/bK2iVF8BzHcMZnLpcKtvqFI2AI1E8qrHaHhqNcQumbIPAYBAJiSAefhn31Bv47iTMT+6Akx+8uARAJ+jynfbQ1KwyX2UG4yFwILAl1ImVIJg7EDan5J3FpFVDd7DZtD+b4VzkEx4p323qR+i3QDLoenh39QWjnXb2XjW4gPQAToOQDaxWTQ+C2gYSxOweu1wesElR1Y/wBK6e1cM/vAxjQR/wDqkmEfncHX2eR8pqdPwGhjTWBOxI69a9WyOh+6nf0R+TH7J/0kgj1pHBP9aNvojXbzo0vgnQMtaA+ifSaSp/J8Wp18Hc1AYzvGUDy3zV0MHc+tr1y/hPvo0MNIB4h2St3rneAFSfaUEEMd56gkKZj/AHrQsKywCAuoyEb5RO2mgAqtphr6zkZcwEksCE1kRI9/x91RMfZx3d5bVyyASS7APnOZpOiqep+6tWOemNMqob9iz3MbgsrW2KsrAqykSpB6ig+PtG25C5SsSpGhg7SKqTdjsYRIvISSp1FxSq65lBgkTI+z51YsHwrEW7arcuhyBAIRmgSdBrJFUyNyQRg13o71PtAE+tehI+iK9bh9w6i4N49kxA31M/fzrv8AV7794deULPwikaWW0jUHovxpU8/DGn/quPIRHyryjSw0srX7ZcNMTdO2pyXt4X+XrmqNiu2GBkd3fYDxTC3R9IxuvSKyCtL7BdisPibNvEXS7HO2a20JbdA2SFIIdoLKxceEHw7zWx4IsrpRN/bDCc8Q32bn5a9/bDB/x2+zc/LXuF/wxwzLbZr+IGYIpBW2rh3a2slCSUH7xTkbxADXehHE+w1i3Y75Lt0hsNcxSBgoPhXBsqtH/wBlpj6oqvto8sjQgr+1+D279vs3Py14O12DBkXjPXLcn/TWUUqPbR5ZOhGtftlhP/UN9m5+WnG7XYHKD+kMWJgjLciNf5PTnWQ0qPbR5ZGhGsntfg/47fZuflrz9r8H/GP2Ln5ayelR7aPLDQjWR2wwYM98fs3Py17+2OE/jn7Fz8tZLSo9tHlhoRrf7Z4P+O32bn5aX7ZYP+OfsXPy1klKj20eWGhGuWu2ODkZr5idfDd/LSftfggxy4hsoOhy3Zj7NZHSo9tHlhoRrJ7XYP8Ajt6Zbn5a8Xthgx/5x+zc/LWT0qPbR5YaEa0O2OD/AI7fZuflpHtlg/4x+zc/LWcWLOGOUNcdWIGbwgqDpInpvr8+ae1hwDDuTmEGMuZfDJiDrObnyHmaPbQ5YaEaN+1+D/jH7Fz8tEMP2y4aoU99DCZhLpOqsNTkjcisq7vCwDnuTpIIAnrBANQL+XMck5dInfYT981K6eCJUEbM3bDhen77lyt3vnk19aVYpSqfQiGlCqw8M7Y43D2ltWb2VFnKuS2xALZyMzKTGbWJ5nrSpU4sSW7f8RMTiNiGH7qz7SlWBPg1Mop13jXc0/Y7c3Rg7mFuqbhdO6RyUC27eW0gUKLeYmLIE54OhIJEnylQBT6VKlQAqVKlQAqVKlQAqVKlQAqVKlQAqVKlQAqfwuJa26uhhlIZTAOo6g6GvaVABW72qxTqVZ1KsGVh3dvUPuPZ6aDoNq9/a3F/xFGgGiWwQACAAQuntH40qVAC/ajEhiysizEgIhHhCidQdTkBnrJESaF4/GPeuNcuGWaJIAGwAGg02ApUqAItKlSoA//Z</t>
         </is>
       </c>
     </row>
@@ -1901,109 +1901,109 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shreyas Iyer</t>
+          <t>Najmul Hossain Shanto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023_test_008</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>59.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
         <v>2</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="W12" t="n">
-        <v>218</v>
-      </c>
-      <c r="X12" t="n">
-        <v>275</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>179</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>256</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>229</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExMWFhUXGBsXFxcVFx0XGBUaGBUaGBcaGhcbHSggGhonHxgdIjEhJSkrLi4uGCA1ODMtNygtLisBCgoKDg0OGxAQGy8mICYvLS0vLS8tLS0vLTUtLy8tLS8tLS0tLS0tLS0tLS0tLy0tLS0tLy0tLy0tLS0tLS0tLf/AABEIALABHgMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xABDEAABAwEFBQUFBgQFAwUAAAABAAIRAwQFEiExBkFRYXETIoGRoTKxwdHwFCNCUmJyB4KS4RUzU8LxoqOyFmPS0+L/xAAaAQEAAgMBAAAAAAAAAAAAAAAAAwQCBQYB/8QANBEAAQMCAwYEBQMFAQAAAAAAAQACEQMhBBIxBUFRcYHwYZGh0RMUMsHhIrHxIzNCUnIk/9oADAMBAAIRAxEAPwDuKIiIiIiIiIiIiIiIiIiIiIiIi55/HGwdpdhqDWjVY/WMiezPX2/RdDUVtNdn2myV7P8A6lNzRydHdPnCIvzLdlGY4k+Oq6vc9ka1jQBuCo+xFjx1cD2kFoJIORBaQCCOMyr3a7zo2eA86RIGeEESJ4LXYkFzoC2mHIa3MVP2eAFmFRQFj2zsBIb2ok5RBlT1C00nCWukKPIWi6zD2u0WGqVoWgcl4v3aejZwfu31DpDBO5Vx+1Noq/5dkcwbu0BHyXnwiRMr0VQDEFfNorA6q2G+XHcud3nZMLy06g5rqdjtDn+2zA7rId0O7oqfa7qNe8+wjKpVbJO5kYnu6BocfBWMNIlqgxUESF3rZmjgsdmZl3aFJuWQyptGilFjpEEAtiIyjSN0clkV5a5ERERERERERERERERERERERERERERERERERERERERERERERERFoXxbxQovqkTh0GmIkw0T1K31WtvKRdZ2kaNqsLuhlvvcD4LCo4taSFJRaHVGh2kqh2Wyt/xF9VrMAq0n1C0GQHF7MRGQgGZjPMndCyXrZawdNNozPfdEmCc8pEnlI3ZqQu6pirzlh7KGdMQnwke9S7WDJawvc6CVs2tDSWhc8s9zVzUf2znYO9gwtZJOMdmXANBADZkAkydclYdnaLgHNdEZQQcpjODAkdVY7RSkZj0Xmw2YiQWweo4pUfngQsmAMBv6qn22zF1Y4pwgggNMFw3jFGUnfrExBgjSOytQ1H1M8Bx4GlziaeN0t78guw6AH5g22rRIfJAwg5mePLgpRlLKRovWVHAEBevYxxkhVu77vLGgOcXEbyo6rY2fanufHeazCTx74MeitdoVYva0NFdzXQB2Ug8HYgGxzkrETBQn9QVz/h7a3Ftai4z2bmubyFTFI6YmOPiriqP/AA2DiK7nCCezaZ1kYzB5w4eavC2OH/tiVrcXHxnR3ZERFMq6IiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiLQvuyGrQqMHtES39zTib6gLfReESIK9BIMhchsv3VqpQ44HU3jCc8Du64gHhkTCtdneDnOS0v4h3FTpWR9qptcX0XiprownDUAGkBric59lVXZjaIEFrnb5E8+crX1KLmgSti2s17jHqrpetsptYcTg3mTELnH/qZrLT2dJvdcfvH03OEmfawzhHMxnmvu0FnfaLS4ziYwNLRMDPPPx9y2bvu9zGy11KmOWp6uOq8a0b+Hkp2Nc6wsJUTdm0bRXf21FrHOydUj7xzfyucc435RK6ddN70qrO44GI09FRLfYi8f5tN/gCfMFa9w2d1ktBmRTeyRwkHQcEeGm7deCOa5sNJkceCvF62oMEqqWLtLTaH1abC4UmtBIGIhz3EskawQ12cQCBxEx1+32HmQTAnx4+a6B/Bu7X07JUr1BBrvxMB17NghpPUlxHIhSUqMgyqtWtlIIVl2Tu80aHeEPe4vcDxOQ15AGOZU6iK41oaAAqT3Fzi4oiIsliiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIiIsVamHNLXCWuBBB3giCFwLarZT7DXc1pmkDiYSYOFwmHHeRpzjy77XrNY0ue4NaMyXEADqToub7W2+z2p+KjUbVpxgcW5tLmmSJ0OThmMlHWJa3MpqDcz8qrVz37RMhxEEDxyjpwUHfF42apUDmg4BEkmGzyaTHPjyWjetwPplzqGY1wbx0M59FU61dwJDpBGWf1qoadJhOZpU9Wq9oyuCvlx3nZqVQnWRkeGefjz5revzaKm9pY2Msp9MvXzXN6Flquzaxx57vNWa6Ligh9Ugxo0ZgdZ19y8fTY05iV7TqVHDKBZbtyXO60VGSYpF4Gpl4Ls8PDfn9D9H06YaA1ogAAADQAZALjNxuDa1IuIDQ9hJOQADhJ8l2SzWhlRofTe17To5jg5p6EZFSUX5gSo8SwMgLMiIp1VREREREREREREREREREREREREREREREREREREREREREREREREREWC02hlNpe9wa1okkmAAgEmAi5l/F2qbS02RjowDFrANSJaDyAy/mKpH8PKxNGpTcIc2q6QciO4wGecgq07R2VzKzy6Ye4uB6mTPMSoaiwMqdq0ZmMY/PGh/eOO/Q7iNliMEMVgmPwxmwP/AFvI5gzY7xGoVbC4v5bFuZXteOX4Igz13mJa0WSRuWFlgbOJ1NpOkwCVK2V4qNkH5jqF7psGhXJyRYrqLG6h33cye60dYhYKdi7ysFeiIWsyjA0XmYpAUVamw09D7lq/wctbrI5jnkhtoIDxuAMCm7hO+eDist61Q6aY3+0eA+Z08zuWlO5dRsLBF9Jz6gs6w+56bvGeC5vbeMDKjWM1Fz7dfZfoJFTNltrxUZgrjC5gb3x3g8EZExo7LMe7RW6hWa8S0hw4gyq9Wi+kYcF7TrMqfSffyWVERRKRERERERERERERERERERERERERERERERERERERERa1rtbKTcTzA9TyA3legEmAvCQBJ0Wyta1WynTEvcBy3noNVWLbtPUdIpgMG46n5KDtNqJlzndXOPvJV6ngHm77LWVtpsbanc+n59FZbbtPuptj9R+Srl42t1Wcbi489OOmgEjRRlW9qI/GD+0F0+IEeqj7RtB+Rni//wCIPxW1o4MM+lvX8laytiKtb6jb075q2MDa9M03+0NDvy0I5j63qp3ld7qTsLtNx3EfJRda31HuDnPMjMRlB4gDQ89VO2faNlRhp2oEjc9ozJjKRx5jxGpVY4bEYGqatEZqbjLmDUE6uZNpP+Td+6621N9PF0hTrEB7RDXHQjg733ejo6z2hzDLTn6nqp2xXjTfk6AeB0PRVqpVyGANPE6xyAB7x6kdCvtG2VWgjGSCIIcAW/0xhB5gAqfaOymYwEgAP/20nnAM9QDwMLHAbQdhYa90t/1F49WxyBPKVc3tbwUZe9q7NsAAuOg+J5BaFivssbDmk5ZGfLXX+yhbxt1So4ulreonLgZ3chxWgwmwK7qsVhDQb3F+V/Xdzstxids0W05pOBcdPDn7b+V17f5k5k8T+b60gLG+q1ubjAn60zWi28iDD2z+qnp5H3grxWeXv/SMm8+J+uC7NrQ1oa0RFuS5Nwc5xc8+JPFXa6acUwQQS7MlpkE5DUcBAUnZ7S5plri08WmPcqDZbS9hlji08tPEaHxUtZtoXD22B3Npwnx1B9FXqYZ3NQwQZBXRrFtNUblUAeOPsn5FWKxXnSq+y7P8pyPlv8Fyuz35RdqXM/cMvNs+sLfp1g4S1wI4gyPMLWVtntO7L33or1LaFWn9Vx4+/vK6mioNhv6vSyLsbeBz8jqFZrvv+jVyJwO4HTwdp7lrauEqU76jwWzoY6lVtMHge4UwiIqyuIiIiIiIiIiIiIiIiIiIiIiIiIiKKv68Oxp5e07IcuJWTGF7g0LCo9rGlztAsd7302l3Ww5/o3rz5KpW22OqHE9xJ93QblqVq5JKiL1tpLjTGTYzP5tMugmOq32GwbWWGvFc5iMW+ub2HDvVZLde8ZU4J/MdB0G/rp1UJaajnmXEk8/hw8Fle3RY3hbVjGt0VcBa0IAsjmr4AplldeDTXipT0PgVmXoovQ4rC2zTm0kHkvbsRhrtSQNPaBMZHTfohML12slo/Wz/AMwvDK9zklZTZhrKx1bK0jPwC81KzhkvAqkjNIKxDisT7OF9ZRAWQarcsVpwEjBjnd11jLWMuGeYK8quc1hLRJ4THqdFJTh7gHOgcYn0FytEM3BeQ1S1hs1cHExhJO6Mjvyj6zWLs8NSajCRnI37/SRHmoPmRmcBBgWhwzE3kRbhAvcyLQpflzlaTIk3kGAOM3626rQaFkpPcHS0kEbwYP8AxyXqthk4ZDd06xunM5rxSGasAy2Y6e6quEGNVNWK+jpVH8zR72/LyUqamUzkcwRv6KrRmpa682EbtRwE6qrVpNFwsDordcW0DqRDHkmnpxLeY5cleGPBAIMgiQRvBXIi+IP6QfrzV02QvTM0HHmz4/E+a0uOwoj4jeq2mzcYZ+E88vbv+LaiItSt4iIiIiIiIiIiIiIiIiIiIioW1Nux1HQcmiB4f3VzvC0YKb38Bl1OQ9VzG0VJxdVstnUpcXnctRtWsQ0Uxvv7LyHSfD4qHt7YqHx9YKkqb/ZPh8P9vqtK9m95p8PQre0rOWjYbrUfqPr61WMr3TMk+PvI/wBq+wrCnWuQvMK23Fs0+rZ6ldrQ50YaTCYEyA90nKQJAneOQXqjsNWw469SnRZvLnSR1g4f+pVjj6DS4OdEGOu+wk2001lWW4Oq4Aga39vC+vJU9fSclZbRZbupZdrVruH+mBTZ4lwJI5tlRtovFhBFKzspg6yXVXc83kgeDQVK2uX/AEsPM2/e/osXUms+p46Sf2t6qMe2QFiwnEz97P8AzCzAZJOY5EHyIKnOigBus1anOi1ixb/agf3CwOgzCxBWK18EKWuqjhpvrRiOrYg4SNZkzEGfLNRzgpa63tcx1F2ETGGSRmSZmD3twiJOIjTNtTaGY0Dl4ieU34eG/Sd1jdwBaKwngY5/xP41G3Yrk7djqtas5rQThaAcTnCC4AZNa2Xac9F4vSwvs2GKgr0XSGh0hoOESCye66DM8zxIWaxXg+zxTcxpol5nFPZhzZbiaWQXcwAdNMgBitdsq2vA3AGsZiFNs93MFzySZMls5HMAZSRnzzS/NLiPhx5a9dxnfHMLeHKBDZzfx777KGvWzBjgW+y4S2WlsjjB3Z7pHNagGilb6qNJYxpkBozkOIO8EgxuHpwhRjhp1hdJg3vdRaX6+OvWLeVuC5/GNY2s4M076r0R6wPUKXu4gMPT4cfFQzz7P7gPX69VJ0nQwc8XoGj4KWoJEKm4w1ZbdVlw/aeXBSl1Cqazeya5z2mRG7vGOQHMqDtRl4aDnhAz3SSZPINzPirHs499SlaKbXOa4gPpYTBJpGcPMkR5KlijkpEgealwNJtXEtY5xEnXh32F0iy1sbGviMQBg6iRoVnUPclpJDqbxhqANe9vA1Ghzh4OJEdOKmFzDhBXVjvpZERF4vURERERERERERERERFB7WVMNCPzGPJrj8FzrHOLkVeNtqkdi3jjPkAP9yoVL23DiJ+C32zmxRnr6x9lzW1XzXjgI9J+6Uzk4eI+uoHmsF4PlkgZjveWvoSfBfMRa7mPXl4ifRYrW8AYgJYfcZDhyyJC2bW3WtaYutWxHI/W8lbKjbG8tcWHdv8AzDE6D4twnxCkGGVKVcdZ0KauzaS0UKfZU3NwySJaCWkmTHjnnKjbwt1Ws7FVe553YjkP2jRvhCxAL5hUTKVNri8NEnfvUjqj3NDSTHBYHNXiFsFqxuaplEV4wr5vHX4rKQjWCQvUGqzvoha1anBJC3XOHHLxWtUGZ+uSxaV4sRXwhZCxfMKylIlbtG96zfxSZkE6tMFstIIgw46zqle9qjo0bmTpqSZLt8GTOXFacLyVX+Vo5s2QeXY7nVWPmq8RnPn99e40XgheHL25314rXqvVjVVrBYq1TNg/WMuGRPl8lKYwQxs/hcTloHGSeYAa49FByDUbOgxOdugAceYLwFJ0pdic7IGC/dDRBZTHBxgGPwiOMLFxlYvFhK2WumXnI1Dl+ln0AByB4qSstd1NmNri12gLTBGWHIjTIlRVOScW86DgNw5LfthgMYOPnH98/FQvaDZVg4gyrLsbbMNpAJ9uWmeJEj1A810ZcfsVY0w2oPwuBH8rh8l11jgRI0Oa0G0mQ8O4iPL8ELo9k1JplnAz5/kFe0RFrltkRERERERERERERERFTttv8ylyB9T/APlUi1d14dwMHofoq37b1PvRywj0J+KrFrpySOP0PrqukwNqTeX5+65TaN67o4/j7LUtzJzGv1BWAuyz9l2oP4H/AABWZrpbB1GR6f8AML48CJ3HuvHpKvDgqIO9V60gtqA8DHgTp9cFv0a2UrTvcYXQTM5T4d0+IyPQcV5uuXUhvlzhPQkfXRSyJAKstnJK7E3YyxsbLy8wM3OfhHM5RCx2O5bsquLG99w3dpU9MwD4Lbvmn9osLH6w1lXr3e9Pg4nwVVu20tpVaVRwMMJktiY08vreuWbUruaSajpG6T7ru8NsvD1aLqjQJ4Bo7MqZ2l2YstOzVKlNha5sEHG50y4CCHEjOVWLl2arWlrn08IDThJcSJMTlAO4jzV82veHWGo4GQQwg8QajIUDs88tuu0EGDidmMiJZTHuVzDYiqMMXZpOYC9+C0NahTNfKRYNJgW05KEvHZS00Wl5aHNAklpnCOJGRjwy6KM/w6oKQrFh7MnCHbpBI94jqFftnqFShZ316tR1VrqbXCm2XRkTv3mQDGWWZMSofYm1tqUnWGtm14OA75iXAc/xjmDyU7MZVyOJh2UiSARIvMeI8olQvwlPM0XaXAwDeDaL+PsFW7LZH1HYabC90Ew0SYGp+uIWKjZnve1jWkvcYA3z46eOnuvbaYu2zOJIdaKhLWkaZaGOAHePNwHBVzZLO3UZzOJxnj908yp24ovZUqNH6QDB4wDPRQHDBr2McbkiRwkj16qPo3NXdWNnFM9q2ZbLcoAMzMcN+8clpfZ3Y8EHFMYd+LFEdZyXQ7nzva0n/wBv/wCkD3FVOhneDedpB/7wXtLEueTIFmh3UiSsn4ZrQ3W7iPWAtYXBae27Dsj2uHEWy32cs8WLDGfHXJatjumvWLhTpPdhydAyaeBJynlqrvf99/Zbc6pgxzRwRMZyHA9OPVfLlrVn3eBZHgV2PJeCG4jL3O/ECAXZQTlkRlGUHzlYUw8gAHLczF5knfGg3a71J8pRLy0EyJMCJPCPFc6tdJzHFr2lrhq1wII6gqOr1FZNr74daajC6l2dRjcFTcXEEzlqMyYBzElVzAYdGoBIWzpOcaYc8Qd41WurhrXlrTI46LWu6H1T+kd7rMhsb8zpyG4FT7+9DPwtzdzcc8zvO8qtXC6D2bfwxiJ/FUOefLf4RvVnpNAEAE+8neeqxaZEqDEkh0d9/ZbNlp96fD+/gPgsVR+KoY3d1vuWTHhDo/AM+ZOg+fgF6uqj+I/RKxdxVfwW1aBDI8PKF0/Zq0dpZaLv0Af0934Ll9uOQHH5FXzYKtNnLPyu9HAH3ytTtFs0Z4FbjZT4rlvEft2VaERFpF0SIiIiIiIiIiIiIiIi55tuPvz1n/ts/uoSsdD09ysO3NP77q0Ee74KuOPcB4fNdJhP7TOS5LGj+vU5rXtVOO+OhH5hv+uq1Wug4dQ4SDxG7x3HpzCkj9fX1qoy10Nw6tP5Xbx0PyO5XWcFUi91B307QHT2J6+yf6lv3PZSyzUicnFoceRc01HepULtJXJY4wZLTlvDmHSOKszsmMbwEf0gNWbj+oDvuynAIY0cSfQfldV2XaKlgptOjmOYfNzVWrHclerkGFoORL+6BuOuZ8FrbPbR2ijZwxtDGxuIh/egCS50wIyMmZW/U2vto0szYOYJa8CCJGcrn34esx74ywSdXDjzXYYLavwaWVoJkD/End5b/HRTW1dANu99MZhrabR/K9g+CitkLL2131aTXAOe867pazUDPcoC99rLTXY6hUbTY2YeGtIdLXaEucYzGYicuqjf8LrGPuXH+UnXw+vfapYQsoZKjg05swNjoBy56rWVcTnrF7Wl1oNiNTPdlfbkur7Bjq1rQ0U8MYcwJmZje7KAAJMlUm56gNqpFowg16cD8oNRuWXktGlZHunBTc4jXC0mJ0mBlofJZ2XVaP8ARqf0O+StU6QYXl7wXO10HpPiqz6jnhuRhAbfed/HorVtY5jrwpNqn7sNaHZwAC4kyd2uZ4KSsGy4oWr7T2jRRbic0EmRiaRBJywjEc54dVQ7Ux4M1AQ4594GTu35lYGB7yGNBdmYaJPk0KI4Rxpta2pAy5TvBHHWx8Vl8w0VCXU7zI3EWi9labov2mLxqVXECnVxMDjkAJGFx4DuDpiziFKWfZJtO0/anVm9k15qCREZyAXEwADGe+Ocqi1bvrNzdSeANS5rgB1JC03cPRZuwmczSfEjKbA2FuhWIxJZaqyb5huuTP7qV2pvFte1VKjfYkNaeIaAJ6EgnxUzduz1XDZ7VYqslwAqYnAYHSMQj8TJkEGTkCJnKq/Y6sB2AwdDBg9DC9Urwr0ZFOo+nPtBri2eZA389VM+kTTFOk4WtBuCNL/usGvyvL6rTe8ixB1stn+IFZrrdWw7sLSRvc1gDj8P5VBWTV37Y/6mrxVMnU75PrK9WdwxZbxHx+CsU6fw6QZwAHkFQxD/AIjnO4yo27qIp1nt/PUe/wDrg/IKxmqRpm86bg0cTwCrdsq4bVRn8QeBzIg/FWKl+UCSYkn8R3Dpv6DmjXC44H7A/dRVhJa47x9yFnZTmKe4d554u+s/LgpAPwwBn+UcefILVaRTAaO845xvcdSTyWex03SXP10/so3aSohqvNqaS5rZkzn/AGHBXPYOr36jeLQf6THxVNpd6pi3D5K3bDt++edwZn4kR7j5KhjR/QcO9VsNnH/0NI7sVeURFzy6lERERf/Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBw0NDQ0UExMNDQ0NGA8NDQ0NDQ8NDQ0NGhEYFxUYGRcaHSggGBolHRgZITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQFS0dFR0tLS0tLS0rLS0tKy0tLSstLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tKy0rLS0tLS0tLf/AABEIAQ8AugMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAABQQGAQMHAgj/xABKEAACAAQCBAoGCAMHAwUBAAABAgADERIEIQUiMTIGE0FCUVJhcYGRI2JygqGxBxQzU5LB4fCistEVJENjc8LSNLPxJYOTo+IX/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAQCAwUBBv/EADsRAAEDAwIDBQYFAwIHAAAAAAEAAhEDBCESMUFRYQUTIjJxBiOBkaGxFFLB0fAzQuGC8SRDcpKistL/2gAMAwEAAhEDEQA/AO3QQQQIRBBBAhEEEECFkQQQQIRBBHiZNCCrFVHWZgq+ZgQvcEVmbw+0KkxkOKlXr0B2X8QFD5xuThnokkAYmTrFVVjcqMx2AMRQ+cckLsKwRmNaOGFQQVOwg5Rsjq4iCCCBCIIIIEIggggQiCCCBCIIzBAheIIIIEIggggQswQQQIRBBHh3tFTkOU8gHTAhKeE2nJWj8OZjFL21ZKO1vGTOQV5B0mOBfSJpvSOJxAM/jlk631ay9cOyjayAG0kE7QSaEVMS/pAxOGJQph8XIEw3S5+KxjTXny9apKlmZSSa5laWgUPJRfrLultX4qt1jNqXbK06aRCZUgIW+SbyysGsXWuVecSKV7co3riABbV1zta5blmZ7HX5bIXTZuaimqvUua2N+HoTkdVeY1yt3itf2I5C6CrloLhljdHoyq3HypmqqvXValtwqMmplTl8IlyeHekEmpOWY7KtitLu1WRaG0psBoCtT0jvFHefza2vTV6kxf3XupHvB4zXUHWVtW71q/GOQu4X1HonTEufLQlkR5gDLLutZlIqCoO8Lc6jthvHHfopWc+LWYzM/FI0hrmLLKliigAHIE0QZbOKI2R2KLGnCgRlEEEEdXEQQQQIWYIIIEIggggQvEEEECERmMRmBCIIIIEIiDpdk4ibf9nQ8ZXd4sZtXsoD37InQj4atMGjMaZYufi3Hu84+C1PhHChfM2ncecVi50ws73szKz71tcq0yBpTKFkyYNYDm865vKNmJWx2K3Mvs/OCRo6dMFQjWt1tX5xXI3VsEmAtXGUzN1vOt+G3KPIn0OqHb2ub5Q+0dwfmHett966LTo7g1LRNmt/FFT7hjequZbPd0XO5mJvFpFueq3Vbs7ImaPwrkMdXVubW5vJl07YvTcGJbnWC21hjK4OYZJbhVtuW3z5YrN03gFZ+EdO6qnBzSmMwUxZkqa6MxXjFbcmNQHWHgB090fRmg9JLjcJJnLkJq3W9Vhky+DAjwj5wxkk4aY6E3LTV9odEdq+iTG8dotV+4d5a+yaN82aGabpSj26cK7RmCCLVWiCCCBCIIIIEIggggQvEEEECERmMRkQIRBBBAhELeEn/QY6n3M//ttDKNU+UsxHVt1wyN7JFD84EL5j4LYTjJjmlyqLW9qLQMOh1QV1e6Img9GvJwuKQG15c15DN7NFNOjljyuisNz5zK3Nsa3W76UOcZlWC7daVKQ0QE/wmiaDIxL+ruIQ6PBkPqznda7rxaHn3oxHRvQq5sGJTjXSNl4TDimZjUQNgZW9XneUJMfJQmrz5qLvajKvjGyVouQ9plzmdt5dZWa7viYaIkn6KBc47D6pLwxwRExGpqt+6R0T6EkP1HFHmtN1fwCvzEV/hZgj/Zsl21nVkubnXZjOLz9FmB4jRMo0tae0ya3naPgojRt9lmXHmlXCCMRmGUuiCCCBCIIIIEIggggQvEEEECERmMRmBCIIIIEIikcO+FU/A4jCyZIW+arTXd1utUGgy7waxd4439J2Kf8AtS3d1ZEhWK6qqQWr5n+GKLhxazG6vtmB9SCJC0SlefLmsQqPiZuJnsqbqs0wjKvJlXxhXiODdZbJW651mq7pfNVghWgOy2jHKkM9GzwEQbyrfL1t7JztpDRXEZjqrmvJBWm2k1zQCMKv/wBn0ElQFRZSrL1VC8ZTnH1u3t7qPpUv0FKxGmTJYDu7pKVTbravxMMPrcgSlYuio1utcLYreXPMlWsa1ogbJHN0WXE1Ta3GhVuaWjW0IIK12GoB/TKNkng9RJSq1vFMz8Yku2bMY8jNXNchlSmXTnDuTLHIVdW1lZd2JCuKRLvnhumcKJpMJ1RlLdPh/wCzZy7zq0i1etWcg/OH2gOFAkzMFhWlrLR1EqWwYtawyAJO0k9kK9IODhZtec+Gl+c5f/MJcPX61JTVd5UyUyTLbWZi+Q8vlF9Oq5obBVLqLHl5I2/ZdrEZjEZjVWQiCCCBCIIIIEIggggQvEEEZECECCCCBCIIIIEIijcPODvHzFnLLM3V4uairc2WasAMzt28mUXmCIVGB7dJU6dQsdqC4LNws7CzXlzEeUzFZstW3rGHL0Zg5QwXFCWlxOqsOvpXUS8VhZlPtZbyrvWRwafxxVcM6TAoNrZ7sZlxTAd0WlQq6mzxWjG495+Seiu5zb3kI8SExVigT0W3nc6Y3QeykYfRziY7H0qtrWvrKq90bZGIwRezi9fmrxRtibQ2PDlWRPmMFNcFpbi7Ue3201l8eiG7TR+KK8mhvSXVZV6l2r5QzaYECgHdELua0nwqxriN1KmYadiUlS5al7Wae9m9Ytc6bTrEbIsPBjg1bPWfMQpZuI62sz0pcQegcpzg+j5eMmYibzEVZCN1iTc3yWLxGhSoA6XE7LOq3BGprdjxRGYxGYbSaIIIIEIggggQiCCCBC8RkRiCBCIzGIzAhEEEECEQQQQIVR+k7RC4vRU4/wCLhv7zKb1hkR3FSR5RwnB6WMuYoJtz/dY7tw807Jw0jiDnOxiuir1Jdpqx8qD9I4rpfQon6y6s1ecvOhWu5odDkzQDi0lpyCnWG0qlPWiXJmSJb3m2/rfrHNmkYqSed7q3R6EzGPt438LRV+GHA4V/4kjduV0nG6cQCoOtCWXjHnGgOrrLFZwuDxU40oyrzrv3WLhoTQ/Eiraz/wAvdEdLKQ5ldDqlU7QF1r6PJAl4AU5zOx+EWiKBwU4RJJmSMMwWk1blfquXYAHsNB49+V/h2kZYCkKkd44DgURmMRmLFFEEEECEQQQQIRBBBAheIIIIEIjIjEZECEQRHxeLlSELzHSUg2s7Wr+pil6b+kOWlVw6ca33s2qSvBd5vhHCQFBz2t3KvUxwoqSoC7Sdgip6e4fYHCo/Ft9anKNVZX2V3bM2U7qxy/hDwmxOJ+1mO9x1U3ZS9yDLxMJJpNjk7zCIF0hLOujMNCbaX0rMx8z6xMpxtVNousWWBS1RyZV8SYkyKEVhLh2sFvNiTgsRY9p3d6X7PKPD5Uha6ZI1ck32XcDW6m7+7I9eK3z5QD5hf+UN5eAkhFYC64LbEd5YmWmN+EwrplXV5utuwhqxut0NyvcrDCuxfdWJDrlHtKCFem9I2Jav2szVT82PYBnERLjA3XXFrGknAC08dWe7D/DCy1b1gak+fyi/6C4dy7VTE3K/JNRblZfWAzr3D845lLFEtH/67zG16nZvKLverGyG6GADgvIOunOquqD+47LvuFxUucgeWyTUbYyMGXzESI4Vo3SU/DPfImGU/PUbkzvXYYv2geHsudRJ68TM2XrVpbd42r8YkHjimady12HYKu8EapUxXUFSGVswym5T4xtiaZRBBBAhEEEECF4gghHws08mjsMXNGmubJCV3n6T2DafAcscJgLhIAk7KbpTS+Gwi1muqdVd527lGcUrTX0iHNcOlP8ANm73goy8z4RRMdpV57vMmMzu2szH95DsiE0ysVF5O2EhUuXE4wFO0npWdPe6bMea3WZt3uHIO6IDPyxrdo1YOWZhdBzfwqsRwBJVDQ6o6AJcVCwzXzXZuabV9WHT4K9LiWXqpYa9lSdleiImDwUuQ7Ave1bggQoKeefwhri29FXtip9QkgNVlZzLVpLofU/LIIb1dpMTybPU8kqIqFjyRUU3W3lbqt+/nG7iyB6rXMv5j4xpLCucM4I6JSm8tIc05CsWhXvSjC1oaTJdgrFc0djuLyrcvNV9q90T5eJmTiwUqFWpZ7qoo6fgYyq1BzHbYXsLS/pVqRfMFol07DhvtBO3NSsZibErvN1YrOuZjzG3m1V9VeyJWIxMyrCm7vdC+B+cR8zthu2oaPE7dZHaXaLare7p+XiefQdOa2SjDHDYF3lcYCyrXeClzbWlYVk50EXXR6/3dF9W2O3lUsaNO5P0WVSqBj5c0O6Gf0IKrs3DmWNb8Q2f+eyNYcdMWidIDSUqF1rVamV1etFZ0nouZLNE3ersb+h8M+yKaNw12H4Kc7jvhqtwSeLd3DqPzj0yOIjKb6E4QzsKaS5hoeY2sjeEX7Q3DGRPNswcQ/WY+ibx5PHzjjWjZp45q/4fWhymJENyWnGypp1nMxK7mjBhUGoPKI9xyDQ/COdhStrMyV1kbWVvDk746bobSsvGyb09l05yN0Ra18p6lXbUwN0ygggiauXiOKfSLpv61pIop9FhLpS9W8b5/Fl7ojqXCvS31HAYidzkW2V/qsbU+JB7gY+exNJmVJuZrmZm3thMQfySt0+GwtyPqKebrL841YeYaU6jMnu7R8IxJb0Xss385jzKWruPYb4kGIws88VLMTtDySrNyFxc3RUGgHziJLNNY0tWltOk5RK0O1wxD9lvwrSKKxkRwCYeRb2xeT7yo0gDk3Yu9TloHKTyWZKijtzq/OJOMS2So6oX8RjXgEuJHbEjHLqN3rFbj44XngIH84KJi5FZaAatq33etnCzEo6BSUZmYavn0xYMSgo3VttjRMl+hQ9W5fh+kFOoWhXtqls8VXBOe0swtBJQ2809BhxgCZE2XL5k8BHXPNicmB7CadzeXqZhhxE401s2b1u38oGSkxpu3igVkKedNy/5fARx7iXL2PYdWm7sy8Nb+nAx1MxHUnSB1hatOKEN1W1tfVa1ryBkCMxEWXNngAuFe49W1lXvGXwhm+CrNQublS21es1cz84lYnDVF3WKqvkYmHxAC8c24LAA3K0YTBFwzUtt3fWpnFn0W/o29U/0jRJQIi0iNg8TYHHb/WFKhdVB9VaH6SC45TDHzbElD95D9YW6a0hY9NRlbpERtK42tsKMVNMyYlf3SJ0rWYJ6qDrkk+H5+ilJP9M0ts7rmRuVUJrSnLtpGmXMN7V9b4ZRHxL0nux3Vtl/GN2KWk1/WCD3jt+Rh5rQ0wNiFsGu+6tBWqGajSGk8SCDE8yCDB3jHAKQXiycC9NHD4xAT6Kbaj9XOlD4ExVZpyb8Me5TUPvKv78omQlWEtcCN19DVjMKeDeP+tYSS/OtVX/1ABX+vjDaLQVtgyJC5d9NWPIl4KQD9o8ye/ui1QfxN+GOTyX10/D51H5iLz9MOJv0rKWurIEqX7zVc/BhHP5oYH1la33v3QxWd1nV3ankKXg2+2TtvX2T+tI9YSZ6WnWRl8jEZmpMvAut3l6yHlHn5xJDhJ6MDqsCyt1moPygdgEjdQoUxUqtY7DTv6DdTsXtVBylT58sMdDrTCsfvC7fkIgYGWTMu+7SYVr95S1P42WG0tOLkqo5up+ULVoHgHCPqk7y4Nf3hEa9hwAGAB6CB8F50Uu/EnEjcHrLHjRsvJvWMbcRvyh2/mIqd51nA4lZxS5N3RFXOUw6pidiRqN3QuQ5OPejjRIQTBKjzpp4pwecrr5/v4RK4oLMkIeaePf2rAT5E/KIOPYGQoA1mb5wxmC6exPq7viaRYWZV7blzLQ0gfC54J/0hwH/ALfQLa4vnJReS73Y3480RR23fvzjQsw8dXsjzjJtSvdEAwkhK6xB5lTjNyyJ6uQrC+YM37+gRpxU16G1mWi3LZXeDDbX1aw4wOhVmSpbtiXVpqK9rKtqtSpFc60z5OQnsHACzPBejtuyaNam0vJLy0OxECRPPMDHrKr2L94e1qt5Rplrrk9XVhvp7Cy5LlUvKoikcdbfeaB6UAFKj4QsQZD8UOUnamysi/tfwtU05kcPQ/E/frxUTHDUJ9f5RLLXSsM3SxJ8KkRjFyK4d2+6tLey9wr5gDxjRJamGldgT5MIk4iRG4P3Ce7Od7p7DkOY7/xOofY/NSWP8Ot5ZxrVqW9zNHjENQKtdaZveyMzGsPWYwHNtl+9tPllEyFBq6f9FukNabJJ3kWavtKaN8GXyjo0cW+j/FWaTw/Ve+V7pQ0+NI7RA3Za1s6WRyXztw+xPH4zGTB969PZQ2D4KIQ4yXU+rNGr7dP6RPxmuHrvNdd7RiEmvhx1k3faX9IAs1xkz1+6hYipAI31ut9sbyeO8O89kaBNL2W9Ny+r1l8qwwmLUKw1Ve271Zo2Hs6PGIE3DLxl26jb69VuQj4+REDtldTcJniF0Tg7oXjJctiWVJ74dblmC7OeuQW3dtYNWpzQRacdwVkCVOIM9mVQ8tbkuZxxppSwFvsxllkTnHOsDpOZ/ZmHtdlWXiAtqzGtWW0u4KaclwJHbEydj5hTNyzVXWZhyfswprD3OJaBmPkAPrvw3hUXD6FPQ3u5OkZ+a6AvBRJIT7R7EdpqIyAtOUKbFyNBrHbU6sa9HcHZM6fPDCevFNIRRct63VJutVgSMugdNIq8iaSFzbrb3O6e+BnPGZFubzu2OCJ2SX4mgCD3OBwnpHL4q4pwVQiUGL1Df3lVZNWUweylK0OS15NbKNGH4K4IBCXL8bbYwIUTrjMKqMtUkKu3ZnFfmk9LQsn1EynqtHWFv5UOuaDf+QD6n06cvrlLtIy6XgBla5rUbWZWrs8IkSppvYleVvjEaaxq56u77R/SNstuWu9FwCSdGiCpTTKv1cvzjxMzjSzcvViVJejDq5051B3QFsCRuo02MNRoe6GkgE8s79Y34Lyjr6ENzsrW7agjyMW/RmJwEiRKYutsprLpzm9peeuFVaE0KileZ4FJitGX1dKPca2NalSO05V2VBpnEE4WcDZ1hbxXFI1ygU6uzZnCrKjHDInoYx9f8dV7htM0CGsdADQ0EzBAAEggQZAB0iXSduJ3cIMYmKnz2l6yoEW/P0lNrGuZzNKnOgEKUEPcLo8S0LzaSlXK2oep2UqMjy0UfCEt91D00HlDNCprJAyFh9tUmNDKhJ1uxBBGB/cQYI3IgjhONlvwCcd9fldOGmOv+rLdZi/ymIWhpbGUTxfHpLVWmy+dxQ2kdoqDErgxPppCUTuuzSW9a9GWnmYjzNIPosYhEDcc1+DlN1TfS/8ACCe+kVvLhUe1uSQ1wH+qD9AFC1wxnDztPxaf3S3GYlGnO0u5kW1ZSvvM/IvnmT0CN2isO7uiLruxovruTt7Kk+VIjz1lvMHF7luTesRR28dg7AemHPBh0TGYQk2rdczeoOXz+UMF0Mnorren3lRlOPMQOuTsm2isE+DnyGmBhMlMjawKWqHry7e+O2RybSukZfHqGCPxhReTVlGmtcM+UkCtI6Po7SMsyJF7y+MKSy+tz7RX4wvb1HRqfxXrrmyp6GNotDCBnO/LO5O+/SF89vEHCmjzV9/8jE4xAnZTUbm7jeyf2IZ2XjRyXuUtC6HdbdjQ2GV3UPuU9L1mTp79niK8sTGWvtf7o9SpXGOQRuiZdbzlII89njSOu8pUO80zwUDg9NyxMi6onq6qf86VWZKbyBHvRPTEXIvddCjgphr8XOS7WSVillNuqzshVSPBifKNizjS3nLqwsAO9cOgP3/QBMXtPVHT9VcND4hpkvKh1qZ7LYlPLm1rQa2zWPwiBwdNJdO7+Ux0DRCo+Bkqyh0umarr2jMHaDntEUVq/dEmMD/CcsPZ+3ubQXL3vBL3NhpbECebTyVXZ39X8X6RBmS3ebW1dym3li1Y/g8DVpLWH7qcwUe6+w+9TvMV9ZbCY4YFWGqynVK+EVtuDEiCFr0vY+wrAkXFSeXgkfDSlMzCzcwFPObe8ByRmThZ1g1T+JYcHnR4kxZ+LfyCZHsTZac1anzb/wDKXHCTs9X+JY9S8POoNU/i/SGtIs+jNHYXC4NcRPXj2mU4uVtXOtoociaCpJ2fOxlw9x2EBKXXsjYUWgmpVJJgAFkk/FqpmFw+MBrLWddzuLBc+NNsTnx+Plix5VG3ldkEs9urQA8nJDnE8KcW+SFMOnNSUtNXvI+VIm4LSq4nA4pcRNV3ALSlcgvdbqlTy61NmzxjjnsqYLQT1H+ZU6Xs+60bLa1RrCQIDwTkxP8AT04+fVUHFnEPnMuazoOrb0AbB4REd6CG2kj6KZ4fOEc1soZt6mtkwBHJeY7f7Np2N2KTHufLQ4lxkySRvA4ALGDncW8qZ1JkuZ+FwfyiwfSHoquMkkDUnq052Xe9GLWt7SLB7xMVph6NfCLppvHCZh9DtvM6TF94Igb4qfKF7mWVWPHEFp+Uj7FU2z/dVBxEEfDCpUuXZLUDea1fyp3RN0aRxiNzbgq/6YFIjTVPGMg5paX7xrn4AfERuJ5Bq526vVH6w47I9VdRfoqNeOBB+RVlm4ZRrTHlMM8larN0CmTKO2gyGUaWxgYk372e63LCjkjzdC7qIduV6R/tNWc6W0mx1k/bSFAiLPl33DrRZeE/BnE6Ms44ymSaWVHlMWVmHSCAQc/1it06DF8LzL2uZ5hCxKeoz2872ht/r4xNw4Ak4t+rLKK3fU/MCIIahaoX+KJuJmAaOfK29tX4D/aY5U8scyEvUEx1IVc4N1fHybelGb2RdX4ZRPx4H1vEU3b3+efxiBwOdRjJpJyVGb4isSi97u3XZn8zX84pI98egH3laFwYMdArNwfOzuP8pi+6BxAOHVF1piGaWTnWkKQQOUbdmyOfaBO7738ph3IWYXUIGL1Fllbq9lM6wpdtDnFp2IH7r13s3RFbszSTEPcf9+mVasTOJRiTyQskTUeXSaLgoymqwWci9FTkyjoPgRGMdpUSpExcQ0uZiKejSW1+IVv81l1abdtXioTcZOmDXOrXVVd39Yrt7N+qNh/OC2Gt0syOOCNvUH+SrJMky0dKtfJfi5l6Lm0ps6gHYaeHfDvDPodiAsjHsx3VFjs3cA8IsUPR4Qf5OF/7Kn84vGGlyNH4LjZCfWSwDNNHOU7WJ2qg6B49MXNp+NwxpHMSq7muW0aZOrvH4ADtInqVrbQuAEmZNeRipQlC62Y4vKjoAfLxpHvR+IwWKws2UJc7icOpm2zWF3ONFIao2HzjGG0jMxejce8ylQJiqqCgVeKU0+MLuCP2ePH+U3ymRaHN1N0gQ4Hh6/ss91Ko6jUdVcddNzY8RIGWjE8cnO60HF6I+4xX/wAg/wCcM8FonB4grTC42Wjf4s1wir20L1PgI1cDcJhmV5lONxUu70ZpqDm2g5VPW5NkStDacxOIxzynVZSKrgy7fSXClKk58vZHKYb4dceLkArLqpUBqNol3uxkuqO+gnPrsqTwwlS5M2fLlqUSWQubXMWFKmsVOcYtvDj/AKjF+00VJ9sMW/lPqV4z2lJ/GNkz7tn2RN3FiZiMdbJ0aD/hPiV91kQ0HixiLO2CI2LxFkzD+q4b5AxZVZqaOn7Efqsa2OSOYP2U55TiZNJGszM3vGhP5DwjKJ0+z+sS9KSiJindWYqt7wy+QEapOHJ2At7KxxpBYCr6ZL4DRJ5DP2WFjNvYsM9B6JfE4iVKJ4q823W3W8uyvZ0xf/8A+cYP73Ef/V/xgBDtjKfFpWbu2PXCW/TCtZWBHrzfksUfC4RCNZQ3j+cW76WMSHxGElDmI8xvfIA/kit4RMoRuXQ8r09swGnBEgrz/YkkjIsvmy/GFfCTComFVLtVNa7PW2/1ixcZQRVuF+I9GwiunWqOcAXKmvYWgGvugCM4kfYhVLQS0+sN6j/GJkrmxG0aaJN9iHegcCMRcDdcLLGG6rGu8OrUDZSleXZD5dBJPRYXcvuKuimJcdh6An9E00NvSve/kaLLhsbZLaU16LMNDNw+pPFeQ/eL6pI7xFa0TIaYZYDWWrcz2jJQvR2mg7yI2ymxX1l5N63AuLiostUFiemlBXZFVWm7Xqa4AgLV7C7UpWtp3dWi9wdUMFoB8UNwJIMj5LZpfR8yXRqiZJbJJss1DU2gjaGHKpz8M4YYPQxMuW030MptZS6+lmewmRPeaDt5IiSsZjpc15SBGdaM6s0optFra2RNSLSM88olYfFT8Rc1oZuc7zEXWOyrOQKnorXIxx3eHxQJ9V6F/tNbvhr9QJx/TcXGNxABEjjk54BS8ZMV7QoISWkqQmsrPaiBQSQBmQKw94IzMYiYh5ZQyJQq8qcTR2pUhehqcuzMVryVJp86+zi1v5q3rRq7CDsI7dkScPpzE4ZZ0mlizAt6KVa5SgzBz2qRs5IgylU16j9Ckrn2g7PNsabSYBA8THEdRt5o9D6bi7DTGjzhMWiDiGnJMbimWitMKU1SMujLLuhPwd0jKkfWg5K8fLZFNty3UNAadNYryzJrIZgQWDe10vypybSNZdnTBJmTZlbVl6ttx4yXL1jWm2ldh8oCyrIdAx1Crp9r9mFpotNQ95BHgcSfTEkY67HKlSMQ8twyMUZd0jVaLRorhRJMxGny1Sao4tcRKXeU8jKPyr3CKRi3xEq0tba26ymU691QMj2bYkrhMTfbdLZq223yVa6tKZ0jjKdSnBBEeqYq9r2V25zDRql7BmGeJs84Mx0OOi98L8Qk6bPdTcjMxVs1uWvbnFWG2Hn1efiVUkqqsQVrQl1LW3UA2A/I9EaZGhwWxFX+yC20T7SqlqGp1dgHLthmidAIccyvK9sMde121qFN3dlgA1AAnSHGd9oBM9PSV80ZLEOegacgYXbfyidNGUL57+nTxi2tIYYWV2QA65YCJGfsrrgQHC3ANbu3Evb3V8InT9mUKtHzPRrE9XrGRK9+xoaIAgdMKbwRSukMP6pZv4DHVI5fwQP/AKlJ/wDc+RjqEaNt5VmXfnXGeGczjtK4nPdZZa+qqoB86+caZFBGzhVKppPGj17vxIG/OIytlCFY+IzzK0KHkHovE5qzKAxWuECB+OBF3FynmL6rB0FfImHeKehUjmmFs0B5k4U3sPjvhh3f/bFlDzBUXPkKrJWyXTlYf0h7wOzmkdYberrAVPYLq9whFiTmsOuDWUxOUUJPs5ZeOyGqvkKwOynH8XSMSS75zIVo0IgPHs3o0LS1a7My0LM7k9qhREaZKKaRRjz5U0N7SYdkPxUnxhvNW1Wrba17zb6haN6NlPvXecRZqXzJbmlaYnWRrltZBShz23P8YqL/ABE9COmy3Le0021CnqaS2qx+/i8VUtmORaWweJxhZ+rlMW7HeVDLf2pRA+Vpj1NKYfDoGDm2iWowVmnEguSaHZUL4LGePDmbXerPW7q28YreNOL8o3YiaL5U3WsSZMxBtW5gk0La3hQDvI6Yi0SQ05E/OBhF2/uqRuaBDXlmsH8gqVGh7h/0rQJ8t5mECm/Oc3LWWpXIMeU1uPx52S7S4/vTezhf+ykWAM+xnd9aXbcWIVirdOw02wi0wj/WSQG1kw9urvNxYFIutyNQgRg/dY/b7H07aoX1A9zqlN0gaQZpOzGdxn4pxo6QwlyRzWUS5nqtNL2n8Np8BEHQq1uBG2ZIBXsImiGU6YqmYtXyLraqAqygBUNa1FLSdh3o14df7w5+9mYSb7zS5jEDuJI8IrDw4P65+q1a1lUt61k4sLe7lgPP3Wqf+7WFElEYjCvkq3iZcq1tVpYDhhWpzWq7eVomYp5gm3Spcqa5mTN+aEZaFStFuWud3TEDDy2k4V7wA1s5mB2reBLUEchrnToMT8WXlTWdJLz2WZMDULG21wRWg7464eOGiRJxw2UaFY/he9r1XsqmlT1Obl/neGzji0ZnhkrTWxMPaBaOI4y7asvUKke9WvtDw1OFErGEFmvUndttWqqq7TXInog0ckxJS32sFF0oc+WNY2kbaEa46K5cogmkPhsZW3VM1V1UUWifJAGQFdpzOecBkPwcT9yud5TdYGo9jg80jAONOmk5hgflIy3lqM5VemNlCnGGk6UfahtMXKFelMSEkKKa3Go/u2MD8xDdTLF5Lsk/8S0+qsGCxOSiHcjZWKfhplZ6gbtFbzi34N8soy3the9pOlMeDs3i8fhyetb55fnHVqxyCR9vJp10+YjsEO2flISN8PECuQcP8tLTfWSUzfgp+QhUIY/SOaaWf2JXyhfKcAa3s+cK1h4ym7c+7HooGLhdg3H1uVXdZMdLb3sDOX5kQ6xaRVNLznklWU0KmnutqkeRI8Y7Q8wVdz5T6FKpx11ENsPMeS6FGZCvOWFAFZo74b0zEOOXjnkt0wcp7itIO+ERDSxQoLZXMM9p5dpjGjtMcUktGlh1l7LHKsykk0rmNrHk2UiJifskzyJSNEoVz/eccIERCpoXlxSiq15DhieQaQQPgWgjlATTR2kll8dffc5d1sUHNlIYGpFBW3MV5comaM0gAiBmaU0vUWalV1c9tDUEVOeeRpyQhp84kIY6aTXAzxV1Lti6t3MdTdmmC0SJEEyQeefknLaSTjZVL+KQ8YznemXbWPJs2CvTnnEyVpOQtdecwNurxZI1ZyPTe9X4xW6xkmO9y3HRdHbl4BVBcD3xl0iZxHwEYwnmI0s/GLxTTFlywlFuZFc5FiQDTMk+Ee8XpLD7AJrqLTUFVOXGUHLyTNvZshGjR5msNbPs8YDSbtGNlTS7XvGVX1Wu8T3B5wPMJgjGPMcclLxuN40WqpRAbrXYMWNKAk0GwE0AA2mJv9tS+MvMqZddxuriEpddd93srCZSPjTxjNIDSYQARgKTO2b6nVfVbWOupGo4MxwyNs8ITGZpQ8Xu+kVQA7MLWUU5tK1IABz6eWNMjFTCjiuU0s7KFGsTQnOlaVVcuwRHdIlYaTl4RE6WnASte/uK7AH1CYGkZ/tHDqPVaJqRWNO7nvfkYu0qRXPuijcKTR1Hrt8Ik10yFb2SCK4n+bpjwfQ6pPqxdMJsWKtoCVqLFswixn1Mle/oiGqfomXfjMKOs6fhBrHWY5Zwd/6/C+1HU4ctB4Skr3Lgv//Z</t>
         </is>
       </c>
     </row>
@@ -2028,124 +2028,124 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Virat Kohli</t>
+          <t>Nayeem Hasan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2022_test_019</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>58.7</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>65.5</v>
+        <v>86.8</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="AD13" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxAQEBUQDxAVFRAVFRUXFRcVFRgXExYWFRUWFxoXFhYYHSggGBomHhUVIjEhJSkrLi4uFx8zODMsNyguLisBCgoKDg0OGxAQGy0mICUtLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALwBDAMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQUGAgQHAwj/xABGEAABAwIDBAcFBQQJAwUAAAABAAIRAwQSITEFQVFhBhMicYGRoQcyscHwFCNCgtEzssLhJFJTYnKSorPxg5PSFTRDc3T/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEBQEG/8QAMhEAAgEDAgQEBQMEAwAAAAAAAAECAxEhBBIxQVFhE3GBsQUikdHwMqHBFELh8SNikv/aAAwDAQACEQMRAD8A7GhCFYAQhCAEIQgGhJNACEIQAhCEAIQsLiqGMc93utBJ7gJQEJ0s6W22zaYfXJLnTgYwS5xA04AczkubXntnrYz1NszBweTi9DBVI6bdKX7SuTVIw0hlTbOYbxPEn9FXi478uajcHTrL2y3jX4qtClUp/wBUSxw7nZ+RB7wp2z9tFFx+9tXs00cHjnnA+C4q8b94Q1/DyS4Pp/ov0vs9otP2ep22ziY7J4AIExvGYz5qfXyVY7Sq29Rta3eWVG72mMuHMcl9B+zXpm3aVDDUIF1SA6waYhp1gHDSefgvUwXJCEL0AhCEAIQhANJNJACEIQAhCEAJpIQGKaSaAEIQgBCE0AIQhACEIQAhCEALmvtw6Rm3tG2dP9pcziPCkwjFHMkgd0rpS4N7aA6ptUNJyZQpgcpc9x+PovGCl7I2FVuBLMmzqVPO6CVAJD54iD8irF0Ytmim0N+irrY2nYkrE6st2DfGhBRVzkA6C3UxhEeXpKkqXs+MS+pHcF091OClTpAleOtN4JrT01k5hc9Bmtbk+fQrV9ne0js3arOuyY/7l54CoQGnuxBq6ZtK3DfVcu6b2cvxN3iCpUqkt1mV1qUdm6J9LJLU2JdGtbUarhBfSpvM6y5gJ+K21tMIIQhACEIQAhCEAIQhACEIQAhCEBimkhANCEIAQhCAaEkIBoQhACEIQAuL+06zNTa8DfQpHwBeJ9F1/ad623ovrPBLWNLiBqeAHMnJcq6U7TZd3VGu2m5j+qex7TmIa4OaQ6BIONw3ERpxqqtWtzLqMG3e2L2Ne0q07ZgxOAjeSrNs7bVKo2GvB8Vzi+sKbXdbcBznO05cAOC0K1qQ932Q1ab2CXNl0gS7lP4Xa6Rms8YJ8GaZza4pfU7Ie0sXuw8lVehm3K9ZvV1O0Wj3uPCVC9NdpXVSsLdjy2DkGauJ0017lBRza5Y5NRvYtO2NsUYh1RoPMqn9ILYVWdYwgwD5KKtLe3g9car3AgEkEASARq0cRqd4Ujb2Qp0qppk9U5jiAZ97l4Kbik7kFJyXDB3Lo0P6Fbf/AJ6P+21SKqXRfpQKtVloaOAdV92S6SerABDhoDGeUxG9W1a4yTWDDOEoO0gQhCkRBCEIAQhCAEIQgBCEIAQhCAxQhCAaEk0AIQhACEIQAmkmgBCEICG6Y0i6yqxuAd3hrgSuXXjhjpxB96TzImPInyXZLy3FWm+k7R7XNPc4EfNcT25RNu5vWAtqMrYXj8JBa5s+oz3grNXWUb9NNeHJdMk2bBtZsOiO7NalXYbg4uY84iIJiCRwc7eMh5Le2LtJrT2jkR9FYXO2Q8nqyBTE9pxjERuaOHNZ1e2DRdC2HbCh2QZcTnA57l47b2a6pXFSm7DUb6nj3/ooqy6S4ahLW04E5F5dUPgW4R5rctduvrV8JYyD7rmVBIy/E0CB5ooyTueuUXhGdv0cJDsTh2yC8YYxHM9o79T5le21LUUqRaBo0xwmMlOWN80gipk9vd59yrm3rsPAbJh72NMawXCY8JTmReCb6MtNa/oPZkGMe50bhhFOO7L1XS1UfZ9s8NY+sBAdDGf4WEkmeZP+lW1bKKtAxaue6pZcsAhCFaZgQhCAEIQgBCEIAQhIoAQhCASEkIBoQhACE0IAQhCAEIQgGhJNANVTp10Wo3ltWeGH7QKZLCC7tOYJaC0GHHKJI38grUkUtc9Ta4HzXszaZeAwnOIB9IK0adldV8TxMNOCJ0I3RwXr072S+wv6tHRhcatOMh1b3EgeEFv5V5bC20aJc15Ja4ySNx4hUOG27RdGak0pHk/YlzvpuGnEzpvCdOwuqZxNa8O4gGROX6KZvelVXIU4cBvLVuv6TAMGNwyEhrR2s43nT+Sjdl2yj1Zq7I2xWeHddINPIl2RiNCPBS3Qm3/9S2g2lUnqKbX1XAEg5ANbJGYzcD4Kh320nvLs8nmfLcuyew3YzqdtVvKgzruDWf8A10yc/Fxd/lCnGnm5RKq7WR0i0tmUmNp024WNEAfWq9UIVxSCEIQAmkmgEhCEAIQhAJCEIAQkhAJCxKaAaaSEA00kIATSQgGhCEAIQhANQnTLbX2GzfXbBqZMpg6F7tJG8AAuj+6pW6uWUmF9V4YwalxgLjHtF6VfbarKVMFtCnmJ1e5zfeI3QDAHM+F+npeJNJ8OZXUntiyr3IuNqs6+5rYrjE4BzgAMDSQGANENAMnIbzxVcq2xpuLKowkH47xxAj1Vt6O1AMVLQtJcObXGfQk+YW9tbZ7Kre0J+I7isNSTp1JRl1NqpRnTjKPQ5/1hA15IqO8eCl39G3OccDxHPX01W1svo6WvDqhDgN2evevXOKKlSm3wNXYuwzWh1TKnrvk6Zcu9WDZPTW+sLxtvTqE2jSIouALC2ASGkiWZ4tDqpelSDRkqhths3jANWgk+Jy+CaabnWUeT5FtekoUW+Z9MWd0ytTZVpmWPaHNPEOEhey5D7Pemn2Yi0uf/AG5JLHwS6mXZwQNWEyeIJ8utW9wyo0PpvDmHQtII8wtdajKlKz9GYqdRTR6IQiVUWAhCEAIQhACSEIASQhACSEIBISTQAmkmgBNJCAaEk0AIXlcXDKbS+o4NYNSTAVR2x03Altq2T/aPGX5W7/HyVlOlKbtFEJ1IwWS23l5Totx1XhjRvcfhxPIKlbZ9oIEttWfnqfwsHz8lUtoXlWu7FVe57uJPwGgHco00c1vp6KMczyY56lv9ODLa+1q9wcVao553Sch3AZDwUHdCXTvyVisdmPruwsGW87h3/otXpDaMpFrabZAnE+fePDDpAWhVIqoqUePO3Jd+l+S4hUZeG6ssLgr/ANz6LyWW+C6kIyQQ9uT26c+R5KzbNuW1myO4g6tPAquAQvfZl81laaZxE5ODc55mNCOKy/EtH4sd8f1Ll1XQ0aDVeHLbL9L/AGfUmLuzAdn4LctqLYmFvUwyu3sHMa8v5L2o2WUL52cZwe2aszuQcZrdF3REVakST7oBJKp1qDUq1Kzh7zsuTRkPgrztWm0xQadT2zwCrJtzTLmkQQSPIrrfB6DlN1GsLh5nO+K1YxioJ5427f5NduRlWbY+06tE46FRzCdYOR/xN0Piq5GatFvsRwpMr28va5jesYM3NeGiXNGpneNcwQuzXqU6e1T4N27X79DlUqU6ik4cUr97duti67G6cAw27ZhP9owEt/M3UeE9wVwo1WvaHMcHNOhBkHuIXGY4KR2ZtOtbnFReW8W6sPe0/HVY6uiTzDBKnqmsSOtJKq7L6Z0nw2u3q3aYhnTnnvb696tAdOYOSwTpyg7SRthOM1dDQhJQJDSQhACSEIASQkgBCSaAEIQgGhJNACaSrfT3av2e1LGmKlaWN4hsdt3ll3uClGLlJRXM8lJRV2VHpTt83dYhh+4YSGDc4jIv8d3LvKiFpU3L0NfQcf8AldyEFBbUcmUnJ3Zm45qU2JsR908mcNJvvu+Q5/BQ1k1z6nVsEuc5rWjiSR/5BdG21bttLanZUj2i3FVI/EefImcuDQFXXlLFOD+Z8+i6/buWUtqvOeUuXXsRN3Xp029TbiGjePxcYO/vUPUsG1Bhfp9aLfcyQOKzaxWUKEKEdsPV82+rZnr6mpXlun6Lkl0SK9V6M0sRJkhwgNJ7Ijd46StyhsukILGNH5R6qXe2QvDDhdO469/H6+auSRQ5yfM1rq2IeXthstiBv5mAOQ8AvC3v8NMiZIlS9y8NElVXY9Mk1MWjar47hmPRcXW6De6apLt/Ob5xk7mi+IOKqSrP/t0vysla3Q2mkUwajs6hzjTPdJ3Dkq3tfZb7mp1zqhDogYREAbuPFWJ1F1QmN5UjbbMAiV1lp6caap2wjlS1E3UdTmyp7K2DVgYqpc3PUZ+atmy21KD2upuiABG50biN63hQAaI3JuYJyyC8+Vx2uLtZ8c+j4vyDnPddSV78n7eXO5I7UsG3tu66oMw16f7Vg/ENcQ55HyIzyVQZU+StGxdom2rgz2HOwv4EETPhH1Kiel1gLe6cG5U39tgGgkmQO4z4QqafyS2Lg8x8uaznHItlU35fHg/vjBo4oVu6Dbdh32Soeyf2RO46lndvHlwVE6+CeX8v1TbXLHNe0kOBBaeBBkHzVlakqkdrFObhK6O5IWrsm+FxQp1m/jaCRwOjh4EEeC2Vw2msM6yd8jSRKS8A0kJIAQhKUAkwsUIDNCxTQDQlKaAFyfp5tLr71zQexR+7bwxAy8+eX5Qup3lwKVN9V2jGOce5oJ+S4PUrFzi5x7TnEk8STJ+a26KN5OXQy6qVkojc+BPA/ILF78xxDiPPT0cvKo/Jw4EfMfotV1bQ8h5sy/QrpN2MaRd/ZpSY+6qV3+7Sph45F0tnwDHKVu7s1qzqjvxaDgNw8BCrnQ+phoXD2aOc1n5Q4uI8qhU1s5nWVWU5jGWtnhMD5qunZynUfLHossz1JNy2LqeoG5MhWe+6OQ9zzVZToCIJmQAAIgwJy1nNR9S5t6WVvT6x39pUzH5WaeJXkNSp/oV37ebLJaeUH87t+clxIs0HYceE4dxOQPcTqe5aztM9M/Jbles55xPcXO4n6yHJeCvi3bJQ7ciJvb5zQabSO0MJOZygwRBzydvkckra17MAa6+KzubAOrNIyGKXDjkTlzkKSAAiPrX9UUIRk5RWXa/pwJyqTlCMG8K9l0vxMLa2DRzXs7JZrzq5QYynNRnJqLaPIJOST6kZXvnl/VUKZq1M8oc6SNWta3M9/es6F84P6qvTNN5iMQLRnoIdmDz0zR0VvmW1aqys/q3PAa2pmMJxAw4iThcDu4DvXr0uvadVtGlSqCrUYXNLmjshpIwsaci7SY3SuZ4k1Utnz/MWOr4cNnLy/MntddpsjUEEd4KfSZ4q2dGrvpnCf8JG/wDyt80zpnqtC/qxQr0ToAHjuxAn4Le3vhGfk/rh+5yprw52XJ2Kr1na5n4gj9FsVKoy7viSollxmTOmfi4l3wcPJezas+g+vJXbrmmUbHVvZnfl1KpQP4CHt7n5EeYB/MrpK5J7O7/q7tk+7UDqZ8c2+rW+a60uPq47arfXP56m/TyvDyHKSESsxeCJSSQDSSRKASaxQgMpQkEIDJNYpoCB6eXXV2FQb34WD8xE/wCkOXGbgwO4/FdH9qN3nRoD+9Ud+63+Nc7rNkkcR8PorraSFqV+pz9RK9TyNeo7tjg8fvCR6wtCu4tkHjI+B8x8FuYMVP8AvMP8wfX0Xldw7MjXPz1Hnl4K95RCLsyV6IbRmnVo78Yd3gtaP4VaqhIII1EaLnvR14o3DnOzGGPNwPyV5p7Qa8AxqvdPG0H5sy6iNqjtz+xPPuH1AC97nR/WcXeUlYStS3q5LaYCRkCe4Kdtq7FV7iSJ4r2taD6rxTpiXmYEgaAnU9xWVSyw1H061VtMsici8kkSMIbr5jVRc4p2bJKEmrkfTeMRJB/5+vVbOLKJzOQy+ua39nbLoXBc23uJqgZNqUy2Y4EErKnsJ4oVqrn4X0XOBaRM4Q12s78Sg69O9m7cOKfMsVCdsL9+hoMMx9ckFoIzC27e3oOaP6SAYH/xOgE7p7+S9bvZVWmzrBhqUv69M4h47wvfFinZ48017oj4cmrr9rP2IO62c18YxiI0OYcOGc5rzttmspnE1naM9pxl0nfwnnqpe2t6lX9mxzo1IGQ7zoFnX2ZcBuLqXEDXDDj5NJVThRUrN27XLlVrOOFfvb+SJqiN+irXSS/LWPj3jTczwcYnwmfBS95cjTwjeqZ0nuGEYWv7emE5OGY1WqeIO/Qopx3TSI6jW7JO9xy/XwHxW8xpBDN4zPIuj4CPVatjRwgGJd+EcTxPBo9VK29k9x6um0veZn0LnOJyaMwJOXbVMcK7Nsnd4NzZtYsLXsyLHNLe9pBHwC7tbV21GNqN917WuHc4Aj4rk2z9gGg5n22lUwkPccEYQKbWvLnuzGB2JrRBB1zBEHpWwqjQx1Frw7qXuYIbhGD3qe4A9hzRIyMLDrJRlbaX6ZOLd+ZJkpSkUSsJrGklKSAcpShKUApRKxlNAZoWKAUBmmsJWQKA5J04u+tvqvBmGmPyjP8A1FygLkQWu3TB8cvmncXeOq9xObnvLu8uJPqs6rcTCN4zC71OO2KXRHJm7ybNJrcNQtOjsvLMekrVuuzkdN319alb940uaHjXJR964PZ9eXxC9lwPYkfZ1iapbvMehj5qw2tVwyOXoqfZP++GfHvMcfrcrE173nemmleL8yOpjaXodH2dUbb2tGuAH1K7qkOeMTKQpmMIaci86yd2i2bTpPcve1lGq59U6MEOn8u4c8oVHtNq17OkW4muZUMmlUY2pSMfiLHZTzHBb+zek187Ki6nQpn3hSpU6Qjva2fVRdFu94p93/p8O2CKmrJ7ml0X4jqu2K9JlxbE4RcGo0OjXC8FsO8XCJ5qM6VbND7kuFekxzmglr3Fhy7MgwQdPRUFu0nGqKjSSGPDpJnEWkGZOuYU/tTa7r1wrGkKeEYB2pBzxRJiTn6rPHSyoyi74s03jr3LJV41IyuuaaWfdEjsP7PZvNSpWbVrZ4W0ZcxsggkvIAmCRG7mpuzvW1rS5q1pa11QzhzLRgpNETroPVUa0oOl2QEOjUd+kyciNOKlG1araTqbHjBU95sakcy3XIaFeV6dNyzNbrri/a3A9pOrbEHts+Cbz36mVLZrSZZeW5Z/feabv8rgp232nb2VB1PrW1qjpOFmbJIiJ0jnqeC5+1ruswjeTy079NF7V6DnUyd7d4IPwK01aCm1Gc8dMK5RCrs+aEc9cstPXfabWnTtiC+ni6yiCGueTEPbPvb8uajbW2vutaKFCqx8jtOa5jW83EiI5b1UcT/wg4hwknJeO0trXkAOrVOpfIgvfDXDVpBOn6qXgyimotWd+K6+/r5BTjJpyTuujXL29Cy+0W6o1LyKBaXBgFVzdC+TrGpAifLcuXdIw4XQxa4GZ8c3Z/XBTDWEmCSDyMKtbSqzcO7WKIAz3Cf1VdWCpUYw8v5LqL31XLsydsqga2Rmch3ncPrTNTOxLhjg6nUol4NQODg8sxFoIh4AOJoLnOABBBcc1X7MOIBGpybyB3/W5WCm0UacN973W95+p8FZZSWRJ7WSN9tirXAY4gUmOIptbIa1oaxoaBMYR1eW/tHMyrN7N7oCvVozk5jXDvYYP7/oqTQLQMzk0RlmZ393CSpLoptZtO/pEHsufgO/J4wiT3kaToq61NeE4xR7Tm/ETZ2KUkpSlcQ6hklKRKUoBylKUrGUASnKxCAgMwU1gmgM1rbV63qKot464scKcmBjIMZnmvdNED52vLCrQeadVj6dRu5wIMcRxB4jIp29+5mREj63aeUK5+0pgffkO/DSpgcQJcfiSqLcCCYXT0+tjWm4NWa+hlr6SVOCle6ZKUbxjuzP8vSfGFHbSolsubm13DQO/nHmOa1HrxrXDoOf136rXMzxjm6I+3MV2nvV32fWpspio7PWB3Eqi27z14VmoCWNB0n5qGleJeZHVRyjatXur3AqPALMQbBAIh3ZmDllM+CudGmGloAAJDohsEDsnhwDlV6zA1zWAQ2FZrg9ud/337pVOrj/AMsM8VNP6Y+hfpJL+nqNpYdNr/1Z/VHrVoh/ZeTGgzLi07iJ5bt45gEbGzWhgwO3F2c5RhpwQeBxfBOlTBDp3DieS9mnNv5v4THdI9SvnoV6v9JKlN3UlddrSyfS1NPReujVpqzjLa+jvF2a6NGvaOOJ40EtMcQaVMkepW2+oIDY19DJHlktW3YDUqg6A04/7Q/QL0qe8z/CP9xy6EaNOtrZRmk7wXtY5NSvUoaGnKEmrVJcOl2zwuqf3jX73Me083NYTPkR6rK4IDXRnORzn691elXVv/X/ANpeV9+z8R/EvKUnOtpXLjtf2J1oRp0dZGPDcjQs6QAJIkuMeAMAaakiYPBvFeW2aAqUajMpb2hEQC3IxnxIW3fZUSRrgj4N+CyrMGF5343jw6xFOUtVGu3xqOCXZL75PXThDRz06XCmql8Xcm0/pbBVLhh6vGB+H10VOq06XYDWuFXFUNVzvdcC+KYYOQBk7yeSu9fJlVo0EwvHpRs6kNh7OuQ377rH0y7eWVH16hB4w5sjhidxXW1jScPP+DjaP+4i7O4Y0TvGn1r6L0r7RJMt4ZbgJ15k+SiLXRb1swPexh90ugxrCtc1GG5nqp3lZG5ReMMvIgdwA8NArJ0c6JV71grMe2nRJMP1d2TBLWjOQRvhV42jMeCMs+/zXVvZqf6E5u4VqgHdDHfElc2fxJye2mrGxaJKO6TLSyYEmTAk6SeMbkSkgrGXASlKEigHKUpJL0H/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYSFRIVEhUYEhIYGBIRGBIVEhERERgRGBgZGRgYGBgcIS4lHB4rHxgYJjgmKy8xNTY1GiQ7QDs0Py40NTEBDAwMEA8QHBISHjQkISE0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0MTQ0NP/AABEIAKoBKQMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAACAQMEBQYAB//EAEAQAAIBAgQDBgQEBAQEBwAAAAECAAMRBBIhMQVBUQYTImGBkTJxocEjUnKxFEJi8DOS0eEHJILxJUNTdKKksv/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACMRAAMBAAMBAAIDAQEBAAAAAAABAhEDEiExBEEiMlFhcRP/2gAMAwEAAhEDEQA/AF0MUTssKwnlG4SxNIlp2WABG0EIJyrCVIAEEER1hqLRbXgAAjmYTssUJApA5oVxOKRe7gBxIiAzssJUEAwUERBaGBBtGALQQseIEz/aTjy4QKqgPUbYFrZR1IjmXTxEt4XpsBcmw6nQSLV4lSQ2aoinexcDSeXYjidWuCKtQuBc2YnL8wu0Zu2+bSwJuTYGdU/j/wCsh8n+HrmF4hTqrmpurjqDz6GKldKgujBhqLqQRcaGeSU8U4zZCU0uQdiQJZcF44wKI5yoSfGDr7dB9NTFXBnxjVnpKmFaJQIyixuLDW97+d+cdFpzGo0ViKse0nBhABhhFyiE5EVQIA0RnScEkhgIJIiJwatBKx3MItxExjGWCKcedxAFSGk5gBSDkjneTi4gAyUi93Cd4GeGiB72J3kCLaSMcWpDFSNqJ1rQAdzmKKsZvOWAD61DD720YAh2gA535nCsYGWdaGgOrVMU1YzOgPR1qkFapggQgkA9HEqxzNI+WdeA/RjjHEhh6T1G1sLAdWOij3nklXFO7MzMWdiWZjqSZ6F2vw7VKWxKIHchfzhfBm/p3+k84poWNgLmd/46SlsyvW8Ovckk76QzUvvoNj6R04Jx/KT8jJfD+B1cQxCrlAF7sLf95s6lfsSin4kQkxRICtqL6/p6QVrZRYAE/mIubcgOk1FPsNUsCzhT0ykyk4xwvuHyZixsDe3IxK5p4inxVK1o0PY3jTl1ovcq4bL5MoJ06DQzbhjML2H4eWcVSPCquqn+o2G/+abwLOPnzt4VD8E1iXhZoF5iaacRFEUmCTEIImNsYpaIYxHKYDTgJ1pIYAYhWOkRLx4LBk3nZoZN4LJGGAtEixbwwMG4QEbEcUySRVh5o3nhCAC2vOItOBikQGIGjgMALCEBDgaLmjV4YgMUxYlomaABXnBoGaKDAejt4F4BaJKDQqiBlKsLgggjyM86bAChiayXAprrmYiwRrEa/T0nogBmCo4Jnq1qbGzkC5OviDHr6Tfgf0Snff8ACz4fxLDKbOynz5e8vzxTDURmzAL5a36WtMfU7L1L3e4AHxFlIPyAmuwfZlKmEph/iLG765rf7SrU/Uzrh18aCHazDVBlUPbbMKbsPe0zfa/B51XEU2uoIHMXBNgddpbcP7D2fKxV12zB6qt88o5+sl9oOHLTomlTJuzIq3JY5ywA31gnM0nInNVLVEbsj4MPTRiA7Z6uT+bKW0Nvb3l53kq+FYdkUB7XTNTUquW6G2tvSWQmFvtTZlyQoaS/w4mcIMQyTNMMtFMBYcBjmFqqjAugqDbKTZb9T1lvjqSNQZ0pqjKVN1vexIuPlrKFm2+Yl+CWoOLaZC2a+mmtrRNstJYZ+8Akxy1oJjIBJnEQgIhgANrRC0IrAKQASJacy2iXgAgnAwAZwMCdHAsIQSIVtIAKGEIvGgsUtAPQw14V4FKE7QDAgYSwFeRuI4/uEDmm7oWCEqDlBOwZrWW501iUuniBJsnMY2TKrDcbNRwFQKCdFvmPyud5aPXAIDCxJt8mOwmj4qSNv/jXXQ1WJFLxLzIxEtCUTu8iB4AOLM1xyh3VUV1Bs2h6BrX+tv3mkvIXFcMK1N6exYaHo41U+4E046xlJ58Mxie0jHRrEL/Lrdj002EtMD25siUxSDa7sGsB6b/SZCnS8brUUiouhHmP3llgMRSDAdyzNts5HsWtOtxOGsXVP6X444RUXunJza92yhSDzykftHMTxEVHoqfE3eISpvbRuZ9/aU/FatGmUZECVBmNwANToL2gdm2zVDUcHu0DMSPiYga2vztm+kz6JrUVVvc/Zt69TORYBQBYAfc842okviGDag+RjcEBke1g6NqG/vmDIzGczTT9MG+3rEiiCGiwFguWLaCptFZoDBYfaaLhxBp1F5lG08iLfaZ5hofkZfcFPhA6i3pE/hclIy3gBIRYiJmjJEMDLOLCdmgGikWiExGaITAQhi5REzTs0AGFhAwHfpG2cwIJKuIrOBIgvDsYBpIZ5wtBUQ7QHpyrCUQV3nZTeAJjHEiVpuwbIQNH3sSbXmKxHGQKdSineNmOrGq+Um+rZBpr0mu48b08t7X1vpfSedvTN2tcDqdCT8p08ErPTRNqdX7HqOOZSCDYg3HW4l1g+LtUK5iSbgee8reFYClUNqrsnPMLAetwfeSalBEqIuHV3AJAdrEux6LYAKNdfMzWsNY5rnz9G/qLY7gnQ3BuNReCWHON0lIVQdwAD0uBOdLzhZzt++BLYxSIyKUc2gTo5mgOhk3A8Dr1dUQhTrne6Jb5nf0vLzDdkrD8SrrceFF0tz1b/SaTw1XxCdpHl/bPA5f4esujsHB03VSACfXMPSZ9eKVE0sL9R1npf/ErhdqdOpTT8OndGC3ORDrmPlfczzRqIYg/7zr6qUk/cLjWtTB7upXbM50287TZdn+HkqKdMXd/w100zPoDboL3PkDKqjTGVQOotpreevdhuzRw6rWrC1Uiyp+RTuT/AFEew06zPXTxfDdqeOW39Ze8V4CmIp00JKsgCo9gSAFtY9QbA+kyuJ7I4hNVCVB0V7Nb5MB+89EEWa1xTXrOJU0ePY3A1KX+IjpyuykC/kdjGEYz2V0DAhgCDoQQCCPMSlxvZXDVNkNI9aZyj/KQV+kxr8Z/plKzzlXE4vNZjew9lJo1SWGyuAAfLMNvaZTG4KpQOWqjI3K+x+RGh9JjXHU/UWr0QPcgekt+CXIAvbcHT++UoA9iD6zQcENmI8yJlXw0h+lZiVyvUHRnHsTI7GS+KNarUH9RPvr95EYiMhv0bMRIbaQAYB2FvAqeU52tAZ4C7DlHzjkjB52aAdmNAxzLOzgmOEiAvRm0eBiRVi0BGbWKzwykW0YYNhiIeeLYQSICwBHvUCn8v73me4vwbK+nwsTY89DLTHsab06n8vwHpfcff2kjiXF6dRBtmGg+c0mmkmjs40qhFfhsNTRbKutiCT5jWP8ADsK2Y1HAB1VLflPPykHAUmruwYEU1sW873yi/nY+xmhAtaF1hHLaS6oQ3gERw6y04JwZsQ+t1pr8T9f6V8/2kTLp4jldEvs52cOIUVKjFKd7AAeN7b2PIcr685scNwqhS1p0kU/mIzP/AJmuRJdKwWwsANABoAOQERmnpxxTC+emTpsF2keoDuN5IZbiR3xdNQc7opG4ZlBHz6TXRYV2JTyuOY8uky3FuyGBqnOjHCOb3ChTSY7klDYC39JF79bTdMAwDJY8+ViPnIlThiMc7AMdtBbKPL2G8zqdLmnL1GX7E9mcPTbvS4xFZLgJlC00PJgp1Y9G+l56FQcHfQjlpKZeFKCGRu7YfCV0Pr1v0MtMKzEeMAMNLjZvPykKMRVU6esniLG1aRsbxBKKhqjZQWVAbMfExsBoPrK+EpNvETCYOeNioCAQbgi4PkZHrPGIktV0lT2mwq1MPVLJnZFZ13zBgNxb9pOz7DyBjtNtSPK/pzkP3UXmI8ctL3hDeM/O/vD7V8I/hqmZB+C9yvRW5p8uY8vlI3C28Y+Sn6TzrlzqZrxPWMceW1d/MIf/AIgfaQCZbdoU/FB6ov7sPtKoLEvgq+sTNBzQ2SMsusYgSbzmENUiMLQGNmLeKREtAQCNHUN4WUQKyaC0QwssVQYCGOZrCADecmPKIKJfWGViYaLcbTjYQMttYt7xgV/auiyPhkbQNTZ7beNrH3C5R6SDwrgz4lhSppm5s50VB1ZuXy3PKarjVBMY+HeoGVkA+AqA9xbW6m003CmSnTC0kWmoJuouSTtmZjqzG25nX1TzPhU8nWf+lVjuBLg8NTVPE2cZ6hFmZihtpyGh05eZuTSAzTdpqpdKVwVF2OtvFoNRY6Aa/wCaUFGgzsqopZmNgo3JmHKv5YjPW/WFgEV6lNX0Qnxa2JUasB52BnpoCBE7sBUsAqgWW3QWmYodjrthmqOA9N2rMF18WUoqeYAYknqOk1P8OUuF+A8vyt1nVwR0n36zJvWMt8LeWscbVQYyzXV/l9eYnYd7qPadIEPEYhwfHUVKRZBcZVbxuEUX15sNdNj10zuG4q1LEY11RHUvYFqr0mCIMhLEhg1ypYW1tfeWNPDuTi0IKq1QlC+YUyGAJYDqGvZrchEw/D1cv3lJw4bcMiIb3N0K6hTfbW2kh634XDhL1NkzhFT4gAqqypVyI2ZEqPnDqp6Zkv8AMmWQJB0MiYPCimthr1JLNtoBc62Hn59Y+G6SyXm+EgHr9BaPI8jB77wkeIRA4hxWqrKtOk1ixTVGYn4rMCCoHwjmdGGxFo1Q4Y9ds1VnCbZXL6228BNwBrvqdCSdIuJwDu7OMvO34tZdwBqq6ddPIRW4aczEBddNate5UE5c1jqdSfWZuU376bq6lJTi/wC/svWIAAGgGgHlI9dtINFciIv5VVd2Owtubk+usCu2k0RgOu9mX9IhJWGdRfkwP0MYqahD5W9pBwF3cte4IYjS2+g+kllD/aTD99RZfiKsrqoIDNlvmVb/AM2XNbzExmGpGnUCnXwgg2IBU7Gx205bjblNpxp0Sg5qMVRShzq2VlcMMhU8jmtMtgKb4qpnLocqizrYBlubGwJtz108hObnnsvPppxJqm/0Mdol8VNuqkexv95SNLjtJiqdJ1Wq4dADlK2DA6Zg3sLSqrhfCyZspF/Fb6Gcrlz4zSobXZfCOxMFWh3vBy6xGWBCc0QGdAAgotBsIloloeDwFXhhrxsHScrQAeyCKVgHaIskB9BadmghYIWADpW84LaCjwy0eAPpVICjy+5mhwQFlOugUN0H83vrM7VS4pkfl+uY/wCsn8NxGaqyX0awUcrqbD6XnZPiRJb9oqRehTcDxBwgUamziwA87qsl9muBvTu9Qhah0C3BZV35bEn9pc4BRlAaxPxW0NuS+u8fDq/hHgcciMvtLULt2Je/CQ6k2PPnb7SHUpENfObcr2PobxvHowCuhKuBrroY0nETkJqLmA3IOo9JpoYAz2aqu1jy81DH6sYOGflIWHxq1XrMhutwLg3uci3/AL8oFbHLR7svezvTpCwv43OVb9BfnLXwlllVF4qvKCh2qw9WpUooXzKKhDNTK037v4wjfzWsZZ8Pxa1qaVUPgdEqKSLHIwDC45aGULdJTtFpzPYftPSq4eviaYdqdI1Ay2QOSljprbUEEa84idqkNTCU1RicRR/iVN1GRMjOAw6nKRpDRdkacGcrShPaAfwP8aENu677uy+v6S1vraN8F4/Uq1u5xGGbC1GQ10/EWqr01ZVbUDQ+IRaPsjShoV5nuCdoVxVbGUgmXuHyhs1863dWYC2lmQjnI3DO13f4ehWWmA74qng3p94SELvbMDbXwlTa3OLRdkauM1pnG7UuVVadJXxL4qthKdPOQpp0ns9Vza4ULqbdZpHEExppjOIq5aNRibZQ/wC3+0bw34YHoB8ozxVrYbE+SM21xpqfpK6niyaSOdyVPppJZZe4/h64vDV6Di4dWUeTbqw8wwU+k8Ow/Fq2HpChmXDBR4mW4qFtbkgj4upnuXDq10byIPnPIe3OBZMdVKUF/EtVRsygWIszeI+ElgxNuZkV8NOL14ROF4lXOdcO9ar/AOqVJv55m0l6lWuw8YRE2ZMylrcrC0z+BxFXKBUrIgXSyhnf3uAPrLLA10csKYZ2Wxaruovewa2gJsbfI9Jy3+zubyH/AOE8qIyxhO8bYXmJwiXhgwUpRWpkQAdWxhZVkZGI3i5osH6MWjlJY3l5RQLWAiJ0cJiq0DJrrCVIBo8J2aNLcGPShtg3hoYCJeFksZIEl6tkHlb6En/SRMBijTdHGpUhrdRz+l4tX4T/AH5/aQ6T2I/adcPZTIPUeFV7gE6lgDp0Otv2kzE2Z1S4DEF0N9bg6rbpzma7M4jMgW+qWQ6W22+Z/wBJZ8Sr/jYYjdS1/kbaTZMC0NRshFgWXdW5qZW0sSvjuMgsbi9xaSjjmpuVqeJLHK2XxW6EjeZ7j3GKZzJSF2IsW3UD9iYVSlawIvZZgFrAbd4xHyKrHO0zWpU2H8uIwTf/AGKY+8i9nntnXzvLTH4ZKyFHvlJptobHMjq66/qUS4rtKaJozOBz0alFb08TgnqYqnh6mW1ehUZahZBcbeF1P22NrgcYaPCadQbpg1YcvGKfhHvaO4Ls1QWucSM+bM7imahNFKjgh3VLaE3PvItPsXhUBUd6VK5CrVnK5Lg2t81Ev0hJozPB6oSli6Ip1KSvhKBtVpmnnrU8tKoyA7hs6n0krhnixNFrW7upWwI/TRoVzp/nm+xHCqVYq1RMxVWQeJ18DFGI0OuqJ7QafB6CtmWmA3eVK97t/i1Fyu2/MaW2jwnq9M3Tb/wIf+1+8YwmJGDxJc4kY3/k69RmYqz0VplXCgqSArE2ta91E2VPh1IUhh8g7jL3fd6lcn5d72jeH7PYamtREw9NVcZHAQeNL3yt1F+UTQ3L0xnZdq1DEYPvsO1BalCthu8aojiq5LYgOQNVNy2h/NInDMM1E8Kyj8LFPgqjdFxFCoQT/wBSOvzy+U9OqYVKmTvEV8jComZQcrgEBl6GxPvCThtILTTu0yUir01yLlR12ZB/KRc7RYLoec8MpNhay48uWptjMVhHQ2ypReowD+XjFz6T0xxGH4dSKNTNJDTYl2pmmpRnLZixUixObW/WSCLDygipnqMGnmDqdmVlPqLTHo4GeiNhYrflcAkehmyBsZ53j3Iq1ORDuPZiBMua+uM0RteAYpWQ5iAbA6m2o3lF2+pYfF01RbNUpuPxFFmUEG65h10NpVfxZ7prHXN67RcIn/L1DfnTb/qY6n2yxVey8/wqFjRm+IdkETDVqqs2dAHuToVBGYe15t/+HfB0GAXvPH/EXdtMuVUZlQA9Ra9/OM1qBq4XE01F3ejUVV0F3KHKPe00HAcMaGEwtI2z06dNXtqM1vFY89SZjwN0n29NubxYjHcYwJw9V6Z8QFirfmQ7H7fMGRaQuZe9ramZ6Z55LemY2/cyiRjeY3OU0iF6ONpGWqE7R1zfeMvcWtJQB2vE7uA7mBmMA0BDeKqGEB0ihrCAYc4hEWggxYsDqCt46imJeGYg6nKpvFy76xNQImQ3lB1EAuD/AHrIgGUk89gPPrJjU4AwwOp3+c0i1Kxicss+z+INJhbxltCgBb5EC+4uZe8Rx6U3DWzOP/Lz6jn4iBYazMYcFLlGKk6EgkG3zgM9pb5vP4h1JuP4nVrE52sv5F0W3Tz9ZCAiB7xV1nO6dP1h1JnB2szekvC9+coMCLP6S8oi5nfwPYRnSxljRNhDQXMBTHqCzpIJI0EQRCYqwAO0cUxuEpgMeUx0GMqYYaSMXNALQWaMvUEQxXe0wPGlAr1f1ZvcA/ebDFYi20x/GNarN1Cn6AfaYfkL+KHPpBvb5SXhKwyVEB5A2O+l/wDb2kfeIlKxFus5Zprw0Uo0fC9UI6qR7iQ+AcbJIpudDYC51B+8l8DbQTLJQKVDr8LH6GHFXVs05VuFtxutep+lVX1PiP8A+vpK4NrDqVNydSdSfOKrCKnr0lTh1rwcpiE9NoofrJG0Mk25Ts/lDdhE7wdIxdRux3EICGu0VoiBpd7Tha8AfFCaBWBrzihxAWAIgHw3SHmtvGKcMwAMt5xVOkZMdG0GIVWnAXiLCiwBVSC4ttOMV9o8EO4M2db89PpNDgxrMxhPjT9QmpwPOdv439WRf0mXkymNJATeWAnWjMO0NYAhwAW0W9pxgwAPPO7yBBaAxKjyNUePPI1XaICNiHuDM1xTVx+kfuZommf4n8Y/T9zOf8j+pU/SGD0iruIixGnCal1wVrED5/SU3E1Iq1ANLO/7mXHCvi9TKzi/+PV/V9hJX9maX8RFReusIKIa7QH2EozANyfKIE3hHaKsNBDbaTtItSJGB//Z</t>
         </is>
       </c>
     </row>
@@ -2155,25 +2155,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KL Rahul</t>
+          <t>Nurul Hasan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023_test_006</t>
+          <t>2022_test_040</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>40.9</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>72.7</v>
+        <v>61.9</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2236,17 +2236,17 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
         <v>58</v>
       </c>
-      <c r="AD14" t="n">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>130</v>
-      </c>
       <c r="AF14" t="n">
         <v>0</v>
       </c>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>Batter</t>
+          <t>WK Keeper - Batter</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhMVFhUXFxUVFhYWGBcYFhcVGhYXFxUWGBcYHSggGRolGxUYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0iICIvLS0tLS0tLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLi0tLf/AABEIAMcAoAMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAAAQUGBwIDBAj/xABBEAABAgMFBAcGBAQGAwEAAAABAAIDBBEFEiExQQZRYXEHEyKBkaHwFDJCscHRCHKC4SNSY7IkYpKiwvEzNHMX/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAMBAgQFBv/EACsRAAICAQQBAwMDBQAAAAAAAAABAgMRBBIhMUEFIlETYXEy8PEGFCMz4f/aAAwDAQACEQMRAD8Au9CEIAEIQgAQhRLpC23h2bCBu9ZGfXq4Y83vOjR5oAe7bt6WlGX5mMyGNLx7R/K0Yu7gon/+u2YQ4iI/AVxbSp/lAONfLivO1v2zGmozpiO8viOzJoMNGgDAAbgm6+gC57a6cnuddlpe4zGr3uBiEf5W3brSON5Y2F01uY5wmIb4rCTdNWB7W6VutAJ7lTBcshvQB6Yg9L1muu0MWpzq0ANO4kkV7lJ7O2olIzmshxmlzxVorQnCtOdF5AvFdUtaESG4OY9zSCHAg0IcMQRxQB7OQqo6POlqHGuy8+4Q4tAGxsmP/Pox3lyVrAoAVCEIAEIQgAQhCABCEIAEITPtXb8ORlnzEQVujBo+JxNAOAqcUAV90idLHs0Yy8qA5zCWxHmhFaULW8Qdd4VJ29b8ebiGLGeXOOGNchlmkt60hMx4sW6GF73OujLEk6pqIQApNVkAku4VW+XYHYa7igDQ5iVmBoV2CAeXnTiiZhYY0BCANRgajXz/AHSNg6blvbEa1pFa103a1C0wogrnmPMFSArB5fIqfbH9JU1JtbDc4xYLSKMdi5rcMGHcKYNOHJQF8cacu4/v81iHeuCgD1Psxt/JThaxkRrYjgCGONCSfhFfiB05KV1XjKWjFrg5pILSCCNCMQfkvU2wW0HtknAjOPbMOkTi9huOPeRXvQBJ0JAlQAIQhAAhCEACqD8QFoRBDgwADcIMV5PuuIN1re6te8blb6o38Q9ol0WBLDJrDEcRmXOJDQeAAr+pAFLuOOaxOKyAJNBvyUxsGwmtAfEAJOh0VJTUUXrrc3hEes+zY5xa0045LuZs/FdjdoeGSmrIQ3JwgM4LM75G1aWPkgcSwI9K3R4jvXFM2RGHwHuxHkrS6rgsvZx6Cj+4kD0kCqpfZ2I7GlPXyWw7MxRWo/dWYZamQXNHao+vIlaWJV8xY8Rui44kJzc1ZE1BGoTROyTSMkyNz8ip6ZLohnXUovRvQZLFshfd8b3Fgxwbh53ry8+T8p1b9U/7K7Vzck4dRFLW1F5jquhkVFSW/bFaU88mRrDwerkqYNmdofaWNMSGYT3NDhiHQ4jSAREhPHvNNdaEagYVf1JAJEIQQKhCEEgqf6fZGrZeKKYucHZVwbXwoD5K4FVf4gY12VgDfEfh+in1QBSViQQ+NUjX6qbwwotsvCxJUwgMWO98m/TR9p0QGpxlwFwwxou2XgpKNTO0eSQsR1Z3LJrt6hsEaH0XHMtC7IrNy5I0MqESNMyxNswxPceGU3xoSvErJZIxbUC8AdUxDD1vUrtZhu4KKPz78FsqfBzr17i7+gi2TGgxpOKQRDcHQv5mh1SQOFQSObhqrYkmPaC1xrQm6d7dK8Rl3Lzt0GsebUbcrQMiOibroFBX9RavSKaIBIhCCDJCEIJBVL+IVv8Ah5Y/1In9o+ytpVT+IUf4SXP9Zw8WFAFZbKQKw68U8T1qQ4Aq846NGZ+yb9hzWC8bnjzH7LrfZkNzy94Bx9ZUWSxLdybqpPZiI2N2scT2WfYcycF3y22xae0xtKD4h9At0NsIm62GHaVOXdvWi07JhasZ3VClSh8A4WvySuxdp5eN2aEOy4J96pjslXFmSDYZBaMPHzU0suPXDVLlKLeMDIxkllne6AwAmqi1rbSQ4ZIpVdNoTpbUE5qGTlnda6pqeSiDjnkmanjg3TO2or/4zTlRaG7Usce02gOoXbL2FDYKmG13Mk/RYPs6Xd2bt0+XdRNzX8Cdtq8mcRrYjeyQQciFDZqCWvLTvKmFnyXVktqaHJNG1UCj2upmMfFXr46F28rkmH4fogFoRgc3S7qd0SGSr/XnHoQeBakPHOHFbz7NaeS9HJ5lBCEiAM0ICVBIKt+nmCHWaDq2PDI/0vB+ashUR0gxJiYixmuiPuiI9jWBzrt0EgC7Wmm5UnNR7GV1OeceCN7CNpDi/mZ8inefgG4aDRNuyMEsZGB0e1vg2v1Ungw7wxWW9+42adYiQtsOK6HErEdDeB/DawEB2OILhjWlcMFpsSTe6NWY65kO5veSXXaAitcScd2amzrOFag0W9lmNzcb3NEbeMFpVJvORjkoLmtcDeLfhc4AeNDn908WdVZzkEABYyhxCRJ5ZoiuBn2greWNntDiG1LG07cQtLsdzQMuZXXbTe1jktNmtww7xoVeLS7KyWSL28+M2M9jYsZzBENx7Xdkw6YUDQBe3+FFvmg+G5gD+tBDS46tdq28MHBSqNK1zFe/71WuHZtTUj6pjtT8CVTjnJwS+NDTSqZtsRgw/mHlVSuYgXQo5thCrAYdz/mCrUvkXqFwOXQVL3rSDv5IUV3kG/8AJeil5s6NLafIxIkYQ2uvMudokAdoOJwzyorx2M2nE9Cc+5cex11za1FD7rhwND4LQprODI6pKO7HBIUISK4s2oQhBIKntpWfxohGJ6+JTnUq4VUu1EAwpmMw5Odead3WEVP08Vn1KzE2aN+5kQsul6Yb/UDudWjyUhk8gmG0SIc9Ea33XQ4dP00b8wnGTj04pFngfV5X3HlsO8lc27qtMtN037/XDJYzseuA1KphYyN5zg02piBTMn/tFlw23zfNP+k2WvMHANdQio8c6eCZIcyxjy72uIThUOoQCdMArRhnkiU9pIrbY0voDnh3Lksnsxerd8XunjuUctSaa54MSM/QgQ6tw3krZJTkN0Rjg83WmrQSSa8ScVZ1vBRWpvBPnS60ObRZys81zc8aLTMRhqUrA3s45qJVMO0QBlyDvBHOqdpqLQqObSR8GM3mp8U+pcmW/oykHgimmm7ira6MQGxIjW5Ohh3+l1B/cVTVituRSyvZPqqtrona58SK8+7DBhg8S+tPBp8FEP8AYhtqxS8lmFIhC2nKNyEIQSCr3pPlu3BiUwc1zD+k3h/cVYSa9obHbNQurJoRi12dD9lScd0cDKp7ZJnnW3ndXMsdUmrBmf8AOa0+yd4ETs327ls6TtkY8tDZHcG3b4hlzTXOpaSKVHulNVhTzSxrTlSnfUfdZ5we1Guuxb2PcGYvD6KOW3tORgyuo50w8PsnxgvNcG543VBpmVfFjOY01pqcOzv9b1FMVl5J1E5YSic8zaEWLgXHHPTyC0ul3kC6CToBmKap8s2xntzu86V471KLOssUqb9NS24N/DJPUl4FfQk1mWSCz0B4uuLSAABjX1qVwuhlpqDrgrKm7PgXcetJwJqWgV1y71FLWsx1exg3c7HDmKI3fJEqH2jls62XtIq4n501Cm/tl5geNQoA+yHNu41vG7wqpc2GYUENJSrVF4wXolJNpmTo9Tyz+yjluRC6K1o0/ddsabDRdxxJJOtMlrsOyZibjO6mE6IWC88N0Bw71auOOStsstI6JCXDSH1vPpgNL2hXoDYixPZJRkM++7+JEOt92JB5ZeKg+wmwERsRsaZYWtYQ5rXZuIyBG77K1irVQxyyt9uUooRCEiaZjoQhCkAQhCAGPbSwxOycaX+JzSWHdEbiw8qjzXmKroT3Q3AtIcQ4HMOBoRTeDXBeuVRvTjsyIURk7CBAiuLYoH89KhwwwqAfBQ1klPDItZ1pgMLycWjurQEfJctkzDXxIj8r3HQCg5alR5sc3SAeP0XfZE31d0ihxyOPfzqkuGEx6ty1kkrpjqqkY0+S5Y21l0UDRjv4JJ18K64l27AZnAG7VRUvq+8cm5cdfmq1xQ2yyS6ZJBtPe0G5I6aMYjco3GAY6rTead/DNOspMMu1BF7+XuI+3irSivBWNsn+pnVbcZrAxrfhN7md6S1LVvtbxGnFMkeOHZ7+VQtJi/WnBWUOELdnL+52xIxA7WZw7leXQfYnVSbplwo6YdVuGPVNwb4mp8FRdnyxixAMaAVdyzovUexkINkJZoy6pnmKq6FS55HhIUpSFWKiJEpSKAOhCEKQBCEIAFEOlKXD5F1QDR7DjyLf+Sl6j237ayMXhdP+4KH0Wj2jyzPQHQ3UOp8tFpLiKAVw8VI7VhBxNRjjQ8sh4qM3LpIdUECqrGWUWshtZvmJokjdQYaVAwOHrNc74uAI5evksIjjXksb3h6+6tgW2za6MCKbtfutYeQkcMPWfqq1gEowGTe6J9PFbITFzE+u9OErDrhw/coZKWR5sNlATvw+S9K7Jf8ApS3/AMmfJec7LZkNyv3Ze25US0CG6Ygte1jWlhiMDgdxaTUFUg8tjbI4iiSrEpUhTBIiRKkUAdCEIUgCEIQAKqtvduw6ZNmwg0tN5sV5xJe1pdcaNKFoqd9Qp3thbYk5SJHwvAXYYOsR2DfDPkCvMwmHGehRCakvc5xOpdUE/wC5XUPY5EJ+5IfJ2WvHxTLP2XeFa48u9SkNqVtfKBw9c1zo2OLOrKpSRWU1LuaaEZea5ScVOp2Qo7LD14psmdnL4vQyeIp++C0RtT7Mc9O10RgPOXrNZNBTg6x3g0IwXRCkCM1dzQtVSG+Xl6p2kZPEVyXRBk+7yqnGVl8Q0ZJMrDTXTjs3y0GgBUXteHfnX7hdJ7mj6qaxwGtJOFFEohBe5+rj5DIJuji5zz4K6xpRSL/6I7aMeREN5q+ARD49XQGGfCrf0KakLzx0c7TexTQc8/wYguReAr2X/pPkSvQ7XAgEEEEAgjIg5ELRdDbIxReUJRIskhSixvQhCkAQuebnWQxVx7tT3KPT9tvfg3st4ZnvWa/V10/qfPwaKdNO3rr5Ks6U9pHzE2+CaiFAcWNbveMHRDxOQ4cyoHFxIdq0hw7lMOkWzCyN7QB2YvvcIgH1Ar3FQ8rqaWyF9ClHpr+TLdXKmxxfaJRIzF4AjVPEE1UJs6d6s0Puny4qZSkQEAgrk6iiVUsPo6lFysj9xJ2WqE3OhFpqE+NdotEWWBSUxjGSbjNeRdGK1NlANE6+xUOOawjsopyA19Ut8k9raucclyT80GtwOJTLGmHOFK4bvqtVGllbz0jPdqI18ds7bWtMxDQe6MuKbWoAWTQuvXXGEdsTmTsc3lmcMEmgXojYSeEOTgQYznX2MDauypmGg7gCBjuVS7BWH1jvaH0LGkhv5hmTyVktOC8/6l6pst+nXzjv8nW0ugUqt8+31+P+k7BriEKHys69nuuI4aeCeJW3AcHinEZeCin1Gqzh8MXbobIcrlD+mS0rbu1bDz1cfoEiFPqF06oLb5DRVRsk93gj8aMXGpJJ4rSSUIXmpScnlncSS6GjatsIysXrvdu4ECpDvgIG+tFT5KEL1n9Pr/DJ/c4fqr98fwIU4WVazoRocWbtRy+yRC7dlcZxxJHMhNxeUS+Tjte0PaagrrIQhecmtsmkdyDzFM5piMGipyCj1u2o1tADUnLA070IWnTVRk02Z9RbKK4GB7y41JqsaIQu4ksHJb5FotEaLjdbnqdw+6EKJsEOmzttxJR9YZqw+/DJN1wyrwdxVq7PbSQZsHq7zXgVcxwy5EYEeqIQuJ6vo6pVO3HuX75Op6fqJqarzwPCyCELyJ3T/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQSEhUTExMWFhUVFRUXGBcXGBYXFxYYFxcWFxgWGBUYHiggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAABAUDBgcCAQj/xABFEAABAwEFBAcFAwkIAwEAAAABAAIDEQQFEiExBkFRYQcTIjJxgZFCobHB0VJicggUIzNzgrLC4TRjdJKis/DxJTWTFf/EABsBAQACAwEBAAAAAAAAAAAAAAADBAECBQYH/8QANxEAAgECAwMJBwQCAwAAAAAAAAECAxEEITESQVEFEzJhcYGxwfAGFEKRobLRIjM08XLhNXOS/9oADAMBAAIRAxEAPwDuKIiAIiIAiIgCIiAIiIAiIgCL5VfUAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREARFjlkDQS4gACpJ0CAhXle8UJwve0PLS5rSQC4DWlVyK+ummVsrmwQswClC6pOmdaHjmtO6UtrHW21loLergc5rHN37ia7/ELSnS51QG/wB4dLVtfIH4mgNJo1oIbmKZ55q8sHTrKIy2aztdJnRzDRvI0Jy3rkFF8BQHYLt6cZQ5vXwtLSCHFlQQdzgCfUK7uPprhfO9k7CyMgGN4GddC1w+HmuDHRYaID9p2W2MkALXA1aHU30cKg0UpfnHYHpJbZZB1zXOxANc6taUAAGe7Ly81+gLqvKO0RtkicHNI1BB+CAnIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiID4VyXp22rMELbFH35wS9wNMDGuGWX2tPBdF2nvRtlsk07tI43O1oSaZAcyaL8h3rbnzTPlkNXvcXHOuu6p3BAYHv3LG96AVX3AsA+h69LHRfc0B6pwXghAV9dxCA8LsnQTtSI3myyOAa7NlTvpmNVxsKRYLU6KRsjDRzXBwPMGqA/awK+rWtgdoBbrFFPQNdTC8Dc8a67lsqyAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIDmvTxePVXdgBoZZGspxGbj8F+bnBdx/KPf2bG2vtSmnk0V964pHHU0QBkVV6c0jJWV3XUZHNa3Mn3Lebv2CB77iRyoCo5TUdSxTw8p5o5kWL44HgutS9H0PGvrX6VWC07GRt7kYJ+8T8VrzyJfc5PejlhGSymyODa0IC6hY9lGNcC9rTTRoHZ8STmSpN53S2mg92Sw6yNlgnvZx0sXgLaryuGlSFrdoiwkhSRknoValJw1O+fk9Xhjsk0JJrHLUZZAOANAfHcutr8+fk7Wxwtk8XsvgxHPQsc0A4d9Q457qL9BrciCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgOP8A5RNjLobLIB3ZHtJ5OaCB6tXEIWkVpqcvVfpvpcuvr7tlprERKOeGtR6ErgmytkEs7Q4Va0F3idw961k7K5JThtyUVvNj2MukxjrH0z04lbxBLuCoZI5SaRgAD2naDkBvWOa77UwVFrjYeDh9SqfSd2zr/tx2Yps24QkhRpIFpEV825j8JnheN+Etr8FtV0W6RzTjFaDXLNHG28zGT3o9zWdVF41bvXi/9oXM7LRnxWptntc7/wBaxo+85tfQLMYGJ1rZJN+usnW01rVaNe0BbIQdDmCtrtd2zNzMwd4ae9VF8MJhJIzY4ehNPmpoZPIqYhOUc1ax0L8nK7ay2q0H2WtjGX2jiJB8gu7LQ+hi5jZrtYXCjpnOmPg4AN9wC3xTnPCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgKvaS0NjssznUw9W4GunaFM+Wa4LsldvU2mRmobG0tNKVa45Gh8F3jaiz9ZY528Yne4V+S5XiYbTiaM+r6tx4lhr/Ofcq9aTX6eo6ODpxcdven5E+WzVFA4trrRazemyjXB/aONxqHuGNzaAijSdAa5jNb5ZYxRJ7tBP0UMW46FyShNWkjm1muoRMazA1xFe0QcROQ9mmQAGS3C5Yy1pqKA6BT3WWKM8zoBmSstniruPgsSk3qbQhGKtFZHOdqYS6Q0GQOioG3T12ECjaVByBqDX7Q1oSPTgt9v2zYJa0JB3KPYrHG81GvoVvGbSyI6lCM5ZmtxXIWuJbVreAJpkvt6Q0idlUgA04kEH5LdJLEGNqtZvQCuehIr6hFJt5ms6UYxaR27Yq/mWyzB7G4DGRG5gNQ0hoyBGooQthWj9E1nw2N7t755D6BrR8FvCtRd1c5VaKjUcVuCIi2IwiIgCIiAIiIAiIgCIiAIiIAiIgCIiAxTxhzXNOjgQfAii5Letg6qZp0OIseOJw0DvHIe5dfVFtHcbJ43ODf0gFWkby3MVG/Siiq09pZFrC11TbUtGahYZ9KqbabWaZKqsr6gKXbqiJzhuafgqibOpJJMgyyNYcbnDFu308lCbtCYyC5xcXHLQAZ0AoM6eNVWx27AQ10bnPdo5wOH/Np6kKe6xzytxCBpFAdWZjOmh5KRRZiUl8TS7TXr5v1z5ag6ZZioA8VJuztODmuHOnFZLysc7K9ZC0UpXu79KZ5qhshJe18QIGLPXDrQhbOPVY05yzumpdhuNvnOHPgtVtbQ97WnSvwz+Svr0cQKHVWnRvccdpnkfK3E2ENoKmmJxOoGuTTktYJtitJRV3odE2MsRhscLCKEtxHxeS75q8RFbSscaUtptveERFkwEREAREQBERAEREAREQBERAEREAREQBERAcitU4jtU8WmGV9ObSaj40VhFaA5tDoq/ayy4rVPnQiSoI1FQD6LX23k+Jwa/Wuu53MKi1+p2O4naCb4LwNstVla4eGnJa5edthjJa/supnQHMcTRXDL1YWg5VIHICvGqpbwtDH96mu7WnMJG5Iq2ysmV09vjkGGM4jpofms9ggMbakeS8C0xsIOAAcRlwWG9r9aGmm8Ldpt2NJVtpXk/XzPt4W+uZ4LrHRhdhhsTXuHanPWn8JFGf6QD5rgmN0mvd+P9F+ktj3VsNlP9xF/AFLSjZlDFTbiu0uURFMUQiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAscsgaCSQABUk5ADiSsi0XpEvUgCzMPeGJ/hXJvhkSfALWc1FXLOEw0sTVVOOV9XwW9mu31bGS2qWRhxNcRQ8aACvuUG22NsjcwoNxmrAebv4iFdtZUKg3m2dvYUVZaeXWaVbrqkbUxuO/LVUVrktAJrTn5eS6O+KhzUW32dlK5VUsarKs8NGWehzd00rsiR9FJsVgqauNSry0WQalSLvsmVaLZ1MiOOHSeZXPZQLr/RptXBJBDZC/DNGzDhcKBwBdTAd5wjTkVzC1wADmqizvcy0B7CWuDQajUFrsiPVITtmSSw6rSUHv8fX53H6lRU2yt7i1WWKbLE5tHgbnjJw9QrlWjjyi4ycXqgiIhqEREAREQBERAEREAREQBERAEREARFqW023dmslWNPXTD2GEUafvu0b4a8llK5rOcYLak7I2a02hsbHPeQ1rQSSdwC5FeFv/ADmeSUigc7IcGgUaPQA+JUGbae0215659GaiJuTBkdd7jrmV5spo5VMRJ7Wyem9nqcJ0JYiOrbS6kvy/p2ny5G4cTDq17x6nEPc4K8YFR2p/VPbL7DqNk5fZf5VIPI8leNGSrsnrw2Zv1keHtrzUW0wA7lLcVhkKJkBS2qFoOlVlYw4VIfFUr1K2gWbmEimtbFBZAGsdIdXHCPBuvqTT91Wdszo0d5xoOQ3u8AFX3q8ABrdGig8lsi5hKObqPd4mwdG22H5o8wTfqJHYsX2HEAYvwmgrw14rtUE7XtD2ODmuFQ5pBBHEEar8wk0r4fNZ9ltp7Vd7g6GQ9WXdqJ2cZ8vZPMUVujdpnB5bdOjVg98k2+61vnn8j9OotO2V6QLNbMLHHqZj7DyMLz/dv0d4ZHktxUjVjmRkpK8XdBERDYIiIAiIgCIiAIiIAiKtvi+YLKzHPI1g3AntO5NbqT4IYbSzZZLXtotr7LYhSWSr90bO0/zGjRzNFzvafpMlmrHZg6KPTFl1rvOtGDwz5rR6465E7ySd/jvKkVN7znV+UIxygr9e42zaLpAtNsqyKtnh0OEnrHDgX/Ie9axHHnT/AJnv8V4hnGlNF8Ex6zFhNN63tZHJqzrVpZ5snWR+Ehw018qED6eauCcwdypmnLL+p8VLsE9asO7T6LnYmUZSyPpfstgMRhcJLnslJ7SW9ZW+tl5XVmW7wHtLTmCKHzUC47zMbvzaU6fq3HeNwJUuzyUyKwXxdIlDS3Jw31+KhR18VS242Wq0/HrfYupF4Gapob1MI6qSRj3NA5EA6VrvyUiK/Y65mh8ljYepw/eKXOyo7S21quHrL5ln1KgXjOGAkrBe+0zY8IaA7FXfTLkqeC8m2nt17poWO1aefEc02S3RpOpa2/T16urNZMlxEir3d5wy+6OH1VNa31JKnWq1KmnmqaDetonXlGMIqETzOa0bxzPup8196j9GQpENn0xevD+nJZZYi0HKoOjuPjwKuUKkbbJ4j2k5Lxbq+8RV42Sy+G3+7vrb4uxWxN7OeY+B+q3PZbpCtdkoyQm0wjc8nrGj7sh1HI+5abY56YmkKUatGmRzVpq6zPLKtUpSez/Z37ZvbKyW3KKSkm+J/ZePAHveIqtjX5UkOYcMiDUEVBB4gjRbzst0pz2ejLUDPGPaFOtb5mgf5581HKDR06OMU+krHckVXcd/We2M6yzyteN49pvJzdWnxVotC6ncIiIAiIgCIuf9J+0phYLNE6kkjavcNWR6UB3F2fkDxWUrkdWpGnBzloiPtn0kCEmGyAPeMnSnNjTvDR7R56eK5VbrZLO8yTSOked7jX0GgHILPLHRh8PksT4aKeEUjz9XGyrdL5bjAxlVJaB3dDTJZ/zajDx1XhsNaOdkRpzPCvBJySzZpQpTxVTm6auzFBZy4g0zzrz8forMwUyGR4r0xw3eZSV5XNr4hzyWnr6H1HkTkCnglzlXOp9vZrn4bnveE2bCar4ZKGoWZrq8yshgrqqx6NdRls84eKaOG7jzCh3rfBhqyOr5ToBnh5n6LxMQzMCo4715Y0ObWKmJhJHMnUOPP6LZEFRXyT/PcV9iunDV8tXPkIdUns4jnhdzWO32MPIe7sNYO14agD7RJqFcvmBYHgZGocDuDWio8qqvvajgxtf0YGN33i4kAeh96tOf6Uz5hgMBVq8s1aTb2YOd3f4U7LPi00+OTa0Kee0F7q4KV7IruAFAFFLJGPxxd7fTTmOanNHWOyGWgCuYoKDRQ3se/WGVVWvZLS2VrcCqMhcKgFtda7uIUmwWXPE7yqrJsIXsMC0ci/ClbN5mFwWeJwIod+5eHBeWrUmvuZVz2SkhI0UkNrr6KfE2n0XmeAaj0+n0V2jiVZRkeE5c9mJylKvhnlrs8OPd4b1qypngppoor2K0IOm7jvKhSQ9vCPEq8ndHiouUHszyaMV32mWCQSQyOjeNHNND4HiORXVdkOlYOc2G3ANJyE7cmk/fb7PiMvBczkjGih2iPJRtXLNHFyTP1WxwIqMwd/Fe1yHoa2uJP5hM4mgLoHE7hrFXlqOVRwXXlE1Y7UJKSugiIhsYLZaWxRvkeaNY0uceAaKn4L87W28XWqeW0P1kfWnBujW+QoF1bpdvIxWLqm96d4afwDtO+DR5rj9h0KlprJs43KlXLYXeSq1YRyp7lnsg6xjSBmBv5blXF/b8Rl4jMfE+is7qbQOHE1HgpdDh1Y7Mb9/kYoXOc6mgAofGpWO1vwnP04BTXR9rgC0YudK/Kiw2+duGm8Uz+RKoYqpeWyj6R7IYCEMN701Zy09dmnazHE4kZBSPzclpcdBmaA4W7syNPNeLCySUhjGkHIE0c7DXecINB5Lfrr2b6mKWGWVv6Rpq+oDHMcBmanE1zS1uXDMb6VYU5SPT4rlClh7Ju7yy6t/00X4ZpFpifFkYyw5d4U1FRQb8s1Gxk6rql6x2dzRJK5r7PjcQGYX9bM+rRkNcDQdd5JOi07aC6oT+ksscoYGkyF5aGNp7NCa4sxlnXEKaraVLZ0IMNynzrUakWnx0jfhnnfTjnlqUTDXIqFLA6N2OPPiziOXNS2LI1RXOq1cresbJnG6mInyIHbaR5KDO11okLjXAXOpzpvVvNYxiL9MjWm+uhpx1WNoAyApRSOV0kjkYXk9U8ViK0vjlH5KKv2Xbd12cDHYosOIDTIfH6qUF6skdQTzWUQqNs68Y8DCAskcBdoCswYAvFotPVhuEVL8WdSA0NFSMuKRi5OyI8TiKeGpOrUeS7z4bMR7J9CsEgpuPosUV/wAj8hAXV3Y3CvlvpXyqpMNpncHuNmkEcYJkIcKNbo40IofBSuhNf2jmw5fwcllJ/wDmfjs2+tuLtmRA5ZYkkiwmngQeIOYPLJZGBRM7Cd8zHa2gtPHfz0zVXYrPRr3b6/DcrE9p1N2iw249XE8DvAH0IAr8VewtR9Fngfa/A7KjXprV2fbfzbT7dp8SugkLs9xJ9Asbn1jeeeXqvv6uGvAe9Y5W4YWjeSPqrrR49JN5cbfIjQ2p8Msc0Zo+NzXtPNpqPJfqW4rzbarPFaGd2VjXeBOo8QajyXA9jNkRawZpX/omPw4B3nEAGhPstofErruwN6skZJDGzCyFwEdMmuZp2RuAIPqFBNrI72Eo1Oac7fpVvq7L128Db0RFqTHIOl614rVHFujjr5vJ+TQtFY4E0/4VsHSfaP8AyM/IRtH/AM2n5larDJQqxBZHnMWnOtJ9ZKtkRw1GoI/p7/cSrS73gta77lP8pp8lXiQEEcQst0yijgTrU+GMUP8AqBKzJlCUHUiodfjkZrbKanmfqafBQpx3xyBU6YNcaA1Irn+9QeWRUaZtHjnVv0XJnK8mz7Lg8OqOGpxWll9c/MvdjoJJn9W0to9uBwLyzEDn7NXVFKggZEBXf/5rLPNLghFpIhZ1QwmVplcaF28loAJ/7WtbORnrAWxtkLKuwk0aacTv8N63aLamV0sbXhgYH4nCAOc4hjatBAOnd0FOya6LaKViDFOrzmWa2c0nbTPOz2m2lZZLW1yJHHaGsbA2zSMia7Nz+xIZJCCXCoLASTQNzGgyKjX5dUscBc4NAJI7UjC89qrjRvecXBtaaYAKLYrRtK5zX4LM6WJ/d6zCwYcBxAjPIljyNN60r8wdaKymSjniV7WOxkkRguILzplWldaJNxtZZ/QjwsanOc5USjZpv4m3m87SvF5O7tZZ7sipYsgXgLM1m9QM9CluMEjcj5IyLzXq2mgaBvd8F9LwsGbLeZ7ONQkjqLCxxJWQoZ2jC9xK+Wjux5e088aisYI9A4ealWeIONKZ5Upvz0pzWC9rte4NDTRzSagavaTk4HfqdOClotKaucflvnJ4OpCkryyy32ur27vxq0TtlnviZIwEhoeSAA4l+JrcOendFf3TVW18dYYXl5HaZXshzQWjCTmTRwBcMszTxVZdu0rI6x2jGW4S1vVvfGWZPFS2gD8iO9WlSoVrt8s8McDQSG0aZS4O7LSSDSgwHM1prQK1KkruTZ4+hiZbEaFOF5K+53z1T3Ldm8lYwWlvbf8Aif8AxFfJTQKXaIxUu5k+OeSr5TXMqhqfR9x4s2buSjX3LUUHtAD0LVnid2lCleC0E6B5JPo5T0emjj8uQ28DPis/LzIt7d5kQ+3n5U+oXy8Dm1vAfH/pYLHIHydYd/WP/wA7yG+5q8mbE5zufwyXUufKoRasnuWfazdei+3YZpYDo9mMfiYQD7nf6VtOwt4PbbeqawCNz5w528uFXADkAPeua7I2rBb7OftPw+TwWj4roGywLTE5taNtYNd5ZRzTU7+8oaibat6zR6fkxx90qbSvolfc2ptPtVrd511ERakZ+fOk/wD9lP8Aij/22LWWa+R+CIrMNDz9Xpy7X4koaD/m9erD+sd4fzIiwVo696+5GWzfrZf2nycpl4d9vi1EXJn033n2HCfw4di8CRdurvAratjNB4D/AHYkRZp9JEHKP8d9q8y1bq/x/mtqqrr/ALC/9laP92NEUm/u80U4ftL/ADh4TNWClv3Iiqs9NErb11Z4uXqPciLJo+kZmLI5fUWDJMuT9d+5L/A9e750s3+Hi/mRFG+kvW5nLn/yUP8ArfiyFtB34fJT7V3GeXxRFYlp8/Elwv7su2H2Hm/O5D+xZ/FIqCdEUNPor1vJ8L+yu/xZii0d+Eqsm/sr/wAbvgERWKfSK/KP8Wf+L+5FVYdW/s2fzpBp5r4i6nA+WLV93mWN0/22z/4iD+RdVuX9QPD+UIix8Xc/I6eC/jy7Y/bI6MiIq5Mf/9k=</t>
         </is>
       </c>
     </row>
@@ -2282,25 +2282,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>Shadman Islam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2022_test_017</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>79.59999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2309,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.9</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2348,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhUZGRgaHB4cHBwaGhoaHBwcHBocGRwcGBgcIS4lHB4rHxocJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzErJScxMTQ0NDoxNDQ0NjQ0NDQxNDQ0NDE0NDQ0NDQ0NDc0NDE1NDQ0MTQxNDQ0NDQ0NDQxNP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgIDBAUHAQj/xAA+EAACAQIDBAcFBgUEAwEAAAABAgADEQQSIQUxQVEGImFxgZGhBxMyscEUUmJygtFCkuHw8SMzosIVFnOy/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECBAMF/8QAKREAAgIBBAEDBQADAQAAAAAAAAECEQMEEiExQQVRcRMiMmGRQqHBFP/aAAwDAQACEQMRAD8A7NERAEREAREQBERAEREAREQBE8vMetjaafE6L3sBAMmJhptKi26qh/Wv7zJSoDuIPcbwCuIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiJhbSx6UKbVahsqi5PyA7TAMlnAFybAcTIX0h9pGFw5ZEb31QcE+EHkX3E9gvOTdMemVbGOwZytIHq01NltwL2+I98jgYNvPl+0rfsWpeSWbf9o+LxBIDmmn3UuunawOY+cjJ2lUY3zsTz1J9bzGC8j4GX6YNtDb1H9IoX7F9KtQ73J8j6GZuA2pXRuq7Kfwswv675rs27NoeYlRa2/wAx84Fsn+yvaPiadg594vHPrp3jrDvu3dOkdHOltDFiyNlqWuUJFz2of4h6jiBPngVMp62o58uV+ztl+jWKsHptlZTe4Nj2HSOUOGfUQaVTnvQHpp9oUU6zD3o0voM/I25/XvnQAZYqVREQBERAEREAREQBERAEREAREQBERAEREATg3tV6YGvVOGovejT0YqTZ3G/vC7uV7zpvtI2scNgKzq2V2Hu1PHM/V6vba5v2T5qY8JDJRSzkyumpO6UCZWDGsAyaaDcRvlKmx3aGZ+D2PWrt1UJA/i4ecklLoPUK9ZgplXOKLrHJkNepbh5yh8Qb98l2J6D1baa24nS80uN6O1aY6yyN8SfpM0zP/Q9nEEcpQlUqdDp9JdqUCvZMUyydlGmje9H8cUxFOoDazgHuJ1n0lsfFGpSRzxA159o7J8u7KqBXDN8IOs+j+h2LSpQTIwKooWw4WA3jh+0lEMkgM9ngnskgREQBERAEREAREQBERAEREAREQBERAON+3baeuHw4P3qrC/H4Fv5tORKQZ0D22Kf/ACI5Gglv5nvOeWgGThsMXYBRf6SbbE6NKtmfU8pjdHsKi01bS54yXYZxpMmXI+ka8WNJWzZYFAoAVQANwE26NNVhNTNqizlE6src6WtNTiqQ5TaVJr8Su+SxEiW1tkI4PVF+yQraOzvduQddN86XiNN4kE6X3uCOc6YZO6KZorbZoi4BsN37TsPsZGZKjFRdSADc3tqALcpxRG+c7v7FaA+xM/FnYeCn+s1GM6RERJIEREAREQBERAEREAREQBERAEREAREQDi3t22eRUw2IA0KtTJ/EDmUHwLeU5LafR/tVp0m2fUWpoSy+7PKoLlT5A37CZ86JTuwXttIsmn2SjCYr3dJcwJ00A3mXP/MYk3KkIOAsN3ed8pbCs+ULrlExq+z3z2c5V5/seEz/AG2a2pVwZVHpTXQ6m/fY38ZIti9K3qMFZdTy7ryP4DYSEHM5qMQAoVSMut73FwfGbDZWzGo1lI55Ty14xPbXBMFK+SSbb249EA5Sb8e6Q3HdLaz3UDLfdaSzpbhM6ou4E6nstwkWq7BXKwZihIFmAay7uXxG1xvErDb5JmpeDA9/iDqahB+6W18pRiMQ1VWRxZwN442+sYjCut/9QOS27cLfhUfD4TI+xuLMRwnRtFNrryRPdefUHQLZX2bA0KdtSgdvzOAzepnzjTwOauUuAoOZidwUam8+juhm30xlDOq5cjZCBe3VAsVuL2tadVJXRmcXVkjiIlioiIgCIiAIiIAiIgCIiAIiIAiIgCIiAQr2m4T3mHUHcHv/AMT/AFnDcXgPd1V5X/afSXSHZ/v6FROOUlfzAXH7eM4N0kQNrazrYnTcRvBHIzjK1L5NOOpY68o2mxFBI5SWphVIGgMg+wcUAwBk4wmMAmeSqRoi7Vl9qGUaADuE1CIC4tvvfymdjcczKwXfY+chq9J1RlBRgRobggb+cinLotaXZL9qrYKW3SvAqGEjG1ulqvl6pO69hwHICZ2xdptULVEUhdNCLHvhxa5Fp8G8fZib8gB52Ej22KYXdukkfGXWRPbuKG4RVsjpEYwGFFTEkHdbz14zsvs0wuSlUtoMwHiAb/Ocr6OKqOXYXLNppwXcBzJM7l0Wwpp4ZARZmBY97G49LTRDmXwZ5vbjr3ZuYiJ3MoiIgCIiAIiIAiIgCIiAIiIAiIgCIiAeTkHtD2Bkrl1BCVBcG1wGvqotu1sQO2dfnhEq1aLQltdnzThabAkahlNiDcEEaEEHcZJMFVbLvN7SjphQNHaVdTudg47nF/8A9ZpXs1xe0zZVybMTuIp7RFyudVUaanW/HvM9qU8M+jNc87D6zzbmwqLdfLZuNiVB4a23GWtm4bDg2IQWvo4zXueYkRS7R0Sb7FDZ2FS5z5jw3aeBOsujaKJ8DgrxG4jwlWNwuHy3Bpjf8K6+t5q8FsWk9UaNl4AsdfASZJeSKa6RumxRKEj+xI5jMzAud3CSXaVlUqB2Dummxy52p0UGrsqD9RC/W8rDsib45Nz0E6MvUrIalN1pr12LKVHMIL7734cLztAEppUwoAG4AAeAtK5rjFIwyk5HsREsVEREAREQBERAEREAREQBERAEREAREQBERAOX+2LZgCUsWLBlYUm7Va7KfAgj9UgOExY0PdOk+2HaFEYT7Oz/AOs7KyqNTZWuWPIWuLnjOIJiGXQznOKZ2xycUdRwzh1tcaftPDsBKh1A9foZC9lbfKADl6zf4fpLb+LX/Mz7JRZqU4tGzfoxSTUDXx/eKeGFO7bpgv0jBS5YX5TVbU6Q3Sw48IcZNjfFIyMbjrkk8D6Cbb2a7O+0Y73jHq4cZrc3a6p4DU94E53V2gx43Jk+9kG2qOHrVErvlavkCEg5Sy5iQW3LvFrztCFMz5JuSO4xETsZxERAEREAREQBERAEREAREQBERAEREAREQDyWMXiVpozuQqoCzE6AAC5nmMxlOkpao6oo4sQB6zkXtQ6bLXQYXDMSja1Wsy3sQVRcwF1uLk8bAc5MYt81wRa6Of7c2o+Jxj13OtQkgfdXUIvgth5zyvhLiWkpXZW4gWm6w9O4nPM9sjRhjuiRZ6RUwGM3+LwXZLCYDslFIl43Zqfetzngps03X2Dsl6hg9dBI3ErGzX4bAcTLO1Etl75Jvs1hNXtPC5kMQl91l5w+2kdY9k3SZq9JsNVbNUpAFCd7U9BY8ypIF+RE6LPmDYO16mFqpiKfxIdRuDqbZkY8iPoeE770e6X4XGKDTqBXO9H6rA8QL6N3i81Si7tGKyRxPJ7KEiIiAIiIAiIgCIiAIiIB5PZ5MbF42nSGao6oObMB5X3wlfQMiemQja3tDw9O60gajc9y/ufKQja3S+vXuGqsqn+FBlXxtqfEzTj0mSfNUjhLUQj5s6ptbpLhsODnqAt91Os3kN3jaQfbPtFqtph0Wmv3qlmbwUGw9ZAX7Hv2bp4lQDes9HFocceZcv8AZjyauT/FGRj8bUqtnq1C7c2YtbuGgHhI/iTdie2b44hbGy3PZNJVU3NxY33co1ijGKiidJJyk2yjDtYg8j/mb7DrlPZNCqzebKrq4CE2cbuTAa+dvlPG1MG1uXg9jTySe1m0NAMu68opUl4iZODQg5TL7rbhPOs20YFWmvKeUaNtbTLbXhLpo2WNwo17peWMXhbU2PYflN1Qwl5j9IQEwzk/E1lXvJsfS58JaDuSSIlSTbIMF6srwFUq2hIB+fAyl908RbWntRdST9jyJK4te5P9i9OsTQsrN71Bwe5IHIONR43k72V7QMNVsHzUm/Fqvgw+oE44rAgS5STW97T0MmkxT5qvg8/HqMkeGfRGHxKOAyMrKeKkEeYl+cCwe0WonMlRkbmpI8+cmmwvaFYhMR1h98AAj8yjQ+E8/Jopx5jybYamMuHwdJiY2CxtOqoam6sp4qb+fIzJmNquzQexEQBERAPIic/9pfSs4dBhqLWq1Bd2G9E7OTNrbkAeySk26QLXTTp57tzQwzAuvxvvCkb0Xm3M8PlzjHY56jXd3YnizEnzM1ivlKngCL91+t6XksTZqpqBc2tcm/8AibY6nFpocq2YNQpuS54NDRoM25Se3+szaWzXO8ges34oALm3C0xDiFHAnu/rM+T1bK/xSX+2Ri0WTL+MWy1htkpfrEn0HpLlXZKjVVB7xeUvijwHnPTimOhOnZ9Zhnq803bk/wC0enh9FzS/JJL+ssOiAHqhT+Gw+Uh+1yweyk27vra8mn2fOQACSdwAuT4CZadB8Q+pQL+dgD5C85wySbvs9CPpeHDzKfJy6znQlj4mXcMXpsGQlWB4bwZ2bBezdNDUqa8kH/Zh9JlY/wBnuEYgqrrpbqudTzN76zQpT9jnKOmjwm3+0jj+H21WR85dib/xEkHsK8u6dF2YUr01qLuYeTDQjwM13TDoKlLDGpTz5kZbkm4KE5TpbeCQb8ryJbC21Xwrbs9MnrJzHNTwaTkx742lyjjHIoSaTtHSE2cBrK2wo05SuvtSmKK1s4yMFyk6AlzYX5a7+VjNJ0n2C5p/aFqI6gDrfGTcjcwNuO4aCZYYW+TtLLFNI2WJxtKmDmYacBa/gJBdvbVNdxrZFuQOA4eJ5mYePqNawYEflAv5cJiYfZlWubLc+BtO+GEYPc+WMuROLjHz5f8Aw9FRTuYHxldNC24X7tZlN0Kxlrinm/KR8jaYp2BXQjPTdLH+JWHqRaaJahrwcMel3vhkq2Zg0NNboL5Rfgb21mS2zk5HzmHgWZVAuZkCs2+/ymT/ANeWL4k/6RP0PK3aaZTW2Wp3Fh5GYFXZzjcQfSbb7UbagSpa4O8W9RO8PUs0fN/JjyekZ4K9t/Ds1WA2jWwzZkd0PYSAe8bmHfOh9EunoqOKOJKqzWCPuBb7r8AeR05SHPTVtBYjjI/tSmofKBwuR2trbytNi1UNQnFxp+6M+OGSEtrv4Z9KROa+zPpaalsJXa7qL0mO9lFrox4sN45junSpmlFxdM2JiexEgkwtq45KFF6zmyopY+A3DtO7xnzntHaD4iq9d/jdsx424BR2AWHhOme2Pa+WnSwynVzncfgT4Qe9tf0zlQnfFHiysmeVhp/fIyTYHHF0GtuqL99rH1EjL8O8SV+zvZS4l6iO5UIinqgXOZmG86Dd6zlqoOUbXg06OWKOTdlVpLjzyXEc2sSZk4LZFWv/ALaEgb2Ngo/UfpJ1hOi2GTUqzn8bXH8oABlvbXSXDYQZWYFxoKdOxYd4GiDvmKGnbfJ6WT1GEVWKP96NDhehdQ/HURB+EFz9BNxh+h2HX4s797ZR5L+8hm0vaLiWP+klOmvaDUbzJt6SMbQ27ia/+5Xdh93MVX+RbD0mmOlSMM9fml5r44OwtjsDhBq9GmeVwXPgLsZptp+0fDqLUEaq34r00HbcjMe605KFlV5ojhijJKcpO2ydVfaXiQLClSHb1z6XmmxfSrF1GzHEuOWQhFU/lXf43mkDAixlgPlNiRaXUYrwVtm8xHSzGOj0nrsysMrApT1B7ctx3zS1GNxrfeLFTcDgwbd/iXXS4uOHynhcgGTtXgiynE7QLIlNmslEMyi18zO3HlbX15zXLiqhuEZlQ71B0NuLDcYKFz+EevaZn4XDeUoo38E2YIDk3Leg+VpI9j9KatEZRTpOO1Sp8Sp+k1tYjcJZAk/TiTuZ0HBe0gDSphR306n/AFZPrN7hPaBgn0cun50zDxKZpzjF0MKuHRkqO1cm7qbWXML2JsAQMp3a3fWUbHxOGQOMRSL5hZSpIK3BufitwFrC+p1nJ7Wm0n8Eq7qzq1Kvs2swyvhnY8AVBP6dDfwlWN6JUH1TNTP4dV/lb6TkOytnNiKopoUVmuQGJsANTY2NyBrra9t8zKe18XhXamtd1KGxXPnUEcAGuB3Srwwk9vF90do6jNDlSf8ASe4noY4F0qqx5MuW/wCoEiaHE7MrJ1WpOD+UkeBGhl7Y3tEqKwXEoHQ/xIMrjtIvlb0k0wfSzCVLBKwzHcrBkJPLrC179s4z0ldGvH6nkj+VM5sulyDa2npdvSR2pWLuznexJ893oJ0Tp/stKVBqysVeowUp/CWe5Yj7uikzm66X8P79Z10mNwts5a7PDM04rmuS5TxDI6OjFXRgykcCpuJ9FdHdqrisPTrrpnXUfdYaMvgwInzk06d7GtqG1bDMd1qidx6rAeOU/qM75VaswxOqRETgWPnz2hY73u0K5vohWmvcoAP/ACLec0HGMZiC9R6h3u7P/M2b6yljrNUeEUZ7U3eXzm16O7ffCO5pqpZ1y3a5C2a9wBvmnqnQ90oq1LMp8YlT7CJXj+lWMqAh67AHggWmP+IB9Zpdl4M16yUVIU1HC3O4X3kjjxMsJUzaibXohpj8N/8AQfIyGklwTZJf/W9n0n93Vq1qjghWygIoJtvPLXmZm7Z2Ds7CsqnDvUYjNrXqAAXsLgNx14cJV0ow+fGZFAuyDdxNmY3txNprse71VFZz8XUH6UW59fMmYZZZ88nt4tDhe2T6a5V+TaYvAYelTpONmU/9S4IcsSrZrKutySw1mRiEoUKoSps+ktMlVzhRvKgsVuOsASfKZHSbaNN8PRyMbkhlNiuihlJvwIaZGy9kfaKeHqVHZlRTZd+Yljcs5Ou4eUjfJukzksWKMFOceLa/f6o02Lr5K5pDBYYNmsl0GoY2UkjQXFpNhgEKBWpJu1XItt2o3bpCNs40NjPeANlRlB016jda3lN/gNvPWxAQKVpEH4ls1wL7++TGTvlkajT3CLikuLZyHbOFNHE10UWVKrqo4BQ5yjwFpgV1079P3+UkPSwj7bif/q/ztNEW13X/ALE3ro8lllbAWAl05iOyeN26cpczdssCyVgJLpm56L4MvXDBS+SzlFKBnA0Ns5ClRfXW9jpKTkoxbfgmKt0VbL6JvUCPUZqKOWAJpsfhAPW1GUMM1jYjq9s2dXorh7Oyu+YMyogZbMCwCOWI0spuR2cJJ8FhC7hEuq3JUMSwRb3NsxPl4aXm5rdH0IIWq+a3xNYqT2jhMzlTW+VN+Oi9eyORbb6PPhywLo6i1yhJORjlRnFrKGItYnfNW5JNySTzO/znSVV1Z6DMiq5yP7xFqKpQ3vlJFxbdfQdsge2cJ7uq6i2XMShBUgpc5SCunDdwnaEmpbZcvtP3RVpVaMAb5kVmKhSps2ZbEbwQbgiY09r1dF7DO/gobjpD0krYlKdOqVbIxbMAFLFhbrAaXCgjQDfNKv1/pPHbrX5C/wDflPEOnh6/5laS6JLjH5GbLoztVsNiqNYGwDqr9qPZWB8Ne8Cal+PZYf35ymt8JkPkH1J79fvCJ89f+7YrmInHYWs0FXj3SqofUTx9QD2Skaop5afSdyodtAeY9eMx6zXRDy0Phvl5RvXnqO/iJYXUMp4aj627ZVgu4CrZiL6GSPohXVcfhyx0z2HeVYL6kSHUWsR2TLw9Qhg4JDKQQeIINwR2giVTuNE+T6Fw+xKAq++CsXzFrljYE3vZRpx4zKODw6qFZKYVSSA2WwLakjNznCsRt/E1PjxNRv1kDyWwmIXubnU9uvznNYUdXmm/LO+VNpYNAAauHFtAM6acdBwmsTbWHUJmxydXNfKb5rnq30tprw48JxtHl5TJ+igsskdXG38KMt8b8LZjYNqOroTvsbE/qlVPpJhAysMXoGYkEVDcMdBryFh4TlMtmT9KIeaTMvbuJWpiK1Rfgeo7rwJVmJGndbSYCDiZbrVSIROJF/EidkcWXHpi08yCNeTeJuJWgkgpyTf9EsQiVsrmoquDd6bEMAoLZbBSWDEAWFje00oWXKblTdSQRuIJBHcRulMkd0WvcmLp2dT2ZiPdOHKsLjVWBVsra6qdx42m4rbbw6rmz345QDc9gE57s3pOtrVxUZ8mRHz9QFAcgKcSzHrMZnYjHUHyKcSrLTVmcrcZCqhupr11ZiQCONhreZJqLa+onaOitdFVUvWrs4UFizPlJsttbKxsbC3HlbnIV0irq9d2UACwGVcuVSBYqpTRgOY5zbY3bdNEVaSq7h3ZanXUhdMmnapKldxsTxkVcztC5S3NUkqRV0o0W3Mx6jyt3mK7f3+87NlDIZ/iH5R9f3l5eA/Ue4bpj0RclmOi6m/En+lpdW53739FH9+shA9dr27et+3z9J5U+Hxnua5J4bh4Tyv/AAjsvJYMe8RaJUGYfgHd9JSnwHv/AGnsS5Bbqb1/MJYq/wC5+oTyJVkoxV+LxmWk8iViSZCy6sRLkF5JkpEQSGnoiJIMPFfH4S/R3CIhEF1ZQnGIkgvHdA3xEkFNSYVXhETnLssi424Sw+6Ik/4lTFqTFqREqyTKb4D+f/tMgfGfyj5mIlkQW6fwCMR8Xh+8RAKIiJAP/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUSFRgVEhIYGBgYGBgYGBgSGBgYGRIYGBgZGRgYGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ9QDszPy40NTEBDAwMEA8QHxISGjQkJSs0NDQ1NDY6NDE0NDQ0NDQ3NDQxNDQ0NDQ0NDQ0NDQxNzQ0MTQ0NDQ0NDE0NTQ0NDQ9NP/AABEIAQYAwQMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAAAQIFAwQGBwj/xAA9EAACAQIEAwYEAwYEBwAAAAABAgADEQQSITEFQVEGEyJhcYEykaGxQtHwI1JicsHxFBUW4QckM1SCkrL/xAAaAQACAwEBAAAAAAAAAAAAAAAAAQIDBAUG/8QAKhEAAwACAQQCAQIHAQAAAAAAAAECAxEhBBIxQRNRYSJxFEKBkaGx0QX/2gAMAwEAAhEDEQA/APP7RiBgJ1igYhaAkowFaFo44AK0LQgTEAQmlWxtjZbesxVK7kXDW9OcorqJXjkmoZZQlOuKPXWP/Ek/ikP4pfQ/j/JbxiVmduTH0mXDYo7NqOvT1jjqZb0+BOGjetCAsY5pXJAQjtACOMRGAjIjAgMUCJKFoAQgIzEIAShCEBGNhEBMlpECGhijjELQAI7RCSEAFaaPEa2UZQdTv6TcqvlBPSc+7liSZm6i+2e1eycrfIKt94s5Gl9I0mQoDMBaNUDDaSWjaKk2Q2O0dR4EjIpt5eu3sYE635zCa3vMefp8oC2b3fkbH8pt4bFq+h0P3lMryWxvLcWWpfngjUpnQiO01cDWzLruJtzpzSpbRQ1ogRGBGRHGIQjhHaMCBEjaZCJCLQBaEcIaAjaFo7QtACIjhaEBjtGIhJgQEamPeyHz0lFeXXFV8I15zDwfBio92FwPlOd1dap79F+Ke7hGpRoseRm4mAdvwn3nV4bCKdgPlLGhw9ef3nMrO/o6E9MvbOHbhL9IPwZ7aqfOej08Gm2UX8v6kydThulzp0tIfPRL4JPN8NwW+51va0sT2ZGW951qcN1ud972m02FFpF5qfhk5wR9Hnj8AO15UY3CPSax2Ox6z0rEYe3KUPGMKHQjpqJZjzV3cleXBPbtFFwt7jYe0spR4a6OPOXoE73TV3T+xysi0yBEdoyITQQEJKK0lAREyDCZZBhACF4QhAYQtHCAEbQtJQgAgJIRCMwA0OKj4febfCVsNJp8S1ZB6/cS64dRsl5xuur9TRv6Wd8ltgtJa4ZCdpy9fiPd/Bqft+clQ7TVUt+zv63E5/xN8mx5lPB2yYYzJYgWIlPwntOXtnS3W369J061kcXldQ0Tm1RWsTbaYmJkeMcVWmQFW8oK3a1Qbd0dOYIIjnFT8CeVT5LfEjSUeLTQ3mWlx9KhsRlk8QgdTY+4h2uXyPuVrg4qpT8Y/mlsJo4hMri/7w+8353+he4bOP1C1WhNC0DGJuKBEQEDAQAIGO0DADHaEnaENAYhHEICAxwhCACiJjkTIgaON+NfT+s6DD0S9MAH4gNeg5ykxuHe6tlNhcEkHS9rTr+HIFUabAD6TidbS7m09nR6aWlporu5o0LF0DMev9voJtnjVNQUZMpFtMiryvpnPn5SybhK1LMV1HWFTgysblFJ01bXbaYlafk0uH6KsPZj4bEWJGUqQDsSp++06vh1mTNfl+tJT18Kb5muzHTMSx0PLWWWCXKlhIU/osiXrkq+I1AS1xoNyZq4ethiCWyWGhJBsNL6tsJZV8CGNj+8GG1r8rg7zSxHAVqVDUcHMbEm2jbbgC2tpKWtcsjcv0jXbhuGqHweG+vhNw3mphQoNTDUybgaqfI8pvvwNg5qKTc6kAWVvOwEy4lLqOo3g63xvYlPbycLjzeooH7321m3NIresb/hLn62H3m7O90S1jOV1D3QGAhCbSgDCBhACQhaIGOMBQjhADAIxFCRGOImEUAAmbHDkzVFH830UzXtJ4arkdW6EH1HP6SvKm4aX0yeNpUm/suuJU+7pMu4va58j9djN7hWoE1uI1hUpZbH4DqNr2Op9/vIdn8TdR6fW083r9J2W13f0OsRc20ynD6fnMOGqyGNxgAsSAJSWJmhiGLscuqjS/I+ksMBhXZCQs5bF8ben4adRAoHIZmboLGbWB7TOiNcowXdr5bX0+GWdj0R+WVwWxJUjMLWNjLVKH63HtOSwXaF2bKzoyt1XLb0a5vz0nTYLHAAAG40HpIOHPkatV4Nnu257Sn4ktrkS/esLTmOPYkIjnyhK2xU+CqwfDqbJnCBnJYm/O7Ej2lVjkCPYC2ikjoWUEj5mdHgEUUMpNiEUk9DlW9py+Jrd47N1JPty+k6v/nd7yN74Ri6tSsa45I3gDIwWdg5o7yQMiY4DHeMRCMRiCEcIwMJhHFEMUIQiAUiZIyMTGXfBsUpR0qMq6Wu3Sxmh2erZbi+xI+RmkYuHPkqEE6HX9frlOV1PTTKdT7NmLM6aT9HfUaul5ymJqPVc53sma29tjyllhcUSLE+fz1muKKPnVlBW9hz0sNb+onNlduzY67tI2cHgcNzAc7m+unoOU2/8ownNFF9xdhf2vJ8KqPTAWm+QWy+ELex3BuDedOmPrLZmFN9LXyAaedob/JLX0kcfieA4XKcnhPLK1x8jKtO8oOO7csoOoGul9rTuOIY6oUKvTTKRa2XWwJN/wBdJxqYZKb5gujt49drnl5Rp+t7I0tLxo6xsTdAdrgH0nLceqlwEB1dlUf+TW/rLTG1ggsNh9Zy3E8RncAbDX0jw43VJIhkyank6HjmWigVAFZhY2GptznMCZKtZn1di1hbxG8xidzpcHwzre2zn5svyVv0MRrFBZqKSUcBHAAjEUYjEO8IQjEYyIjJQiJEDEZIxGICMjJGIxDEZjqDmOXTpMkUrySqlpjl6ezLRxoy2B1P6/Ob+AqXuFGluWl+sp8bhSviTYjbpfciGFxRUWvvvOJUJ+DcqcvTOirYd7F6bEHpvfoAJojEYkm2Zt7Cx3MnguJXID7DpppLZOM0mAXKBy+QtqfW0qSa9Fu0+d6NNcXXb42Nr2+0xYkt8JIGoNzre2o1ksbjxsn97g/7aSlxOLJA112kphtkatJeSyxmP0N9zK2mu5PPWRw1J6pudri952uG7DVayJUWtTXOoYK+a4B0FyAZs6Xsm+TPl7qnZyEYljxrg9TBuqVcpzLmVkJKsLkGxIHMdOkrxOrLTW0ZWgEawgskIccIRiGIxFeMRgO8cjeEAIwMIQAjEZO0iREMhEZIiRMQHV9guzlPGtVauGKUwllVsudnzXuw10C8rbzuP9PYWkB3WDRj1qDOR7vc3mbsLwc4TDLnFnqHvHH7uYDKp8woF/O8teLYZyuene63LINc/mBzby5znZMjdPT4Lpng8g4hSBeoMoFnewtoviOlhynOYvhzKfD9Z1GHqGozOwsWZiQeRJNwZPFYG4vOX8nbbOi8aqUcXnddxILUIN5168Kzi4/XvMlPhiLpk8XUjb85P5l9FXwP7OSJdtlJ85nw3DndvEPnt9PedWeH6bcze/60mxhMAFF7XvIVm44JTg55KrDYFUGmgHLz+V56Nwev3mFoKp1sqab6NlnI4mlYGb//AA8qP3lZ6hthsOpdmN/C9ibDyChmPt1kunrdPY88alFv/wATeFZ8MlRF1oHWw/A9lb5EIfS88qAnv3DuIUcZTZks6XZHVrG3Iqw8wQbeetjcTxztbwT/AAWIampujAOhO4RiQFPmCpHnYGdfpsn8pzrXspBGkYEAJsKxwijjEOMQEYjALQhCAiBEDGYoDFEY7SSIWICgkk2AUXJPQAbmJgY7Sw4BgXrV0CUmqKrozqu2QMC2ZjoBYHedPwHsG9Sz4slF37tbF2/mOyfU+k9BwWASigSjTVEHJefmTuT5nWZsmZLhck5ks97TKomDDaafL8pskTCy05rtB2VSuTVogJVOrDZavr0bz58+o5I4ZlJV0KsNwwsRPU0MwY3h9KrY1EDEAgE3BAO+ombLhVcrhmjFncLT5R5clAXsJvLhLec6TiHZRTdqLlWAJCtqDblfQi/XWVVThtemhd1ygWvcqTroNAepmWsVz5RrnLFeGVdTDjaZDTAEkUPMzT4hXyiw3OmnOVFxp4nM7CnTBZ3IVQOZM73/ACxMBgGp5cylG79gCfjUipUKjVgo5DXKvlJ9lOzow6irU1rMvtSB3VfPqf0d3tBVvT7pMxeo601FNwhBsajB3zAqpRGuR4rHQE2m7Dj7Vt+Tn58ve9LwjmewHCq+HqVWdMtN0QqyMrJWI+F1IJJJBYnQbjTpr9vuy9XE1O/oEOyoqNTOhspZgUOxPiOmnvOn7KUnWic6kHORqQczKqrUchSQpLipfYm1yAxMsnUkk+c146cvaM1LZ88uhVirAqwJBDAgqRuCDsYhPbOOdmcPjNaiWe1hUp6OOgJ2YeRv7Tz3jPYbE4e7Ux3yfvUx4wP4k3+V5vjPNeeCmpaOWikittDuNCDyI3EUvIjEcQjEYBaEIQERMJkpUmchUUszGwVRck+QnddnexQFnxQzHcU91H85/EfIaeshdzK5JJbOb4D2arYwgqMlPm7g2PXIPxn6ec9M4F2do4Qfs0u9tXfV29/wjyFpb4fDBQNNtABsJtokw5M1V+xbM6MK04ETMwkQl5TskRQTaR+sxrTk+7ibQEoM0FBHnBV1uf7RDJLpud5g4jQ7yk6c2RgPW2n1tNhgDvC3SRa35BPR55gqTVQAilifl7nlLvhfZylTZXrMHqaFVOioeVhzPmfYCdHTohAAqgAbBRYD0E1q2BD7yrHgmeXyX3nquFwjfGk47tH+2rGmr00ChDdmKGtVJPg7wXXOqqllIz+MFWXedTSJUWbXo35/nKzEcGZ6q1O8UgOrEslqllNwgqIVuh08LBveXFBvYHCijSVQNgSdWN3YlmYlmZiSxJuWJ13MlYnebLyLCNAYMsLSdoARiKHjvZvD4sE1Es/Kollcep2YeRvPN+O9j6+GuyftUH4kBzKP40/qLj0nsuW8i9MdJdGap4I1KZ88gSQnqPaTsZTr3ejanU3Nh4Kh/iA2P8Q9wZ5vjcE9BylVCrDkeY5EHYjzE3Y8k14Kqlo1rQkrQlpE9b7P9mqeFXwjM5+J23PkOg8hOkpUrTIlO0zKs5FW29s0JaIKklaStIu1pEZjeNFgq8zJgQAYEnIiSiGEiZKEAImZAJC20mBEwGYozIxAMiYlQrtt06ekyxRgKRIkoRgYyIrSZEVobEJREVk1kgIbA1mp3lJx7gVPFJlddRfK6/FTPVf6jYzogJB6d5Kbae0JrZ5T/oGr/wBxT/8AV4T1TIvQQlv8RX2LsMoGkaR2gszkxNMai5k3Mx16q00LOwAAuSeUYEuclOPftealRaWGpAlmCq73O5+LKOQ335Sm4lxWm7EVa1euQSMqWo0TY22F2I85U8qXg1R0mSnprX+zvq3E6FPSpXpr/M6j7mQXjWGO2Ipn0ZT9jOJxfDUfDUmp0qNAuWZmqVNVUXCjM3iOa+bQchKDFYcIwVai1SQNaVyATy1AufSQrK16NGPo8dp/qafPr6PYaVRXGZGDDqpBHzEyzk+xOKdqLB9StiCdyCWGUnnbLz6zrZbNbWzBlhxTl+hc5IyC7yZMkyAoo2hABSFRwoLMQABck7ACTmDHW7t822Rr+mU3ifga5Zy9ftXRzklHsDlDKfisQdjtt156zYodpaDbYgqbbVF9NyL9D85xGITwHyYMfLNmH2Cn3llRwtE00L07XyZmBa5uACQoNr2F9tdPOU1XatthhqsuRwkuDusPj+8/6bI40+FhcA73XXUafOWFp5pjMJQpI7Uw5e6ZGzMuRswDDTRt99vcT0HhlRnpI1QWYqCw8yN/fe3nJxfdwTudLetG0skJEbycsKyI3jbaAGsDzgBqZDCZrQgBNGuLxrMaGxt1+8yKd4AQYganYTguIcTPEa5pKrHDoAwClk/xLMyqhZ8pyoSbjTW177Wt+3fEe6wzKGszlEJGpCufGQOfhBHvOc4dxFBnNGolBWZQTiGz1bIhCBKSDZVK21Oq7mVXXOjX0+N9rpLn1+Deq4I0m/5ZKNMlWCPUZnao1spFFixGt7A2B30mCpwPCo9nqNTCsUtVZU74KpLOhY3ALWAJ0106zX4thKirh6dGrWrBqdwoUrlQEZPCozW+I+Im1htI4Phz4UVK+IQAqhFJahVi9RiApykkkKLnUfaVvW9dv/DXPcp7u/l8fl8/knhaGHCWQFq9gS9Om9dAzMcwC/CxVQACfCSxOvLLW4wrqVo01SozvkKrlOGplVRibADvGysdPhDHUTHSp8RxS3Uvl5AFaII8gMtx8xLrgPY0U7PimDtuKaXyL/M27ny0HkZKU34WkV5bmHunt/W9/wBy17NYQU6Kqo8O5b98/wAP8IsNedvMy9iAt/tyjMuS0tHPqnVNv2IDX2k4hJQIkWgINtBYwNfGVSiOyi5VSwB52F7Tn8dxQ16WIFPYKuUbEg/GT6be3nOnInLVcCcM4cLdRoCNMwOhU23vpoegttKcja/b2XYu3nfn0clg6y5jnS40GUnfcKPY2l4taiKSt+yD+EBSGTQEgkPexNiDy29Jt4jhlDEeKjUNJ98hPgJ/pr/aVK9n8USy92pANrtYA6bixF+W3QdIKk1ytmVYsmKtzz/gy9o+IU3UIjK4ZlK5bkU1Ukg3OxNwLDa3W9++TYegnB0+yxpnvK7gKupWndmPkAB+cvOB8RqVarjJlXMWJOuVcqqiC2l9L+xjVLf7l8RbhuvR0LbxmDRAy0gSMR2hE20AMcI7QgBF9gflGjX9xBRuvymNNDaMDn+1vZxsY1Mo6oUJzZ7kMtrqQBuQf/o9JzCdicQtSwysANHzAA38iLiemGKnzkKxquWaMXU5MS1L4OYHA8XUCrUxWRFAGWjpoBYDMAPreb2B7LUKRzlS775qhub9ZdiSvEoSIVnt+9L8cAqgbRwjkyoIQiJgAxJSKiSiARkFk5DnGgJyDKDoRcdDzk4ogKrF8GRtV8J+n5j7eU1Dw6s2mcqOQzaAbab6c50MUqrDLe/BYslJaKFeAE/E/kbXOb12lrg8KtJcqjzJPMzZMV5KcUy9pEauqWmxNEzWg0FHOWEQURtJCR5wALQkoQAx1BzEx1NdZkRpB1jQCvGnOY0a4k0gBK8khkGMku0BEyY7yF5ImIB3ibpFeC73jGTheERiAcgxk5FhBAShIodI4AOEjGYABMjeOQgBCu5G0yIdBMVUXImRYwJiNYpIRAEIQgIxHSxg8UIxmBDv6/7zJThCMBtJwhEIBJwhACDGTQaQhBjGIGEIgGIjCEAIpJGEIAKBhCAgkIQgMVtZIQhGBKThCICF4QhAD//Z</t>
         </is>
       </c>
     </row>
@@ -2409,124 +2409,124 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ravichandran Ashwin</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18</v>
+      </c>
+      <c r="N16" t="n">
         <v>56</v>
       </c>
-      <c r="E16" t="n">
-        <v>78</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
         <v>44</v>
       </c>
-      <c r="N16" t="n">
-        <v>94</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="AA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>88</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="W16" t="n">
-        <v>26</v>
-      </c>
-      <c r="X16" t="n">
-        <v>43</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>93</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>105</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>4</v>
       </c>
-      <c r="AK16" t="n">
-        <v>5</v>
-      </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>Bowling</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFhUYGBgZHBwaHBoYGBgZGRoaGhgcGRoZGBocIS4lHB4rIRgYJzgmKy8xNTU1HCQ7QDs0Py40NTEBDAwMEA8QHxISHjQrJSs0NDQ2NDQ6NDY0NjQ0NDQ0NjQ0NDQ0NDQ0NDQ0NDQxNDQ0NDQ0NDQ0NDQ0NDQxNDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQQFBgcDAgj/xABAEAACAQIDBAgDBgQFBAMAAAABAgADEQQhMQUSQVEGIjJhcYGRoVKxwQcTQnLR8CNigvEUkqKy4SRDU8IVFnP/xAAaAQADAQEBAQAAAAAAAAAAAAAAAgMBBAUG/8QAKBEAAgIBBAIBAwUBAAAAAAAAAAECEQMEEiExQVGRImFxBRMUMoEj/9oADAMBAAIRAxEAPwDZoQhAAhCEACEIQAIQhABIsitqbeoUMqlQb3wr1m/yjTzlR2j0+c3FGmFHxOd5v8oyHqZjaRqTZoUZYnadGn26qL4so9rzGttdKahzrYhzfRA1r/0LYedpUsT0hdj1FCjmesT4zLCjf6vTDBr/AN6/5UqH33bRu3TnCj/yH+j9TPnd9q1W1d/I2E5viXIsXcjkWb9YWwpH0WvTrCn/AMn+T9DHNPpjgz/3SPFKnz3bT5rp4l1N1dwRyYySobfqjIlGP8wsfUTLZtI+k8Nteg/YrI3cGF/Q5x9efOeD28j5OpRhrfMesntm7aqr1qVZ1twDHd81OXqJu4Npt8JnGz+nlVbCqiuOa9Rv0PtLdsvpLh69gtQKx/A/Va/IXyPlNTTMaaJqEITTAhCEACEIQAIQhAAhCEACEIQAIQhAAiQlZ6S9KUw90Sz1eX4V72tx7pjdGpWTG09p0sOu9UYKOA1ZjyUcZn+2+mdWrdaV6Sd1vvGHefw+XrK9jsY9Vi9Ri7HieXIDgO4RvEcrHUaFZiTc5k6k5kyB29tYpemjWf8AERnu919AY92ttJaSGxG+R1Rxv8RHISlL4+vzgkY2eixOZ1PExCYGc2mmHS94tuE4Az3ADpuHUek9BPH6zkDPYf8AtnADvTYXANwRcAkcRwPPwj3C4h0Ykan4c1a3IE6+88FSyAb+o0ZToMlO9nb/AInvDBhle97m4zUgZEjvH1gaT+E2srkKQVY3sDexsL5e+RklKXVOpJzFuybHW28lz8pIbH2vZxTdrq3YY6g6BSeI5d8xo1M0TYvSyvQsrH7xPhY5j8ra+RuJoOx9t0sQt6bdYao2TL4jl3jKY6pnShWZGDoxVlNwwNiIKTQOKZuUWU3o10uWpalXIV8gr6K/cfhb2PtLjHTsRqhYQhNMCEIQAIQhAAhCEACJCVXpj0i+4X7qmf4rjX4AfxfmOdvWY3RqVnDpb0p+7vRom75hnB7HcP5vlM6ZiSSSSTmSTck8yeMUm5ucycyeOcSTbsolQTliKyorMxsFBJ/Qd86yv9LMVZFp/Ed4njZdAPPj3QQPhFfx+Naq5dsuAA0AGg/5jdDPIeegYwh5VopvF3Z6IyjGHkLBPG0S86Il8gLxTUhEN57UANmMjyv7TrRwrGOP8E9rWP1mOaQ6xyfg80rjUsRwF8x3rfXwiO5DFhcC+YIsb8TujIX8J7wtNgwVtOF7keFwMp6xNB1bM94INxblp7TdyBwfo44jD9W4e+vhbgRfh/x5NGY6G3PznuvfncHThby5TiTAVlp6P7XLWovmQOo3E2/C3M9/G0sEzmi9nDX0IIPKxGftNFV752mSRsWepduiPSq27QrtlorsdOSuTw5GUmBmJ0a1ZukWUfoT0iLWw9Vrt+BjxAHYJ5jhzl3lE7JtULCEJpgQhCABCEIARm3Nqrh6TVDmdFX4mOg+vgJkGKxDVHZ3N2Y3J7/0k10v2v8Af1yFP8NLqvIn8TeZy8AJAScnZSKoIQixRgEqXS4/xFHJL+rH9JbZTek1YNXIt2FC+JtvH/cB5Roiy6IUQvALcRzhcPvG3dNbpWLGLk6R4ptPSpHqbJN+0f8ALn85JYPZK36zZchb3PCTeSPgtHBK+Rhhtlq+hI58pKYbYIUjrGTuEwKAZADu/Xvj1KVuP1nNPLLwd2PBFeCOpYBR6a+Gk9tg1kolOdKWGuZHc2zopJEMmzAeH0nqrsdSOzYW0lsoYVbaafvKeMRRvabyJaMw23s0oL7lhoWBy1uDbgeEhGp2B5j968ZqeOwoZSpAseBFxKDtbDbjkW4cBYcbTqwzv6WcmpxL+yISXnYNUtRS+oFrniASAfb2lHdZaeidUlGUnINl3XANh7zol0cUeywRYkWIOelcggg2INwRqCNCJqvRXbIxFLM/xEsHHyYdxsfO8ymSOwNqHD1lcdnsuOaE5+Y1HhGi6FkrRscJzp1AwBBuCAQRxB0M6ShMIQhABJAdMdqfcYdrGzv1F5i46zDwF/aWCZd082h95iNwHq0hu/1NYt/6jyiydIaKtlZiwhJlAhEiwAJSOkS2xD/zbreW4v6GXeU/pXTtXB+JV9iRb9840RZdEOuslNlpYX5/KRYk5gU3UBPK8TK+CmFc2SNO0eYY8pAPi+A/tOibSKyP7cmjp/eimWyiDrHKA5SuYbpAuhVvQH3k5gdoI9utbxuPKSljki0M0ZdD9Z1w7201755KZC2c8pjKadpwLc768eEnGLbKymkuSQWo0R35yJq9IqO6dxt63JWPqdIwbaxa9mGRtqRa/iM88pVYpEHliTlRbym9JKA3kyGbH34jw+slsNtfOz5aZ8M+fI3ynDpDS3ghyz3lv3ki31jQTjJWZOSlB0UfFp1gALC2nmb3lg6IJ1ah4byjz3b/AL8JA1kIJ9PplLF0UpAI7cd/d8goI+ZnY+jzl2T0IRYg4kWEIAaP0B2nv0TRY9anpf4G09DcektkyPottD7nEo5NlbqN+ViPqFPlNdlIu0TkqYkWEIwpxxFYKjOdFBY+QvMSxFUu7OdXYsfFiSfnNU6a4ncwdS2rWQf1MA3+nemTiJIeIsQmLEIiDgDFiARYAFpW+lGGYlW1Fsu4i29fnfI+UskY7XS6aaMp8jkfnMbpWbFKTplEEmqoJVEF87XsbZePCMtpYYI/V42O7y4yYwyAnMTJy4TKY4NNpnilSppm3pqxP1jjeokEtTUX4u6J8znG+IoE3KkA+uvKOmwgamBTTcqbrIzEI6ur9reLdZWyFmGgvpEVPtlWmukcn2cgO9YoL9oMrpfgCy3C3744w9LcdQScuPHh+k7VHthlpsifeKFUVbhSqoLKiqq9dc3LbxzLX4ARlhid0E66d3daZPrhmwjzyqLdgKbPdVJ0vp6G/CNcTsQvkx3QWJB1bMWPnpHnR7GELawNxbvynPpDWcqChHWATNiu6LkswIGpvbwEipO6ReUfZFjZuGRgCWdlyst7Kf5rZA+clqSU0Fhh17xurf0OZldx2zmekq0ae65yZmdm0Nw1MgjdOoI3bEW4iWKrg6q0SypUFYkdVSDhlUKo3ArsWuSCxZQLM9sxlLbU1e4jbUq2iYnBUa6Hcya2RFwwPDx8CJE1wzYTr9tOOmaNYnuuJP7NViAzoqNx3WLfQRhtqmBSqBeKt7gkySk7S+47ikm/sZ/VJJHtxzuR+ssnR3ClELH8ZFh3Aa+59J46P7JSoGqtmi9lebALdj3AscpNW8p1uVul4OLZtipPyLCIIsBQhaAEWaAlpsmxMZ97Qp1OLKL/AJhk3uDMcmj/AGe4new7ofwObflYBvnvRo9iS6LZCEI4hTftIq2o01+J7/5VP6zOhL19pb50B+c+m6PrKNJy7KR6CJFhFGCLEiwAScMct0Yc7f7hHE54hbo1tbZeIzHymPo2PDRStqtvOXtkSQO/dy+kl8LnG4wwI3cijK1viVjmvoR7z3gG6oMnJ3GvR0pVJv2TdLCBhOv+DCjMehtPezV3svrHuKp2Eg2zpilRB4hF4ACN6dMXnupigWKpY21P0iUwb9bjym80HBYtgWAPy+Qkg1EE6XU/PlOPR/Atuk24X8o+erZhZbgayb7KnNMDT1tun+Uke2kdpQuLBiYiVFe40tw421B8I9oYfiPSZzYrqhi+HtwkDt9d1H/KfEk5AfvnLdiVtKl0kUsm4tt52VBfS7Oqgt3XOcpFfUiMnwxjsUlcNe+b1Gv4Mim4t+Ui3dOtomEQLSKAndFUbgYWbcSkUJI4XY3856tOqFO39zky2mk/CCAhFjEgEWEIAEuf2cVevVTmqt6Ej6yly1fZ6/8A1DjnTPsy/rGj2LLo0mEIShMoH2ljrUPB/mkpEv32lU+pRbkzD1AP0lBk5dlI9BCEWKMJFhFtAAhCEAIQ0bMwXs7x/YkfgcltyMsVXCgneDMp42tbxsRIL7ncd1+FiOV88svC0k4vkupJ0kTWza1o42zjLIeZyHeTInAnrCddqoSRfl7mT2/UXUqiMMOipa2Z4k8SbXjhMY1+sgA4G4I87RiKROpHnrH+G2fcX3tbcBGaXkyLfgvOw9pWQkAZru6ZDwnVdoDeKGk3Pe6u6L8+tfnwlUwOBfIB1A4jrZ2OttOUnX2c6i4It/LkPAgiTpFW36OG0mam9OqvZJIbkAWuoPcP1lo2Ziwyg90re7vKyNe34TwPd5RdlsVJTvsPIzGvIqlfDLDi6nd+9P0lZ2qu89FbXvWS/fZgfpJasc/3bXQyFx1ZkqU2FgyPvC+lwpOfl9JsVbFk67OeJZ96zm5FwuVgFvcD+84xzjcV94wYixAt53vG06YpqKOObTk2gixBPQjChCEIAJLR9nw/6pv/AM2/3JKxLd9naXrVG5Jb1YfpGj2ZLo0OEIShIq32gUN7Db3wOp8j1fmRMzmybewv3uHq0+JU2/MOsvuBMbiS7Hj0LCEIg4RYQgAQhCABIPaa7ta/B1VvMXRh/pU+cnJG7cpXQONUNz+VrK3kDunyg1aNi6YzoNZsv+ZJ4zMK/wDLIAPp3fvTjHZxd1AvIuJ0KXA3fD2rLU6zUyRvIDY247p4njL3sjYuEqoWWtYmqqqu/wBbdY2CKpz3tSLg5eF5TkIOsl8CtNl7W668fD4SMwdINtlIxXh0aFgeh9IXBeoeWai1+dlzzEZ9IMLh6NAuatVnVRZaThnd72ChCDlzvoL8pBUy7dUVamYzO++fIHOP62y6dNAA12IucshfhcdqYmq6GljlfMvgquBq4vqvWChGNmTRlyJufTMf2k9g03usNL314a2HLTWecVu7m7bLPny4+U4bPq2BANwxFvYacssor5VmSpPglN/O/Lnpnx/fKQmPfeqC2ig8eJt9AY6fF5bw4+uWud9O/wBpGUjcb3xZ/wBP4fb5x8cebI5ZcUe4RRASxzhaLEiwAICeoQA8y+fZzQ6lV+bKo8hvH/cJRZqPQzC/d4VObkuf6jl/pCxo9iy6J+EIShMSY5t/A/c4iolst4sv5W6y+xt5TY5R/tE2ddUxAHZ6jeBzU+RuPMRZLgaL5KHCEWTKCQEIsACEIQAJ4rrdHHNWHqpE9xSuWnAzQKRSbK3HvnX70nLKeKlPIEcpzBvpFXKGdx4JHDPe1zbnJBaSMLhmv3ce85SHwp3srydwCZDP9+MnLgvjdjmjhn4O+nr7yWw5VACzdbjvXuQAfIG5nilUUa6+Gv6idnpB729CM8uJvyk7bKul0NcfWvyzyOenAZ+MbNW5DIi2YNxlnY6W1znrE1Bey8LHxyuR7nPjeMgN0DQk3tbS/AC/zlIxISlydnYudwHtZvrppbxPHxvHC6T1hMNYXIztnqbdwJz5cZEYjbapXGH3GJ3lXe3gAA5B3gLZ2B7tI8PqltRmVbYqTJaLO2LwxpuUbO1iCNGUi4YfvIgjhOMdpp0yCaatBCEUTDRYQhADrhMM1R0Re07BR5nXy1mzUaYVVUaKAB4AWEoHQHZ+/VasR1UFl/M36C/qJoceKJyYsIQjihGuPwi1ab020cEeF9CO8Gx8o6hADEcdhWpO9Nx1kNj9D4EWPnOE0Hp5sbfUYhBdkFnA4pwbxHyPdM/kmqKp2hIohCYaEIQmgI5sJTds1KlPEdV2CuQRZjbPIiW+oYw2hghVWxyIN1Nr2IzHlO3HhvFa7fJwzzJZeelwRbJwjSrRzuNfnH5DAlHG641GoIOjKeKngZ6+7vPNuUHTPXqM1aIcNY8jz4GSeF2i6kXF/DO88vhgeH775zGDHC48CLRt0X2S2ST4JD/5Fy11vbvFzH64mo67tt1eJLcLa2HHTKMcLsdyLipYeHykpS2Oo7bu55E7oHkB3xHKPgpGEvJySwuFBd7DP26x4D5x9hMGxNzYknQCwA7uQ9zqY8w2CFrKAqjut5gc4+WmFWwPicj4XvElP0UjBLsbFMvlwtwlTqYIVto01TPdCljysSR7SY6QbaWihtYm2Q/fCdPs/wBnkBq79t8zfXrZ+wtOjRYXLJufRzfqGZRx7V2WXbeD36QcDrU8/FPxDyybyPOVuXpDylU2xgBTcbg6j9kC/VYXug8hvDuNuE79Vi53I8zR5bTi/wDBhCIIs4D0AnqmhYhQLkkAAcSTYD1M8y49Bdjbzf4hx1VyS/FuLeXz8JqVmN0i2bC2cMPRWnxGbHmxzP6eAEk4QlSQQhCABCEIAeGUEWIuDwMy3pXsI4epvIP4T9k/CfgP07vCarGmOwaVkanUXeVhmPkQeBHOY1ZqdGLQEk9u7GfDVN1ushuVfgwHPkwyuJT9s4x+wpzOWUfHglPnpCzzRi68kxVxSL2nRfFhf0i06ysQqksWZVFgcyzBQBfvIkHhMClJd9zdviOdr/COcebF2ulPEUGK3RKiMxa193fF2t3AlvKX/ipK2S/ktukiRxAszDkSPQ5TlaTG3tmmjVdeF8jwKnNSPLLxBkYKepyAUXZibKo+JmOSiX081LGn/j/KOfVY3DK14fK/081cKlZNx+qw7DjtU2P+5TldePcZEYjD1cOwWqhsey4BKP8Ala2R5qbEcpz2h0gN9zDkjgapFmbupg9hf5u0f5dJ22ShK9d2JY3JvvMeF7sfnMyaaOf7P2UxZ54Fb69DlKauLjX1BnpMML2/tHAamjBatyHUMtWmCDusSo36Z7RDKQQbkc7ETu9Mo5RipIsQym4IIurC+lwRlw0nk6nSzw8vlHrabVQzcLhnrC0bfpn8o/pHd19gB4iN6VRdZ4xOLA4icXLO2kO2xFuQtIfam2ggIXX2EZ43aGWplcxNcsZaEL7JTnXR6oo2JrqpuRe5yJyByAHEk2HnNd2HSUUwFZWI7W66tuniDuk2OuspXRvZjU8O9XsvUG4jHVUIsxXvsSL827o3qomFs4uKhuFCndcny0UZXJ9DPe0uBwhb8nzupy/uzcU+jTzPSU1c7ji6sVBB4daysOTKSGB4ECVDZ/Ssoo/xQvw30Gf9S8bc1z7pbthYmnXZTSqI6ghmKsMlXPMajOwzE3VXHG774oTSR/6r1zfwV/aeFCs11U9ZlYgaOpIY3Gl7X84zo0EdWZSRYkDiDbx4RjjtrscRiHU3R3dt05qy7xCnuJUA3HvHuwScQfuKKsrEbxJzRRfNiw4Z8QLyrww2KU0uhN81KoN9jno7sk4p91TZUNql9V8OBvwmq4egqKqKAFUAADgBGWxNkU8NTFOmOO8zHVmOrN+8pJzypbdz2rg9KO7atz5FhCEwYIQhAAhCEACEIQAZ7QwKVqbU3F1YWyyI7weBHOYr0n6KNgnNRg1SkT1HA48n+FvY8OU3WccRQR1KuoZWFiGAII5EHWVxZpQ/HonPGpfk+b628xLN8OQ4AchGZTTvE1Lpb9n751ML1ltnSPaGd+qx7Xgc+8zOxhWVrOpUrkVYEEHkQcxPShOGRWjilGUOyzf/AGmk2DprWWo2JpL92N2wSogvuMzG+4wAW5sTe9hY5UvauPq1rA2VFN1RLhAeZBJLN/MST4R69K4A7/rPIoAcJkdNGLdeXYz1DlW7xwiLwlPPPhJ+nSOWuVtCMhz0jZ8LYkgaj9Z2oVWW3K1p0Rx7eiE5bx391vtvOSzKN0X0C3JFu65MdIm8Ag7QvuWyvc3KHxOa8muPxRvhql7X71P09483ZLNjU4uL6ZuLK8c1JdojqmOI8PO/d4RhXxpPG069IVKvv/hqDe8GGVQD+rreDjlIam9zPnZ4dknF+D6OGZTipLyOK73yjjo9sk4iutLK1iz3+Bbb3rdR/VESjeWHY9P7hC4yZ1sTody4PkCQD4L3zq0enllmvRya3ULFBpdsltvbUWkG3bFwLZDqg8FW+dhcWlU2XgyzNXq8BcX8z+/Gdat6j3PZuTnx/eUcY4ndCDIE5246C0+i2JHgxdKvLInHVDVYKOyuvjHWGojdUWHOdDSCggDPLhqToJdujHQipU3ale9NNdwizt5HsDxz7uMnkyQx8zZWKlKlFEHsTYNXFOVQWXIM57Ki3udcprmwtjU8LTFOmO8se0x5sfpwjvBYNKSBKahVGgA9zzPfHE8jUaiWV10jvxYVBX5FiwhOcuEIQgAQhCABCEIAEIQgAQhCACSG250coYofxE6w0deq48xqO43EmYTYtp2mZKKkqZkm1fs6xCk/cslRb3BYlGA5MLG/l6CVTHYdkZlYEMo0III8iAeWs+hozx2zqVYbtWmjj+ZQfQ6idmPWSXElZyz0qf8AV0YMudvC8FRTaani/s9w7G9NnpnSwIZfRs/eV/FfZzXUD7uqjWN+tvIbehnZDV4pduvycstPkXj4KYxC68wfcGSuAo76b5NlJsLAk5XBJtoMj6GOq/QzHDe/gbw4FXpm/lvX9oUtg4ymNwYdmUEkBl3rEm+RU5jjY31jyyY5dSXyJsmu0/ggeklI/dMDbepOL2z6rAK1jy61JpV8IpZlUAlmNgBxPKX3GdHcbUSoP8PVLMrZlbEsc+PeB6CcujvQPGqLvQZCwIJL0wVTTdHW7Tew9J5moxxnlVNU+z0tPllDE+Ha6I7A4MKbvYqpsSD2nt2AeQ4kcPGe8ZiCxbu/SXSl0CxL7m81KmqjJVLPb2GffeSuB+zmgudWo9TiRkinxt1uPMTvhn0+GNJ/BxTxZsst0l8ma4dOuABc2yAzJPcOJln2V0LxFbdZlFJb3Je+9bXqrr62mmbP2RQoj+FSVO8DPzJzj+0hk/UJPiCorDRruT+CA2L0Vw+HO+F3qnxtmf6RovlJ+LCcEpSk7k7OyMVFUkLCEIowQhCABCEIAEIQgAQhCABCEIAEIQgAQhCABEiwgAkWEIAESEIAEIQgARYQgAkWEIAESEIALCEIAEIQgAQhCABCEIAf/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUWFRgWFRYZGBgZHR4cGhkcGBoYHB4ZGhwaHxoeHBocIS4lHh8rHxoYKDgnKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzQrJSs0Nj80NDQ0NDQ0NDQ9MTQ0NDQ0NDQ0NDQ0NDY0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHAQj/xABCEAACAQIEAgYHBgQFAwUAAAABAgADEQQSITEFQQYiUWFxgQcycpGhscETQlKy0fAjM4KSFGKiw+E0wvEVQ1Njc//EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAArEQACAgEDAwMEAQUAAAAAAAAAAQIRAxIhMQRBURMygSIzQmFxBTSx8PH/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBETkPTb0l1qVeph8Oq5UbIWZTckWzW129YbD6wDovSDpFQwlMvUYZtlQEZ2Y7ALv5zk/Sz0mV6pAwxbDqhU2v13bXcjTILbc7zRuK8UfEVXrVNWbQbaW2AsBawtt2TH5gd/KcBtp9ImOOVvtCGXLZgWF7HXMt8pvpy5TYuH+l+qqKtSkruCLtcr1eem19+ycwYD9IQC9zAO79HPSXSxNSorqEVbshvrkFvWBOpJvoO6btwviNPEUlq0mzI4uDsfAjkRPlEAHQjSZfg3SXE4YfwK7oA18gN0Y6XupBB2EWD6kiaF0P6cnGYd2KAV6Y64JZaZF9GzgHKDz008JtfBOJpiaKVkBAceqbXB5jTQ+I3E6DJREQBERAEREAREQBERAEREAREQBERAEREAREQDAdM8SyYSoUBL26tuRUhsx/wAq2ue4GfO3Fabio/21/tC5Z1YENdutfXxv5zv3S3DrVZadWq1KiiPWdlYpmCWDKzDXLlY3A5T54x1nrvkzFS5yg75b9W41tpaRZ1EesOQ2lIonTTeZ+lw4Aa7ydhcGANpU8yXBph0rfJrwwbWvlJllsK3Z5TbzhpFrYex2lfrvwWvpF5NXakeyW3E2VsOvZI1fCq3KWRyWUTwaTJdCukiYb7cucjPTbK2W4LFr6gcrC1ra37p070SVCuDWmylb3db9htcW5WGU/wBU4NXolG+RnY/RvjMRifsGCIqYYtTYroGV0BYm5vmuqaDTeWplDVHVoiJI4IiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAY7jGBStSdX2KMCRuAy2bX97T5v4VTDOXvfmD4/8T6M6SVcuExDbWpVCD35GtOAcLoBU8flKc0qiX9PHVMmosl4ZZQgULcyXg6Oa1tfCZEensio05BrUplqtFhyPukarRuNoaCZg68hsdZksRT0mOfQyUCrLRCxtEML851r0I4knDVqZ+5UBHg6/qpnLGF7idH9CClTi1P/ANX+5+s1QfYwZY9zrMREtKRERAEREAREQBERAEREAREQBERAEREARE8gGJ6UUS+DxCAXLUagAG5OU2AnC8ML0kYa3W/zm59IuI1zjapSqyZGyoAbBVVVvodDcsSbzVMFTsoU8ncf6zMmWakmvBvwYpQab7otUuHZuvWqWHJV5eci4mhka9GoynvFviJOan/FUuSEvrl1PlfQSLjMMv2+Z8xpdexzliw1yWU2KkAgG99jOQbrklkirqrMnwStXDfxHzgjxtL3EcSyowOhN/PskXhpyKLXOul97dhkHpJiSX00FpByblRaoqMbMS9J3b1reZl1uGMB1alzM8cOi4ZmXMj6WsquWXm2Ym19tNLDtmACNkVsxD65h+/rLrfkzVFN2meYdGvZhrOteiXDZf8AFtbQvTT+xLn885ZhnJZb8yJs/DfSA2CR6VOgGb7V3d3Y2ILWAUDnYWuTJQaTtlM03sjuUSxhK4dEcbOqsPBgD9Zfl5QIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAcm6XIqYyuCNXCsP7Vvbz+U1hD1PB2HxN5vXpJ4Zd6dbUXGXMNwwuRr4E+6aEFKh1P483v5zDONSZ6mOVwiZBKIIvuIahfYDxtLnCnJuDJtSnlBI1PLxkIlzZij61hymG41TOa9tJnsPVpq9sjub/AMRlU5FO5DMNpj+N4innVADduQ6xA5XtyiKadnJyTjRBwVa6BSbry7pVUwwkVKZSqUGoIv4GZGsbLOu09iMacdyHg6X8VFH4hMZj3zVHUDVnbL3ksbTMcNazl/wqxHjaw+cdD+HGvxCgp5PnI7ku5+UuitjJdSb8H0Jw6iUpU0O6oqn+lQPpJU8ns1GMREQBERAEREAREQBERAEREAREQBERAEREAtVqSsLMoYdhAI9xnLPSNhguJUgABlB0FttPpOrzQvShhCVo1R91ireDWK/EH3yrKriy7BKpo0GnUyk2kx8fYAHVuwd8hOZYbBu7MwZlB2It8e6Y0j0m32Mq1Zxc6KDyuLmYDiFibqFDHcaD3zI0uGEbsu3MnX3EazH4vCgAksQewWt+9JaqIOLf/SImJswuLHtl2viTsZFo0TmudV79p7iXGbSKVlTm0tzIcAwxrYinSGzuqn2SRm+E670Z6DUMHWasjO7EFUz5eop3sQBcnQX7JpHop4fnxRqEdWmpN/8AM2g+Gb3Tss0QW1sxzk7aR7ERLCsREQBERAEREAREQBERAEREAREQBERAEREA8mP43w1cRQei2gYaHsYaqfIgTIzycasJ0cBxNN6bsj7qSL8jY2uD5S7hK/Z4GSOklNhicQoO1RyB4m/1mC+2ZdbeMx6Uz0lNpJszzurCxF7THVwi65PGWDxhQpUC19NjLLcSQpYtcxoY9WPctV6wtptISozGwGplDVQT3Spqx2Gl5bGOlGac3J7HZfROiDDVMmvXsW7SFHwFzN9nNvQ7il+wqUywz5ywW+pXKoJA7LzpMujwUS5EREkREREAREQBERAEREAREQBERAEREAREQBERAPJqfTvpAcNSC0zao97HfKotma3brYefZNrJnF+lXEf8TVrOpuo6qeyul/M3PnJJWVZZaV/Jh8NiTU65JJbUnck3sT8JViKIveY/gIsijsvfxub/ABmbK5hPOk/rZ7UI3jj/AAjHVOHgi66TG18AwmeUkfKRMe4tp8p1SaIyxxZrz0bS6tPSVMt2l+othLJS4KowVtlihj3oPSqUmKur5lI8Boe42sR2T6N4FxNcRQp112dQSOw/eHkbifOeHw+csx9VBf8AqOgHzm+eizpOKT/4Wo1kckoSdFfe3cG+fjNEVUUYZyXqNHYongM9kgIiIAiIgCIiAIiIAiIgCIiAIiIB5EgcQ4vQofzaqJ3Fhc+C7mavxP0hUlFsOjVD+JgVX9T8IohKcY8s3ea/xXpdhaFwXzsPuJZjfvN7DzM5rxTj+LxF87NkP3FsiedtT53mKVD/AJR2CSUTPLqV+Js3SDp1WrI9NEWmrCxNyWsd+toB7jNbwLdUiW3pMQdb76EdnOeYM2lkVRmlkcuS1hkyOydpLL9R9fOZSkZFx2HzAEaEag9hlWAxAcG+jr6y9neO0GYeox6Zalwz3f6f1KnDQ+V/gkWkPEqJKZpCxAJmY9Foxyp1pbxHYNZOWluZbUhBnb1j/LH/AHH6SzHFylRmz5Fihb+C1jLUqYpjVt3I/EeXgBYeUw4BvJTksbnUz2lR1v2TfXY8dPlvk2To50jxVBQEqtYfcfrp7jqPIib/AMI9ItNrLiUNM7Zluy+Y9ZfjOYJT6i9oHwOsuU3JBB1+I/Wd0oo9aUXtwfQGExaVFDU2V1PNSCPhL8+f8FjKlFs1F2pt2qdPMHQ+c3PhHpHdbLiaeYbZ0sG80Oh8iJxxZfDPGXOx02ezEcL6RYbED+HVUn8JOVv7TrMtIlyafB7ERB0REQBERAERI+MxK00ao5sqglj3CAU47G06KF6jBVG5PyHae6aDxj0gM11wy5R+Nt/6V2Hnea5x/jj4urma4QXyJewUdp7WNxMctL99wklEx5Oo7RKa9ZmZmZi7NqWY3JJ7SZZRgNyw1tcaz3fy1PjFSkQEYai4uOffpJma7L1Okr+rUJ7tzKxgTzYnz+GkxmJ6j3GgJ8PhJS4ospF+4gaGDjTW6LVd8l8pBA3DAEeAO8vol1UjmBIVTe2h8RsO6TcCbLkPLUeBkkHwX6b8jLGLwZBDocrDmPke0S+xA1NgO0mw95kepxEeqilza9zooANie1rd0SSapnYOcZao7V3LYx+tnXKe3lJCIH2N5FqVCq57qR94t1QOy1uXjczGYziZC50NmzZb8rAXJA7LlRc98xT6WK3TPYwf1GbpSV/tGexTJTXU3PZ9Jgq9RnbMf/A7BLOFxOfU+tz8e4/ST6aAS7FjjFUjL1GeU5XL4XgsU6EvuAq+OkkIBLLsHJ7FNh3nn+nkZbVGbU3yVJiAdNviPhtPGqKt9ZQRYdndzlqlTBJJ52E4cVO2SsOC4JtYe+XAnx+Yl9FFgB8NJ46eXP8Af75TpXe5YqJYXGh5EaazO8A6a4nDdVyayfhdjmHssbkeGomErch2nxEprJ8Pd75Fqy2M3Hg7J0f6Y4bFEKrFKn/xvoT7J2b5zZJ834i4ysCQb6EGxBGoIInWfR50sOKQ0qx/jIL3/Gm2bxGgPiDItUa8eTVybxEROFoiIgHk0D0l8Vsq4ZTqwzv7K+qPM6/0ib6xsLmcN4rjjXxNaqTcMTb2BZR8LSUVbKM89Ma8kfLZ0PIkgnxA/STHIAB5EjXme2QcQvVH9B+OUyTjal0JGoHv7P1lp5rIGJujnv5d0mIeoORZr23O9z8JG4pqiMOYHjL9BFZL3sV2N9rdk4dfFkPiB63790jhrDyl7FC5H7E8RNz4QSTSQVLDXcmxhQdDe2+vkZcY3b+qUkbfDugjZXUpAjXU20J1PiSZZCXGmjLdlPbp1l8CJJXb96/8S2NCG7GAJ7jpOhN2QOJhSEVicpJYqurNY2UDko31PlIFTDmqyiwRQLBbkjmSSeZP6TLrRBYHnlTf2AdPeYfKri4utjcdxEg43uaY5NP0xKcNwoIN7936S81C3P8AUSvEUClihJQi4+MpWtffQ9v6yRTKUm7bLJQ6jNuLA2+XfKKNPIuUch9Zef8AYlDDfy+kUc1OqLb7eNpQBuOwy64193yngGp8ZHuWJ7F/DVSBY6r8RJa67beNxMepO/x/WXQ5RTfY72+dpLsQe7ooR89Y8wuwG0v1W5XmOwLEO1+dxYTJYRcz8tBtOLgnNU6IvFRlVFta5PwBvPOF8QbDPRxCesjNptmX7ynuIuJb4+/XRRyUkjvMox65Upr3FvfIS7l0Nkv2fR2BxS1aaVEN1dQynuIvJE516I+L56L4Zjc0zmX2G3Hk35p0WRNado9iIg6YTpbivs8JVPNlyDxfq/ImcVo7Me3N9f8AidN9JGI6lOmDuWYj2RYfmPunM8KdF8x7zr8JOJh6h268EqjYlbnfMPfZx8bSmr/KcHXn37ywrEUwRupU/wBhyn5D3SVj7ZHI2yqb+MsRkaplis16aE7Bby3hk6g9/heXsUv8ADnbTvlzDEZFPh8oO/j8kWpRLEW/D9Ycch5+UnIOoPD6zxMG9RgiLmZtBaw95OgHeYObvYgqp0uO+x0M8cbec3bF4aljjnFQF0sHdFZEQDUtd1sw7Ot2cpg+PYxP5FFAiIbE5bO7LuWJGbcc9fAaTllssene9u37MTTGnl9ZYxzAIw5sbDx1kmlqPL6yJWOaqo5A3h8EIrckpSDKAdGCrY/0iWqiXdAdeVvIyTh9V7QLAeWn0lmseupHJx851i/qPOH1PWptra4HhLOJoZTptaMWMlQMOYI85KZ8wsd7TiOy2d+SGpvfwH0kgYcW0bcDdTYd3jpLVBQKihhdbjTvNrX8yJkndroGdlDaMQTprqQO5SukqnOSdIvxQhWqW9ukY37AX9ceJvLTrbmDz0mz/wDpy3/nvsCAUIJvfQDW2thr+KYzjapmYoCAHCoSbsRlBa5sOcrhlbaTNWbpVCDdUYyiNvE/SUcRa1PvOkrpDbx/SR+Knq2miWyMMFc0XCuXKw57+79+4zI8LW4J3Eh4OnnS3PT/AI/TzkzhD2RuRUmEdl3MRxI58TYa2sBKuLN11XYKs84aueu7kaDWWMQ+aoxlcnsaYR3S8Iz3QLiP2GOosTZXP2beFQgD/VkPlO/z5hBIII3BvfvE+juBY8V8PSrD76KT7VusPI3HlIJmhKkZGIiSOnMunNfPiWA2pqq+ZGY/mHumkYdbJf8AC1j5zYMfjBUrVn/E7W8Lm3wExPD1BaonbqPjORmiOXpZctEMrqyn7wJ3/GL+/OrS+j5sOl+dlP8ASx+gkfEIVseaMB5Nt7nC/wB0roPbMnIMWHmLy6Ls8/LBw5JWJF6Pl8bynD+onefpK11o+X1lOG9Re5v2JIo7EoHcW7hNg6MK4So1HKaiOjZWBIZMrqRpra7cu6a3Uezn4+XITKYNK1LLWpsE6uZTmBuutwV1ve2x7pxk8bqVmao4+res1dUSlSpnLTTLlzvomxN29bfa+00nEMXYu27MzHxJvNor4V61g9XMM5ZgiM13O7M2xbLtyAFhaYnE8LbTJe1muXsLFM2bRbn7vZrYziLcmqRjKI2/fmZATV3bvt49vlM3iuHtSUFypJzDKCSerbrHu10mDcWpHtYhf7zbTynSpJp0S0q2S1tTr5G5Hwhu8cwdvGHBDWOnlLqoWFr7+H75zpx1dlniS3W/Yd/Ht87ymmbp4e8S+i3Dg88/vXUfORcMbacvlODtReo0yzoWH3hr2kDMPkJlcE9J7h811IK2IW7WtYnssup8JRgwjp9m7ZXU3U6D2cuoBI7DqdLTyrhqqXumcfiS2a3a1Mi/PsmSU3qeo9D0YuCeN7c7+TYBiaCOLuoDLe93JVr9Uai9gNLj4TVuLVRUzsu32mhtqepa5A5ki58ZezluqFer3CmAB4sRoZdw2Ca2dyqIpYhb3sdiXO3xv2SLmktlRcozybTezMKosL8/gZj8f6vn7pPrvmJIFhyUcgNreUgY/wBWaruJhhFRnSd7mQ4ILofKeVKuQVB+LW3ebX/fdKuB+ofIfOQONP62ttT+/feduo2cUdWRopwBy0WcjVycveOZ/ffItNufbr+/KSKqZkS/rEWRBslMbnvY7+cyXQ7CJVxdNHQOjZ+qdR1UZlv2+rM857qKPXwdO6cmv9RAweBq1mC00Z/DYac2Ok7J6M6dSnhmoVbBqbEgBs1lfXX+rNt2zTsNx1ErPZABTD5VQgLodAdOqTY8rC1pmOjHH3/xqoyhVcMpCnOMwJsc3ZcAbc5yLinzuWzxZHBuqR02IiWmM4PgvUXxHyEtcO/nHwPziJlgev1PBb4t/wC77J/Mssr659kfliJsxnz3WcGQw38gxhvUXxiJaYOxTifqfyzYuE/9M/s/VYicZZi5Nmb+ansv86c17pH69DxqfliJFGqfBrVXY+wfyiYyv6tP/wDSn8xETrMsfcSsT659n9JVhefiPnESRBlyny8X+Ugpv++2IgIvYrn5fSbbT/kU4iYuq4R6XQcM94n972j8xMZ0p/l0vaPziJnh70bsn25Gspuvn8pDxvqGInovg8fF7kZDgPqHxH1mI49u/j9Z7E5L2onj+8ys+s3sfpMx0H/6uj4n8jT2Ji/M+pxfa+JEhd63n/uTYuh22F9v/diJKPvI5v7b5OtRETQeKf/Z</t>
         </is>
       </c>
     </row>
@@ -2536,124 +2536,124 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ravindra Jadeja</t>
+          <t>Taijul Islam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>73.7</v>
+        <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.5</v>
+        <v>13</v>
       </c>
       <c r="R17" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA17" t="n">
         <v>5</v>
       </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="W17" t="n">
-        <v>61</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH17" t="n">
         <v>91</v>
       </c>
-      <c r="Y17" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>52</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>105</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>33</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>68</v>
-      </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>Bowler</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFRYYGRgaGRgaGBgaGBgYGhkYGBgZGRgYGRgcIS4lHR4rHxgYJjgmKy8xNTU1GiQ7QDszPy40NTEBDAwMEA8QHxISHjUrJSw0NDQ0ND00NDQxNzQ0NDQ0NDQ9NzQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAPsAyAMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAQIDBAUGB//EADsQAAEDAgQEAwcDAgYCAwAAAAEAAhEDIQQSMUEFUWFxBoGRIjKhscHR8BNC4VLxI2JygpKyFKIVFsL/xAAaAQACAwEBAAAAAAAAAAAAAAAAAQIDBAUG/8QALREAAwACAQMEAQMDBQEAAAAAAAECAxExBBIhE0FRYQUiI3EygcEzkbHR8BT/2gAMAwEAAhEDEQA/AHlInIVRYASoQUxAkSoQAiVCVIYiEALO4txilh25nuBJnK0Xc4gadBoJPNPQjQJQHA7hedcQ8W1qlmAMEjT2piZBzDQ2t06pmB8V4in7xFQT+8e1uTDhzJm8p9ou49JQuQo+NmkjMxzbX0eJlu0gwPa3kztooneLsmQQ18ROUuFgNbiL+RF9bFHax9yO1SKtgcdTrNDqbg4HtIPJw2KtJAIgpUQkMAhBQAgBAEFKkIQAEJUFCBAUIhCAEQlRCABCIQUwBAQhIAWRxrj1PDiHS5xEtaNTtc/tE7/BV/EXiFuHblZDqhJEahpgE5uREgx1C8/4hjn1nl7yMxAFhAAGkBTUibNLHeKMRUkZ8jTsyW2vbNqdd+XecQmbpApGt0Mx+bKREjQpHkCBER6meaaG87IAahSFgtB1Enp0UjqDmkkEWMEgjkCfmgBmHquYczXOa7m1xaeeoXUYfxrVaGh9NrjAl0ljnC3tbgEjpF5XNUKPtgPkDNBPXlPNT12Bxta0RqZAEzGlyY9NkhnpPCOMUsQ2WO9oAZmGzmk/MdRZaLV5Lg6/6b8zXljoieh1DpuNB6r0Tw/xgYhpaQA9gbng2JM3A290yNuouk0NM1oSgJYSKBIEkJyEAIhKQghACISkITAaiEJYSEIgp0JEACx/E/FHYegXNs9xDGGJgm5dHMAHzha7lwHjjEOdUDc0tDQWgGzTLw6WjcwL8m94lKE2cu98mTrubkk7kzumoQCpkSUERHqfp8r90yeRP1SIAQA4mUXJO5O8knmSmwpHRYAbe1vJmflCAGObCka4gXGo6XHK10jWZiNRPc+ifUZlka3t079/ogCanWa6GhkGRBaTmtyB35ad017b5mubGYG0tAPPLqB20VcQQdjbtF5tz934pHM5IAkrVJsRcEyZJ3vvHn1VnhPEn0Hh7bjccwAYE7a/FUXiCRO+2iagD1rgvE212Z27HK6JHtAAnXa4PmtFeZ+E+KmhWDSfYf7LgTDQ79rr2B2k7FemhQpaJJiISwhRJAhCEACEITAbKEsJISEKhACWEAMdouM8d0mAMcTFS8AaOZvPWQIOmvRdqQvKvFGJL8TUvIY4sbpo0wfjKnIqMlCexkq7SwQIlFUp5HMOuDPlKFrDhs8lDX4W4XHodUlkl+5J4aRnhEp2Q8lco8MquGYMJHx9E3SXJBQ3wiAsLQHAkH4HQgg+YsUgxDtCSRy2259tFp18I6Cbi0ZCy/fSNtlVw/C6zyMtKoeuUgf8iICO5cj7K40RVcPGmhEtJIHkOfwSMw52c0zsHbDX7wtTEYCsxsvY+9iLho2BkGDfa2iRvC3tYKuUEE5S3UgwYNtDMj+4R3L5DsrfBj06DnaD+LTrzgH0KkOHIMZb6ETJINwWjewUgzDM0gwRt0IIk7x9UuHw5jMHQZjUjWbzrtOhT2R0U3tiRM9RofVev8KJ/QpZjJ/TZJ5+w1eVVToTqQTEXbBIgk8vsvUuB4n9ShTfa7RpbQkabadUmNF9IU6EQoEhIQnJIQA0IToQgBqEgKVAhQkKVCABouO+i8VrElxJJJJMk2Jvqe69pK8j47Ty4msBp+o8js52YeUFTkTG4SnK0abNAqeB91aDFRkfk1Y14L2FZK0RhQVUwLlrUoWZmqUZr+Ctc8O9fUfytulTDRCUuCVrlGqdLyNSlwTUqclXxRsIvy+yqYZ91pMf0+/qook/BVdhmubDgCOoGmkLBxPAHtcf0Xww/sdcNB1iZ3iLba2k9YACPL4Km9n5+bKyac8FdSqXk43FcBDGCHkvE8i3MBJA3J+65fHPAcGwIA2iDP7gRrzXccVqZZvBi40ktuD32ta64zEsLy54gz7o0dqSTPPT/ktmKm15MOaUn4KeIZB6Aa36CefJepeHhGGoj/I0+vtDc7ELzDEVBNp0iTu2BJv1HovTPDjycNRJH7G/ARKnXBUuTUQEJQokgQhCABCEIAakQhACpEqEABXlni2mRi6ltS0jrLW/WV6mF5v4mqZ8abQGw3vlBMn1HlCknoTWyjRp5QArVMKtXrBlz5DmoGcQMzFlT21Xk0q5nwdDg2mVuUmGy5nhvFmT7Vu66vDYhrous9xS5NEXL4GV3kJuHDnK7VpNPZWqFNrbyFV7FvjkkwWEOpVqoyFTxHHKVP2S9o828+UysPGeJ2Os11/O1hBLQM0Ta0/RWRiplVZpT8nUseDP4VHUuPn05Lk8HxioJJdmBNmubl12MG313iy2cHxRr4BaWzImQ5s7gOG6dY6kJyTRHj+FNqjXKb3vF+gXD4zDPoPc1+rQIIm4JcZEjXVeknXX+3Rcz4zZZj9/aaRz0LdNwZ9VLBkfd2shnhdvcjiqwudZvIF+czy1j1XrGAo5KbGQBlYwW0kNAMdJlee+G+FOrvEeyxvtPfrfMC0AbuOw7rvMTSOHfTa4Eh5y5y4l+YaB08+5WjJlUvRnxYKtbL0JQEic1SKhCkSoQAiEqEARoSoQIEiAlKBguH8XYYNxDHj97XE92tDT8APVdwsDxfhw6kx9pY+3OHtLXAHvkP8AtQ+By/JweIpZnFx7BMp0WuOVrXuPJoVqoxScOrGm4lpF9QfyySvwWODLq0I0DwCXAEtsS33oI1jdXOH417DINtYEx6bKzjqF8wc5rZcQ3MSAXe/l0gHdV6ZL3TA5CARYaAXTppoUy0zr8HjzUYOap42jiaggPdlOkGBvqR5q94WoTyi2036Lr8ZhgGkZRp2lY+5S/Bs06STPIa3D2h0FznOOzb/GPorNai6gPaoHLLAcziRme0uYCJiS0E9lscSp/p1A4Mgagxm7z8tN0zHUm4hwc7IHAQXNJBcORzErROT5KKxfBcw+egJfRDPaLDazXsdlLC9sgHQ3hsEX1Wrh3sfcSHaGTNtr/uEaGT0Kdhm0RSbScc7WiGMbAYLyS4N95xN5JJudElGm2fZbHwlV3a9izHDXJeZIEEzyMd5WH4saTQkEgh20/uBbHmSAt5w6dlk8dp5qLwNbfBwVEPVpltrcNFvwQymzDtzOaHe+Gib5y689BlA7Hor/AB8B7qcb1Wu+Di4+oVDE4MUMNSfEPDQw3uTEjzEx5K0xntMzatZ8XmT8APVFfqvXyyUaiN/CLATmpChpW85YqCiUSgQiEqEARoSlIgYJZSJYQIAFleJGzhn/AOz/ALtWss7j7Zw9TsP+7UPgkuTg205Tv/FB2VmhTV6nQAErM6NqnZiPwvIKxToBo6q7XaqhImEOmxqUjrvCVOV11WD5d1y/hKl7Pdb+JfkHMqiuS7XBmcQwbH3iD5LGfg8p9wd9V0VWpLZcIj8EdVVEHRLuaGp+TLYw6AFXsHh3akK5Rw1/zZatLC2/PNHlhTUmY6n6eSxuKs9h7YkERHOV09eAOe/kuexDxnbJgBzSewcD9E55IN7RpYXAFzM2Ih7g7M1k+y29mibbqINdncX+9uBoCdAOgACuOcwCzp7G6he+SSd/tH0VuCG67inqL1Pb8gENakTmrWYRCEIlAQAShKhMCNCEJAEJYQhACqtxGjnpPYNSx0d4kfGFZlJKYHneGqiyunEwFlcQp/pVXs0DXuDd/ZmW/wDrChxGMhvXZZ3D2bJyLRO7FEuhSjEMAGaZPQn1WGMVGm+6YMQ7+r+VZ6RD10j1Xwxi2FrRbkeq1cTxcAgjDveD+5gbEc/acJHaV5VwjiT2OEOO3Ly1+atYvxNWe8e04AbAmTyn7Kr0X3FvrJrZ6VicS2qwZQWA65hBHkVz/FHPouD2yWfu5jyXL4bjFZ0y4mcs726evwV4cYflJcQZ1BIkg3P38+UoeFoazo6XhfFmviD/AHXQNx3s8rbLzI4lgeHM9h8w4D3XEauA2ldUyscm4/OSqqXJNWqRqYrFjz+/4VzvGgXNcP6hlsJMOGWe9xC0cM0vlx+N9Ii++p9eagF67Ryaet5kW8injX6iFv8ASzVoMhrRABDWgxpIAHmpENCULaYQARKIQECApMyVyRABJQlhCBjEJEoSECEJQmAQlSICAOL8Z4WKjX/1tI/3MgH4OZ6LkH03OMHQfmy9L8UYM1KDi0S5hzgDUhoIcP8AiSY5gLz5lUclHyuCxaa0yL/460ym0cJJ3/nYLQpO2TmsgyFF3S5LZiTa4Lwok5WupRAdNQlszYtEtMuEdoWg3gjCzM5+Ha7PBYDmPvZcwjaQHdr9FWwHEAILgLET1AMrSwGIjKIbaNYPw0VTrzs1TCa0n4Kf/wBaoAvbTqPfpkhmRkxLi7PcAaW1uqL/AA2+SWubuJyye4PPrA7LtGvD7mJ+SjrGNd9B/Ci8tb8EXjn3R51U4dUY6InSCOmxnTXXoupwVUvj2CPdEWP17G4+qnc2DmOp00i94I5xt/Ka6sZtbkOsAAGPp1Um3XJWpU8Gi54At5z6yQqPCpNVzj+QLj46qOrWmBNoHy19I9N95cD7D2tOpDp72N/IBKJ7Wvsdvul/SNqEsJEq1GETRKEIBQAiISoQMQhCChIBiVIhMQJUhSoAESgIQAq838TcJOHqktH+G8yzk06lltI26DoV6RCp8UwjatJ7HCQRbSzv2uE6EFAzzSi638afdXaEFY9KqQYPQq82r5deqrqS+K0SVquS4J6d+3mr/B6he4TPWef4FRp0Gv8Aed+b7LXwGFaDaTbQ2mTpZRetaHO+7Z2OGeA23Lvt/CbVqA3kHWRvaLiPksvD4j9o1iwneJ38vNWTiDGYkA3vPeJvpYE/SIVM49F1XsgrO2mel50mDvMtInoqlSrJn1PK07bT8lDjMW2QG3J0i86G50FxyvPJS4LClxzP75dtZv8Ab5Kx6lbZCU6ekT4KlP8AiuFjdgO51mBtp6BQYrF5HtedjJ59fOCVq1TAvytYAAduS4fi9d9er+lRBcenxJOw6qGNVd+CzI5xw9m+7xxTcQ2lQqPcdAS1pPSG5iul4c2u9uaq1jJAhglzm/6nzBPYeZWd4Z8OMw7Q5wDqhHtO5Dk3kNOpXRscu3j6Za3SPOZusafbD/uVEo0TqzINtNR27Jo0WGlqmjpQ9yn8gEJJRKiMVCRCAGJUiVAAhCEAKkCUJEAKkeLXSrlPEnGJmkw+yPfcP3HdoP8ATz59tZxDp6RG6UrbOUxuHaS4NMgOdlPSSAfSFRzkWPrz8/JadE5hI3UTqPNUqtNpmnt7kmhlKvByyNecjXpY+Sv0MUQAQYnz0N/OyTDcOY65b8XD5FWH8Npgaaf5nn6wovJA1iv6JKPEbNk2kE3g6DfmRv8AZOfjXPsAYk+0REyRcNF+fL4BVWYcE2EX/NFp4bDAXhQrKlwWRib/AKmPwVAC51OptJ+3ZbVBwAvosl9drNToqjH1cS7IyWM/c/nzDeqhGO81aRbeSMU7ZPj8c+u79DD3/rfs0c++tui6HgPA6eHb7Il5HtPOrj35TspOFcNZSYGMEDfqdCTzK1Au903Szhn7PM9d11Zq0uBwMXUFetl+yKlQASqOfMSSYA+XQKHV9Q51jx+afH19lv43olk3mzeIXv8AL+EWsM0uJLj0nmYsFI5sW5Kv+tAB0Js1v9M//o/nNStdIG3Rc1vFjfpb3XLf2de5zZV67nUvwl8JcMVLCRCkUBKEIQAxKkQgBUISIAVCEAIAyuP4/wDTZDTD3yAeTR7zumoA79F53xOtAyjf5LoeJYo1nueLiYZ/oHu9p17krkMc453TsY9Ftc+nj17syqvUvfsjT4ROUSDBmOokiR5gjyWjXwpFwqGEGUgf0nJERcayNjM+q6ZwBZ+fVcnK9VtHXwrc6ZmUXEJatSbJatlWLrqrnyWb0XsM0BPr4sAQs99U6K3gOHOeZdYbTv36K7D09Za0kVZc8Yp22Jg8A/EOl0hn/aNQPuuvwWFaxoa0QOQ/O3ooMHSLQJFttvLpy/stEQu/h6ecM6X+553qeprLXkmYm1K4Gv8AKhq1g0Sf79Pksmtii8wJJ0AAk9gBuoZ8/Z+mVunx/wBss6L8f637mTxC9/8AC+SxVrl5uYA+E6dypC8NF9RoOX+Z3U7D8NdjIAJIzdLhv+k7u/zemxGZj8QZyt/OvdcXL1SxtzD3b5r2X0j1WDoXn1VrWNcT7v7Zo4KoalQu/ayw6uOpWmH37anl1KzqBFGmBvG2pO8ffbrtSo1y91+dheB2H11S6P8AF3n/AF29L2+WR/Ifl8WDePGttc/C+jo2VQbSOkEGe108LHx78sQrlDFWBOh35FdfJ+PcRuG3/PJ5yevV1uklv44LZQiULntG0YhCVAAkSprnAXJAAuSbADmSgB0LP4rxFlNjgXe2WkNaLkEg5SeQm9+SzOKcf1ZS837n/SDp3P8AK51ziTJMnU7zK048PDoprLvan7JsMYIWf4pwQp1GuAs4H/k2J+Bao8VxXIYZDnbk3A7Rqfh3VilUfXpj9Y5hmDm2a2IBGoAMGdOgWu6nInC5+TNE1Fd74+Chw2pYN6rpn1gGgLnOLlrMQ4sAa05XBoEAS0TA2Ez6rrOAeH34oZ8+Rv7SWgh0Egj3gRpyPwXKydPdW0vY6kdTEY909GbUbuqrKbnuhoJ7Lb8Q8KOFyy4VATJDZZA859Y8ipeCYmg8Bolro913PeHaH5q/B0Db3b19FObr5U/trf2Q4Dhce07X4BbdKhl2/Pp/KshgGiRzvz88vVdaImJ1K0jj3krJW6e2PonWf43+GvqmYisGD8np+dlW/wDLgWvO6oYhxJJc4NAu9zjZg5u6/wCX1WTJ1DdOMXl+79kdDB0CSWXqHqfZe7/t8BiMQ55PYnWAALlxJs1o5ko4d7clslmhfEF46A+6zpqd+QznMdWeaLQW02kF5PvOIuMx0jcAWFtdT0bGNYyBsFxOr6nsTiG23y/c9N0fS9+ryJJL+mVwvsZjHhrSufpPBfmdMdNekdf77K3xLESCs7DDM+Nm289yofjum9bIt8e5d+V6r/58Dcvy/CNKvUJGZ2vLYDYCVHgjBRinW76IwzYXsF40keBfnezQxrpEpcE7Mwt3Fx3Gvw+Sie6RHzTMG7KVYypcGlgMXsdPl/CRU22dI/JQsuTpIt70aI6moWtm2lQgmLnRcI7BDicS2m0veYA9SeQ6rkeJ8UfVMaN2aNO55lHFsear5/aLMHTmepWf+Fb8OFSu6uTFkyunpcCTv+dlHVMNcd8rj/6n+E8HMeg/LorMzMdtLXD1j7J/6j2uFx9sua9Ce2uXz9IwMFhi89Bqtxxyi1gASO40TMFRDWgDmpyxps7Tf6qzHj7Z+zPd91fRR4kxuZtR39Ihp3OrZ6AG/YDdek8FqOp4eiwn9ozAmHZnDO4W1MkrgOG4b/ya8uH+GyJ6gaN/3Eekru2UH1PaBytE5nusJnUDdXYMa26fBn6q/Cj3MrxCW1CSJ+wWNQptZoAT2t8dfgtrH0WNJa05r6kanSSPX4rNfT23WlyiuK0tElHidRlgcw5Ov6EXHy6LYL3vYDlyzqJBj4Krw/h0e0/XYK9WqgQByVVx3S5ba38E4zenaqUm18rwRMLWtJLojV287BgMSde0bXWDiqj8S8UmjKwG+tp/cebtbq9iak2WvwPh4aMxEE3/ALqqMM412ytIuzdXeVu7e2//AHgsYLhgp0w1s2EDfy/NJ5G1HG14C3KtcMEHSLyuR4tiQXW3+fPz+fdcj8l0G/3YX8nb/B/k2n6GV/w/8FDEVJJdy07qXhVPdVKuw5rbwtMU6cnlf7LX+Kw9uPu+f+Cj871Hfl7F7FfGGXW0CVjlWc+TJVhjCuqn5OG1pEoqKWk2VDTp3WjRoqxFVPQ1tKUK/ToIT2iruZZBWZ4hxOSiQNXkN8tXfAR5rTC5zxXrT7P+bF53Ct2kegyvUs59xUdzYaJ79QnhdC57v0sx4snpvvS8+wzLlanuHsHsmvUlT3T2UlKlJIV1VN1T3siw7bBNqYc1HCmz3ne87Zrdz9P7qXDe6FseFaY9t0XzxPQNsPipJbeiFV2pv4NHhWBp0WhsEx+wauJ1k+k9grWLqktzPjkxg9xsRJA3i1+qP2vO8gT0k2UHE7OA2DRA5SJ+q2aS8IwqnT2yhVqa8zvup8HhQPad6fVQULuV6tulTLPodWrwJ7AfL6qhiKkd1NiNR+bKlW1VbJJFrhWENR8nQLpKjgxsdFX4SwBgtt9lk8QxbziMmb2c4EQNA2YnVQb1r+Q13N/Q7H4okx6/Zc3iXhxJM2t/bqtmpo7usKpt/qKeTjRZj/T5Rd4XQL3ib5RflJ3+vmr3Gq4ADB5pOCav7/ZZvEbvRErHClDyZHlyO65JuHYZ1R2hutnE0Az2NxrGg/PqtHw/SApExeNVnC7zN5cpz8FLe2Ow9FaNCioaeoWhR1Tb8FVEjKKFZCFDuZHR/9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRISFRERGBgYEhgaEhgYERISGBgZHBgZHBkYGBocIS4lHB4rHxoZJjgmKy8xNTU1GiQ7QDs2Py40NTEBDAwMEA8QHhISHjQlJSsxPTQ0NDY0NDE0NDY0PTQ0NDQ0NTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQoAvgMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQIDBQYEBwj/xAA+EAACAQIEAwUFBgUEAQUAAAABAgADEQQSITEFQVEGImFxkRMygaGxI0JSwdHwBzNicpIUorLhgiRDU3Px/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAECAwQF/8QALREAAgICAgECAgoDAAAAAAAAAAECEQMxEiFBBBMiYRRRcYGRodHh8PEFMrH/2gAMAwEAAhEDEQA/ALu0UCPtFtOQ3G2i5YoEW0AbaKBFtFtIsDbQtHWhlkAbaFo+0LQBmWFo+0LQBlolo+0S0AYRC0cRAiTYGWiWklomWSCO0TLJCIloBGRGkSUiNIkUCIrIyknIiESAddoto60AJYDbQtH2haANtC0daFpUDbRbRwEhxeKSkuepUVFHNjb4DqYBJaB6mYHivbGs7lcMMiLu5QO7EdLghR8LzNcS4tiK7VFaq7KF7yliVt1yjuzVYmyjkj118Si+9UpjzdR9TBsQgFzUQDrnW31nhi4hQpWwsRroDr1sRtED90nu/AX+Bk+18yOZ7ujqwurAjwIMW08JwHE3osHpMyMN8pIuPEbEb6EGegcC7dq7LTxKquYgLUW+W52zD7vnIlja0SpJm2IiERysCAQQQRcHqItpkXI7QtH2iWgDLQtH2iZYAzLGkSQiIRLAiIjbSXLEIgHXaFotoQBLQtHWiEQBIWjrQtAIMTWCI7nZVLEXtsLzyTjfE2xLLUerdGLBFVP5dz3dDow6m+vymw/iLxJkp06CEg1WOcjfIv3R5kj0nnmJKoAmZwRrYDIL+Obea449WZyfgdXc0lamUJzL3jnNuX3bD5G2s46T3BKFgwHfAuLr+IHqOfr5dHEMYXsDqo0UnUjnkYn3hrofEeMrlaxuBY8iCZsUJUq6EGx6Ega+B/XcSRE8dA2o3tmt685ARoOW/wAfCLn0sRrlsfW4PyEgUGUa+YsOkKj+h3Hj4fpBEOtr7a84r0TbNbS2siyaZq+wnaKslVMMxNSmxyhSSSlgdVJ2XqNtp6rPnpKhVgwNiDoRPb+ymP8A9RhaNQm7Zcr/ANy6N+vxmWWPktF+C2tEtHxsxNBLQtFhAG2iER9ohElAjYRCJIRGESQdNoWjoWgDYR1okASEWLAPLP4oVr4iklgQlC+1zdnbf4KvrKHB4Zq6hEo3P9OYW9f0nf2+RjxCsDexRCutu6KS3/3Bppew2FCUi5+9t1tbT9ZrKXGPRWEeUqKbhvYp3vnDAC4PPUcvly2jMX2MdTfS3kAfSeucJVBTKMDoO6Lm219baSn4o6jQADTTbfQmZylKrs3jCPLjR5uOz9gL2Fo9uBKxGgmhxht8TeQ4ep3htMVKTezeUIpaKkcCy7AHTnp+Xxmd4vRKsVvtflpvf856c9nHjbnY6zJcf4cT9oBrvb6zoi6ZzTjcejFikd/GenfwrVhRxAPu+1Ww8cgv8rTzt25gbHUetx6iek/wxB9liDe4NYa+IQX06WK+s0n/AKnPHZtIRYWnPRqJC0AItpIGwtHWiWgDSIlo+JAJrQtFhAG2hHRLQBsWLaLAPOP4n8IbNTxai6hPZ1bcu93T5HMR6Sz7KEf6eiP6Fv8AHX6GaPtBhw+HrI2zIQ2l7DmbdRv8JieAYioKFNUC5lBUk7DKSB56WiTuKX1GmFU2z0WmwK6Ak2sdd5RY7ULca2Hx5H9ZT1u2bUPs6lMg8yqMQfUCcJ7X0nIGuvha37vIkm0aQcUy4xODzKhGl76/CVq4U3vfnznHi+0pSy5T3fdt4/sTP4/tFUNwBk+N5WMG30XnkikbP/UKndLKL6gbX9Zw42tm+ky2CxGa71HYi9icr5QehI0vLegc1yjEjx1lpqikJW7M7xmgFe4GjTXdgeLpQR0cMEesuVu6FDFQCNTc7DbaUnEsPnqUhtcn5C8sHp0jQZKR7yEt5ZeXidL3lnP4Uiiw3NvwepxJzcKctQosdzTUn0nXIM2qY2EWEECQiwgDSIRYWgE0IRYA2EWEASEWEAa6BgVI0IIPkZlKHCTlqU0bIcwsbDTuKD8wZrZWVBara240tpzMrI2wvaML2i4Wgw+Qswripd3qF3zr/SRovLYbXlF2d4UKlYJmNgLsQCw063t4CeqcS4eHFmVcoG5QMfheRpw6nRQZALnVjzPhJ5PjRZQTlZneN4dVOUIo+zS+nUWv9Ji3oeyrZsrMN1NtNeWk3nHfeNgdlHTYSprFSjAgGx2t1/fzlYyaLzimij4ZhgpcqrjOpDE32J11l/hqYAIVbDnYaadT1knDyuXQDaWLOoU2I136xyctjgo6M46D2tIG3vn0sZz5F/1Fd6Y7gQrpsXYZf+521U76gAknYDU3PIeMu+G8P9qVXJoHBcgWAt18fPWQn4LUl2zVYBMtKkp5U0Hook8cY2aHEwhCEAIkWJAEhFiQCeEIQAiRYQBIRYQAEruINkdH6gj0sRLGcPF6Jak9t17w+H/UiStF8cqkik4vxx2C00F2J0tCvinoJT1R3zA1AXysBcXK6G/LTylJiXamtSooJa+U2BZgOdpJhqYqBXaliWNgdEdb+Yt56yIq1bN5SadRJ+NccTM7nIuYWXTu8vd3lPhMaahKsaVjsVvqOhB1nJjOHIrN9li7MdFIIAPnl19IlHCixIp1FvtdWt6lRLJIhuXyO5KRQmxBHgZI1XTWUVPEutbJZ7HQkgWloozsRfRd/wBJnONF4S5HRw9vt6RP/wAqf8hPSzPN8AR7eiLgD2i/UT0cmTHRjm2IYkCYS5iESLEgBEixIAkIQgHRaJFiQAhFtAwBIRbQtAEgVuCDz3i2hAMbj6BpVCpGhYHbcX0/STY/H1KSe0porADocy+FxraaDinD1rIUOh+63Q/pMFxPiFWiGoOuVgLAkGzDbMOoPWRGLvo29xNd7KfFdrar3BH3rbn97TuwGMqP7yAA7Hc+pmexNbMQSF0vc9fGduF4sQAtr6aaTSUeukUjkd9svMTTUKWCi41HUmQ0jZLsAL6nl6zhqcTtqwuRqq+PU9JwYnHF+9UOl+6i8zyHjM+LfRrzS7OriGI7rOtzqFQDdmPQT1bshwN6WCVagtUbvsDuCQO76aSr7B9kCMmMxSd+16FM7Ul5MR+M/Kei8p0RgkjknPkzLQnbxShlbMNm+vOcUwap0WTtWEIQgkSEIQBIQgYB0QhCAEIQgBCEDACBiRIB04WmGJLe4ilnPgOXxmK7Q1ExD56qjL7qcsi7ADwnoVLDWo5SNX7zcu6Nh8fznkfbbFsrJTBtne7DTYMLj8pZppItjp22VvFOAJTIyrmHiW+esrvYKuygTV8bDWFlJFvGUHsWY2yn46TNTk9m8scY6RTYl7XM3n8OexxdkxuJQ2GtBGHo7D6D49LXPY/sEr5cTiVuoN6aEe9bZmH4eg5+W/oyUwNAAJ0Qj1Zy5ZW6Q21hFvpHMJC6m1uZ+U0MStx1Rmay2IGhBAkbcPJGZd+n6Szp4W06VS0hxT2Sm0ZZ0I0ItG3mkxOGRveHxlNisAy7aiZSxtaLqV7OSF4hheZlwJiQiQDqhC8BACELxIApMQmBhTQsQqi5MASWnD+FFiGcWG+XmfOdXDuGBO81i3LoP+52YjEZbgAE2JPQADUmawx12zOUvCFxVEMrLtcWvYG3rPG/4n8IZGo1FuVDFS1ramxB9Raeq0OLo4GcZD/kJW8Y4OMYlSk7LkKn2bW91rXV9fwmx8ZeSsmEuL7MMUbIjf0AHzAmm7H9mQbYmst9b0kOwt94jn4D49J14PDYXCIA4eqw1LMq2JHNVJsB6y04X2gSocjrka/d1upF9BfkZjjxcXcjfLn5RqP4lyyX5xRTEcTGs06TkIsTVCAdSQFHUmKKQH5ytoua1fN9xNvPl67/AAEtrQBmWLaKYhgEbLeQOnIi4nVaNKXggouIYH76/wD74HxlVNY1PfbxEo+KYIrdwNOfh4zHJDyjSMvBXQjYTA0OuEISwFvEhEgAZo+FYMIoJHeYAt4dBM9QTMyL1YD1M1zNa80xR8mcmOWVfFGypiDzyqPgbCWs58RTRxka3etpexIBuPnNyhUcI4dmtUcabqPzlti6GZQBp+95OhBGlraj0Nj9IrC8iiShxHBaZIDVLknW7AfKOw3BqKffU33uyyLiFPPXKgjXKP8AaJGcAe8Qy6DmCNcua3gbW35xRBfK6KAA66D8YlfxjiKpSJRkZmsqDOq3LePleVfFcEMpRKgVmqqi3DfeB0JtKE8HFvtHYFTewzMFLCmQuU/eHtNfIyGyVtGx4Y4RAtkzHVyKiHXp8Pylr7ZPxp/kJgMNwvvoqOxOc3Yq1hY5bWJAtfmdegl2uFuL35A+7pYgnQ312iN+SZUaL2yfjT/JYGqn40/yWZc0gAzE31t3bHpa55an66xksVNUaqbl0/yEibEL+Nf8lmWY6/CITANOaq/jX/IRr1Et76f5LMzCQCXiOHVDmVlyk6d4HKenlOLOOo9RJKiXBHUSqOmkxlDsvGRfQiRZmaBEixIBPgB9pT/vH1l1xPEspp5QT3wWsPunu/DUiUmBP2lP+9frNP7MFixHS3w1msFcWkUtJptWVy46o2gCqQBe9zdiAQov1/IyBqNV7VBmvYhdVHdtofPvN+7S0p4JQCG71zclgNTynTaW4t7ZPuJaRycOoMq94jMTrrcfu5PrJ3udNhzP6R5YCMDXb8vzl0qVGbduyjxdxiGI5AcyNk1212hUD62CAHS1hyupOo3tzHKd9Xhy1GLl2F9NLchaQ4rg4KvlepmtpqNxt8bQyEUHEsQ5ZASjKXTMNFJYMQmuW6nRtR0aNrI12qF0CsWqOR7Rls2oIYAhtl0Goy8xJV4elQZWrVFcbMWuNCbXO+lyAYicJVe9Vxb5v6SWPln5eszU0yzi0+gwCVA9Qll7p23KnVgxutr2PK+mk68TXKi3d0XfcWAsbXHrvOejw5nZUWpUCKTY3NwDclifxEjy18DO/jHDlVB33JJVRcg7m0vF2rQkqqyuFZiEUn3tToBpa9vAaDSDnUDqdZarwhDVK53stMdPvE+HRPnCnwlCWYu9he22w35dZYqUwOrH4RX+6JapwpMq997m55bbCLU4WmfLnfRfCAVMJbrwlLgZ338Iw8LS5777+EAqXldi171+ovNS3Ck/E/ylPxPAKCvebn08JWWiyJosSE5jUIGEDAH4ZrOh6Ov1E1yTGGbGk1wDfcTXE9mckSXjXa2sW8jtmN+QmxQRBc5j8BHkjwkSNmY6aDQR/swNl+cAdT2H731j4ijQCLAKrHU6ZaxDK24bIWB6+Z1A66gSTC8PpWDAE+JuDobEEac76GSuSuZmD6nKMoLFVAOoAudT9R0j8GpVEBFjbXrc6m/j1lOKbugpy1ZMqBRYAAdALCVfaH3aZ6VFPoZZl5X8cW6eVpcEyv32brTT6tOVa32bEfhAHm7E/pOLC4vN7O52DKfMEMvyvJcPouHQ9Fd/JFFvmvzkA7Qe/lGwyqPhvI1qXqVD5fn/ANSLAVLmo/QsfyHzkeBPdqVOrkD4aflJBYUDdh++U5GfUw/1a0wXdwotlBOgzNsCeWxnPn1Mi1dE8XVncrXAlRxoe75n8paUtl8pWcbXur/d+RkS0Fs5osSE5jYWJCEAQzTcKt7NB0XXz3tMyZpOD08qLqTm72vInkJfFsrLVHcwvp6yOu1hlE5m4pTFU0CwD2BAOl79DJ23uZumnozaaq1sfQXKskBjG2AjlkkDxCJEvABmnPUqSR23nFVbeATq97SHFjMCvUG3ny+cdTOkjxLc4BkMTWNMluSsG9N/UXE0FZ7K7jcgU6Y9NPXL6zP9plyOw+663X47j1vLns2/tUp1G2RC1v62Jt6C0gk62X2NA33sb+Nhc/O0UpkpU6Z3y3bzOp+sXGLnelS5XBfyXvN+QnHxbFd872G9hfQamQ3RaMXJ0iu7ad3Cp1asD8ArW+ko+CYpxhMSRUa6N9mb3yiw0F+Us62OStVrGrb2SULBWOguwt/5actZB2dSiyYsKH9kCCQSM2XKb29NJxXynyT2mv3PYUfb9P7co20031134LGhxioh9kUNQq7KGLKrWFiL6WOl7+Ulq4w16QOTLZxpmv8AdOuwnRQwdA5HAdSMzAO5DnNpdgTqCBpFTApSUqjEgkHvENbQ7G02ip+XaOPM8bXwxp/Yc0I28WVOcWBhCRYGzUYP+Sh/omXmnwWtBP7P1muLZSejK9q6A+zrfeN1JvyUgj6md3ZXHtXpd5iSjMpJ1Ntxf4H5R2LpJVNWjUFwEQpY2IuWuw6G+npObgFJKC4wU3LhUDXIGhs9xcaNsNZlTWVyWnf5HouUZemUJL4lVP5P+y54LxA1UJO6uVJ2uNCD6H5S2Web0MUwoOASA1ex8gt7etpZirUomooqP3KagamwLFToNtASJaHqOlaM8vofifF130vw/U28YxmWbj9YAMFUjIWYEHS5IX4AW87xKnahgtNjRuGDXKkgCxtzBmnvwMPoeXwr+80hM56onHwfjK4jOFR1ygFr5ba30FvIztq7zSMlJWjnnCUJOMlTCntIcSPpJUkVaWKlH2lwftcObe8mq+XMTj/h1ii1GsjAjJUsfIDMR9PWX1dbow6iUHZEWbGUtvtFNuufQn/ZIeyfBpsIdKldtyMq+tz8/pK0U+7WqNsKbfMEfnLPHCwp0l8zJhh09k6soKlbEdZWStUWhLjJNnj+Pqlmc30LfTb85q+xeGZqWKUKe+gC6aFsraA7dPWSN2Tp+0Q53Kb5D1/u3I8PnNngKSoAqgBVFgAAABOPD6aUZXI9n1v+Sxzhxxq9fdRjMfw+oXpD2Lg91dXViSC7E3voALnynM3D6qf+247q6355VuNDvcH0m3rOM7aj1kNSb/R1uzhXr5VVIpYojbxZmzAWBiQkAJpeEteinhcf7jMzNRw5bUqY/pv6kma4tlJ6POe0GLZsVVCswF8hsd1Frj1E7aOIFHDVlsb1AFHQAb/8poOI9mUdzVTusW74+6b7tbkfrO2twmiqohpo2XYsoYk9TMVgnybv+M9eXrsHtwik+qtfYZKhhiuHoEi2eszC/SwUH5EyxqEPUqbEPiaa+YBN/kBNNiuGpVRUYGwIIsbW/YnGnAgrKyvoK2exXw2BEv7Eoul2jnfrIzTb6ff5uyp4qe9jiOSU1Hhcr+k56eJy8OJvq7Mo+Ltf5Azr4zwuuTiCigq+VrAgliCNB5an4SjxmHrDD4ekaVTus7N3GNiWOW9vAn1mUuUZN14f/Tpw8JxjHktp7+pGl7IYXJQzkauxb4DQfS/xlrU3lT2a4qKi+yFMr7NFG97jboLbS3fe868VcFR5fquXuty3YxDrG1t4oiVTNTnOWoe6ZS9ngFx1RT9+mGH/AIE3/wCUuXblM/SuMZRZdLLUDeIyMbeoHpIJNTQGd3qcs2VPIb/lOrFGyBesMNTyoi+GvmdTIqrZmfotl+POSQcdNb1D/SAJYLRVw6MoZSLMDsROLAa536sflpLHDHRjAZgeCYdExKZEUZqmPvbolVEQfAaTU1ToJyLgaaOrqpDA1CDmY29q4d+fNgPKdDGVSpFIR4qjP0G172blYn2nUX93wvJs6X0z/E1Le8NNDe2UkbX06yURZz8jooRmpWb39xlsalwOe+hO/TS3O8bUenla3tM33danXTQ6Dx308Y+IZPIUBmqwulOnf8AmUaazD/yqf9i/SWw7ZE9HSotOQnM/gJ1/pOPB+803MzthAbmEAjrtpIKRkleQ0doBIRzkLyVpDUgESmK5idIrc4Bw1zYynVf/AFVA9WYf5Iw/OWuK3/fSVGI/n4X/AO+n/wAhIZKNu5tr019BKwvakX5sXb8hO/F+5U/sMrcV/Lp/2J/ykkE+HTKijwnUTlpk9ZDU5fCSY/8Alr8IBVOYjRKm8X9IB//Z</t>
         </is>
       </c>
     </row>
@@ -2663,25 +2663,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Axar Patel</t>
+          <t>Zakir Hasan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023_test_008</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>69.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2690,82 +2690,82 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>68.09999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="M18" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="X18" t="n">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="AC18" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AD18" t="n">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="AE18" t="n">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -2775,12 +2775,12 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>Allrounder</t>
+          <t>WK Keeper - Batter</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhUZGBgaHR8eGRwYGBgaIxkaHRwcGhkcHxocIS4lHiErIRwZJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzQsJSs0NTQ0NjQ4NDQ0NDY0NDQ0NDY0NDQxNDQ0NDE2NDQ0PTQ0NDQ0NDQ0NDQ0NjQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABCEAACAQIEAgYIAwYFAwUAAAABAgADEQQSITEFQQYiUWFxgQcTMpGhscHwQtHhIzNSYnKyFIKiwvFzs8MWNDWDkv/EABoBAQADAQEBAAAAAAAAAAAAAAACAwQBBQb/xAAvEQACAgECBQIFAwUBAAAAAAAAAQIRAyExBBITQXE0UQUiMmHBI4GhM0JFgvA1/9oADAMBAAIRAxEAPwDs0REAREQBERAEREAREQBERAETEx2Pp0Vz1XVF7WNvIds1HFekGhZijaAHICpu5A3I3Vb6ajkYBvMTnfDvSKj13DA+pCjIQNSb2Zj3a6CbjwvjVDEAGm4a99DoeqbE2PiIBJxEQBERAEREAREQBERAEREAREQBERAEREAREQBERAEREASA6S9JqODW7m7t7KDc76nsGm8v9JeMDC4d6xAOUaAm1zyHvnzxxnjNStUNWqxZ27foOQF9B3QCW6S8eqYqrmdv6VGiqO4ch8Zr71MtxrczGOJLGWmNz1r+H6ziOszqdRuqRz190kOE8VqUXR0NipPnm0IPcRIP1h9+g7hzlxKvK2/3eAfQvRDpdTxaBTpVGhW98wAvmBOvcb878tZtk+X+EcQalVSopIdGVl8je3nsfGfRvAeJriaCVhpmHWH8LfiU94M6cJOIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAJQmVmDxZgtCoxUNlRmsRe+UXGnlAOO+kzpLnqtRTMqi2cEhlfsIAuOzXnYX2E0fAcJeq2twO09ku4DDGpUudrlm8b3m74RFA0FpXkny6ItxY1LVkAnRxQN5aq9HD4zcaCCXzTWZupI1dKPsc4PR977Sq8EcamdHXDLMTEUV7J3rSI9GJz2vwl1GZdbbjnOt+h7jQqUHoM13Q5gDYEqdD42I18RNScAXmFwbEf4XHUq6gFGcBwQPxnIbX20N79omiE+YzZIcup9BxESwrEREAREQBERAEREAREQBERAEREAREQBERAEwuLUM9Cqn8SMvvUiZs8sL6QD584Nw0+rDnnvJem4XfQd8kVwuRCtrZGZfcSPykBikUnM5FuV9fcJnmrlqacTqOhP4Zgbai3jM00L7GaRiKSZcy1XVu7T/TvMzhWNcEDPmG32JXKCSuy1Tk90bWaZtI7GJpoZ64zjyiAg6238pqLVKtQhfWEDna5PwnIw5jsp12JLENbnrLvCOFmvUQdlRDY9gdSfheQj4YXt6wk/wAwsZu/o9oH1yhjcg3+o+UvhFJ6GfJJtanWoiJcUCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgFJCcW48tB1QozXFyQRpfbQ77Sbmk9KMMf8QGOxW47raH775DJJxVotwxjKVM1/E4gOK5UED1zEA72YBtbeM1rH4Ivrr5HWbHht6qtvmze9VH0mXTwqtpaZpSdpmnHFU4mkvhaZdHyDMmXqBbKxQWBP18Jm4Phzl8xUJnPsgWsPDlNlqYBEa9gIw1E5s51B2J3/AEnJZG1RNY1F2iI6TUL0wo30tIb1KNRZHUBjlIfLcgqQbanLlO23ObXx3D6ba301kdgqAa6EAldweXYQeyIycUclBSZqZwoCIibre7C5zXN9QdNNhNw6GcRTDs1arfKq65QSbnqqAO8mVq8LRRcC0wa7BKNRtD7HwcGWxm2yqWJJUdb6P8XGKoiqEZASRZiCdOeklZCdEMKKeEoqNbrmJ73Jc/3Sbl62Mskk3RWIidOCIiAIiIAiIgCIiAIiIAiIgCIiAIiIBSQHSrDZqQcbqbH+lrA2772PlJ+W3QEWIBB3B1kZRtUdjJxaaOPYyqyViTzVfMai/jpJLD19L+clfSRhlVKDhQAGZdBYajMP7TNY4dXubX3+x+UzZYNJGrFO2yxjOPItQhySRyGoXz5nwkViekfX6pfIDtmK7b2tv5yTx/Aleo7/AMQBHOx56GW8Jwtc1nRT23yrp5qR2xHkJy6j2IniHSVnKFGYW15fHtmRgONoGLlyHOhuOQ7uyZuO4ZTC9Wmml7DqadmwkKOD577De2UHU8r3Mm1FrUj+onZttPHLUQMp08byKxbK6lCSAWW9uwXMpSpihRCXuxPLt+z8JsPo64YlepVNVA4QLbMLgMxNvgpnMUdXRzLOqs6NwSmVw9FTa4poNP6RM+UAlZpMj1KxEQBERAEREAREQBERAEREAREQBERAEREAREQCC6Y4AVsJVXmql17mUXHvFx5zjGEx2Uhtbcx2EHT42nbukGMSnQfOwUsrKoJ1ZipsAOZnEuJYE6ugFzuO3v8AGVzrZlkE6tGy4XFq4zKe79JZ4lQNReo5RxsQbX8bTRKXEXQkaju2khR48Qq9o37xKei07ResyaqRK0+G1QevWYgHYE6jlrymazqo0mu1+kJbfkNPH7vI1+KOdL7/AGZ3pye5x5opfKTWPxoJ7f0nX+gXBmw+FXOLVKhzuD+G4sq+Qt5kzlXQNKX+LpvXKhE1GewAf8BN9PatbvtO+S6MVFaGecnJ2ysREmREREAREQBERAEREAREQBERAEREAREQBETwzAC50AgHqeXYAEk2A1PcJpvHPSLhaF1TNWcfwaLf+s6HyvNK4h07xNek4fIiu2UKgN8oALXYm53UctzLY4ZvdUR5l2IzjvSFsXxINc+rTMEW+iqAQGt2sTfzA5SWWjcTT+CL+2fxHutN5w5sJi4p/qNe2ht4dfLZA4/hyvfqi/hImv0dO6E+Frzc66AkTIo0+XbKo5ZInLFGRzVuDsu95dw3D7cptPERe9tBPGFoaSbyuiKwpMg8dSy0ag7UI+s6j6JekJxGG9S7XeiAASblqZ9k99iCvunOuNrZH8DIzgHEnwzrUpNlZdu8cwRzHdNXDQ6kWjNn+WSPpiJoHCfSTSbKK6FM2zLdluLXBHtDe/PQjvtu2DxtOqoem6up5qQZKUZR3RAyoiJECIiAIiIAiIgCIiAIiIAiIgFIvITj/SWhhR12u3JF1Y+PJR3mcw4502xGIuA3q0P4UJGne2jN8B3S7HgnPVbEXNI6Rx3phhsNcM+dx+BCCb9hOy+c5d0l6ZVsXdD1KX8Cn2uzM27eG3dNdqa/Xv7p5e034+GhDXdlUptlmprcdol/ehfsf5oL/wBsxydb/Zg1L3A0G9r87WvJTjbXk7GVX4LnD6+SsjcmGU/fum80jOfOv5ibd0ex/rEyseuuh755HH4XGXMtmbeFna5SabW0vPSuJay3GspmYaA6TzTbRHYyjbSGAAmS9G5zE3mNkzGLFEFxgllYcra+A1kGuk2LjKZabG9rsF053uSPcCf+ZrzT2fh8f03L7nn8X9SX2Mml1qbi+qFXXyOVvg3wmXw3iVSiwem7I3aptfx7RItRpPeHe6zdCFN331M0pWl9jrHR/wBI17JiV/8AsQfFkH09037B42nVUPTdXU81IPl3Hunzgr2knwnjdWg2am5U87ahh2MDow8ZVk4VPWOhyM2tz6Giad0a6cUsRZKtqdQ6DXque4n2T3HyJm4zDOEoumi1NPYrERInRERAEREApESP41xJcPRes+yC9v4idFA8SQISbdIDi3GKOGXNWcKOQ3J8FGpnNekPpFq1LphgaS/xmxY+HJfiZp3FuKVMRVarUbMzHyUclHYBMakLz0sPCxWstWUym3se6tZmYs7FmOpLEkk9pJltpWqtx3y2jX3mzYgCTLbtbbeUrX5Hb4/lPGe/jKpS7BalGa8uUUvewJ227Nf0nm0pkHMac7yNsktClR1XcgHx19wmXwXFItQNnZAeeUkeY3t3jbsmDicFls4HV590u0aRII25g98jkwvJFxl/B2OZQaaOjUqishZSHUbshDAePMedpTBUw/4hNY4UivhyQgaohy8h3g37N9e6TTB0p+sF1ZdWG91vrfy1nzmbH027fevue9jipwtb1e2ngz8UoC6SxgaN7235nkBLmNxSJT9ZUNkH+onYAczNTbpiBcJhzlvpme1/EAG3vjHCctYq/wCCpuCVSlRPdLcKqYVbb+sU3PaQwPwmjssnOkPSVcTTRVouhVsxuykHqkaW8Zq4pOzG9wN8tzaerwEcmPDUlq23XsefxU4Sn8r0SSMsEAakDx/LeUwwOY/wnyijhwNQPGZK6crz04wbpyMUprZArPMq1Ubj3ffOUVgdjOur0EbrUuI5E3Do508r4eyP+1pjkx6yj+VvofhNMErIzhGaqSJJ0d/4F0loYsfs2s43RtGHlzHeLybnzbgsa1J1dGKspupHIj6d0710Y4yuKw6VRYE6Oo/C49oeHMdxE87Ph6eq2LYyvcmYiJnJiIiAUnNPS5xWy0sOp9q7v4DRB77nyE6XOB9PMf67G1jfRWyL4IAp+IY+c0cNHmnfsQm9CCUar3z22lj32Pnsff8AOWHa2U9hEyLXzL2g+8aflPURSGF/v3iWy42lfXDKCd9j47H6yywnJy9jqRcI7ZaegdxKqxmXhqg1v9+XOQSUg3SsxEU8xMqkQNGXzt85IYTC53VEy3Y2s+g10uTyHfN1/wDQqqCjdY5QyspOpykMmW+2bKQTrY+M65RxPVlfM5bGgJYgqdjI9XyNlN7fETZ+O9HWw6hlrUqoJy2RrsGAuwK8ra635cprdcZxqLMJN5FKNxEYu9SY6MVbVnS/trcHtKn52J902vRgVbsIPu1nPeE4g06yFuTb9x6p+BmzdLMcUQIhs9S6nuUe0fkPOfN8dglk4qPL3/B9JwHERhwr5u35NY45xJq7Kga6UxlFtma1mf6Du8ZholuU9Uqdh3TJSnz37R3T2cWBQVI8TLk5nzM8Itj3GZ2BwbVXREtmY2FyB4776a2Guk8rT+/vnL+FwtR9aasx2GXe7BrAHtIDaDvmlrkg3aX3Zm5uaS0LGJw7IzI4symxAINjz1ExXa2omdicLWUnOj5h7VwWscoYq55HKynXa8jWNjpt96QsqlFNNPwdUKlqjy7XlA0oZUStlpkIb275UfOeUTTx+F56B3PLYS1EABN29GHH/U1/UOepWIAPJagBy/8A69nxyzSafPwlum5ABBsRYgjcEagjvlWWClGmSTpn0/Eh+ivFv8ThqdX8RFn7mXRvjr5yYnktU6ZeIiIBaxFQKrMdlBJ8ALmfNFesXdnO7MzHxLE/Wd+6b4n1eBxDXsShUeL9X6z58qGzt4394B/ObeEVWyue56fUW7R8bt+kuI+zdwJ8PZb46zGZtPA38jp87S4j6W7z7juPr5TamQPTjVh33/P4yibd4npNx7vEcvnLi0TrItNs5Z59XfbeXqdK9jsfv3GXcPSBH3pMtKfbv85ZGF6lc51ojM6Popqqrs6hgVOVQc1/wm7DKO/la822lwZ0e1ClSYq7upaqM2QBAi5luQuYsSLi9gNrzWuF00yszVEW91UOCWJy36nK/L7tM1XFBmek9W9V1VsnVV1zsq5agGmrDqg7tvppn4hvm0Z3GrWqMjjNJ6FN2d6VI5Sq0w7ZibEBVUJqLMxzdwGms0F6wOtt++beaTu7F0z2ZlRqpL5g+U0wzdeygB9cwF2AveQ3H8OgfPnXOxOZEGiBbILtsWOW503JMhB1oW0Q9QhhY++ZvF3NR0JNyKSe8glvpMTwG+wmU6Xs38igjylix82RSfZMl1OXG17tFiil1+f5y6i2E90NDtv9IeynuO01qKRjcm3Rn8EwPrnbQlaal3AIW6qRcZyCFuL2uNbEabzZaNKriCyUFYIWzolwBTub3Ln2ddQP5jaQnRumHNVAiu5UFAWVSrC5Z1vq3V/AO3lvNs6G45FDo7ZGqZSpJtmy3UqWPZvPK4qT55Wra2RphFUltZE47A4ihb1gOSoyuRnzLUZSDlLCxvZRodwLajSanx3h+TLVRQqVLkKr58hDEBSTY6+FhsJ1DpZiUFA0swZ2ZSoVgQqqczPpoCACPOaFxsAYZLqn7RyUcHrtk0KuMtsovp1r3I0lGCUnyyqm3TXuWbNq7RqkuKmoB5/Yl9aF9RoZ7RN9NxtPXjjd6lEpqhksCO77EsPsF8z4TKqNZL9pExN9e029w+/fJTpOkRg21bKq2/gfzPwt754QaDwnphZSe3qj6n5/CU5Splh0z0PcT1q4cncesUeBCP8A7J1OcC9HmN9XjaJvYMxQ/wCbqj4kTvs8/iY1O/cug9CsREzEjQPS3jcuFSkDrUcE/wBKAsf9WSccxJ64PaPkf1E330rYwvigljlpoBfkWfrn4ZfdNAx3soewke8Celhjy40/3KZO5Hkb6+B8DPKsQSDy+7+6x8p6bYNPGJHMbjXxHMfWXS0Vo4i8mpFvCSuGbNvow+PcRIOk/WUjmRJimfhLcPzFeV0jMRQsq9S2v3+kth/f84WoD4cx+f5y+VVSKUndskk40yoqKiAbO1iGINwblSCDlK6gg9QEEG8vYrjCnQ1ncXb2KaJu2Ye0L+1lN7k6cpAnQn6zwZhlBN2aY6IzcTxBGB/Z3dh13d2YsbWvY6DXbsmAlC/37vCU8YFbLp8fvcScIpCTdaFPVkkrsRqexrbCZNufcPlKINPH5Q9S3L/maYxS1M7k3oWy9ipGoF7ju0luq11PZv8AqJbdutccwfmJ7QSmc70LowrUYbFspBsCQCNc1mUggq2Ug2sTz5yfHEaNVWNxRchMtJVIUstlY5z1VuSSANgpvvNbdICffbM08XUadtNdyxNJUbTjMThwajGsjXC5BRQFWe7CxQlSFGW511Dgg3tITiuPNeo5ChEJBVFUACyhbnL7Rtpc62t2TDCa2P8AzL6U7eHI9hksPDVLmbtr+CM5pKkeaAIFj9/pPTme5jVanWF5ub5UZvqZ5xtSyqv8w+ssh7aDfn3A/WW+J1fY7bnXtE90wRodOZ/OZnLmkzRGNRPWIe5VeyUY9UmWla5Ldu0uYnRQJG7TZIyOHVSjI43U5x4qwYfET6VoVQyqw2YAjwIvPmzBYZmZURSzFdlBJ7ToJ3zoZivWYLDvzyBT4p1G+KmZeLjpFk4PVk5ERMRYcYxvEaVZXqhlfKzsUewZ3dWFNQrasAarJcbZL9k1bpPRVXcImQKVOW5IF1Vri+ouCDY7EmYBMv4mozo7uxZmN2Zjck23Jnqwx1fhlDZgYfUFfMTw5It3f8j6iKLWCt/lPlLmITn5H8/rO7xHcxXW2o2PwPMSdVr+esg6bkaEdx8ZI4SrmRb9lr940ksEkm0QyxujIerbQ7jmOY7e4zwanWvfXtGn2ZZLHnM3hVJXfKwBGUnW9r6W9kg+V52eSk2+xOENki3nlWeTPFeGoiEgKDYEMM+nXRSCGcgizfCXOH8NR0UlQDluSQWuSzi+ptso2EyPiodLq9jQuGyPL0q1NfLdu3b2S4i8j9+HZJPieBydZQANAwA0v+Fh2A7eIPaJK4Sn1Lg5cqJbLYAfs0bkLnUk6y18VDHijl3TK1wuTJkliWjVvX7GvMp2UFrfwqT8BMWrm1zKwB3upHnqJsvCBmqVrjq520/mUj6NPTumYgKy76i42JBPVN7XB1tbSVZ/iLhkcIxbrei7B8P58SnKSV7Waeu58JfR9JJ8X4eBd1/zae0CbX00BBIv25gdwbuB4JHWzKL5n1ObYCnYaMNOsTOrioPF1exF8NkWXpVqRw1lxEtoRp92ImdxLBKrAIADre2bWx0PWJt+krgMPnYK17DVrdg7PHRR3kTViknDn7bmbKmpOD3ujEan7/nDtaTj8IXvBOgs4brH2Rqg3NhvzvIBmBB92ssw58eVN43ZXmwZcUksios1agt3H78jMRnu09Npccvv4y3ITk2ThFIxcabuomQ7WWw3b5TFVczknlMlNWv2aCZ4W237smy/Qp7CUrdZwOyZFMWBMs4MXLNL2tkRvubn6OOJ+qxuQ5ctUZSSNQwF1seQvoRzuOyda4PTRVdKegWo912ysxzsPAliw7mE4JwXFtRrJUQ2ZWvcAE2OjWBBF7E7zo/o/wCMGpi8SjVGqZwrozaE5eqRbQaAqNtQkycVibuS9iUJa0dGlZSVmAuPl8y+fYPjET249zOyNpewf6jLz7HwHyiJCP0nTCb2j/l+QmXgf3fmYiVY/rOy2L77mZ/Bv3g8D8oiSzfRLwSxfUvJPdI/Z/y/+SnL/CP3af0L/fUiJ4/+Pfn8nsr/ANJf92KcR9l/+mf70lzh/wC7P9Cf9lJWJJehj5OP18/Bh9Ht6v8AW/8AtkJjf/dp4j+54iXQ9Tk8Gefpcfkm8V+4P/TP9hljo79X/wDFKRM8fRy8mmXro+EU4r+8Xwf+8y9wr8fgn/cSInrY/R/sePk9Z/t+SXrf7l/uWaXiP3lXxb5xExfBfpfk9D43/UXgwq+58T9JbfaInpvueVHYxcN7TTKw3PxiJXi2RJmQfYMpgfYMRLv7kR7GRht5tXo2/wDkE/pf+2InM/8ATfg5H6jtkRE8Y0n/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBISFRISEhISEhISEhESERISEhESERESGBQZGRgVFhYcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py5CNTQBDAwMEA8QHhISHjQhJCE0NDQxNDQ0NDQ0NDQ0NDQ0NDExNDQ0NDQ0NDQ0ND8xNDQ0NDExNDE0MTExNDQxMTExMf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAAAQMEBQYCB//EADcQAAIBAgUCBAQDCAIDAAAAAAABAgMRBAUSITFBUQYiYXETMoGRQqGxBxQzUmJywdEj8SSS4f/EABkBAAMBAQEAAAAAAAAAAAAAAAACAwEEBf/EACQRAAMBAAMBAAIBBQEAAAAAAAABAhEDITESQVEyBBMiQmEj/9oADAMBAAIRAxEAPwD1ZBYVCmAchcLBYDQbBA0AALcS4Nia4919wAW4XGp4mnHmcV9SoxfiKnG6hz0fQDNLl1YrZyS93YbqYynFbzj90YbH5lOpPVr27cFdiKs2naTTXRt7m/LF+jeVM/oxdm7v0IkvE9OLtJPT/MYSWJlttuRq9Z+tjVJjo9Vo5tRnZqpHfo2rkyFWL4f/ANPHqNSWyu7d0+C0w2eVqdkptqPF+xjlmqv2eoCGTy7xlTltVWiXfuaPCY6nVV4TT+ouD6SRBbCGAAgogAAAAAAMAYwCAACgAAAAPAIKOYIKAAAjEOjmbsYBBzarKFOcl0X1Rkp5pUte636GgzrG01CSne7VrIwGLqJprf09AS0WmTMTi5STvK7frYqajbe0rv3Y1DU+W3EWrVstn/6lEsEbE+LKPzNrs+g9DGavLdP1K+WMqPZO/wDS1chzxCvxZ9Ubgrot8XePni7Nc9n7kCOYWfmVk/1OsNmSfll12TfD9xvFwUdtN4S+69gM9HZ17eaEtn2OZ4ySafR7MrqkHB3g7p9BI1+Vx3TA3ssqk9V7PdboWhmVWnvCUl7Noq5VmuGP/HU426g1pus1WVeNa9OS1y1xvunvt6M9IyvNKWJgp05X7x6xZ4E5tMt8jzyph5xnFtb+ZdGhan9DTWenuVxbmeo57Tr0VUpyWqK80et+qJ2Ex6lFPutSX6kimkuriFFxXcchUUuDI1sx1V5apL4cdlZ7F3k+J+Jqcd0na4AXCEYIGMaIAC2FAQBQABwAAoYAABgA2VWY4mUbpOyJGOxShyzK5jmEW/NdxXryYY2Q8xrp33ba9blBVqqd97JcvsS8fi4z2pwavt3OZUUo8LfdtjpCDVGtC2mKa9WtmRcVTjH8Oz6rdCY2m47qe35EJYp2adnbp39hgOZ3hvbysaxNPUk7LfhjzqxcbX2/Qiudk432vdegCtIizoShu+O/qP0MVeOiW9ns/Q5q1G00/crtbTNFf/CyrtK33IFSVnfuduq5L2GJzAzTuMzunOzI6mEZAGkmc0zhSaYwpDrnsANl/kObaJOnJ2jLh9pdGWsM4q056JPbdwaez7r2MXGVnckVMTJpNybtst+EK5Qyo1tTM1KNkkr+ZvqabwNjLwmuHr339EeaYbELa7fFjQ5FjnT1KF3OTshKnEPNaz1yFZPh79RwoMhbUVqeqb+bsi9gxEVOhRAAAAAAB0AAoYBzUnZHRxVW3BjAzGcYrd7O3qZnFzb4tvz1Zo83Tba2djI4qs4yd1bcJFYvw4wV27NkavXTfzeyuN4jG6vLZWRX1qjd/wAhsFCcpSk77/6G3R6ok4LCyqbezZZ4jLoqO3KW4OsGmHS0zdbb6jEp7FnXwzs7qxA/d31QKhXDIk6hHki0o4GUr7bd2jmtgbPj8jfpB8V+ir1WEluSamHa2sLSwjfINoX+3TfhDBouIZS2rnM8rkulzPuTf7NfoqYs71j88FJdBl0WuUbqFcUvUJrBTvsDgCjc3ROzqM7M2vhDDxqS3f0X+zIU6d/S3JvvB3w0oxV9TfmFp9Dx6eg4WlGKVrexLgRKEF0uSokTpwcA5uFzTDoDm4ABIARClDAEkrigAGbzTCy17cWbZRYrLYzTlK0I93e5t8VT1Lgymd6nFxb0xT8yRiFZlMdh6aVoLr82+4x+7L3vbYkxqxbt+GPHr6kzCYb4k0l/0bVNI2J+ng/kuXOKcrc8Eutgr923+RocPhVCNl0QSwidjjq22dsypWGUr5Smk3sl3I0Mo1Nu1odO7Rr6mBTtffshZYZJWSFd0UUIz8MuVrWVkLPK4NWsi6jQsczgI6Y/yjOTyOHNr/RCRyqH8vHQv5xGLCu6D4RXxwEV0Gp4OHYs57IitX34MVM3Cpr4GL6Ig18tg7+Uv5ojTgis20SqEzMzyddCpzHAum9lt3Nzo7DGYYBTg1a7sXjl77OXl4Za6MCqm2/JpPCWO+HNX5eyRRYihplKNt0LgqrhJNcp3Ol9o41/iz3bL5NxTbvdE5MpvDNWUqFNyXS91ui3uQOo7uFzm4xh1NaviSTu/LZWsuwaBJ1AN3A3QJwABUQUBAAAM74rwy+FOSsnb7miM540mlRt1b2/Mwx+HnUZtS0pbuxrvDGGstUt22Z3DUryvbg1+Tqyt2F5X0Pw+l8o7HNhyBxI5jrRwxqbO2hmaZOmVlDU5EeUh+pEiTTRJspgkhibHk7jNRGaGDMp7jNWQ40NTQAxibGh2YzJjomxYM6xU7QfcajIWs7xdx59JUjGZlDzSl3ZXQfmRb5hZt24KqSSl6HoT4ebayj2bwk1+707S1bfVF6jK+ApL93jvum/1NVci/S8+Cs5BsS4pooCXANAsAADoEAAAAAzHjdeSC5vI05mvF938Jf1b+1mYBmMLR0/Sxosqi+xX4aCd0y/y6jpjcnbK8SJqOZMSc7EDEYprhO3c58OjUic2cMq45nBfM7e45HMab4kvujHLNVomyimR6tIFio22dxY1k9iVIpNERUzmpT2JbQ3UaQmFNK6oRZu47iKyXJU4zNoU+b/AENmG2JVpekycCPOJSVvE8L2Sf2G4+I4suuGv0QfNP7LpIcUbpoqcNnEJvoW9OSkrp3Bw59D7VLox+ZR0zkuzK2ojRZ9hbXqLrszPTZ2cb2Th5FlHo/7OE1Cbvs3x2NuYf8AZuv+Oo/6uOxuCdejz4DA5bFFGABLiABZgAHQIAAAABQeKoeWD7S/2X5SeJ4NwjbhSV/szGBTYCF2aKCsl6Ioss5VuC+5Rz2+zp4l0Q6sZz3X0GKmX1JL57X5LJtROY1nK6iuOW+CSp/go4/LMzisln/Pf9SoxOW14309OLM02aZjTpfPUin25M3ic51O1Oopeg31YLjliYKWIi0pqWnuaPDOXDKDB5y7qM1zw+hpsFUUrXI23vZRRg9p2INepyuxc1YJRuZXM8Xo1CNPwddorc0r2tYyeZVZzk1FN9EWOKx+qXoScroyrStCCt1k9kdHHso5+RKvyZmGWVZvaDJUPDdS127L1NxWoxoxvOpBP6FbiMe+mmS9yj5b3wmuGP2ZKeV1IO0d/Ys8rxdSm1GSfNidHFQbtJOLfF+GSYUot9Aq212jVxpeDmZ0lUpy9roxNdWN7iF5Jf2sw2LW79x+F9EOZHpP7Oqf/juS5cn9dzYMzngSlpwtNdXd/mzSMyvTJXRyxBWIzBgAAACzAAOgQAAAACBnUNVKfork+5WYzF69dOFm7NNMSqUrseYqvChy2T1RRoIlJgqMoTimrcl3c57enTxy0sYk43KypSqTmoybp0lzp5l7sstR2pLqhJ9Kvwz3irC06dPVCmpxtZ2Wpp9zFZFl96kZPhNt3Vkkek4xRaatt26GdxFGztBfbYpXL1gkcCfZCxOEp63oaS69jSZUkopLf1KzAZdKTvJbGkw+HUVZHO+yzxLDjF1LRt6GJzu+5sMfBmTzRX2F/wBhlK+THSgk3fhb+5pfDMHWklKap01sop2k/qUuJwzvt9CZgMSo2vHjqtmdSo5XLbIHiSnCE6lNwlGoqjcZNu0oXdhvw9lfxXLVKUYxXzXsky9xUadfeS1NcN8jKp6I6Y+WPoM+VZgq4Hu6VtVuEpUpf8kelSO9iXhZSVle9uGP0acVfa7Z3Cmr3SJ1SY6nCfLeD9mYjEpuVu7t+ZuKS2a9DH/Dansr2qf5H4nmnPzS30j1zw9h3Tw9OL50oszP5N4ghNwpTSjJpKKRoLG7ojTXTEYCiAacgdAAFiAAdAgAAABxiJ6YyfZFDlCUpTk93KTLjMP4crdigyGfKvw2cnO/8kj0P6aP/JtFlXSUkuzHJEbETScW3zJImJXE01rBiSG5TZKlAYnAVjThFk78nEaCbHXGx3ETShIoQS2SHJOxzSex1Km2P+OiX57IGNlszLZjA1GLKLFLckv5F/8AUzNaI3GjfdclljsOvmINN9CyZzncKF/QkwwN+rCkiZCROqwqpIywiQmixNmR2YqbEpDlFbFPSpq776my4TtFvsmU+GqR2d+W/wBS8voiltBhXpr059pr9T1OMrpPujyhytKP96/U9Twe8Kd/5I/oNIvPOYx0BWIOc4gAABhYgAHQIAAAAJUhqTXcy0aTo1pLpNO3uaorM6wuqKmvmi7kOaNX1+jr/peX5bl+Mz8cU3N6vwmgw87xT9CkrYaM4upHaaXmXqWmXTvCPsc8+HTytN9E5IZqxHoM4ma/BF6Q5oac7DtUZhC7JMqifhN1dj6xcL6NUb/y3V/sRqeysVcMgp/FVecpuad1aTSKS2iVSnrZY4uKk2ZvMGk2i/xdTZuJis5jUm5WvCPfqJjdFZeSPtak0yhqRcZuPqP5bXlRUo1Jud949znS5y125ew2YL6T6K2JCEow8qOpOxF+lDlvoNtnM579gi7jzIlCY6popTfdWM7hJ+dJcXLHxDN6IwX4pIhUMP8AC53m9ku1zpmcnTnVf5Ftk2DdevGKV4xd2+1memQjZJLhKyKTwplvwaSlJf8AJU3fsX1jZWIly19M5Yh0xGjSQgAAAWAAB0CAAAAAJON013QoGM1POyjlhlDX/UmhrKXaOns2XGIo3u7XKTCvTOceN3scvy1qOz7+sZbRZzN7HMWFQTSiI01cchCw3VqKKbZX08c5Oyf0FSNbws51UiFiM0ttscV4SlsuvUrZ5dOo3eVkmMjMbG4ZwnJxvcz+eZtJycVtbks55FKDclLYqs1ylyu1K76mz86FTWdFZhMUnLfcvKFtrMy88JUp9GvUcWPnC25SoVfxJzyOf5GwjKw3ORWYPMPiR9SQqnQ5vhpnSrTR0zunzx0GnI6+Ikr+g0olbwqs1nqrU49E/oWuSZVKtiLyV4J6m+lkUMJ/ExCvwmen+F8M4wcmrant3sXa8RzfXTZcqKSSXC2QorQgxIRgKxDAAAAAJwAB0CAAAAAAAAAUGbQcKqkvxL87l+UviKFoxn2YtLUNLxnVKd0PN3K3C1rpE2ErnHSw7YrUV+cyag9KuzO4DC4qEtUbO+71GurUlLkWjSSFT/A7SIOFdSdtaSfVcHdduP4fsWehDGI09RsRSKW9opa9RyTSi90UeJjKN/IzQ4hqPDW5VY6p+YupHTk50ZHG46UbqUHYgbV3aMWn3a2LvE0dWzVzmjhbcLgsrSRwXDqv+EXB4WVN7+xZRHaln9CLUqKJPdZqlShypOxBxOL2e6+gzi8VdclfTTqTjCO+ppItMfk5+bk/CPRfAOWU3SlVnTTc5eVyV7JdjaqKWyVl2RAyLD/DoUodYwin7lgyhDTliHTQlhTTkGDEMAACwBgE4AAuIAAAAAAAABHx9JThOL6pkgJK4AYDAV/O4N7ptX44NJQbsiiz7BOnUdSCtd324RLy3ME0lJ78HPyTq1HRx1nTLhncWMfEvw17j0EczXZ0p6dSIOMpak9ybIZmgZqMjmFKUZJNvbhDcMPJ8suszpptPqQJXWzFp6Unog1MKkRpRSJleryVtaoEpg2N1J2K/F1B2tW+xX4yqrOx0RJz8lLCDiMQrs1f7OspVabqTinCHF+krmHqeaVlu2e0eAMs/d8LG/zTblL/AAdPiODts01rCCiCjAACBgCNHNhQFw0SwC3AAJgABYUAAAAAAAABQAAM54j+WXsZnCcx9wAkvGUfqNHheF7lnEQDlr+R1T4LIYqCgKyiKnGcor8SACFEVVXhkCqKBSTGVeJ5K3Ff4EA6oOHlIeB/iR9z33If4FP+0AHohPhPYgAYaIAABpyAAYwEAAMA/9k=</t>
         </is>
       </c>
     </row>
@@ -2790,124 +2790,124 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Shahadat Hossain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022_test_028</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>105.6</v>
+        <v>74.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>69.40000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="X19" t="n">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="AC19" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="AD19" t="n">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>Bowler</t>
+          <t>Batter</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBISEhIVFRURGBISEhgYEhgSERIYEhgRGBgZGRgYGBgcIS4lHB4rHxgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzEsJSw0PzE0MTQ0MTQ2NDE0NDY2NDQxNDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAMIBAwMBIgACEQEDEQH/xAAbAAEAAgMBAQAAAAAAAAAAAAAAAQYDBAUCB//EADsQAAEDAgQEAwYFAwIHAAAAAAEAAhEDIQQSMUEFUWFxBiKBEzJCkaHBUrHR4fBicvEjMxQVFjSCorL/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQMEAgX/xAAtEQEAAgIBAwEHAgcAAAAAAAAAAQIDESEEEjFRBRMzQWFxkRSBIiMkMqGxwf/aAAwDAQACEQMRAD8A2URF0gREIQQilIQEREBQpRBCIVyOKeIKVE5RL37tby/u09EHUq1WsEkwBquZieP4dg98GSBbYHc9FTON8adVfbOxpGmeZP2XOwY9oSJvGvXqoNLr/wBUsg2GaY1tPdY8P4qb7SHCG5TpfzzoCqg2kTmG+iwlhB1uENPoGG8RU31HMdADYgk2v0XRwvEqVQua14JaSD6akL5o2nbNvZTRe6kYBcCRMtP5IafVmuBUqjcB4o91Voc+wk+Y7DRvzMq6NxLCQMwzFBlUoikEREBFKhARFKCEUqEBERBKIiAoUogIiICIiAiIgLHUqBoJMQBJuNFkVc8W4rJTyzGbUwJ7c1A5XiHxGXnJScWtGrgLkqtCp5pkmeYtKwNc07wZ0lSCAYBMbg79USy1qYLSXHnHILUoVcp6LZeGwJdI25/NaTxB3jaVA6uGeCJnzC37rC+n7Opf3HTEH8+y1qDRE5gBvzWYVHPaAdGzfeN/upG8ANNRbTYg/oUfVbO/lDmmNbXELQp4uOcTPrAH6rNhZZJcAZBg8iboM9FjWlrrzFrnXqvdLFVG1A8vgg7EH9lrV8VBa0RECZE2WRwp1CA0DTt8kH0nhmPp1qbXMeHGPN+IHqFvL5RgeIVcNUOQlom7Toe6+mcNxja9Nj2/ELjkdwiG2iIpBERARFKCERECEKlEEIkIgIpRAUKUQQpREBERBhxNcU2OedGgmOy+V8e4w/FVC53utswDQNV28Y8QNKiWjLNSwB17wvmsqCGdzS1oJjtA06ry3Idc09x+SjPIjfTv3XqnTi5Ej7qEpqVs0DQbSL/ovLn2LbQP5ZZ3MaTBB7N1WtVEGwPqg8T9VkFSGx877LyWg3vHRSWXgyJ0lAYwmY/ytitUBY28mfU6j0tC1QSP51XqndwkW1hBnotzk6ZrZRp0KzNYad7iREfusLCQ5rgDawjSwiV6rMfdwMtG82lBsPwsy7zSTbf5dFZ/BdYse9ji0e0EtBd5yRybtZVfCEuDWkkFsb7d1bfDnC8tT2paJ2IO3NSLapSEUoERECEUoghFKIIUKUQIREQFKIghFJRAUKYRBC8uMX5L2vFU2Pb+BB8/8b4wvqMYHNLGiTl97N/Uqtl5Ld4q57qjw6PK4iBoL6Tv3WoKZBg+q5S8CmVsUARJ6X7raDPLDQCS6J7DSF7ZRtoQQBJtv9kHg4c5hMy4TPooZQzW3m52PZblURRcTOcaR10+ixYUuDAXD3rNPTtuo2nTxhcDLneW02XrF8Meb2ifVdzCYN4aMrTe5tdbDsC9x9wlw9B3hVzflfGLjmFafwk5WanM2esrG3hdU5S0GXAN+autPhzjlaQA6AGgaNA3JVrwHDabKbQWtJboSAT0XM5oh1GDb5bR4DiyD5TAI0ETyWWrweoym8uaJGoBm/VfVH4dpEC0bbLgY+gJc20H52VXv7bWfp66fMKLcmbMLxYEWV08EOc5j7k05BAJJyuvMTsq9x/DOp1so0dcjaeavPhvDhmHpxEuYC63xb+i11nujbFeO2dOqFKKV25QilEBQpUICIiAilQgiEUoglECICIiAiIgLHVdANtjCyKHCQg+SNYXOcXTd5k9ZXumzzEOGwnr/AtniGH9jVq05tnOU8mkyFgFS4EidCDtB+6hLPSa5skQCD5e2WPrP0UV65YcsjzN6eWLQfkpY8+Y2g5IHIgifyWDh+Bdia4a0nm88gDz5qJnUblMRMzqFq8N8FZWYH1iS3NIZoDGhcrQ7BYeZFOmMv8ASLQtamG02BrbBo+QjmuRxLitSpNOgxzh8TgLk9Cse7Xn6N2q44+q1UX0h+H0gLdZToviYPK8L5v/AMux5Etp1L89vmVjA4hTcJbV030lPdR6uPe29JfVqXDqYu1rZ15lSMKc0FUfAcexByNcHAixknU2n8lbW8XDQwunYT1XM1iFtbTMN1+HABlVjjOLp0zBietp9VyvE/iDFPcWUc0D8IMnudlX2cJxtZmZzSCZlz32M9F1WlZ5mXFslo4iGDxJiGvdSe29y13Pn9le+G08lGk3lTb+S+f4zgdelkLsrml7A7KCIJIEwvpDGwAOQA+i1Y9a4Y8m+7mEqSkIrHCIRSiCEUoghFKIIhFIUEoCIiCYSERARCiAESEQQilIRKgeJuG1n4t5p03vlrXH2bS6Nr/JcKoyox5a5j2PtmDxBj1X2SnhX1Xmm17mU2QXuYYe53KReFqYzhzXvcyo0Pa0eVzrujkTusf6nnxw1/pePPL5dkEEDU9eYt6qyeBqDctR25Lb+mi53ifhrcLVAYTkqXbEWiZHzIVm8H4PJQaT8Zld5rxOPcfNxhpMZNT8nSZg21M2ecvKdY2WtieJNw5aylT8xMCACfQWA7mArLhqIiI11Xp/DmahoB5xdZaW9Wu3KiN8SYqpUyCjUBMAZi4CSY8zmwGt0M3XTq1alNwZVeM02LXipQd0D4DmO6EKxDAvk6X3ha78G4vj3h8QgZfkre+sx4cVpMT52w4DBNnM5otz2XVx1BuSQG5Rra89Fj9mYj0C26tImlHRUzPou16qBxVzqbHuY0ki4a2AT1n9LrncHxmKxLhTYGB+V73ZxVaGhmgzzBzTrFlbqmFzbCW2mLx0Uv4e4gaG3Y/RW1vWK8wqvS024nSvYLFvqEU6rTmbVa0h14LbnzCx0mVZVzcVhMhouA0rNzdiCPuukVqwzE13DFm3FuRERWqhEhAgIURAREIQEIREBERACIEQEREBERARSoRLbwGKivUGzqecfk4ehXBdxHEYrFFlMhlGkQXw0eebAHmulnyPY8CckyBq5jvfaOu47LXwFA0n13Mh9GrDg6neoAOnMcl5017bal6dLReu3D8dYaPYnU3/APXVdHw5iJpM0ta2ixeKKPtqLMgcYfAlpDo5wdFq8AoPpMyuIN7Qu51OPSqImMsyu+Dfe661MAqv4GqLc5uu1gapzPBbAEZTPvc7bKusO7Nk0ZXk0gBoFmaVhxtQMYSutcETO2nVgcpWeDkI6LWDaeXO94A18xAHzWbh3FKVUSxzHNBgljgQY6hcdu3UzpzWMh5BHRbQo2Xl1Wm+q7KRLYBEiZ2Ww8wD0Ua06mduNxWmCGiPjafkVgWbHul4HqsK29PGqsHUz/EhFKhXqBApQIBUFSiCFKIgQohSoQEUoghERARFKAiIgIiIIc2bf57pwugzO4NflqGzwDAP9Q7r0uVxzhrqrJY5zajYc0tcQZG0hVZMcWhbiyzSfo3PET20nUWFwzVHEAb2aTP0WnRZK1RQZVYx7wS9kOBJMh2hWak/6LLEajTbM7nbbpvLD6qwYTEyJ6X5KvvbmA/RbGEcAQTqBEztM6ei5nwRG1qZWiExL2lpD4jeVUOKeIRSkTcDX9FXHcfqVXGHkiZ1/Pquq0m0bRa0VnSx8cxWGYILy5s+44gt7Qd1p4OvQZmdTeWNc0GoA0C22iqmKp1KlTzH3j3tyXcwfCWCn5qoBddwgzb3R1VnZWIcRa1p8Or4Yx9D2lSwFR7veLrvjpzVofWDhYjqvkFfB1KdQvYTr6gSu5wXjrvaBjnEgyDeSFxbFvmHVc2uLQtb3S9x5WCLzTbA6m57m69rXSvbWIYb27rTKEQou3IimFAQFClEBEQoChTCIIRIRACkIECApRQgkooUoChSgQEARAg42GP+43k9w+q1qwLDO26y4M/6lQc6jiPmtjE4fMD2WKZ1aXoViZrDzh60j91t03EEaHn2VeFU0zHX1WapxIMaDOnySazPgi0RPLcr8NFaoS+7dgDt1WceGcPTMgG+okrhUeNOL9ddlaG56lIFocXEJPdXSa2raeHrDcGwrsoGdp55jErdfwKiJHt7AdPzVMx+MxdBzjkeGt1OUwAufh/EWLqAFsuF5Ab913EbjaZyxE61/hYcfwmm5xax7xf3s23YrRwHh+nTrtiSGGSTrPVZcNiaopl9Xy9N4XQ8PVTUpuqn43mP7RZTTc2+inPauvHMuqiQi0sYUUqCgIiBAREhAUlQUKAEhEhBCKUQQgRSEAKFKQgIiICBFr4rGNpwDJJ0A+6mtbXnVYc2tFY3LYXmo7K0nkCVpU+JCfM3KDoRcDusXFceyAxrgS+5gzDevdMtLY43MJxWrkmIiWhg3eeeZ/NdrJaei5TacEFdrDiQF5lrfN68V1Gle4rRgyB3VX4gagu0yNwVf8dhpBtqqdxGg5hJvHZXY7qMtNw5OBxEGeoFwrxgPEXs2hog6fuvn+IpnNLZHRQ3EvZqDzB6/wCFfasWZazNJfQOI8fNRhaQJJmdg3cLl4DiVOmTlgXJcQIBBubKrv4i7KQRDjczM33CxUq7yRZxM6RcDkeaiMcRGnU5ZmdrRxvjPtWFloMAka3sFbOE4UUqFNg+Fg+cXVW8P+Hqj3Nq1W5WA5mMOpINi4ba/RXUBdVrFY1Cu9ptO5ERFY4ERECECBEBQFICQggqSiFAREQRKKUQeVIUKQgBSgRARQpQFxOKN/1P/ELr16zWNJJttJ1K4b6hqOLpBJ5GY6DmtfSVnum3yZepnde0WvVwwJkWdzC2C0jVAVutWLRqeYZK2tWdxxLzSxJbZw9dl2+G1GvFjouKQsbM1N2ZljuNivL6j2bExNsf4ev0/tGeK5PytVSlNtVyMfw0OGi3OHcSFQQdRqDqO63nhrl48xbHbVo1L1Imt43HMKDieDZTosYwA0I+Y3V1xVBsaLlVKFo5Kyt5VzjhyKHB6bycwE9dytzA4WmKjGtaBBnQLzVYZt9PutjCVW0ntL580ieXVWU7rWiIVZIitZl30QFStbEhFIRBCKUQIUKUQIUIFKCIRCpQEREEIpRB4CkKAvSCApUBSgQseIrtptLnGAPmTyAXnF4ltNuZ3oNyeireJxD6rszvQbAK7Dhm87nwpyZYrxHlOMxLqzw42As0DYc16ZYlnMZmE7Eaj+c1jayI6FesZYU3bh1+xW7iIitVMRPmWw5hcIa4hw0E2Pb+QsbaoFn+V0xezZ5Tt2/NeM8wVkcRUBDoNoIPJItMFqRLIVCmnw2rToCo0F7M7pEy5rRa3Ra+GxTKgJabts4GzmnqPuoxdRTJaYieY4mE5ekvirF58T4n/ksjmwQ5pLXDQhdDDcV0a+AdA8e4f7vwn6LQleXNlRn6amaNTHPr83WHqL4p4/DvvqyPT0WpV3XNoYl9Owuz8J27FbdPFMeRBg7g2K8LP0mTDPjcesPZw9TTLHpPo8ezJNgZK4vG6+Suxn4WSfU/srhhMPN1W+McPZVquvlq04E7FpEgEeq56bJ7vJFreFmXDOas1p59G1wrioYAx58nwO1yn8LunVd5jw4S0gjmCCPoqaMK+mMr2kA7/CexXihXqUXSxxB+hHUbr27YaZY76T5/DxN2x2mt45hd0laHDOJtqiDDXxcbHq1b6xWpNJ1ZbFomNwIhRQ6EREAIiICJCICKVCCIRJRBCIiCQhREFd404+2PQCOixYb4e6IvTp8OPswT8SWxiVrYn3PkiKIXS8N2Xl/2RESvfhv/ALZn9zv/AKXzTi3lxjMvlkGctpv0RF5XSfGy/eP9tvUfDx/aXZdqVARF7jy/khyw/E31+yIhHhtU6jvLc/Mrnucf+Kfc/wC3T3/qciLB7Sj+T+70/Yk/1kfaVrwwBpPBuMu+myrHFWgPMAeg6IiyexP7cn3aPbXxafu18K4h7SNcw011Cu6It3WeYeZg+YURFiXiIiAgREBCiIBUoiDyiIg//9k=</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRYWFhYYGRgaHBweHBocGhocGRwcGh4aHxwdHxocIS4lHh4rHxgdJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHxISHzQrJSw0MUA0NDQ0NDQ0NDYxNjU0NDQ2NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAgIDAQAAAAAAAAAAAAAAAwQFBgECBwj/xABAEAACAQIDBAYHBgUEAgMAAAABAgADEQQSIQUxQVFhcYGRobEGBxMiMsHRQlJicoLwM6Ky4fEUIzSSc9Ikg8L/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIEAwX/xAAqEQADAAICAQMCBgMBAAAAAAAAAQIDESExEgQiQTJhM0JRcYGRQ6HBI//aAAwDAQACEQMRAD8A9miIgCIiAIiIAiIgCIiAIiIAidGcDeQOudgYBzERAEREAREQBERAEREAREQBERAEREAREQBERAEREAREQBETRvTz0vqYa1LDoHqsLk2uKY5twvyH7IFzbPp3hcPUNJ/ah+ZpOFHSCbZh0rcdM8n9I/SmocQ9SliXKtwGdRa1ipViCB0dO+YTHbRq1mLVXd3ub53ZgOdgSbdmkq1Vt0cjYeW+QC1jNt16qhXrO44BmJ6t5JNuZM74P0hxVAWpYisu/c5K/wDVtO23OY0UwBdwSOYt/mSBEsSGJA+zY+MEmz7O9YuPQFWrip+dQW15EDTrII6Jaw/rSxyOHYo62sUK2UjmCNVbpuR0TR3qLppp+904aqubjlPHiIB71sP1kYXEGzZqZJUAsLqS3AEcQRy75ulGsrC6kEcwbifJGfKbjfwINteBnpXoD6SsuJogswWquWoCdCwuVqG41JPu3326o2Qe5RKmGxWYA2Ivw32PvXBI5WluSBERAEREAREQBERAEREAREQBERAEREAREQDWvTn0g/0WFaoovUPuoOGYgnMRxAAv3T57r496rMzO7ljdizG7Hmec2P1pbbfEYxlv/tUxlQDiPtMQeJI7gJqC1FUG19f32SuySymIUA7id2onSmwJ94kE8bXEgBv7xA6uEsUlUDMQ1hqNxB7OXTeSC81NUHvNYnVSCR1XAmNqub5r3PO48xrOKmLdhlIBHAaaSsymATuwy2VjY71OvaDILQiE7hO2Q8RA0R2lzZ7kOh1IVgbDfobyvUhHy6kXEEH0D6F7a9sVzXvlsBx3Asx5XK9Gluc3meT+q7BmohdWIFzcgML7t7t8Vt1lsNeM9VRLADlCB3iIkgREQBERAEREAREQBERAEREAREQBERAPnv1m7CXD1me7O9Ri7G4yjOWygC1xYAC99Twmj8LT2z1wYElEq5fdIKM1/tHVABv4HXonimbhe9t0gkkoKxOUC/73zP4fZzOoXfxY8zJPR3CKEJIuTxmyYZALTLkytPxRuwYE58qKGH2LTVbZb6RU2ZSOmQA8P2ZnzUS3TKDsBunJtr5NKif0MQcEg0CyhjNnKddRM854zHYmpeRNNPsVEta0azidnFTobjylJ0IM2N5itoU7azVFt9nn5cSnlG8+qP0lNKuuFZEK1CQHsBUB1NiwHvjTcd3Oe6T5b9ESf9bhbGx9tTtpf7a6W5T6knZGcRESQIiIAiIgCIiAIiIAiIgCIiAIiIAiIgGq+sjDq+zsRmF8i516GU6HznznhqN2y2JJOgE+pNv4QVcNXpkXz03XtKm3jafNWwU/3Adxsd+8SlvxTZfHPlSRtWBoZEA48ZMuKS4GYX65RxiM9kW9uNjbTlec0Nm0V/iOwtqQCBbrY7h1mYpSrls9O6qOJRsFH2ZGrpf8wvIqmFBPum/UZq2Op4bOyozjdfXnqD1G4PbMvsKowNsxI03/AFl6mV+pWKqu9FyuoUamYHF4pAT7wEsekONyOyHUnumOobIUrnqMQN+tgO87+yRMJ8sm8lLidFd8Uh3NOldM6kd074nB0j8BtOcPh8oM6rWuDLW96r/RH6HAjH4S1wRXT+oA+E+oJ88+g2GzbVw45MW/6oxn0NO88oytaZzERLECIiAIiIAiIgCIiAIiIAiIgCIiAIiIBj9p7UpYdQ1VsoJsNCST0AameA16CrjagQ5kzuyNYi6tdhoQN17dk9R9ZlLTDva4BcfqKgr/AEzQsegFRNLWBtx0IOl+sTNlyPbk2YMCcq987J8Mi21lVtkqzlmzEEHSwI10JsQdemW8DrMq1JcszTtdG+kmtM1hNm5GbIXOYBWLWNwLaZnFxuHDgJaopbKi336nr4CZFEJPRK1CgXckX3y1U2RMzPRrW36dqgO+0yKVw9AJdsxNzUsM9yCCMwF7WYi260j23hSGa8pbNext4S801PBwqU7e/krHCZQANLcQN/QeiTpcWvMxXC20ExVQawrb4ZF4lK2jN+h20KGG2ga1dyiimQtkZrs4UfZBtYXntuzNpUsRTWrRcOjbiOY3g8j0GfNu2WtUKcQq367T0v1Hs3s8UNcgdCvLMVbNbsC+E0RXOjJeL2+R6rEROpwEREAREQBERAEREAREQBERAEREAREQDVvT3Amphsw30mD9guG8CT2TyfEswW5s1jcMDuGh1B13XGk99dQQQdx07551tD0HqKWCAOpuF94BgDwIbS/SDM+aG2mkbfTZUpc09GoYGrYzO0nBE1+vhHo1DTcWZNCN/jxmQw1Q85m6o2J+Upk7Xza7pUWpUV9GRVA0Avc9Zvp3SjtjaeV1UMF4XO6/+POV1yODbOxINyt79JAA6fGX8dlHS6K22cZUZwSAFOu+5I5yrhaJNTMbAEbh+98sY3Dk2OSpYDQlW3DstMemJZW905gBr1S3i9aRy8kq2zN1mAEp0hd165watxO+y6TPUVEF2Y2UcydBKzJOWtowuPqZ6jt+I9wn0B6vNj/6bA0lYWdx7R+eZ9QD1LYdk0D0d9WWJNZGxGRKasGYBszNlIOUACwBtqbz2aaonXLMmW9pSmdoiJ0OAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIB5f6x9nlK61lGjqL/mXQ+FprNKtunpHrFA/0yEjdUA7CrfO08seoFOh0mPNPu4PR9Nft0y9/pEc3IF5XxGVL3Uk8N/mJPhawIlmohsdwHOUTO/7Gv4vFFlCgMLabzIsGgVGuBdujW0uYpuRuJj6lWW23wjnSS5ZHVm4+rDZJqYkVCPcpjN+oghfHXsmoYahnOug5z2P1aogw75BpntfnZV+pnWJ5MmWto3OIiaDMIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAJwYmK9JNo+ww9SpexC2X8zaL4m/ZBDels1H1gbdRgcMupUqzNfQEH4B02OvdNBrYS+okdbMKq3JOZGJJ4sXW/l4zL0F923CZM71Zv9H7sO38tms1kdDdT2SCrtt/hIN5tNWgp0sDK2J2IhF7SJuflHSsV/lejVH2kxFp0Sux3zJYrZYWUxQtOiqX0Z6x2n7mcriG3Xnr/qgxIOHqISMwqFgL65Sqi9uueReztMhsfbb4WtQqJvRnLDgyNkDKeu3faTL9xTLPjPJ9IxIMNXV0V1N1YAg9BFxJ53OAiIgCIiAIiIAiIgCIiAIiIAiIgCInVmAFzpAOYms7X9NMNQuA3tG+6liL9LbhNG2t6fYmrdadqK/h1b/sRp2WkpNnOskyen7S2vQoC9WoqdBPvHqUameW+nHpIcSwWnf2Kbr6ZibXYjwH95qleozMWYlmJ+Im58bk9syNemD1WvLzJmyZ21pHaqmZFcalfEHf5A9ktYc6CY/C1imh3S0Xy+8NV4gfZ6R0cxOHqMLr3T2a/QerUf+ddPplmoOM7LieDbumcK4IBGoO48JFXXSYD3DD7UxeZiF3CY5EuZkMTRte0rZLC8vL0jnUtvbIapnR6WWnnbe/w/kHHtPgBJ8NSDks2iLqx58lHSfK8qbRxRqPyHADcANwHQBNWGdLbPN9Vk8q8V/J6B6CeniUE9hiC2QWKOBmy7gQQNcvHTpnqeztqUa65qNRXH4SCR1jeO2fMiU5n8JnplXRmRwBYqSGnZIyvJ49n0TE8q2N6wa9MAV19qv3tFfvAyt4Td9leluFr2C1ArH7D2Ruy+h7CZGi82q6M/E4BnMFxERAEREAREQBERAODK+LxSU1LOwVRvJP7ueiat6SemYolqdAB6g3k6op5aHUzz3H7Qq12zVWZzwvuHUt7ASVOzheaZ4XZu+1fT+1xh6Yb8b3A7EGveRNN2ttrE1/4lRiv3FOVP+o0PbMc7/XsEI2bS9jYnvl1KMtZqr5IUwztquvnIWwzqTdTeSNUekwJBtzUecylPHK40NtNTxk6RR1S5MDVcDQ791uXR1y/hMcroBxXQjy/fRLFXZCHcbdI3SqdkOpzKR36EcjGmPKaWmStRvqDFJ2Q67pAzsh1B5ywmLU75ZMo0yUXQZ0F0OrJy5lfpAxSuLqZwcUiDMWsvEnQSkHR71AhCXsDqGY9Q3DrmXN6ZU9zwz0/SevrHPjkTa+H8k70ixlHE0WZ8g0HEncBzMj2jtd6bhEbQAZuPvHW1zwAsO+VKW0GqfGbMexT024eXVOUYGq5ZtyetVRuU9/clx1YGyJoi7ubHix6ZBSwplhKfMS5SWa1J5dZCAYdVRieNh3mXVqK3wnzlXFVAzhB9kXblmO7uHmIXT6/SScqbfZaa37/tHsr/AL4fWdMMmY5uXYe7lLj6KTy8j+/GCrbXRY2ft7E4c/7dV7D7DMWT/q2g7LTdNh+sem5CYlRTY6ZxfJf8QOq+InndJLqCeO/5SOpT0/f+ZVydZy0j6GVgRcagztPF/Rb0wq4SyPepQ+7f3l6VJ4fhOnVPWtl7TpYhBUpOGU8t4PIjgeiVNU2q6L8REFxERAOJqfpzt00EFKmbVKg3jeq3AJ6zew7ZtFVwqkk2ABJPIDUmeLbV2ka9epWO4n3RyW4CjyPaZMrbOOa/GeCGimn74wgBYr22+pjDN8Q6f/X6ys9XI6a2szIew6E9hE6nnctk1ah7rEbxx4SvSQMjNutpfq/xMoR7wFrgk+PRMWCAxAJtfv8A7QEyE18xyMbjx/tKhQo5Xgd0vbUoWs6i3MD5zpWph0BG8Ds/zGiVXH2YTENca72k1PGNuvryO4ynQN7cwbHsnYC9r77G3jJIa0ZLMlRSu4j3gN5HA25jWV6mzhY++45FMu7qtpIlO62jW3/vqkq4g7wbHj09QjWwqa6Me2xWDBs+cjdnvcd8sY1mC3VArsVUDeo4lrEWNgLfqkj4h20U285HinK2G9ythfhdmBP8kjSR0mm3tmGxGAGfKWLuxF+i+8nl0CXKGzXGnwb+Vz3SSlSC77lifePMyc1GFgbkWPXx+khTotWWmtJka4QKNCbdPPqOkhLONxXo0+hk7OTqe/j2zrb98D9JOiip/JVw2GKkkm5LanneTk/Pq0ncr/j6TqRr2nuldaLOvJ7YBI1BsdCJYr4u9NgRrbvErLw7Ycbl57x9JPwF2ZagvuJp9kagyq1QF2UAmw1MmwtcEEW1A0tuP0mLwVS71L77wJW02S1Fuyjmbd8t7D9IKmCxBZSSlwHS+jKR5jgZFhUzODyIN+qY7av8ar0FPKVpcHXE/cfSGBxa1aaVEN0dQwPQZZnm3qj2vmp1MMx95DnQfgawYDqYg/qnpEobE9rZzERBJqPrD2j7PDZAfeqnL05Rq3yHbPL3Ww1+8vZqL+Ymz+sXGF8UKf2UUL+prM3gw7prWJFy68Tp2kkg99paTHnTbO+GezdZX+dSvmsj2yllVxbVlJ53tlPgokCvre1roSB+KmQyjrsGlrGe+hUan4uw5SPDznQy9NFpTfKT90ajp/teUsQtip3aHvBIlmuwUKo3nKt+G4EjwHfI2W6N+FzfovyklUd3TOhHR4zHYZipI4A7u+ZLDm1x1fKQYijZgw3FoIRTdLNcc7gzkfsfSSMumm88OBmw7X2FdEejRemAvvq5sc1haxOlzrvIvcACRs6TLpPXwa4Fv3fOdWUk9QFvD6zM4jY3s6IetUyO3wUwuZ+jMb2HTvtxsdJj0WwJO+30gipc9kTjKpHE27bzirh/fN+AA676/OcsN7HkvkJNRbML20JXxUQOkVa1O2WxO8aSVGzaHf5TvWXUC+mYeYnNRNxHM/KAnwV2pWt1H5zoU8R5H+0sK1wO0d/+Z1y2t1H5wQQFL6cwLczuh6DfdPUPnLWGpgkk65VLW3E62HUOZlj2BLlEQM3Q5Fxvv7zDne05VkaekjXiwy5Tp630YtKL3+E6dGgkCaljyFu2bAmyHZgpQICbZjUOUHpK36O8TC4hMgLA3BzZT4ecrGXyemXy+n8J2izR1R/wgd/GYrAvao9joRccpkL5aDniV165jMNp7NvvIR2idX2jjjXtZntj0wQTumu7Rcl6j/fc/wAoA+c2XBsEoFjroT08Zq1VbmmvEgMeuobjwIla6LYVttme9H9pHC46i50AZEf8lQKrX6BcH9M+hJ8ybW/iOOVh3AT6J9HsZ7bDUKn36ak9dhfxvKJ8s2StSjJROYkknhvpFjc+Id94LOezMbeAEp40jO3Jge46Gdds4dqLZXBDLe4PI3t5SCu+ZQw4Af8Aqey4B7ZxnKujZm9E9bXR0WodG1JzX03Z1+IdTA3/AFHlJkxAQqLkgEDdvU3yeBt1iUqTA5lbQH+U/ZbsPgTOc5N1YWddCAeG/T+odZ5zTNJnj5vTuWZTFPd0YfiNuHR4Ad0sYbU1Bzse+30mPD5gh6SO8f3ljBP7x52GnaROhjZZRbXHj9IcXHVu/vJ84PX5dU4Ze6ChlPRqkqI1f2ftGp1UBAALBMrG6A/azZe6W9jV8M2IWnQp1Qz52apWbNkyhmJ9nmsTfQFt1+Mo7MxFfDOW9mxRl99GUhWTUjeNDyPSZYxGOqkO6UKivUUrmsbU6epKpfffeWPYBKM2w9Svt9jCbYcPXdwxYZVGYm9yAL24AZr6DSUnFzbfoNJYr4Z0AzIybxci27eBIFsBfh4mWRwptttlXHHQIN7b+SqJbRhbo08gLSk72DVDv0CjhcmyjtJHdLKJbQi/ur72mugubHdxghrgmcAAc84M4YZelSe0Gculxomp3HTQzsmpdeT3HURfzvBC6K7Jb68DON304GTZe+9ugyNl3+UkHbBLd/0OCOOoPzImUp4Au6urKFU2csSNCTbRbk6EC3QOciTDZUSoisykNmH2gptqOYVha/8AeQYeoALo5fjYWzcPsk3+zwmN2qpv4PSeKsfilzrn+zPphCWfMDmFjk99bBxpYMFOnMjhu000nbJByBTdbkX55XOvjftmWxmNqP7/ALSouhBzkhbcRq27omIFMPYX91DcvbS5IJA7BI3M68fg7N5M201rjjfB02m9qZ/ffKmAS9IHirWHb/jxnbab+6Z32It6RHWR0EXmntmD6ce/uXsfW/8AjIgsC5C6dJt85icKA+JNvhDfypu8hO2NxdsltMt2A6eHjaQ4FclJ34kAD9Vx5X8JyyVpmz0mF0v7IMTVzF2+8WPedJ7j6qsVmwIQnWm7L1A2cf1zwnLcAcyJ7T6pKTrSxGZSAagKkgi/uAEjmPdE5TW60bsmHxxeX7HocRE7mM879P8A+JT6jPOU3N+V/wCpYiY7+o9zB+CionxN+T5TjE/Ev5KflETRjPL9WXqXwj848pYwvxn8p8zETWeBXbL3ASZ/r5REMobZtX4D/wCNP6GlSpufrfyaInM3fqYPbn2P/s/qEwlT4R1fIxEujNfZBjP4Sf8Akp/KZJ94/L9YiPkh9Inp/CZDR+Nv0xEFEG3/AKvnIzvH75xEEmx+j/8ACpfnf/8AM1jav8ap+f5mImKPrZ7GT8Of4INv/GnV8pZw/wDxk6qnkYiV/JP7nX/LZgtofB3yfYX8I/lPziJsX1HmX+H/ACYjH7+w+YlzE/8AHTrXyERMubs9n0P0Mj2f8adTf0mfRHor/wAWj+QTmJXF9Z39X+Ev3/4ZiIiaTzT/2Q==</t>
         </is>
       </c>
     </row>
@@ -2917,109 +2917,109 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Hasan Mahmud</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022_test_039</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>35.1</v>
+        <v>74.2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>81.59999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="X20" t="n">
-        <v>462</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="AC20" t="n">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="AD20" t="n">
-        <v>455</v>
+        <v>169</v>
       </c>
       <c r="AE20" t="n">
-        <v>469</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUSEhgREhIYGRgaGB0aGBgcGBoYGhoaHRojGhkaGBoeIS4lHR8rHxgaJjgnKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjorJSs0Nzc4NTQxMT8xNjQ3NDY2PTQ0NzQ0PzE0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0PTQ0NDQ0NP/AABEIALwBDAMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAAAQUDBAYHAgj/xAA8EAACAQIDBAcFBwQCAwEAAAABAgADEQQSIQUxQVEGEyJhcYGRMqGxwfAHFEJSYnLRgpKi4bLCFTPxI//EABkBAQADAQEAAAAAAAAAAAAAAAABAwQCBf/EACkRAAICAQMDBAEFAQAAAAAAAAABAhEDEiExBBNBUWFxgTIikaGx0QX/2gAMAwEAAhEDEQA/APVrT6AgSZ2BERAERJgESYiAIiIAiIgCIiAInMdKOm+G2exp1c71MmcIo33vlBY6C5B52nm2M+1PFPUD0lVFsQKZs6a2sScoYkEE+frFg9wvE/OG0OlWNxAQVsQ7dW4dbWUZl3MQoFyOfeZ0+D+1nEqQKlGmwG+xZSdO8m3A+vksHtETg9mfalgqlhVD0idNVLqPFlG7vtwnZ4DH0sRTFSjUV0O5lNx58j3GTYNmIiAIiIAiIgCIiAIiIAiIgESJ9RaAfMmREAmIiAJMiIBMREAREQBERAE4b7SumL7PppSw+Xr6lzcjNkQaZsvEk6C/I8p1m19oLhqFTEP7NNC3O54DzNhPzr0h2u2MxDYmo2ZmAC3FrADRQtyAL30ud8hsGhtPaVfFVTWruzubAsQBoN2igAeQmNU01GvD+JjFQ684aqSN05JNhHAN/T00mOqovm38ZhyMdTzjIwF4BnDi0udh7arYKqlag9r6shuUccmUEXlCo0tM1OprAP0p0b2r98wtPEWVWZe2qm4VuK3MtJxf2WYpamAOUWK1XDAAAAmzC1t+hE7SdIgRESQIiIAiIgCIiAIiIAiIgHzJkRAJiIgCIiAIiIBMREAREQCg6cYN6+Aq06aM7kKVVd5IYG/fa17b9NJ+dMSjBijKVZSRYgjUcwdQZ+qZ4T9r+A6vaPWC1qtNWHit0a/oJDBzmytk9Yudj5TqcBsCllsyAyu6PC6gcJ2eAAB3TJKctTR6GLHHSnRVr0Yo3vk05cJGI6O0ithTnVACYiBynGqV8lmiPoed4jo2oJsCNN17zmcZhjSqWvPVNoIBuE842zbrWvvJluOTbpmbPCMVaPW/stpNTohOrIV1zlyD2mvoR3ZSNeNvOegzhPshRjs8u+7rXCcewAt/8848p3c0oyCIiSQIiIAiIgCIiCRERAEREA+YiIAiJMAREQBERAEmREAmIiAJ5B9teGvicK350dP7XU/9569PF+mNOpUxh6x2bJiGABYlVXVlyreyjKgGndecTlSO4Qcirpg0wEpp/AlzhNvGhZa1In9SkETTbAl1st+8jTynzidlFblUftLYAkWBHEcb+PdyFsya8m5xl4OuwW1KdVSyA6b9Jo4jpVQpnLkdjyA1mlsYNTUqDuXXxtr75XVsGxqFypIN91va4H4bpCabOpRlpNzE7ReoM/VlVPMi85XpFQFlq8b5W8LafCXdPZjhVGd7j2rrYHTTh9X0mttzCZqYU7iyg+Zyn4zpNKSorlGTg0z1roBhDR2ZhkbeUznuzkvb/OdFOO6A7QxFXrkqtmRMiobKLaG4AUAWsBpw0nYzVF6lZhlFxlTEREk5EREAREQSJERAEREAREQCIkSYAkyIgExEQBERAEREAmREQBPMun2FNLFK/wCGprf9QXKR/jf+qemzlPtB2Y1bDiogv1WZ2G45dMzDwCn1nE43EsxS0yOV2fawF5nxJVSBv0lPhanZEzYja1OnozdsjQcd1/lMiV7HouVbmzs50dah6xbjQ2bcbG4Pu9Yw2KQpmVlZSR2gbjlwnPPiTUa9NFUAXF3Cj0vLHZ+1aapkqIFJOpGoJ539JOgjuep0JCBCdL8Oc5raNiMu8llA8bi3vlk7ZhmU9m00KOFfEV0p01LNmzZRbcut9SBIStkzlSs9L6H4Pq8NmPtOxc+5R7lv/VL6a+AoGnSSmTcoiqTzIABmxNsVSSPMlLVJsRESTkREQQIiRAEREEiIiAIkRAIiIgExIiATERAEmREAmREQCYkRAJmPEUhURqZ3MpU+BFj8ZkkE21MA8GWq9JnoVBlem5RgdN2l/O1x3GZaOFpV2dyCXvxJsByH1xjpztOhi8S+IwauGQZKxO6rYAI6AE/hFuBItKDZW2OqbW+Xj4yiWNpujTDLxZ0pooll+6Ke8D6tMn/jKBXPUpimo5Ej4b5jXpMllta3GaO2ekashVN5005TjTJl8ssa5Nw45KdNadNuyL7zrOs+zDDtUqVcWQMlurQ8zcM5Hoonk2GZqtqa/wBR5DmZ7X9m+06T4b7pTXI9C4Iv7YJvnHmde/xlsIbmWeRtex2cREtKRJkReAIiIIERIgkmIiARERAERIgEQDECALxEQCYkRAJkyIgExIiATETXxmNp0VzVaioOFzYnwG8+UJWQ2bE5X7QNsDD4U0lbt1uwBxCfjbwt2fFpqbX6dqt1wqZj+d7hfEINT5lZ53tvHVK9Y1arlmIGp0sBfsgcADfSa8OCTknLgpyZVVIqNn9mrU78vzk7Q2UHOenoTvHDxmWomVhV4bnH6eflv9ZbUaeYfOY+rjLHlb9Td0rjkxafQ447Ne9tPWZ8Psh2PaOk7D7pfiPSSmFtxHpM3dZcunVlfRwi0kso14niZk6KbVOFxX3gXKh2DgfiQnKw9NR3gSdrVMiWHtMcqDvPHy3+U1aVAIoUTf8A8/E8jlJ8cGTrpqCUV8nvmExaVUFSm4ZTuYH48j3GZp4hs3G1KRHVVHQ3vdWK38QND5zs9ldMKy2WuoqD8wsj+duyfQS6fSSjxuZoZ4vnY7yJU4PpDh6mmfIeTDL/AJez75bA31mZpx2aLVJS4YiInJIiIgkREQBEiIAkREAREQBERAEREAmJEQCZXbR21Rw9w73b8q9pvPgPO05vpN0mOc0KDWA0dxvJ4qp4AcT9HlTUmrF07krkUTzU6R0O1OllWp2aX/5rzGrn+rh5es5uqzOczsSTvJJJPiTvnyWlpsjY9TEk5BZB7Tn2R3Dme6a6hjjfBnuU3RUtSvoASTuA1PlNLaOznpZWqADNewvc6W3+s7HE4mnhVK0KZdtzVDu8uJHoPGcziGatdy2Ynj8u7jpIxPLOV1Ufflnc+1CNXcvbhFOo4TLs1+rYUz7J9g8v0n5RiQaZtkdj+lb+86T7oYSrUYAUyo0uzEXH9I3+snqcUc0dPnxsOnyvDLV487l51R8ZjdcoJMscPhAtPOahIBtrYHeFOlvzECc4do9YLWN85QLfVmHAd3M8BrPBl004yrnetj249TCSb42vf0NB71KvWHcuijlzPjNoCVG0MbVp1GCIMt7AFSfE776mW+zUqVEzOgU919f4nvdKljgsflcnidTNzk5+HwWWC2d1i5qbjODqm427pnKFTlYEEcDMGDoFGL6gruI015idVg8TSxA6rEABtAr+zqe/gfdOcjy45OXK/lExeLJFR4a/ZnOh7SwwG1qtH/11CBy/D6HSRtrY74V+1qh9h+B7jybu+hWgyxaJxvlFLUoyrydxgOlynSslv1LqPNTr6EzpcPiEqKHRgyncQb/R7p5Qhm9s3ar4Z86G6n20vow+R5HhM2Tpk94F0MzW0j02RMGBxaVkWohurDzB4g8iDM8wtUakTIiIJEiIgCIiAIkRAJiIgCIiAJUdJ9pfdsMzqbO3YTuZuPkAT5CW887+0LG56y0QdES5/c+v/EL6y3DHVJI4yS0xs5XrZmR9L8Jou/aNuX8TPRfsWPn4EnX3H0npmGi92Js04mqEvZRq7chyHef55TpdrbWUIMNhQBTXQkfi7h3X48fjobLTqMIB+Opv52/+aeZmuyKdcsqUVOWp8Lj/AEq7rppGIVb7xNdsCL56dgTw/CZu9UOUlVtu+twmjVRWaSMo0qLlP1uPhMzItsym9uPd3zaOuhF5rthV3qSPCLQKjEVcxybxmvl4FuBsNL98+1wYpqAigM19eOpuT5kmZMFhc1Zjy+J+jLdcPYXY3P8AIvFxT4OnJtVZS0tji+Z9TLA4cKNPrhNspPh19eHPlOZSdNkxVtJmLq7C1vnISlofjJbFIpszKLcL6+69vCbCMGsRbUXHEW8ZUstt7nbxtLdFnszGdbT+6YjtIwyqx9pW/CAfHdy7xu5THYRqNRqT71O/mOBHjLrJYkjT5EfCT0lHWUkxFu0oyvb65/8AKRWiVrh/2crI3SZzC1rG19Ln4CfT1PdaalW4Pn8v9SDVuxPh8JfRYdX0Q2v1NYUnPYqED9rnRT57j5cp6JPFFqaDzHvnrOwNofeMMlS/atZ/3ro3rv8AAiYOqx01JGnBO/0ssbxETIaRERAESIgERIkwBJkRAJkyIgATxrb+M62vVqX3ubftBsvuAnrW1MT1VCpU/IjsPEKbD1tPE6+768PnNnSR5ZnzvhGAt2/EfAWt/iD5zawfaYDmpHj2/wCCZXZ9x5G/key3/WZcLiClRRyJ9NLe+80ydJmfImotr0O/apmA13C3pvkiaGHr6CX3RyitTEKrbgCwHMru/nynTqEL9EZccbqJpAT7VCTZQSeAAuT4Dyl5X2ZQw5vWqs54Iosx8dffpNGvtFiCtJRTXkujH9zbzK1l1/gvvwWvHp/J/RqVMOU9uwP5b9rzA9nzsZiAmQCQBLFfkrdeDW2dRs1Q/r/6/wC5tOlvrf8AVvhPjCi2b9RBt5AfKZajEAQ3uSY2HGV+06hVGZTY3Cg3sVBFye7daWSm818VQDKVbcw1579COG/4TjKm47FmFpS3PjZuyKH3dKtVXJckixCqqq2VgOJfx01E1auF+64o0AWKNlIze12xdbgnRhfXz3ScHWxOGDLTIZGU2GVXGY8bNfKNNbd2+RQou1Q1q57e9rkkk8GNtwHAcJiSlqdu14RubjS2LIt2ZFV7o1M/iX3gfXpNWtiANDoOH+5r18VYjXdYj6856Di3Dc8rJvdHMY2tlBG8rb1sdPd75hSpp9eA+E19qVr1Xy/nJ8xYAf3C/mYJyLruA+AkRle5ririn6m6tXQeJ/j4gzu/s7x1nqUCdGGdR3jRvUFf7Z51QU3VTvG/x3t/kTL/AKPYzqcVTqXsA4Dftbst7iYyx1QaOoPTJM9jiJF55JuJkXkRAERIvAET5k3gExIvEAmTIiAc706xXV4Qrxd1TyBzn3JbznltTXTnp66XnbfaLir1KVEH2VLnxY5R/wAD6ziKouJ6XTxqHyY8ruRWM3zBHcdCJr4iobBhvGh77ag/XOZ6ouzd/aHjuP8AkCfMTRxDcfI/X1vky4OkrOnobSvksd4v7h/uXWCxRve+vMb/AFnAbFuXIF75lt6n43907RF6oqur1GNkRQWJJ7hvl8HcLZkyQ0ypHRU6l9ePHz5zNeY8BsiubKwQPxU1Ezeahr+U2KuFqI606ilS7BQTu1NrgjQ7+Eq7kLpM50T5aPgmfLvwm3tHAdQ6pUqABlJzBS1t+lri54ec+KaYZtDVqr+ootvGwJMd2NWt/ontu6e32aVKuF0N999Nx04zI1YEW1+tJtbS2K1EK4YPTYgBl4Zt1xyOmtzMm2NmJhmQMzFWDEkAZhl3WF7HhvnPdg2q8k9uSu/BXq+gmQPM1MYZtM9Zf1MEZR4hbGRtPZb0FFUMHpm1nXkd2YcL8xeSskbp7fJGiVWtzEVH1pMVRQJmpYNygqMy01Ydku2XN+1QCSPLjPr/AMW9TSnVoueChyGPgGUX9ZOvGnyNM2qKLH1wgIPsHQ6ez+od05fH4100cXyMQ1jwurA35EfGdNjFIdqTjKw0ZG0OvLmJQbSo2pMrLqAVPetuzfw3ek0cx2OY0nTRQbOJdi7cSWPy+JMs3F9+69z4DX32t5yp2a17fWglq7aeOg+fy98zY1sbJcmxgU1ufH5zPSnwnZQ+FvlM2HHZMvRUz1/o/jevwtOoTclbN+5ey3vF/OWM4n7O8bdamHJ3EOo7j2X94T+6dreeRljpm0boPVFMXiRF5WdgyIvIgC8mfMQD6kz5kwCYkT4rOQrMN4GkkHB7WxlCviqvW10FJQyFCjGoGVcqtRZVIvnAOpG8ggixlC2yQ9T7vSqFqluwGQIlTs5gabZjoRquYAHTUbpXBjoeNr34675s0dq16IK0qzIOQO6+/L+Xed1p6KxygtmYtak90c/ilKnUEEEmx0sDowI4bgfKaOK019fkZbY/ePH43vKev7AkyO4n3sbEGnUZlFzbsjlv7U6fo3UZMUuIqNY2Zc35MyMmceGa/lOR2X7fl851S6UjaWYlqhT9yjNLTIuqWCxecJTwzvfc4IKHvFS+W3HfOu6SbbShhaeHqOtSuMmYg3CshBZieG4jnreeZbIoK9TtC8yZyXJPOJYHkabfBysigmkuT1XpjhUqGmzVhTNmC5lYqw0OrLfLbvHGVGHwSm2fFUAo35XLt5LYTRx22qmIp0lcL2d1gb+zxuTNTcrkb7SnDCThSZOWacro6XH7ZptTXDUASilVLHecrA6DxsSdPCWXS2lSY0xUqFGs2U5SykaXDW1HDXxnGYfRRbx85YbS2g+ICmpa4BtYW3kXnLw6ZKvclZdSafsTQ2el+1i6IXuzM2/8hAlltPbNJcN91oZmGXKWItpvJAO8k93Gcu+/67p9Nu8jLngtpyd0VLNSaiqNzb9QY0rVp1kSoqBWpVHyKbXsabHsm99xImps/ZGLVlaqVp01YM1VqiZVANyVKsbnlKzG8ZQLTGc6cZZ2XFaU9vgmORS/U1uX/TLbP3jFGtSXsKAim1iwUk5jyuSbd1pU19oipTF1II0J56TbwguCp3WmliaYCmw5y2MFCKS8HLlqbbOWwj2aw4EgDnr8JeUBcgctT9eplBgPbPifjL/D+yzcf9TLj3NkzbzXyqOJv6afE+6WCpZfKaWB9tu4ADwtN+p7P1zl9lDN3oxjOpxdN79ljkb9r6egJU+U9XnhNWu2XNfW5+E9xw5uiMd5UX9Jg6uKtM1YHs0ZZF5ETGaATIvBkQD/2Q==</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExIVFhUVFxcVFxUVFRUVFRUVFRUWFhcVFRUYHSggGBolHRUWITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARMAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAGAAEDBAUCBwj/xABBEAABAwEGAwYDBgUDAgcAAAABAAIRAwQFEiExURNBYQYUInGBoTKR8AcVQlLB0RYjcrHhYpKisvEkM0Njc4Kj/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAECAwQFBv/EADQRAAIBAgUCAggGAgMAAAAAAAABAgMRBBIhMVETQRRhBSJScYGRofAVscHR4fEjcjIzQv/aAAwDAQACEQMRAD8AFU4Csiwv2T9zfsu9mXI+lPgqwnCs9zdsl3R2yeZB0p8EEJQrHdXbJu6u2RmQdKfDIQnU3dnbJd2dsjMhdKfBCnCm7q7ZLuztkZkHSnwyJJTd2dsl3Z2yMyDpT4ZNZLTGRV5z8QWaLO7ZWbOXDIhGZB0Z+yy/ZaO6ltNEEJ2OyUD6jpTzIiqU3sirw4TVaivGzyJVB9kMockPpT4OKFQgq692Jc07MmDCEZlyHSnwRvoFUKlMgogY2QqNWzmUsyDpT4MgpK7XshTIzIl0p8BCKDU5oNUiS556vIiE2cJu7hTrlFwyIh7u1N3cKdJFx5VwQmzhLu4UxTBFx5I8EfACQoBSpIuGRcERs4WHfN9UqJLGjE8a7N89z0W7XqFrHOAkhpI8wJC8afaHPdJklxxdCXGcx6qE5WOb6QruilGC1ffyCGp2hqz8fWMhPQRl6IguntHTrOa3DBOugg/ry21QHgfmIz5DZdWengIcSR5cyN1UpvsceFapCWZP56nrpprkUwqPYu0VLXSeSPgdhB3BaDHp+qJm3K8q5TTR6CliaMoKUrK5lApiwLW+5HqN12OHJPOT62H5RnALlzArFenHKE1ns5eck7lv+PLm0sRtEJiwLUFzPS+5npZ0VdbD8oyTSCS1zcz0ks6DrUOUZ8pLmUpTLx5TrlJADkJkk5QMZJMkgaHlOuUkxnNcw12U5HKYnLSeSAez1wHiPcDjDIwAgeMRI9ua9AKw7UzA8xA2jLIaD5LLiW0k+xzMfTzOMuL/AFMHiubWFPugBOWU5Sfl8t1wLMy0Oq0gx7agDsBMBgc2QQ7PLMOW5aLzNOHAscR+FzsPMeInntB3Rb2XrOq1fhpAVIe804cCGw74on4pHkeazp3OVJKwRXTc9Kx0KdFjQMLRiIAGN8eJx6kq/StDI5KG+nQ1CtmtDi8CTqtiRZhsK61NyvsHQAIVC1ObpkrNn+BCt+1XB+RQlcpw2H608lyG94UlwVGg5rKe8nUpMeRoVZl0sd/w3+Hp3D6lXYYGSsECEF3PXcagklF1b4PRVtWODisP0ZqNyOraGaJ0HW+u4PMEpJqJuh6MbinmKMpwU0ppVp2rEkpLgFOCgLHUpSuUpSCw5TJ0yYxwkma3ZRWi1NY4MJlxjwg6DUucT8I669Em7FNfEUqEc1SVvzfuW7+7klR4aC4mAMyhW+bTxIeyQC0EBwgwROY5FXrytheBmME+ER+AjU9T9Qh6pVeBhd+HwzvHNZsQ7wT7M8/L0qsVXnRirKNuLvzum1bVWs+9yOlayXAAPxaeFxB9l612CsWBmIklzt9tddyV5DSrNDsXNeidiO0BIaCMnODWZxGRaNdy3/kFTRWt+CmtVjCyk/8Ak8q9+/6BxfnwHyQlY/8AzG+a2r0vIOEfoR7FYdB8OBWyK0Z1/R1Nqg/MPLP8HohO/wD41qUL3bhiVh3lacbkorUpwFCcKzbRQTSuiuCrTtmlcY/mIxr/AAeiB7utGB0ogq3s0s1Vctzi+kKE51U0jHfZ8dUhJPZraA8ndJJ3L6rrRaUeEZGJPKER2hG66HaEbqeeJo8ZR9oLJTgoU/iIbpfxEN0dSI/GUuUFspkJjtGN0/8AEQ3SzxDxlH2gtBTOcACSYAzKE/4iG6gvC+8bC0HXWOkJ54lGI9I0qVKU07tLRcvt9d/I0Lx7QT8BgTnBzPIj2XTbVTawEkOdUzc4zJblImIzkNjqg59fI5fQWhZLTIEmAwzyyAHs3X5qucVNpHi44qpTlUrT9acratX1WyXFk3biyS5WrbrQ8jEdTmdx06ws2jf4YcFSiXsnMjJw8p18skRW+w0xZxUxuL5eDkG0xgGbS50OBmBMQS5oGsoVqPnRgM7yR8/CpSjFrKtjLRq1oVerUu5Pu3f5t76aa3CWtTs1NpfLcL2Sw8vEMiSdPr07uu1sFMMZGwLcgeTXA8iMkNGiSRPwt0byB/dFd33NULOK0SG+JxyyGvi9EoxjCNn3J4mrXxM1OmtY6pae/v8A8m7arjZMIfvpskwC0ucSDJEGX5g+vzXLqrXgvYPCHBuWkwT6Tn8kHWy8HMgt3iORkgaeQU1x3mcNVk5AOdHWkwkfOI9Uo0skmdDA+mZRlRm7JNtTSVlZ6J6abu+1015sJsSWJCn8QjdL+IRurOpE9j4yj7QV4kxQr/EI3SHaEbozx5DxlH2kFCaUMfxAN0vv8bo6kSXjaPtIJyUkL/f43To6kQ8dR9r6gZxEuIq8pBUZTyWYnxpF6gToyizE7XrvGqspSjKPMWcas0x4cU7j5Rms6VuWKyh9Bp5y7XTXXpok7R1ZCpCVWOWG5i2mpstG6W1CziCmXMaQHGC5oLsm4o0J5T5LNvOg5hzIz2Rb2RtFmpMe2vVw4jTIGBzpDMTjDh8JnDrrp1Di76oz1KSilGRxWvGpg4b2zhloxsMsww1wbPwkZA+e6pC0CYRnTtFF8w9rnOdTqtxYRiNoq0HPa4AkDx02gjqVTvCw1bRwGVMT6j6oFZ5YGOaG0qRIqkEgOAe7MkTA2VyZnlhk1e9zAs9VocCRiEgkaZTmJ5TujKzX/TbQNFtqpik4FsGm81w3XCQGlp5ZhwHloqNW66D6r6ZotZjeawIeW8OmKlmaaYIOHDDq3ykaLI+5qdWm6pSa5sOdIZWZVpsFMAOBeQCSS5rgfyzqQq6kc3dr3fymWUYTpXUbP7+Hy2Ma9rQfi5g6bE6Ewi37NLsFQ1K9QtwUw2WueGHxEmWkwJ8ERMHGvOK7yXkA4gHGNRIJOf1uivs3dlR7g4UjMgw45H1nXqnmu9WVug4QWWN/cvltfT4MxrZT4dR9OILHuYRsWuLSPZQl62ftAsr6VuqYxBqBlWP62iTllm5rjzQ5jVeU6cZXV7FnEug5Ui9dB6LErlvEnxKpxEsaMrI3LYckq3ETIysd0QJ1c7oU/cyp3I5SokrLrKVpXXdYeRIUZTSVwasYiZHJ7PMjRVqvZ1uqr68RAgid44dKmzQhgJ8z4j7kqtZrmmsA4eAS53VreXqYHquL0tWJzj1KVSSaVjRh1vIxrb46nkVYczPCnsdHOXDLI+hOvyhXq1laZIM5HLp5a6QrKaskjFinmbldadu/bW3GpnuGU8gdP1bsp222q1pNOo9k/Gxr3AOnIkgGHAqOpZnCBtz5GfrVRFoMBus+/wCn1qrLGaNnqn/Xma9K/wC0lrf5s02nNrmsc0HCWQQR4hhccjvuE1o7QVnM4QFMCHNxMYG42nEA0wY8IdlkPhb1nKyHPLb+x8/3UrGBwEy2fhIE/qMtzyz2hJskm7lRrYjf9kZ3DeRaBB0Q467nFaF02dwOAqmdtLHRw14qz7hH9pdHvFCy2wDNs2ap71KRP/6hefGjC+gLluZlosFSgQPE0kHZ7PEw/MD3Xj15WYDRGeyNdLC9a9twdITwpa7IUEq2Mk9TFVpyhLKyRJcApwCpXK2mdJkg07JIuLKzWDTsnDCjBnZyoR8Kr17oc3VsLLKc12NeWPILVcloXTWIiFdrXSXclastzuHJVyq3iJwuyy22HTkrLMwqT7C8K5Qa7DnlGqzxbB0zIvJ4ptJ/E72by+evyQi4F7j7nYDVbPaC2YnFK5rpc6k55Hx5DyH+f7LS3YstlVkV7va1xeCY8OEa5ZQ366KZ1N3hIzBEjKOWfr+60LHdUFwJDdJ5kToAPU+ypXjdrmuhsyfECMgYMvMcoJ91pjO1rSt5M506LkpSnSbjdJTjuntqtbp2cU7LVaNtNFGo0kwYjlzA6eqrGg1xyy9yPMc1NoIOQOTgfwv5eh+tFEyWSSCRuNY/cb81dfS5i1i2ldeX33/sQotb/VsTIPVh5D6zUl31Q1wxSabnQ5uXhnLG308pEg9KdRjpn4gc55R+y1bFdhqODm1GcMMkkuAc0aFpbri5DKCosnqlq7hQykwCF3ZbDTc8ve/BTpjE9wEmCQAB1JIWZbKj3VfCDBM565559VbbRcGuJGeHwkgmCCDkNCTpnpKxuNjs0ndLz/Y9H7G3xSFJwY0gCQ0ucMVVzvhLGnOMtvKc14vWrY3Sefsiy570NCpjqFwloDycLqr2nQU5yYNPRCdZhJJwxJJgcpM5KEpaI7OApNdSXu/UpWtqoFq0qtI7FU30TOi0RWhx8Q71HcjpU5MLap3U4NxEKC47MTWaCMl6HarvApHLkm2UWPODTAKS1BdxLjkkqnWSJKFz6G7gwDQLIvG6mPByC0rdaoCz7PXcStTdlqQSb2McdnwJPJc9waMoRDUqZLNeDMws8oxezLE33Mu0WEbLK7SsFGgTzdkP1/T5ope0akgDcmB815325vZtR5a0y2n4ehPMhQs0ya1YO3HdDrZaRTzwt8dQ7NB08ycv+y9MF2tENaAAIAA5AZALj7P7qbQsYquAD6/81zjybngEnkG5+bitClelnc/AKkukCA15kkwNAhJ7ojOpFNJvV7efuAjtdZhSqtlpwlgMtnEHS4TG0QsU2kv0JJaSQYBLf9Q9Mi35o57aUBxWYvyEDOM8X7Sgl9hLCajKg55OblOziG4SP9RatUdaa0RxKlTp4yXrNJtXs9edtnzx8dTPqOJgODS4jkYZUbt0OipMaBIhzqZyI/HTd1C3n1mOaRWp4hrxaPjb5mDiaZ5nLos6q2kZdTrgkACSCMQy8LzoT5gaKMJKL2a/L4f0jbiIVK0YyVWFTstoz09pXvpstZWtvZmYaPDIkyw6EZEdRyPkrlis9Nrg9zhGRbIOcmMsocOeWYjRdMoFwMeZGTh6jQ+eq4sZqMd/KLmnmKZcRI1Jp7x/ZWM5/UzKzfk+39BxdzW1PFH4nASIyDyBlyygei3jZWlug0WfctFz6Yc85wYHMNyMEzuSekxyW0KIhRkrnVw8v8UfcDlrsTJ0Ch7izotO1WIE6qHuQ3UlSRt8dJRsZ/3a3PIKKpdLJ0C2GWUbqZtiBOqnaxlcs2pl3XdbRUBgZIrtNmBYQs+zWMBwMrcpU5Cpqckog427AOSSJ+6pLPm8i2x2LcHwIVhuQmFUfZYdktWlSkIq16c4pihSlFtFDvGcQq9vrYQtV1kGqHr/AKgGW6zerKSyl2qV2cXrYG2izEkwaf8ANB/oBJB6ESPdeQ31ULnE7yT/AIXul0Uw6mWnRzS0+REFeM9p7lq2au6k8GBBa+CWuYT8cx1z2OSdOWri2Cgk8yWrt9NvzZr3p25qChSosEE02iIAAj+XGQzEsJznVbf2RWeo6pXq1CScLdeRcSfnA91jdl+xdauGVqhbSYZGIy+q4NJH8sEYWtOoOeq9XuG7aNmpcOkIEySTLnOOrnO5nJTr1koZFuYKWFk8R1WrLXfV/DskCX2rWYmnScyMQLtTAggZk+crzVr3sM95aDsGl39tV7J23u1tSg+pJljRl+EgOk5azBK8rdXbJAc1vkM8soxO0V+DleFr6ow+lIONXPl0aWtu+umz4KLap+LFRLtxTqUXf7gI+YKsEUqgksY5w1LHN4g/1OaMy3fTyU4LQc6jT51CfYOyVunTs1aGue1rxmxwqNxNdyLSTM9IWl6GCFnz9/IE6IaHBpA1gwADrqMOFS3bje7C6q/DIBaHGCDPXonvaiadZzXZPbIdGQJyIc0cgWkOjlMclN2epY67W9c/IGSfQSqr9zW4u2m7t9eA2oVzTGBujZAzJgTurBvJ0Knin60UVQ5KSfY7TpqMbEr70dOihqXk/ZRAZ/WacsWxJGNs5F6vHL/ClZfT9I+t1QrBc0Rn9e6g9yUQhsF4uc4AhG93NlqA7sZ4gvSbrojCFhxknFaGqik2LhJ1c4SdczNU5NNkVH0BKnFLJVKtY4lfpvyUWuxIj4ZQxfdml480WPeIQpelYmqAraKtIjLVGvd1nhoVp1ORBzB1BzB8wuLHU8IU5eFS4pu5K5DWs8runTIC5NoEqZr8keQEFaiHtLHCQ4FpHQiCvFrbTfTe5joxtc5rjlBdTMAlvKRBXtF418FKo8fhY92emTSc14/edOpUYy0uptY15wCJJ8DZxZkkS0R1w+p3YODSlUvomk/jf+zHjaaqwdO15Nae+6t87W8rvzKjHrbuOix7gHAEbEa+aHG1FqXZanBwAy6xJHkNJ8/kum9UeRptKSbMrt9YWUbTDIDSwEMb+AAFsRyzJyXHZen/ADyR+HFp8v1V37SqTePRe0/HREjq17hM9RHyVnsTYyWVKka5D+5We12diKvKK+JfY1cV2q1wXTofrdRV6LtipJWZ2W7xKlLX69lPUZkuKVncDMH62Vyq0xotLnYyZbmK7X691PZ6ef17rh1Izp9dVbs7DslcextXJZ5eCj6xiGoS7NMzlGdMZLmYyV52NVFeqd40lyTCSxNsvIjSBMqfCqdN5lXMasdBhnOS3JYVazB1VbdWpksinnUlWU6MlchKSNWnZcl0LOpqdTJOaiqdAnmKndM1KaK5FbNWcaToMM5l35TPdq5/9qp/0FeeWGiat11YZHDLHNJcHYjJY46SAIIg7L0btE//AMLaP/hqf9BQr2Js+O76lM/+ox4Hq+sB7rfh4ZcLP/aP6lFVtzWV2dnb39jzCrUDSPID15q7ZLVMax0AI/5T7AKjeTQHyWkjJxjUEu1/vl1U1kFOAcI9aRafm0gLTFvZnm60VH1o7PVd9OPht8DT7cND6Fle3OHPYTOYkNcBEaeEo+7GXKGWOkCILxiP/wBsxPpCB23Zx+BRbOGpWbOZOENa/GRl+UzqdF69TAAAAgDIDoFBuzOhg05LN8Pv6FT7pZsuH3O08lpYksSWY32ZmC5m7Lh9yt2WtiSJS6gWMN1wM2URuNuyICuC1PqIWUp3dd2FaWErqipSVhrRc5XRqg0lZld7CQklUqck6qVOfBO6KveW7pd6bugHvdX8y7FrqfmXW/CJ+0ZPGR4DmraG4Tmsmz2oB+qHhban5lzQbVc6W5lNei6iT9cHi48B621N3XYtLd0D1qldnxZKEXhV3UPwqo9pfUfi4cB0KzZ1U3eW7oGs9eu8w1S2p1oZroo/hdW9nL6j8VDgJr+qB1mrNBzNN4Hq0jksrsJS4dmpyQcTA8RyDn1DB65rDdb6hBaTkQZzjlvyWddNsNCg1zYaCzG6BEkOeJO5gAK+OBqxoypOWraf5kHiIZlO2iTMu22ckua0tbqRLZyY6Rh2MA/MrMtNJ7hm4MDRJMPg9eYHktWyumi1xImHazrAGo55KlZqz3w4uqDDs5sbABhBkmYE55qEd38Pv6HFra06buv/AGl5K6a917thh9n7S0OxRgBDqZIIcC5sEZ9MvnujdtcboIZxKdJhJ8TsyJkARk0b5RnzS+8Kq0U8NKccyNuHnlppMOuO3dMK43QL94Vd0wvGqp+DmXdVBya43TiuN0DfeNVN941UvBVA6qDvjjdROtInVBRvOqojeNWUPBVOwdZI9AZXG66FcboHZe9SNPdL73ft7rC/R2Jvv+RqWIpWDSo8Ep0GC+n7JJ/h+J+7D8RSKICnZY6h0aUSXFcPN4zRM2ysblAXVq4tRdkrmCNNtXPM6tBzdQQiLsjQDpkc0SWy62Pacgs647DwnubylQliVUptbMeSzJO0FjbgJhAwok6AlejXvRL24d1DYbqY1oyCro4hU4ajlC7MPsowCcQz6rVv9rMB8l3RsreIYUt42IOiVGU1KqpAl6p53UYRJIgQcyJGh5LEtlaLHTP+kN6TjqOj9V6Z2ru5jbDXdGYpn+4Xl/ae2vdYrK15b4A8NDcU8NraQYXT+KXP0yyKuqVs1NzXu+j/AHKqqaptffYo3Ne5DXQJLHwAPyOaNd82k+cKawu4lWkCA0Y5wj8Rgw6eg5IauOvhqRyd4fUnw+4HzRfYbvLatOpyYcXn0WCHJgr3UlG+m/zST+iX0N6zZ0g3MmTH9IAB9yE2E7K32MeH2kMOgbUBH9WD9Wo7fc1ODAC2UcUqccrRrwsXKn7tDzdJat/2QU35KvdtgNZ0DTmugqicc3YstrYqASk5h2KP7DcVNgzCs1bppkaBZXjo32LOm7Hma6aES2vs9NSG5DmtyxXDTaNArJYuEUmRUGwAI6Lhej17lpuEQEP1Oz8VRtslDFwkDg0DMJ0ens9TIEhJLxtMeRl6nWDdE1ZwcouAdkuEV5zr1DfaPBZo1oEJg4TKr8MpcM9UeImFo8Fw1ZTOqyIVTAeqRYUeIkGWPB1RYGuLlYqVA5UwwpBpT8TPe4WhwV+1lUGxV2nmyMv6gvAb+tRcWicmsY0D0/cu+a9y7WV+HY6zicg0a5fiA1Xz7UfjcXdSfXQen7LTSrOVNxfP6fyY8VZNJbEl10HOqBoEuzgdYMe8L0K8SaD6lAeI0iGkk5k4GkwfNyGewFk4lspN3cD/ALXB59mFFF+UQ+0WzxN4gqtcxsjGQ2kTUOHm2I/2qynq5eSv9f2uZJ0s9KTW99Pl/KKN31+BaDUaKgc1xcSwgAsJBOL8w6L2mz2sPYHDMOAIPQrxhlqw1KbzTFRtVmEsmCSYBLTpII0XovZS0A0AGRDCWwCCBoSMiRqToSFGvPLG6D0bJZnGX3b+Cxet0cV0qa57tFFWuI5LiFU+NqNZb6HW6dPgs2moSPCq1mdUHxFI1Sn45UfEvbT5BkgTUjnmla6xjw6qHjlPxzsn4h76B04D2Os8fGparmkgqIV+iYV+iPEvfQOnAu8cRqkqHGTpdf3EunHkuiuF1xwqoov2TGm78pVV5cBctcYJ+KFSDXflK7wO/KUszC5b4gS4jVUz2PyXMHY/JPMwuXMTUvCqcpY0s/kFzzv7ZrWP5NH8JDnxnBMgYsMjERoNYkryzhOJhrW+Q8Plkc19C3rY2VXtxMa4iM3AEgCdCdJlZlPsjYjUk0ScXIuIYCcQhrf+XSButkNFZmKth5TlmT357A59kNygVDaHNOVNzGkiBixAOgdBIn+rZadyUmuvW1giRxmnSRHCqtIJ5Az7Iiuu5GWSo4MxYHy4Ys4kjwB2wAETmR5Id7PuH3hbDz7wJ1iOHWjn5+ylB/8AZ/p+qLacMkYrzBO9qbaNR9nJh1Gq80jqC3GXNbuTBbkvU+yF3ClQANnbSc8mo5oEQTpi6xGXLRUq1y0DbBa6kFzcOAECGuiMXV2WU6KLtR2vFnHDaJqO/CJho3dHTkq3UTjdldHDKE5S5+iCgNpkwCJ05LvuzV4xVvaoXB2N3QTkM9c/rJer2N7jTYX/ABYW4v6sIn3WKFVS1sb5Ryl42Ubpd0Crion4xU80eCBMbGN0xsY3UPGO664x3RePAWOzY+qbuXVc8d26XeHbpeoGg/c06bvDt0keoGnB2LU3c+6Qtbdz7yskR1TNA1z9084rs1hagZzI6T75KRtqGk+6xQ0b5eq6c0J5x3NkVx+b3TtrDf3CxMA+uaTWDr8yl1AzG53gbj2XFS0tAO4E5QsjhA7phRb1yT6grlK12ym44m1mzyzyV+7bY5rSagmSYc0YgQfLSNFE6wUjqxp82tP6LplmaBA8I2aI9lKNa182pFomt/aBrA0NplxJE4gWgCcyTGSzbuulgtTrVQqh1Oo51SrRcGEioWloLXjMNzOR/VT1buY/4gHDlImBnuu6NjDR4Th8gOWifXkm7bNWY7I47U2hlNgqvDQGeIZgy4af3Xi77c6o5z3ulzjJkz7cl612g7NU7YGirUqAMMgMcGzpk4Rnos+wfZ/YqWE4XPgyOIZk5fEBEjLQ5Kmp66tcnGajqT9jux9mbTpWmqeK9zWvaDhFNpcA4Q05kjLMoyIZ1+YWW1hGhyGQEAQPILstHtyQnFK1hOV2aAY3qPVPgZufms8ADn/dNpzCeZcEbmjwmHRyQoN/N+izQ3OZHy/yuj9ZozLgLovCg38yZ1Efmn0VGoQATkEzHg6EHOD6aouuANDgg/iCSohvMAT0STvHgCqxdpklUQOmpBJJIB2ropJJD7D8kwTpJgOnSSSGMmKdJAMcJkkkCY51TlMkhB2ImqRrBskkmROiwbLgNSSQNiDU5anSQCOC1JJJDA//2Q==</t>
         </is>
       </c>
     </row>
@@ -3044,115 +3044,115 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mohammed Siraj</t>
+          <t>Hasan Murad</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>74.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>53.6</v>
       </c>
       <c r="M21" t="n">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFhYYGRgaHB4aHBkcGB0aGBwcGhoZHBwcGBkcIS4lHB4rHxoaJjgmKy8xNTU1HCQ7QDszPy40NTEBDAwMEA8QHxISHzYrJCsxNDQ2NDQ9NDQ6NjQ0NDE0NjQ0NDQ0NDQ0NzQ0NDc0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ2NP/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABgEDBAUHAgj/xABBEAACAQIDBAcGBQIEBQUAAAABAgADEQQSIQUxQVEGImFxgZGhBxMyscHwQlJy0fGC4RQjM2IkkrLC0hU0U5Oi/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAEDBAIF/8QALREAAgIBAwMCBgEFAQAAAAAAAAECEQMEITESQVFhcRMiMoGRsfAUM0Kh0QX/2gAMAwEAAhEDEQA/AOzREQBERAEREAREQBERAEREARLZcC1yBfQa7+6XIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiJ4Y2BPz0EAju3+lNGg7UTUVKwQOvvAVpnfZS+4XsR4zilXp/jBXqVqdV0DtfITnVRe4WzaC3ZbjL/AE86bPjmyBEREJAt1mOpFy5A0NhpaQwJJBtMR0jxL1vftWf3mYMGzHQjcVG4dwkt2R7VcXSolXy1nzDK7g6LaxBykZjex89ZAjSHPWW2QwDt3RP2pU67FMSEpHerAkKRxvmvYjlfduvadKpuGAKkEEXBBuCDuIPET5KRNJMuh/TavgmVLtVocaRYdUcTTJ+Ej8u75wD6HiYezsdTr01q02DIwuCPkeRG60zJAEREAREQBERAEREAREQBERAEREAREQBERAEREASHe0PF1fcGjRf3bOru9S5BSnTF2II3X+G/aBxkxnMfbJiUSgFufeV8tMWO6nTbO9+wsyA87CAcVTKFBsRpu1113/TwnhqpPdMrE4h6vu0ygLTGRFUa2Jub8yTr4mbbZuwC1i+g5DeZEpKPJ3GEpcEfVDwl5aTcNZ0DDbHpKLBB3nWbOlg1GmVR3CUvOuyNC0r7s5eaLgfCbeksMD9mdVxGzw+hW802P6NI1yNDJjmT5IlpmuGYPQjpxUwLZCM9F2GZSSMtyAWTkbcONp33Zu0qWIQVKLq6nip3dhHA9hnzVj9hOgJHWA3+HZNv7NNuNh8dTBPUqn3b3Jt1vha3MMFHcTLVJS4M8ouLpn0ZERJORERAEREAREQBERAEREAREQBERAEREAREQBOa+2oJ/haRIHvDUsrW6wWxLgHlovkJ0qcq9t1MlcKeAaoLdpVCD5AwDmuwKN3zEbgZMcMg3maHZNAKuc6D71mcu0k4sAo9ZnmnKWxuxNQjuSJHW3CZa2tI9hts4c6ZheSKjh8wDDcd2srcZLlF0Zxlwzw1S3CYtWsDKbWxS4dc763NufoJHX6U0mvoQb6abxJUG9zl5YxdNm0xQB8ZzzaGFKMw1GptJfR2ojm1+0TVbbwupbgdf3lkLi6ZTmqUbR3foXtU4nBUKzfEyAP+peq3qL+M30hPskS2zafa9Q8f/kYce7hJtLzGIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAUkK9qmA95gw9taTq3g3UP8A1CTWRbb+3cI6V8M1ZQ2VlNw2UMBoM1stwbaXkMmKbexyDH0HbJTTS46x5DdKPsjDIL1azEjeq2A8z9NZIMPRDDNxtaayjshx7wZQS5BWpfroVOZcosRvEpUuxrcL3qzGTA4V1zUlNu1r7vr3SXbKrdRQTpb0Ej+GwFRKIoMcy58wuBccBa+7w5zbYdLELOZS8Mtxx8qinSB1Ngd192luHOaDFYikmVThg4a5DZG1subR9PwgnThrJDtTAhxbmJrKmwRUKmoAWUBQW10G4a307IjJdyJwfYwv8Bhal0VGp1BfTM1x3g69ustY3DkUCrasmhPMcD5WkhTY494azsXc/iP9p4xNNMwzglLjOBvK3BIHbaddW5z0UjpXQvBe5wOGQixFNSe9usfUzeyB0vaCn+IpUfcsKdR1pq99QWOVbqBYC5A3yeAy5NPgxyi48lYiJJyIiIAiIgCIiAIiIAiIgCIiAIiIAiIgHmcFw9ED37sdS7nNzPvHBvzne5w7pdQNGtiaaqcgZ2Gmg94quPC7GV5OEaNO6b9jIwLXsJvadLTSRfYOJDqreffJPhq43Slrc1J2rRadFBud/PlMPC0yzkkgaX15aW8Zf2lXQAlmA056/wB5AX2qiOzKzszHWpma1r8FvbSTGFkvIo7sntXMXspBy9u/smdRqKx7ZzWntOi1QM4bMDZagZgR/SDa3ZJ5svG0Ta1QM3rc9kODRCyRkbTEILbpHNqm1zN5iHubg8PCRXpJiMtJtdTu85CW9EOVK2W8JildsMyg3WvRNjr8VVPS4PnO8z5/6J4Zve4YnUvUpZR2K6sSeW6fQEuhtZmzu69isREsM4iIgCIiAIiIAiIgCIiAIiIAiIgCIiAUkC6abAq1awalTLe8UIxBFgRcDNfcLHfJ7Ehq1R1GTi7R847Nd8NWehV0ZGKMAbjMDbTmJvcftL3dN3XeAAvjLHtX2c1DHmqostZVcNwLr1WHfop8ZF2x5dHQnSwI7SOE5cLdl0MjSoxzi3qveo7G9zvJPcJs8KiBSBh2Ybi2RnPiQI2bh1dNLE8uI7pssPiqVO6vcNvFrjz19Yb3o7hHa2zCdECn/hWtp1jTdRru6xHGanE6MMgZey9x4GSddo0mJ3kncNT/ADGIwahWdxbS+uh7AJF0TKCa5R76PbXZqbq7ElLak6m99LmaHa2MNVwi65iqjvLWHnpMPD4zKrD82+bn2dbLOIx9EEXSmxqueACAlb/15B5yVFXZRKbcUjrWw+hAw9RH97mCAWXLYkgW6x3eQkzEROkkuDhyb5KxESTkREQBERAEREAREQBERAEREAREQBERAERKQCDe1vZy1MAz269JldSN+pysO4g+gnA828TtntG6UBWGCVQc4Bdz+H8QVRz0BJ7ZzDaWyM3XTQ7yOBkN00mdxg5RtGu2fjCjXHCSIYinXWxAV7b/AKSHuGU2Isby6mII1Btx0kSje5Mcjjs+CUYA0qJLtY5fhmp21tZ6rH8o3Ca18UTLLEmFHe2TLI2qXBXNOw+xKgFXEFh12yEHjlGYW7NdfGc62Hsklg7jTeAfrJnsbpIMDUzlM6OVR7GxUE715kcpHVclFBY30OTO0xLOHrK6q6m6sAwPMEXEvTsqEREAREQBERAEREAREQBERAEREAREQBETyzAanSAVmLj8WlKm1RyAqgkn6d/CR/bHTfDUbqhNVxwX4R3udPK8550o6QVcShLHKoKlUB6oGoN/zG5BueU0YtPOVNqkVyyRWye5HNvY1q1V8QR1i5e3YTu8F08JssK4ZQRqCLzTprcS/s6rkbI3wk9U8ieHcZ3rtNcVOPbn2O9FnSl0y7l3aGzVe58pHqmzHzZQCe3hb+JOglxLdKkL23TzFkaPQnhjJ2QcbOYbwfIzcbM2bl1bjuElBwS6TGqUxewkvJao5jhUXZ6oIANJqOkTdQDiWW3gb/Sb0LYSLYmt76tcfAmg7TxPynemxueVJEaiahjdnX/ZftAvh2pMdabdX9DC4HgQ0m84t0I2scPXdrXVqbXW9rlLMNeBsGnVtk7bo4hbowvbVDowPIj6ibNTjccjpbHnYpfKrNrEpKzOWiIiAIiIAiIgCIiAIiIAiJSAJ5JtNBtfpTQo3VT7xx+FSLA/7m3D5yB7Y6Q169w7ZU/Iui+J3t4y/Fp5z9EVTzRiTTbPTOhSuqf5rj8p6gPa37XkC2xt/EYjR2sn5Fuq+PFvGYVoKT0cemhD3Mks0pGJ7rhFVLggjQ7/ANxMy0yMHhM51+HiZ3kyRxxcmTixSyyUY/z1ZEshViDwmRkDrYzP6QIM65UygLYHmLk7vPzmuRTed425wuSq+zGRKMqi7rujM2bjSre7c6/hb8w/ebV6YO6aSrRuNRYjUHkZs8BX0sx1niazSSxS6o8fo9bSapZF0y5/ZdZW3Bow9KxuTeenosdbyxinyITxmKmbbRgbe2iSPdpvOhPfLODwoRQBLGDw5Jztvmxnu/8An4OiPU1u/wBHia3N1y6VwjzRFmB3WmUlQhrg2N7ix+UbOw4qOEJtoTfTeN2/frMjE7OqJvTMOafVN/lL8uoxRn0S2ddyqGmyzx9cVavt/wAN/srpfiKdgzB1HBtT4Pv87yWYHpnQewcMh5nVfMa+k5hSfn/HfxHjMpeycS02Oe/6OVlnHY7PQxCOMysGHMG4l6cbwuMemcyMynmDb+ZJcB01qLYVUDjmOq37H0mSejmvp3Lo6iL+rYn8TD2ftCnWXNTYEcRxHYRwMzJjaadMvTvgrERBIiIgCIlnE11RWdjZVBJPYIBgbb21TwyZm1Y/Cg+Jj9B2znu1ukeIr6Fsqn8KkgdzHe0wtqbRbEVWqNx0UflUblH3vvMUieph00Yq5bsw5MzbpcFBPJlRvEt02uCe+aikUzeK7dYKPv0lvDAnIACSeAGvgB22ky2T0d91erWtnOuX8KDt5tKc+dYlfL7LyX4cLyOuF5NXg9maZ3FhyP1/aXMXUOWyABR525C26ZGOxWd7Loi6955mW7SnDp5Tay5t32XZFmfVqCeHBsu77v7mm2xhcyZgL5QT4b5oBYjNwte8nGS4seVpiUNmoeqUFlOmnz5zd1HnxlXJE1zuAKYzX3E7rdk3WyNmsti/WYkLlvYX4aAdvHlN37gIQQNALED8vAju+V5eGHUk35Ag92lx5zmStHfxHe23tyavbj5EyDLmcMVC3OqFbi543YectJhcqBXUFrDfqL7yRftmWEz1iTdso4m9rW0HLWx8BMpcMLljqeEqxYqp5KbqtvB1lzW6x2ld7+SCbU2U4N0LDjo1h6S/gMG+TrElr21+9ZMmw4vqJaej1gLS2MIxdxVHEs05L5nZoqezmBHHjytNlSr1VNmIYbxff5zPVLN4ff39i77sH7+/v05y44ZVU0mjrFqcuJ3BtM9Ns+nXW/wtb4hbMO/mJocbgHonrDq8HHwHkCD8J75vKDZTa9jwP0M2eHxSORTcDrHKQbWN+BHbMLx5tK7x7x8Plex6Ec+LVKsu0/K4ZDVcjQy4DNh0n2IcO6sl8jXydh4ox9R3HlNSlS4vN8JqcVJdzFOLjJxZnYPFvSYOjFT2Hf2EcR3ycdHelIrEU6oCufhI+FuzsM59mnlntqDa248ZXlwRyLfnyTDJKL2O2xNH0W2t/iKAY/Epyt3gDXxFvWbyePKLi2mehGSatFYiJBJSRH2gY/JRWkDrUOv6VsT62kuvOQ9Ktpe/xDsD1U6i9y7z4m58po00OufsU5pdMa8mtTdeVd9CeU8Ker3H7+ct5rq4+909YwlUqdcr2aeH9j6S3SfqH+r5n95Zz/5lM/mUHxFwfnLuzKZdgi6ktlA7SYsklnQfZy+8au+iUVAUndmIux/pW3/N2TO2rtJqrH8KA9Vfq3M9n8zLxVJaNFMOh39ZjzA1PmfQTUslh6zNjipy+I/scyyy6elcdzHoLvPbLgTWXqSWUT0izS2UnkJrPNRbENLoErUS4IkWKKMLjumOvV0G7Uj6jztL9FtJ5qpr6+P8SfQGFsc3aoe1R53MzkIJImLsen/qfrt5WmXpcG3ZIb3JoOBcyzTXW8uGEEkg8Vl3GUWX3WY+beACbeA778pxKXS7bSRZGPUqSbYrJpf77vv+LNYAgE7xx4gfX78L1OsLDS4O8gg28p4ZAerfTh3cpEJ7JJ3vv7HU4bttUq2NjjnfEYNkPWenldTxZVOo77X8xIQzMVOgAkx2ZXKMLn4TlP6Tp4yNbWw/u6roN2a6/pbUft4RBKE3FcPcj4jlV8mJ7zUjt+ks1a3WPZb5CeM/Xcfess1G6x7ST4DQS8knXs2x1qz0ydHUkfqQj6E+U6XOFbDx5o1UqD8DgntUkhh5XncqbhgCNQRcHsM8rWQrJ1eTdp5XGvB7iViYy80fSzaXuMOxBszdRedyDc+AuZyInSS/2jbQzVVpA6ILn9Ta+i285DWOk9XSQ6YX5MOeXVKvBfw5uCPv70lhX6zj/bfy/mMJVs9uYPnv/eW6ps9ueZfMaeoE1FVFqsNKbfkqWP6XJX5kSQdBqP8Ansx3Lc+JsB6ZpF6p+qnt0DofMeklnRmoEWq45/S/1lGZ1F13OcsumNm/r1c9R24Fso7FXT5/OWqmvjwlrDVBqvEAf39ZsthZTXUm1tbX5gG3r8pL+SHsiuC6pJeTGq0yrFTvGh7DxHhKAcBqeQ1MlON2dh1JqVDlubkZrAnsA18pr6m11Tq0KaqPzEa+A/eUwzuS2jf6L5YVF7uv9swKezny5mARfzOcvodfSWaoUCwJY/mtlUdw3nxt3SteozHM7FjzJ+Q4eEtkXlsVJ7yf4K24r6V+Szax75Ss/VJ5C8vML6GYmJoEg2O/TzlqaKmedhG6OTxc/ITLZLfffMLYaMqOG359/MZV1mxdrSHyzoshZ6AlU1nojXyizmjHxB3Dnr4C00ZD4moETrXOVV4W35ja3CxPjuAm/wAQCCrDcOy++abZFYYfEAuM6i6sNPgYWuOJ3338RMea+pv02N+nro++5fxPRetSDujKzJYsEZiyjfpoLgC442njA4ouCD8YFyfzC9r24EE2kmo4mglqjVkKWJKq9m5hcujWP86SH7MH+Zex3E2AtYWPLhqPOUY8k2m5Kmi+cI8LdM3Nr+IynvG4zS9JX69N/wAygHw1+s3dO17TSdJ16it+V9PUT0JS3jL+bnkP5ZpetGjY2qnuufAAywDvPZPNR+sx7AvmBf0E84iplS/M+g1l9mmi9g2uCebG3cNPnedp6F433uEpkm5QFD/ToPS04thktZeKrY/q3t6kzo3syxutWieIDr4dVv8AtmTVx6sd+C7DKp15OhxKRPKNpw7a2LNWs9Q/jYnuHAeVpgg/FLlSW0PW79P29dZ76SSpHmXe5i+9sQeR+Uu7SNrMONiO8aiWsSlj3y5h+uhQ711XuO79pz6HXqYOIq6nkwDr/T1reKkiSDYeJ/4Z+8+gUSKYkkDL+JLle0X1Hh8jM3ZGK/yWW+5mtzsQCP28Jlzyqr8o4zwuG3lEy2XiszOeF8t+6bOjUv3bpFNi4myOeOYn/mtab3CVhYCbGr3KOGbdTrc69s9SzTe8vAytkgGCIMpeCSoMtVzp99sq08Vfh++UEHvDrZfL6Cezx7vpMWnrbU+ffBZhx+9YrcWXqWl/vnL1pjpUF5kEyWDy6AixmvxeED2DXBGisO0mwPZ5bzumyvPLW4yqeNS9/JZDI4PbjwR87JbqDOoC3tbQ669fq6nlczMwuHVFOU3P4mvvty+fPfNi6DfYTHaqDcX1HCcxwb3J2WS1G1RVGMK4Um+lvlNLtvEhsNcniD5n+8u7WrFS5/2E+QMj23a5NOmnPLmHco085bqFtFryjLGLlJe5hGtmPV4nTx/tLtdgaiJvVBdu5esfUKPGWaItrbuH3zlwpa44sQt//wBP62HhOlbRs2sz8EvVLHebnz/vN/0Wx3ucTSbgWCN+l9D5XB8Jq8mWmedrfSUUbrb+FvpOpxUouLK1KnaO+Xick/8AWNoflqf/AFP+0Tzf6R+Ua/jehoam775TGbeO/wDaInpmRFcXw7z9JZwPxju/8YiQzvsa7a/xj9X0Mxtj/C/ePrETFqTqX9v8G92X/pt/R9ZIsBvERPQ/xMkuTcUt/wB85k8D3fUxEpYRQfflKH784iCSstVtx7vpEQQW6W775GVq7j3xEnuQWE3j75TO/f6SsQwF3/fZPJ3ecRIJKNNdU/1D3RE7iQzR9IfhqfoP0kUxv+uP0r8oic5e32LsBfpfEnj8p7G+n3v/ANbSsSUWM3GK+HxmZsP/ANzR/UfkYiTP6WcR5RKIiJgNZ//Z</t>
+          <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgWFRYYGBgYGBgYGBgYGBgYGBgYGBgZGhgYGBgcIS4lHB4rIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJCs1NDQ0NDQ0NDQ0NDQxNDQ0NDQ2NDQ0PT00MTQ1NDQ0NDQ0NDExNDQ0NDQ0NDQ0NjE0Nf/AABEIAKgBKwMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAADBAIFAAEGB//EADoQAAIBAgQDBQYFAwQDAQAAAAECAAMRBBIhMQVBUQYiYXGBEzKRobHBFEJS0fAjYuEVcoLxB5Kyc//EABoBAQADAQEBAAAAAAAAAAAAAAABAgQDBQb/xAAqEQACAgEEAQMEAQUAAAAAAAAAAQIRAwQSITFREyJBBTJhcZEUgaHB0f/aAAwDAQACEQMRAD8A9KVNJgSSBNpsXkUQQUXMmyQa7whBgEXFhIUUvCOtxB0n1sIBP2cBUY3tGSDBunOAFQaTCJFGvJWgCwW7Q5piDdcusym5aAEKC0HTpi8JlMFUJWAGNMSLoLSKXIi+PokhVLBFJ755lRbujxMtFW6KZJOMW4q34KfG4ovcI1k2Nrhj4FtwLW0FvORwmCZ7EgKg0vfKvkOvpHjgFGpuEuSqagvrpc7hep3MHxHiSUUz1HVEUWF7KAP0qOXkJ2eSMYtRXPnx+i2m3xinKm/k3iMCrIyB2TMCL0lVWF9CVZidd9cv0lbT7N0EJNJ3pgoEZW76tlvlb3u6dTsOc5TiH/k6kpIpU2e35joDFKX/AJQ179A2/tYfeZWjs5ybuztKmAqUwzaMl9GViwAPIg6j1HOwidB3Q5qL5Ht7pGam9tArrvfowsR47EXBu22GrkKr5GOmV9M1+Qvo3lHMXhSDnp95D79Pmh60yd1/sO35TayzVinFx2S/kjJPdGmjqOD48VVBYBXAUugbNlzC4seY/aWDkTjkwToq4qlcurWdP10zvodQ1+XiJ0tJiwvyOo8jOU4pPgy4ZSaamuV/lfAd7WgaKC97Q60+s0KVpQ7BLCDq2tAte8MqQBajTF72joIkRTgsQCBpADFhFVHehaK6awgUQDSmbDibdItTTXUwAtVppYTKJNbQCGaS9rA4kdJiJpAJ5xaaLi0woJCooEmwapGFaoJlNBaYUEgGmcWgqBAMlWUATaJpAJNVEhWNxJ5BBYiwEkEqLgCTaqJGkgtJZBAB130ksO4AmqyC0lSQASASaqIKq0LkE1UUWgGUnE22ViMwuB3jfw1Hzt8IOighKtgjH+0iShRzfH+NpSR6z3tsqj3mP5UXxP7nlPGeN42ti6hes2l+6gPcQcgOp8ecte0PGWxWIKob0qV1Tozn3n+w8POVq4diZWTo0Y4Jq2IJw8TbcPlr+HYbiRZL8pS2aNkfBz1bC2nW9ke2DUWFLEMWpnQMdSn+4818eXltSYukZmE4P7QatY2J6+WkvGRnnBHta4kqrAG6vl8iGI1Hy+E6FGsBbawt5TyPsHx8g/gq47yEim1/ygi6EeG48PKev5O4B4AfKdJO3ZmS28G0xEl7S8FQQCGNpQkEb3me1tCxaoBeAG9tNPrJIRJKRABXmlqjlC1LWgKaAQAme8iFMmDJhoAF3tvIjEX2hK4BEhSUCAbckia1hQZO8AWFQzTveHfaDw6iAazkTQqmHa00RpAAVKlzCBzB0RqYwxEAD7Qwdc3jQAixPegG1czPaGMC1pgAgC1WpNpUJEliISiABABM5kixtCmabaAL03nPdvOIslAU0NmqGxOpsg982Hhp5kTpqQE5vtnh1qNQQoWzF2zAkZMgUgkXsw1It8JG5R5Z0hBzlS7OBwnBWTDB0TOLFiotmBudPHblOTxGMxCm+QL4b/eeyYDCAU1TbTfz6XnJ9rOxJIz01rOSbmxRr+JB158r8pyhlW5pmueGW1NfwcZw7iVR2sxW3hobxvH4lkU2te4vfp4SPDezlR6qoFsxIGoAyhTqTYaW5/uY9224GaLIFcvmFzdQuthtblr8pMvuXIipKDbRyr46ox2X02+N5f8AZp3DgMlrkEG++u3jKUYK9swYW6Zb+t7Xlrw5HR0yklQytZrX0PhOr/BnSk+wuKUrxVcm/tKe3VkW4+fznvtQm1p48mFVeK06jWIarh1C35vTprmPgNfM2ns5k3wcpRa5YkapUazFxRI0EYrgSNMASCoFKjHcTHJvGrCbFoAk2Iy7zRrtyEPWUEwiAQAC1GtqJEOw5RuwmzaAIPirG1pnt3PKHZBfaFBEAXdmM0HYco2AJNgIBV1MYVNrGa/Fv+kxuogvtJ2HSACeoQNZFHblC4je0OigCAJO7yYqNbURoiRqkWk0BJKpvoJNnfpC4ZRvDkiQBRaj8xB1KpB2j4tAVACYYBLWbkJtaj9I0q2E3AEy5J2hkaTq2AkKOsAKsDWqHaMWmsogC6HrKztLQL0simxYEA9L2v8AKWVT3pPEUcy6bjUX+kpOO6LR3wT2ZFLwUFBAgCL7qAKNb6BRbWWL4wADrtEMehRxmAGcX0N9Rp03ldXxq0lLvdh3QBv7xsLADxmL3KVHpXGS3djfEuKUkZfaMqM47pItmF+bWt036icr2oxuHdgKmoJ0u2Ui2ndtvLmvxDD4hbO6kXKjN3RfYgZhe46jnz0nmHaTBIj2pVzURTlBYjMDz2Oqm+h9PPtDFbtsrOcoxbUeDoMFwNHTOlVWszLY7907Ejnax9YPC4JhVyMBcHlr6g85z/A8e9N8pIyMO9blYEhvAj7mX2GxjLVXMc1yCD4XnZqSdPlHDfGUbXDLThI9txdRbMiPmY7qrUh3B4HuKbeM9bvOJ7G8CdKtSvUULnLGmLgk5zcsQPAAC+upnbBZdGObtgKrSHtCOUaCCadRaScxMYsHQSaViTtNU6IBvGltAF3Y9JgfwjFpjKLQSKnFDabSvflNLRGa8ZVAIIF2bXaSz+EMo8JNgOkUBNsUBpzkkxF+U0+HBa8MiCACc6zeY9IYLCWEEiKVMxvGFBmsKllEKTBBqL4mpaMiJYtu8BJBKm5tMeqekYRLCSsJAF0qnmIMVrmM17ZYvhkG8AL7UyHtj0jNhMUCAL1HuJGlV6Q9YC0HQQQDDVMxax6Q1hMAEAXd7G82mIvtJ1lBEjRpgQCn7SqWVWF7gkfESowRJIDC9iG18NV9QfpOo42n9MADdvp/3OZq1sgvzXQjnblbqJmzRbfHZv08qjz0F4hjMqlugNj6G99D8ZxnE+Ns5YahdVyE3VzzzW0I8J2FXilML3rEMDoSBpbX6zlOKrh3N1XfS4O1z4c7nnIx7unZqlmpcNUcsMIlyyqBrcAcobhODdqiLrmZgq8z3iLkzSV1VsoIINjmuNBpb6iX3ZrF+zqe0RFdlB0YHY6G1jpvv8prjGT4POnKKVnrFKygAbAAD0hRWHWA4filrUlqKpXNe6nUqwNiL/zS0ylh9TIfHBnDHFASXtgRM9gvSSWmIAFXEmKohmoLK+vhSWFiYJGWrqOc2tYEQaYUc4b8MOUAEjQoaTXDiRdbSLIJKZsmQUyeW8mwLZ9YRWk1oCSNOCTSyUheazQQLjFr1E0ccnUQVThqmRThKg3gDaYkQTsua8DWTKfCSfCZ4Az+IHWR/FrK9+Dn9R+MLh+HBAecAbquGG8jQcAbwKU7DWBqYBm1ViPWAWJrDrI/iV6yofhVQ/naM0sEUXW5PnIsD1SoLbzEcdYmaOkVq4Gp+VjJBcCoOsz2q9Zz5wFf9Z+Eco4YoveJJgFpUaaVpU1lqllyKW15fUnlL3C4ewBaxPyH7wkRZPF0M6Zee48xOR4jhCQbDvC4IPMc1I5zsM2U+B2/aL4/BhxdffA08fAyMuNv3Ls04Mqj7ZdM8a4xRKnui1iTYi9vK/LfSc/iKzlcvukAqSL2ttpr0Hz+Po3aDB5lJA7w/ljOEx6aSuPLaO2TTpc2UgQJzvOi7E52Z3I7lguY/qvchRz0lXw/hD4h8i3CjV3tcIv7nkP2M9H4Vw1UCoi5UUWA+/ieZM9DBj3e59I8zU5Nq2rs6js/ojAbd23nrLVDOYXjHsWIChkNr296+1weflGxx6n+VwfC9j6g7TnnxST3VwyuLLBrbfJ0AMleUI4x0BMxOKOxsFMzGgvw0WL6xZa7KLmAwuPV3K8xBFlqrSYMCphFMEhA0FXaTvFK2IubQA6GTDStbiCro2k1/q6D8wggtc03mlKeNJeym58IzTxh3ItBI0W1m7xU4gamQ/Hr1kEFjebvAe2XrNrVB2kgWxxuQI3RFhFHF2veGRvGAMsZkCHHWERxAF8XyEPSGkDWF2k1aAGYzVpC8y8EkMRa0lSGkkaeb05Qgo33loxvllW/BG4mZBzA9dZPJaSW3MS+2KI5MQDl8tIRZAoOnwM0LeIgG6iX0O3XoYsKhU5T/gjqI2PP+feAr0rixB8GGtj4Df0kp+Q0cN2xrBauUaZ0DjxN2VvXQfGcZi8MxUm1+dxPRuO8LStZal7oSUdDZhe1xroRoNPCL4Ts+hUqr5u7rnsLX8diPhOGTDKL3RXBvw6mEoKMnTR5BSqVVqr7HNnzrlUE9572AI53uRryJnruJdUGVd+ZH0i2G4JQwzFkGaobg1G1IB/KnJRbS41PM8oGsZ6OmhJrk8rW5Y7vaLYh+Z2Eq8uuh1lnVpkxYUA3n9J60KSo8LMpOVjGB41Up6MFdejDX0ca/G86vhXGsPVIHuOfyvYX/wBrbH6zimosOVxG8PwKu4BSm1jtmsBbzJnDPpsElbpPydsGq1EXSTa8HoL4UHeKpwdVfON5QYF8bhtHptUpjkCHKj+0gkjyOk6jh/EErJmQ+anRlPQiePmwPHymmvKPZw51k4aafhkahywitE+K1spWw3IjVLUAzgdw+W8AcPrGA9t5tWgCz4BW3EVfhKdBLctE69TW0AUpcNRTcCErYcnaN0xC3ggrsPhSLgwn+nLHFElBJzdHh1TNdnNukMdGygyza9pzuOLq91BNyISsq3RY1ab/AJTFajVxtb5yx4extcxpjIolFDSWuzd6wHhLFSV0veOsdJR4zElGJN+kJWQ3RZVGYC41MVfHOPyRjh9XPrHGUdIZK5KZuIuTYIY4ruBc/CNhF6SNBCz67Lr68h9/SIq2HwP0tLX9Zuo+tvD+faQc7yJPfXxU/wA+U0KJWwgbbxkz4wN9F8zDiQ0SjAJKRAm7yCTCk0RMJkWaABxOGVxlPoRuD1EpKuFNJrvqh0DDYdfI850KwT0w1wQCDe99rX/xLqVcPo5yjfK7Fm4dSKgFcwtfNfU353HX4Tn+KcIK3dLlOm5X15idKEAGVRYWAHQAXJ+smANuo28J0x5JQdlJ41NUzz0aGEXAPUYZBdjy22850ON4EM912IPdJ2Pgek1w7h1RHDW015ja3hN39Qttx7MP9O72tcFVgeE1nXMEsL2uxC7aHQ6mdrRp2VVB0AA+AtAK9/Aj+W8oRKvXQjeYsuSWTs2YcUca4Nu9726kfDQyuxWGRG9sLo6kXKm2cEgFXGzD5w/DmzKCeec+pYmJ9oavuoOfeP0A+sqk09pd0+RzE0QzA+s53iHbBEYrQQ1iu7A2T0IBLfTzge0FZ/whysxLsKbDoo1PncZR/wAjNcHWlTobByRY3HPTUDe17j0mKdptHuaHS4niWbKrt0l/tlZjO1vthlbNQvpmW1Rf+SkBreTXnY9nsQ7UR7R1dlJs6m6uhN0cemmvMHzPmPFbCs2gUXvZfS5HxjvZfjbUwyXNs6AD/wDQsCAOVmF+W56zlC1I3fVNFhjhUsXFVx32erBx1i1Sn3ryvVzYMHBBF9De4OoPlDrVZjadrs+cfA6rSayrrYh1O14D/ViN1PzkkF9Mzznn4yeSn4GEWrUOtt4Fl3aRNJTymK46zGqCxk0RaA0x3tIzlEUoNa8MHkUTYRlEDUwqtuIUNNiALimF0EMqxeo5zw4aASZBJIoA056yAMk5l8atkSZpjBu+3h9wRMY6fzzgGbW3X9x+w+M0JHJscI2G2tz8BDh77DTrFF75vyuT6XsPoIx7XkspJFkwuaVGP7QU6Zy2ZtbHLawPTUiO4pzkNjYmwB6EmwnmlQup/q90ryPL7H03mbNOUK2o9T6dpMeob3vr48npWDxqVUzobj5g9D4/zpCM053snSdVLOCuc91ToQqqoBI5EkfC06G2s7Y23FNmLUxjDK4wdpOiV7CZVbZRz1PqTYE8oKq93VB5k9ANZu4zAm/Ln4S9HGzb9PH7D/M3ffwtNk7yNP3b9YBCrXCsAQfdzXFrWuB13uZI1Br5kag2031+Pwkaykn/ANRbxME2533JtrpuM2mnM6+c8ef1dQm4yg6Tatc3Rb05d2glRQ2otfqDcGQD38x8xzEVrISLK7KRc6WtcplX3baDe20YINgx3BUHlcmwP3m/Sa7FqbWN8r4apo5yjJdolwlLF1/Sx+B1/eVNfFH2xYAG/dF+lwBb4fOWHtcgrP8A2pbzbN+4lKnvpf8AUt/iJt2qTd9EKTjTXaEe0Fb2lElN1JzA/MEeYHznn78UZCbNyNhc2sfy6beU7TtDgnDrUQ7ZSy6gHmt7bi5sR002M4rj+BVHs4KEqGBKkowO5GW7LrfQg26zzZ43GVN/r8o+l0n1BLDSS/4yrrcVZmvc32v58vKdf2J7Ol1bEYgf0tMqttUKnUsDugPxIPIG/EtSpKLl8/QIri4/3MotPReyfHPxdEYV8tJaSBSQ3eemO6AoI962W58QedpD4XBynqHke1uywGOfFVSKIK0Uaz1TcAkflT9R+QG/IG1o48PWKoQcts1uV76fKUteo9Zvw2FtRoUjldwQCFtcoi7ltG353J5wf+r0KVQU8Kig3UFiSSW21J1bzlMc9rSfRkz4tytdnoFMAjUTTUEPKGFOwtIsLTUYAP4ZP0wuUdJq8yVJOcoPVK5tQJKlVqt1j+PqBVsukhgsQtraTrulRx9ONint3G5mjjXHOW74VGGsRxfDkVSb/OQsjDxLyJ0eMMxsNSIduJuNxJcGwKKC29+cJUdS/raTvfgj0/yB/wBRa+0mOJHmIzUwocd20Tq8OqDa0b/wT6b8j/DcbnfLbYE/D+CWPSVnBcM6Z2cDYAfMn6CWY2nSPKsU1w2QI3EUrLt4GN1Ov8/n7ROu3z+vQzrEhkqZPug8h9THFIA02HPxlZTbvC3S3w1jt9QvQXPmZMkQmbxR7n/JP/tImuQC4cORcLmIFvc0LBfFjfnpHGGYEdfsbg/KI1uG3OjW1vqAdNNtRZvl5bSm1fJzyeovdDuvITB2D3BuCF071wchuDfxBlirc+kVoUVQaDXXXc6+PXQX/wACEqvZCYqy2JOKp/shhDcu/UhB6kX+0YAEXRctNF/U6/UQyJfyAH0k/Jc2u58pttEHjInQ+n3g6tTvBf7b/ORVkpjTDnzuCPQWH88YkwYWIYNnsuosNCWNra9d+XlCHEG+q6eRP/zeLVcSutxr4WzaXPLvX0PwmKWji/ju7/uS5AwDfKR3r3uNrElifUaW/wC4TH1Mqep+QNvmRA4eupdbHrfUk7He+vK2vSD4o9yB6n+fCTpNH6ORy8pESncaM4lXIREH5shPjZR+0RcWYeFoTEPmdB+lf2tAsdSfGepGJxkxziVMXzcjofKVHEuEjE08rgZkJKH7H+06eoE6GpSJQAjdR8bSvpPY29D6TDrIXBSXaN2intm4/DPKeKYEo2VhYA6gjUHpFUo2N+g+Q0+Os9E7WcOVxnUXcaEDmo5+YnJ4LCZiRbYaep/xMEXuRvmqdgsEjUwVDEI+/eIW3RrfUy87M8IH4mkqg5c+cgi4AU5zY9Db5wtLDBF16ToexOGRA9WwGbuIL6AA3YgbC5sPQyYwuRynkUYts7SBrjSRGJHWRr1ARNe1mHfHyJYmrbKBH0XSVNLC9/MTfprLX2gkbWNyKfi1O40lV2eBObMb94/C8yZJj0RLs6pEFpXcXpggDqRMmRHsT+0OlAKlhObx1ZlqKo5mZMlolZJcHR4FDaMFTMmSr7Lx6Ci4TXncwiDSZMneP2oq+wTGK1BfTy+en1tNTJ0iUkL4Kp/WcbhEDH/cSQB6j6RyifebmTMmSzKhkcDTnIO8yZI+SfggXmsUdFXrabmSfkgniW/qU0HK5PopP1tGVAtyt5mZMnN9Iv8AINiLi3iItiWs6HqGX7j6TcyWj2Q+jKb6xPE1wSVOo211BmTJZdlX0K4OgocWB0NwLm3MaLsN+UNizmfw+w/6mTJZ9lUK3u5PoPIfwzdNdRbeZMl10VfZZpTY2A16xTGYY2OliVYg+KAt9ARMmThk5Ti/B2x8TTXk5mri3zhHDLcgem2+5l43ZxLZ6ejNY5Ttty6eUyZPDXtfB7UujnsfhHeotJR32bKBy8ST0G87XCcFWmiorGyi1zzPM+pvMmTTg6cjHqO1EmeHf3GAxOHZBo3zmTJptmV44ijLUAuNpvM/UTJkb2U2I//Z</t>
         </is>
       </c>
     </row>
